--- a/BackTest/2019-10-31 BackTest XVG.xlsx
+++ b/BackTest/2019-10-31 BackTest XVG.xlsx
@@ -4686,102 +4686,90 @@
         <v>4.456666666666671</v>
       </c>
       <c r="H123" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I123" t="n">
         <v>0</v>
       </c>
-      <c r="J123" t="n">
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="inlineStr"/>
+      <c r="M123" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="n">
+        <v>4.49</v>
+      </c>
+      <c r="C124" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="D124" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="E124" t="n">
+        <v>4.49</v>
+      </c>
+      <c r="F124" t="n">
+        <v>15112</v>
+      </c>
+      <c r="G124" t="n">
+        <v>4.483333333333339</v>
+      </c>
+      <c r="H124" t="n">
+        <v>0</v>
+      </c>
+      <c r="I124" t="n">
+        <v>0</v>
+      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="inlineStr"/>
+      <c r="M124" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="n">
+        <v>4.51</v>
+      </c>
+      <c r="C125" t="n">
+        <v>4.56</v>
+      </c>
+      <c r="D125" t="n">
+        <v>4.56</v>
+      </c>
+      <c r="E125" t="n">
         <v>4.47</v>
       </c>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr">
+      <c r="F125" t="n">
+        <v>492187.777</v>
+      </c>
+      <c r="G125" t="n">
+        <v>4.513333333333339</v>
+      </c>
+      <c r="H125" t="n">
+        <v>1</v>
+      </c>
+      <c r="I125" t="n">
+        <v>0</v>
+      </c>
+      <c r="J125" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" s="1" t="n">
-        <v>122</v>
-      </c>
-      <c r="B124" t="n">
-        <v>4.49</v>
-      </c>
-      <c r="C124" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="D124" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="E124" t="n">
-        <v>4.49</v>
-      </c>
-      <c r="F124" t="n">
-        <v>15112</v>
-      </c>
-      <c r="G124" t="n">
-        <v>4.483333333333339</v>
-      </c>
-      <c r="H124" t="n">
-        <v>1</v>
-      </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
-      <c r="J124" t="n">
-        <v>4.49</v>
-      </c>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" s="1" t="n">
-        <v>123</v>
-      </c>
-      <c r="B125" t="n">
-        <v>4.51</v>
-      </c>
-      <c r="C125" t="n">
-        <v>4.56</v>
-      </c>
-      <c r="D125" t="n">
-        <v>4.56</v>
-      </c>
-      <c r="E125" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="F125" t="n">
-        <v>492187.777</v>
-      </c>
-      <c r="G125" t="n">
-        <v>4.513333333333339</v>
-      </c>
-      <c r="H125" t="n">
-        <v>1</v>
-      </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
-      <c r="J125" t="n">
-        <v>4.51</v>
-      </c>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="M125" t="n">
         <v>1</v>
       </c>
@@ -4809,14 +4797,12 @@
         <v>4.493333333333339</v>
       </c>
       <c r="H126" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I126" t="n">
         <v>0</v>
       </c>
-      <c r="J126" t="n">
-        <v>4.5</v>
-      </c>
+      <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
       <c r="L126" t="inlineStr">
         <is>
@@ -4889,14 +4875,12 @@
         <v>4.446666666666672</v>
       </c>
       <c r="H128" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I128" t="n">
         <v>0</v>
       </c>
-      <c r="J128" t="n">
-        <v>4.44</v>
-      </c>
+      <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
       <c r="L128" t="inlineStr">
         <is>
@@ -4930,14 +4914,12 @@
         <v>4.463333333333337</v>
       </c>
       <c r="H129" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I129" t="n">
         <v>0</v>
       </c>
-      <c r="J129" t="n">
-        <v>4.47</v>
-      </c>
+      <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
       <c r="L129" t="inlineStr">
         <is>
@@ -4971,14 +4953,12 @@
         <v>4.456666666666671</v>
       </c>
       <c r="H130" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I130" t="n">
         <v>0</v>
       </c>
-      <c r="J130" t="n">
-        <v>4.41</v>
-      </c>
+      <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
       <c r="L130" t="inlineStr">
         <is>
@@ -5012,14 +4992,12 @@
         <v>4.470000000000005</v>
       </c>
       <c r="H131" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I131" t="n">
         <v>0</v>
       </c>
-      <c r="J131" t="n">
-        <v>4.41</v>
-      </c>
+      <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
       <c r="L131" t="inlineStr">
         <is>
@@ -5053,14 +5031,12 @@
         <v>4.453333333333338</v>
       </c>
       <c r="H132" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I132" t="n">
         <v>0</v>
       </c>
-      <c r="J132" t="n">
-        <v>4.42</v>
-      </c>
+      <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
       <c r="L132" t="inlineStr">
         <is>
@@ -5094,14 +5070,12 @@
         <v>4.453333333333338</v>
       </c>
       <c r="H133" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I133" t="n">
         <v>0</v>
       </c>
-      <c r="J133" t="n">
-        <v>4.47</v>
-      </c>
+      <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
       <c r="L133" t="inlineStr">
         <is>
@@ -5135,14 +5109,12 @@
         <v>4.453333333333338</v>
       </c>
       <c r="H134" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I134" t="n">
         <v>0</v>
       </c>
-      <c r="J134" t="n">
-        <v>4.47</v>
-      </c>
+      <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
       <c r="L134" t="inlineStr">
         <is>
@@ -5176,14 +5148,12 @@
         <v>4.470000000000004</v>
       </c>
       <c r="H135" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I135" t="n">
         <v>0</v>
       </c>
-      <c r="J135" t="n">
-        <v>4.47</v>
-      </c>
+      <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
       <c r="L135" t="inlineStr">
         <is>
@@ -5217,14 +5187,12 @@
         <v>4.470000000000005</v>
       </c>
       <c r="H136" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I136" t="n">
         <v>0</v>
       </c>
-      <c r="J136" t="n">
-        <v>4.42</v>
-      </c>
+      <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
       <c r="L136" t="inlineStr">
         <is>
@@ -5258,14 +5226,12 @@
         <v>4.470000000000005</v>
       </c>
       <c r="H137" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I137" t="n">
         <v>0</v>
       </c>
-      <c r="J137" t="n">
-        <v>4.45</v>
-      </c>
+      <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
       <c r="L137" t="inlineStr">
         <is>
@@ -5299,14 +5265,12 @@
         <v>4.506666666666672</v>
       </c>
       <c r="H138" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I138" t="n">
         <v>0</v>
       </c>
-      <c r="J138" t="n">
-        <v>4.47</v>
-      </c>
+      <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
       <c r="L138" t="inlineStr">
         <is>
@@ -5340,14 +5304,12 @@
         <v>4.50333333333334</v>
       </c>
       <c r="H139" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I139" t="n">
         <v>0</v>
       </c>
-      <c r="J139" t="n">
-        <v>4.46</v>
-      </c>
+      <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
       <c r="L139" t="inlineStr">
         <is>
@@ -5381,14 +5343,12 @@
         <v>4.533333333333339</v>
       </c>
       <c r="H140" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I140" t="n">
         <v>0</v>
       </c>
-      <c r="J140" t="n">
-        <v>4.56</v>
-      </c>
+      <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
       <c r="L140" t="inlineStr">
         <is>
@@ -5422,14 +5382,12 @@
         <v>4.516666666666674</v>
       </c>
       <c r="H141" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I141" t="n">
         <v>0</v>
       </c>
-      <c r="J141" t="n">
-        <v>4.44</v>
-      </c>
+      <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
       <c r="L141" t="inlineStr">
         <is>
@@ -5463,14 +5421,12 @@
         <v>4.54333333333334</v>
       </c>
       <c r="H142" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I142" t="n">
         <v>0</v>
       </c>
-      <c r="J142" t="n">
-        <v>4.44</v>
-      </c>
+      <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
       <c r="L142" t="inlineStr">
         <is>
@@ -5504,14 +5460,12 @@
         <v>4.530000000000007</v>
       </c>
       <c r="H143" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I143" t="n">
         <v>0</v>
       </c>
-      <c r="J143" t="n">
-        <v>4.44</v>
-      </c>
+      <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
       <c r="L143" t="inlineStr">
         <is>
@@ -5545,14 +5499,12 @@
         <v>4.530000000000007</v>
       </c>
       <c r="H144" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I144" t="n">
         <v>0</v>
       </c>
-      <c r="J144" t="n">
-        <v>4.43</v>
-      </c>
+      <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
       <c r="L144" t="inlineStr">
         <is>
@@ -5586,14 +5538,12 @@
         <v>4.520000000000008</v>
       </c>
       <c r="H145" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I145" t="n">
         <v>0</v>
       </c>
-      <c r="J145" t="n">
-        <v>4.43</v>
-      </c>
+      <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
       <c r="L145" t="inlineStr">
         <is>
@@ -5627,14 +5577,12 @@
         <v>4.513333333333342</v>
       </c>
       <c r="H146" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I146" t="n">
         <v>0</v>
       </c>
-      <c r="J146" t="n">
-        <v>4.43</v>
-      </c>
+      <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
       <c r="L146" t="inlineStr">
         <is>
@@ -5668,14 +5616,12 @@
         <v>4.503333333333341</v>
       </c>
       <c r="H147" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I147" t="n">
         <v>0</v>
       </c>
-      <c r="J147" t="n">
-        <v>4.5</v>
-      </c>
+      <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
       <c r="L147" t="inlineStr">
         <is>
@@ -5709,14 +5655,12 @@
         <v>4.510000000000008</v>
       </c>
       <c r="H148" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I148" t="n">
         <v>0</v>
       </c>
-      <c r="J148" t="n">
-        <v>4.53</v>
-      </c>
+      <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
       <c r="L148" t="inlineStr">
         <is>
@@ -5750,14 +5694,12 @@
         <v>4.510000000000008</v>
       </c>
       <c r="H149" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I149" t="n">
         <v>0</v>
       </c>
-      <c r="J149" t="n">
-        <v>4.5</v>
-      </c>
+      <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
       <c r="L149" t="inlineStr">
         <is>
@@ -5791,14 +5733,12 @@
         <v>4.51333333333334</v>
       </c>
       <c r="H150" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I150" t="n">
         <v>0</v>
       </c>
-      <c r="J150" t="n">
-        <v>4.51</v>
-      </c>
+      <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
       <c r="L150" t="inlineStr">
         <is>
@@ -5832,14 +5772,12 @@
         <v>4.51333333333334</v>
       </c>
       <c r="H151" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I151" t="n">
         <v>0</v>
       </c>
-      <c r="J151" t="n">
-        <v>4.53</v>
-      </c>
+      <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
       <c r="L151" t="inlineStr">
         <is>
@@ -5873,14 +5811,12 @@
         <v>4.533333333333339</v>
       </c>
       <c r="H152" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I152" t="n">
         <v>0</v>
       </c>
-      <c r="J152" t="n">
-        <v>4.56</v>
-      </c>
+      <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
       <c r="L152" t="inlineStr">
         <is>
@@ -5914,14 +5850,12 @@
         <v>4.543333333333339</v>
       </c>
       <c r="H153" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I153" t="n">
         <v>0</v>
       </c>
-      <c r="J153" t="n">
-        <v>4.54</v>
-      </c>
+      <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
       <c r="L153" t="inlineStr">
         <is>
@@ -6033,14 +5967,12 @@
         <v>4.506666666666672</v>
       </c>
       <c r="H156" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I156" t="n">
         <v>0</v>
       </c>
-      <c r="J156" t="n">
-        <v>4.51</v>
-      </c>
+      <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr"/>
       <c r="L156" t="inlineStr">
         <is>
@@ -6074,14 +6006,12 @@
         <v>4.510000000000005</v>
       </c>
       <c r="H157" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I157" t="n">
         <v>0</v>
       </c>
-      <c r="J157" t="n">
-        <v>4.55</v>
-      </c>
+      <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr"/>
       <c r="L157" t="inlineStr">
         <is>
@@ -6115,14 +6045,12 @@
         <v>4.516666666666672</v>
       </c>
       <c r="H158" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I158" t="n">
         <v>0</v>
       </c>
-      <c r="J158" t="n">
-        <v>4.53</v>
-      </c>
+      <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr"/>
       <c r="L158" t="inlineStr">
         <is>
@@ -6156,14 +6084,12 @@
         <v>4.51333333333334</v>
       </c>
       <c r="H159" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I159" t="n">
         <v>0</v>
       </c>
-      <c r="J159" t="n">
-        <v>4.51</v>
-      </c>
+      <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr"/>
       <c r="L159" t="inlineStr">
         <is>
@@ -6236,14 +6162,12 @@
         <v>4.520000000000006</v>
       </c>
       <c r="H161" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I161" t="n">
         <v>0</v>
       </c>
-      <c r="J161" t="n">
-        <v>4.53</v>
-      </c>
+      <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr"/>
       <c r="L161" t="inlineStr">
         <is>
@@ -6277,14 +6201,12 @@
         <v>4.520000000000006</v>
       </c>
       <c r="H162" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I162" t="n">
         <v>0</v>
       </c>
-      <c r="J162" t="n">
-        <v>4.51</v>
-      </c>
+      <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr"/>
       <c r="L162" t="inlineStr">
         <is>
@@ -6357,14 +6279,12 @@
         <v>4.490000000000005</v>
       </c>
       <c r="H164" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I164" t="n">
         <v>0</v>
       </c>
-      <c r="J164" t="n">
-        <v>4.48</v>
-      </c>
+      <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr"/>
       <c r="L164" t="inlineStr">
         <is>
@@ -6398,14 +6318,12 @@
         <v>4.500000000000004</v>
       </c>
       <c r="H165" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I165" t="n">
         <v>0</v>
       </c>
-      <c r="J165" t="n">
-        <v>4.53</v>
-      </c>
+      <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr"/>
       <c r="L165" t="inlineStr">
         <is>
@@ -6439,14 +6357,12 @@
         <v>4.533333333333339</v>
       </c>
       <c r="H166" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I166" t="n">
         <v>0</v>
       </c>
-      <c r="J166" t="n">
-        <v>4.53</v>
-      </c>
+      <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr"/>
       <c r="L166" t="inlineStr">
         <is>
@@ -6480,14 +6396,12 @@
         <v>4.560000000000006</v>
       </c>
       <c r="H167" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I167" t="n">
         <v>0</v>
       </c>
-      <c r="J167" t="n">
-        <v>4.55</v>
-      </c>
+      <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr"/>
       <c r="L167" t="inlineStr">
         <is>
@@ -6677,14 +6591,12 @@
         <v>4.493333333333339</v>
       </c>
       <c r="H172" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I172" t="n">
         <v>0</v>
       </c>
-      <c r="J172" t="n">
-        <v>4.51</v>
-      </c>
+      <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr"/>
       <c r="L172" t="inlineStr">
         <is>
@@ -6718,14 +6630,12 @@
         <v>4.500000000000006</v>
       </c>
       <c r="H173" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I173" t="n">
         <v>0</v>
       </c>
-      <c r="J173" t="n">
-        <v>4.5</v>
-      </c>
+      <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr"/>
       <c r="L173" t="inlineStr">
         <is>
@@ -6759,14 +6669,12 @@
         <v>4.500000000000006</v>
       </c>
       <c r="H174" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I174" t="n">
         <v>0</v>
       </c>
-      <c r="J174" t="n">
-        <v>4.5</v>
-      </c>
+      <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr"/>
       <c r="L174" t="inlineStr">
         <is>
@@ -6800,14 +6708,12 @@
         <v>4.500000000000006</v>
       </c>
       <c r="H175" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I175" t="n">
         <v>0</v>
       </c>
-      <c r="J175" t="n">
-        <v>4.5</v>
-      </c>
+      <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr"/>
       <c r="L175" t="inlineStr">
         <is>
@@ -6841,14 +6747,12 @@
         <v>4.510000000000006</v>
       </c>
       <c r="H176" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I176" t="n">
         <v>0</v>
       </c>
-      <c r="J176" t="n">
-        <v>4.53</v>
-      </c>
+      <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr"/>
       <c r="L176" t="inlineStr">
         <is>
@@ -6882,14 +6786,12 @@
         <v>4.500000000000006</v>
       </c>
       <c r="H177" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I177" t="n">
         <v>0</v>
       </c>
-      <c r="J177" t="n">
-        <v>4.5</v>
-      </c>
+      <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr"/>
       <c r="L177" t="inlineStr">
         <is>
@@ -6923,14 +6825,12 @@
         <v>4.513333333333339</v>
       </c>
       <c r="H178" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I178" t="n">
         <v>0</v>
       </c>
-      <c r="J178" t="n">
-        <v>4.54</v>
-      </c>
+      <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr"/>
       <c r="L178" t="inlineStr">
         <is>
@@ -6964,14 +6864,12 @@
         <v>4.516666666666672</v>
       </c>
       <c r="H179" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I179" t="n">
         <v>0</v>
       </c>
-      <c r="J179" t="n">
-        <v>4.54</v>
-      </c>
+      <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr"/>
       <c r="L179" t="inlineStr">
         <is>
@@ -7005,14 +6903,12 @@
         <v>4.543333333333339</v>
       </c>
       <c r="H180" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I180" t="n">
         <v>0</v>
       </c>
-      <c r="J180" t="n">
-        <v>4.55</v>
-      </c>
+      <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr"/>
       <c r="L180" t="inlineStr">
         <is>
@@ -7046,14 +6942,12 @@
         <v>4.553333333333339</v>
       </c>
       <c r="H181" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I181" t="n">
         <v>0</v>
       </c>
-      <c r="J181" t="n">
-        <v>4.58</v>
-      </c>
+      <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr"/>
       <c r="L181" t="inlineStr">
         <is>
@@ -7168,18 +7062,16 @@
         <v>0</v>
       </c>
       <c r="I184" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr"/>
       <c r="L184" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="M184" t="n">
-        <v>1</v>
-      </c>
+      <c r="M184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -7207,15 +7099,11 @@
         <v>0</v>
       </c>
       <c r="I185" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L185" t="inlineStr"/>
       <c r="M185" t="n">
         <v>1</v>
       </c>
@@ -7250,12 +7138,10 @@
       </c>
       <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M186" t="inlineStr"/>
+      <c r="L186" t="inlineStr"/>
+      <c r="M186" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">

--- a/BackTest/2019-10-31 BackTest XVG.xlsx
+++ b/BackTest/2019-10-31 BackTest XVG.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M187"/>
+  <dimension ref="A1:M188"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -433,22 +433,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>4.52</v>
+        <v>4.63</v>
       </c>
       <c r="C2" t="n">
-        <v>4.62</v>
+        <v>4.58</v>
       </c>
       <c r="D2" t="n">
-        <v>4.62</v>
+        <v>4.63</v>
       </c>
       <c r="E2" t="n">
-        <v>4.52</v>
+        <v>4.51</v>
       </c>
       <c r="F2" t="n">
-        <v>403955.1347</v>
+        <v>882826.4365</v>
       </c>
       <c r="G2" t="n">
-        <v>4.586666666666672</v>
+        <v>4.519666666666676</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
+        <v>4.52</v>
+      </c>
+      <c r="C3" t="n">
         <v>4.62</v>
       </c>
-      <c r="C3" t="n">
-        <v>4.58</v>
-      </c>
       <c r="D3" t="n">
-        <v>4.65</v>
+        <v>4.62</v>
       </c>
       <c r="E3" t="n">
         <v>4.52</v>
       </c>
       <c r="F3" t="n">
-        <v>1659555.2119</v>
+        <v>403955.1347</v>
       </c>
       <c r="G3" t="n">
-        <v>4.59333333333334</v>
+        <v>4.523333333333343</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -503,32 +503,38 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>4.56</v>
+        <v>4.62</v>
       </c>
       <c r="C4" t="n">
-        <v>4.59</v>
+        <v>4.58</v>
       </c>
       <c r="D4" t="n">
-        <v>4.59</v>
+        <v>4.65</v>
       </c>
       <c r="E4" t="n">
-        <v>4.56</v>
+        <v>4.52</v>
       </c>
       <c r="F4" t="n">
-        <v>263386.3369</v>
+        <v>1659555.2119</v>
       </c>
       <c r="G4" t="n">
-        <v>4.596666666666673</v>
+        <v>4.52750000000001</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>4.62</v>
+      </c>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M4" t="n">
         <v>1</v>
       </c>
@@ -538,22 +544,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
+        <v>4.56</v>
+      </c>
+      <c r="C5" t="n">
         <v>4.59</v>
       </c>
-      <c r="C5" t="n">
-        <v>4.65</v>
-      </c>
       <c r="D5" t="n">
-        <v>4.66</v>
+        <v>4.59</v>
       </c>
       <c r="E5" t="n">
-        <v>4.52</v>
+        <v>4.56</v>
       </c>
       <c r="F5" t="n">
-        <v>904468.9892</v>
+        <v>263386.3369</v>
       </c>
       <c r="G5" t="n">
-        <v>4.606666666666673</v>
+        <v>4.531833333333343</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -563,7 +569,11 @@
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M5" t="n">
         <v>1</v>
       </c>
@@ -573,22 +583,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>4.62</v>
+        <v>4.59</v>
       </c>
       <c r="C6" t="n">
-        <v>4.66</v>
+        <v>4.65</v>
       </c>
       <c r="D6" t="n">
         <v>4.66</v>
       </c>
       <c r="E6" t="n">
-        <v>4.62</v>
+        <v>4.52</v>
       </c>
       <c r="F6" t="n">
-        <v>431140.4056</v>
+        <v>904468.9892</v>
       </c>
       <c r="G6" t="n">
-        <v>4.633333333333339</v>
+        <v>4.537166666666677</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -598,7 +608,11 @@
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M6" t="n">
         <v>1</v>
       </c>
@@ -608,22 +622,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
+        <v>4.62</v>
+      </c>
+      <c r="C7" t="n">
         <v>4.66</v>
       </c>
-      <c r="C7" t="n">
-        <v>4.65</v>
-      </c>
       <c r="D7" t="n">
-        <v>4.69</v>
+        <v>4.66</v>
       </c>
       <c r="E7" t="n">
-        <v>4.57</v>
+        <v>4.62</v>
       </c>
       <c r="F7" t="n">
-        <v>1253534.6788</v>
+        <v>431140.4056</v>
       </c>
       <c r="G7" t="n">
-        <v>4.65333333333334</v>
+        <v>4.542666666666677</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -633,7 +647,11 @@
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M7" t="n">
         <v>1</v>
       </c>
@@ -643,7 +661,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>4.65</v>
+        <v>4.66</v>
       </c>
       <c r="C8" t="n">
         <v>4.65</v>
@@ -652,13 +670,13 @@
         <v>4.69</v>
       </c>
       <c r="E8" t="n">
-        <v>4.55</v>
+        <v>4.57</v>
       </c>
       <c r="F8" t="n">
-        <v>249288.1173</v>
+        <v>1253534.6788</v>
       </c>
       <c r="G8" t="n">
-        <v>4.65333333333334</v>
+        <v>4.548166666666677</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -668,7 +686,11 @@
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M8" t="n">
         <v>1</v>
       </c>
@@ -687,13 +709,13 @@
         <v>4.69</v>
       </c>
       <c r="E9" t="n">
-        <v>4.65</v>
+        <v>4.55</v>
       </c>
       <c r="F9" t="n">
-        <v>186131.8191</v>
+        <v>249288.1173</v>
       </c>
       <c r="G9" t="n">
-        <v>4.650000000000007</v>
+        <v>4.553666666666676</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -703,7 +725,11 @@
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M9" t="n">
         <v>1</v>
       </c>
@@ -713,22 +739,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>4.7</v>
+        <v>4.65</v>
       </c>
       <c r="C10" t="n">
-        <v>4.6</v>
+        <v>4.65</v>
       </c>
       <c r="D10" t="n">
-        <v>4.7</v>
+        <v>4.69</v>
       </c>
       <c r="E10" t="n">
-        <v>4.6</v>
+        <v>4.65</v>
       </c>
       <c r="F10" t="n">
-        <v>120163.4103</v>
+        <v>186131.8191</v>
       </c>
       <c r="G10" t="n">
-        <v>4.633333333333339</v>
+        <v>4.558166666666676</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -738,7 +764,11 @@
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M10" t="n">
         <v>1</v>
       </c>
@@ -748,22 +778,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="C11" t="n">
         <v>4.6</v>
       </c>
-      <c r="C11" t="n">
-        <v>4.69</v>
-      </c>
       <c r="D11" t="n">
-        <v>4.69</v>
+        <v>4.7</v>
       </c>
       <c r="E11" t="n">
         <v>4.6</v>
       </c>
       <c r="F11" t="n">
-        <v>79709.91590000001</v>
+        <v>120163.4103</v>
       </c>
       <c r="G11" t="n">
-        <v>4.646666666666673</v>
+        <v>4.562166666666676</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -773,7 +803,11 @@
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M11" t="n">
         <v>1</v>
       </c>
@@ -783,22 +817,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="C12" t="n">
         <v>4.69</v>
-      </c>
-      <c r="C12" t="n">
-        <v>4.64</v>
       </c>
       <c r="D12" t="n">
         <v>4.69</v>
       </c>
       <c r="E12" t="n">
-        <v>4.62</v>
+        <v>4.6</v>
       </c>
       <c r="F12" t="n">
-        <v>95218.35679999999</v>
+        <v>79709.91590000001</v>
       </c>
       <c r="G12" t="n">
-        <v>4.643333333333339</v>
+        <v>4.567666666666677</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -808,7 +842,11 @@
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M12" t="n">
         <v>1</v>
       </c>
@@ -818,22 +856,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>4.7</v>
+        <v>4.69</v>
       </c>
       <c r="C13" t="n">
+        <v>4.64</v>
+      </c>
+      <c r="D13" t="n">
         <v>4.69</v>
       </c>
-      <c r="D13" t="n">
-        <v>4.7</v>
-      </c>
       <c r="E13" t="n">
-        <v>4.61</v>
+        <v>4.62</v>
       </c>
       <c r="F13" t="n">
-        <v>52239.7338</v>
+        <v>95218.35679999999</v>
       </c>
       <c r="G13" t="n">
-        <v>4.673333333333338</v>
+        <v>4.571833333333343</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -843,7 +881,11 @@
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M13" t="n">
         <v>1</v>
       </c>
@@ -853,22 +895,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="C14" t="n">
         <v>4.69</v>
       </c>
-      <c r="C14" t="n">
-        <v>4.76</v>
-      </c>
       <c r="D14" t="n">
-        <v>4.76</v>
+        <v>4.7</v>
       </c>
       <c r="E14" t="n">
-        <v>4.62</v>
+        <v>4.61</v>
       </c>
       <c r="F14" t="n">
-        <v>184469.6359</v>
+        <v>52239.7338</v>
       </c>
       <c r="G14" t="n">
-        <v>4.696666666666672</v>
+        <v>4.576666666666677</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -878,7 +920,11 @@
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M14" t="n">
         <v>1</v>
       </c>
@@ -888,22 +934,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>4.63</v>
+        <v>4.69</v>
       </c>
       <c r="C15" t="n">
-        <v>4.72</v>
+        <v>4.76</v>
       </c>
       <c r="D15" t="n">
-        <v>4.72</v>
+        <v>4.76</v>
       </c>
       <c r="E15" t="n">
-        <v>4.63</v>
+        <v>4.62</v>
       </c>
       <c r="F15" t="n">
-        <v>151827.645</v>
+        <v>184469.6359</v>
       </c>
       <c r="G15" t="n">
-        <v>4.723333333333337</v>
+        <v>4.582500000000009</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -913,7 +959,11 @@
       </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M15" t="n">
         <v>1</v>
       </c>
@@ -923,22 +973,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>4.67</v>
+        <v>4.63</v>
       </c>
       <c r="C16" t="n">
-        <v>4.58</v>
+        <v>4.72</v>
       </c>
       <c r="D16" t="n">
-        <v>4.67</v>
+        <v>4.72</v>
       </c>
       <c r="E16" t="n">
-        <v>4.57</v>
+        <v>4.63</v>
       </c>
       <c r="F16" t="n">
-        <v>856436.6633</v>
+        <v>151827.645</v>
       </c>
       <c r="G16" t="n">
-        <v>4.686666666666671</v>
+        <v>4.587666666666676</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -948,7 +998,11 @@
       </c>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M16" t="n">
         <v>1</v>
       </c>
@@ -958,22 +1012,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>4.6</v>
+        <v>4.67</v>
       </c>
       <c r="C17" t="n">
-        <v>4.59</v>
+        <v>4.58</v>
       </c>
       <c r="D17" t="n">
-        <v>4.6</v>
+        <v>4.67</v>
       </c>
       <c r="E17" t="n">
-        <v>4.59</v>
+        <v>4.57</v>
       </c>
       <c r="F17" t="n">
-        <v>250000</v>
+        <v>856436.6633</v>
       </c>
       <c r="G17" t="n">
-        <v>4.630000000000004</v>
+        <v>4.590500000000008</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -983,7 +1037,11 @@
       </c>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M17" t="n">
         <v>1</v>
       </c>
@@ -996,19 +1054,19 @@
         <v>4.6</v>
       </c>
       <c r="C18" t="n">
-        <v>4.61</v>
+        <v>4.59</v>
       </c>
       <c r="D18" t="n">
-        <v>4.66</v>
+        <v>4.6</v>
       </c>
       <c r="E18" t="n">
-        <v>4.6</v>
+        <v>4.59</v>
       </c>
       <c r="F18" t="n">
-        <v>328044.2178</v>
+        <v>250000</v>
       </c>
       <c r="G18" t="n">
-        <v>4.593333333333338</v>
+        <v>4.594833333333342</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1018,7 +1076,11 @@
       </c>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M18" t="n">
         <v>1</v>
       </c>
@@ -1028,22 +1090,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>4.64</v>
+        <v>4.6</v>
       </c>
       <c r="C19" t="n">
-        <v>4.63</v>
+        <v>4.61</v>
       </c>
       <c r="D19" t="n">
-        <v>4.64</v>
+        <v>4.66</v>
       </c>
       <c r="E19" t="n">
-        <v>4.63</v>
+        <v>4.6</v>
       </c>
       <c r="F19" t="n">
-        <v>175653.084</v>
+        <v>328044.2178</v>
       </c>
       <c r="G19" t="n">
-        <v>4.610000000000005</v>
+        <v>4.597500000000009</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1053,7 +1115,11 @@
       </c>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M19" t="n">
         <v>1</v>
       </c>
@@ -1063,22 +1129,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>4.7</v>
+        <v>4.64</v>
       </c>
       <c r="C20" t="n">
         <v>4.63</v>
       </c>
       <c r="D20" t="n">
-        <v>4.7</v>
+        <v>4.64</v>
       </c>
       <c r="E20" t="n">
         <v>4.63</v>
       </c>
       <c r="F20" t="n">
-        <v>347634.5673</v>
+        <v>175653.084</v>
       </c>
       <c r="G20" t="n">
-        <v>4.623333333333338</v>
+        <v>4.599833333333342</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1088,7 +1154,11 @@
       </c>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M20" t="n">
         <v>1</v>
       </c>
@@ -1098,22 +1168,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>4.71</v>
+        <v>4.7</v>
       </c>
       <c r="C21" t="n">
-        <v>4.64</v>
+        <v>4.63</v>
       </c>
       <c r="D21" t="n">
-        <v>4.71</v>
+        <v>4.7</v>
       </c>
       <c r="E21" t="n">
-        <v>4.64</v>
+        <v>4.63</v>
       </c>
       <c r="F21" t="n">
-        <v>341131.9189</v>
+        <v>347634.5673</v>
       </c>
       <c r="G21" t="n">
-        <v>4.633333333333339</v>
+        <v>4.602166666666675</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1123,7 +1193,11 @@
       </c>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M21" t="n">
         <v>1</v>
       </c>
@@ -1133,22 +1207,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>4.7</v>
+        <v>4.71</v>
       </c>
       <c r="C22" t="n">
         <v>4.64</v>
       </c>
       <c r="D22" t="n">
-        <v>4.7</v>
+        <v>4.71</v>
       </c>
       <c r="E22" t="n">
-        <v>4.63</v>
+        <v>4.64</v>
       </c>
       <c r="F22" t="n">
-        <v>277635.7978</v>
+        <v>341131.9189</v>
       </c>
       <c r="G22" t="n">
-        <v>4.636666666666673</v>
+        <v>4.605500000000008</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1158,7 +1232,11 @@
       </c>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M22" t="n">
         <v>1</v>
       </c>
@@ -1168,22 +1246,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="C23" t="n">
+        <v>4.64</v>
+      </c>
+      <c r="D23" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="E23" t="n">
         <v>4.63</v>
       </c>
-      <c r="C23" t="n">
-        <v>4.62</v>
-      </c>
-      <c r="D23" t="n">
-        <v>4.63</v>
-      </c>
-      <c r="E23" t="n">
-        <v>4.62</v>
-      </c>
       <c r="F23" t="n">
-        <v>160000</v>
+        <v>277635.7978</v>
       </c>
       <c r="G23" t="n">
-        <v>4.63333333333334</v>
+        <v>4.606833333333341</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1193,7 +1271,11 @@
       </c>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M23" t="n">
         <v>1</v>
       </c>
@@ -1203,22 +1285,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
+        <v>4.63</v>
+      </c>
+      <c r="C24" t="n">
         <v>4.62</v>
       </c>
-      <c r="C24" t="n">
-        <v>4.6</v>
-      </c>
       <c r="D24" t="n">
+        <v>4.63</v>
+      </c>
+      <c r="E24" t="n">
         <v>4.62</v>
       </c>
-      <c r="E24" t="n">
-        <v>4.6</v>
-      </c>
       <c r="F24" t="n">
-        <v>1424634.6726</v>
+        <v>160000</v>
       </c>
       <c r="G24" t="n">
-        <v>4.620000000000007</v>
+        <v>4.607333333333342</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1228,7 +1310,11 @@
       </c>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M24" t="n">
         <v>1</v>
       </c>
@@ -1238,22 +1324,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>4.6</v>
+        <v>4.62</v>
       </c>
       <c r="C25" t="n">
         <v>4.6</v>
       </c>
       <c r="D25" t="n">
-        <v>4.6</v>
+        <v>4.62</v>
       </c>
       <c r="E25" t="n">
         <v>4.6</v>
       </c>
       <c r="F25" t="n">
-        <v>169523.4968</v>
+        <v>1424634.6726</v>
       </c>
       <c r="G25" t="n">
-        <v>4.606666666666674</v>
+        <v>4.607666666666676</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1263,7 +1349,11 @@
       </c>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M25" t="n">
         <v>1</v>
       </c>
@@ -1273,22 +1363,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>4.61</v>
+        <v>4.6</v>
       </c>
       <c r="C26" t="n">
         <v>4.6</v>
       </c>
       <c r="D26" t="n">
-        <v>4.61</v>
+        <v>4.6</v>
       </c>
       <c r="E26" t="n">
         <v>4.6</v>
       </c>
       <c r="F26" t="n">
-        <v>131395.0867</v>
+        <v>169523.4968</v>
       </c>
       <c r="G26" t="n">
-        <v>4.600000000000008</v>
+        <v>4.608500000000009</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1298,7 +1388,11 @@
       </c>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M26" t="n">
         <v>1</v>
       </c>
@@ -1308,22 +1402,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
+        <v>4.61</v>
+      </c>
+      <c r="C27" t="n">
         <v>4.6</v>
       </c>
-      <c r="C27" t="n">
-        <v>4.64</v>
-      </c>
       <c r="D27" t="n">
-        <v>4.64</v>
+        <v>4.61</v>
       </c>
       <c r="E27" t="n">
         <v>4.6</v>
       </c>
       <c r="F27" t="n">
-        <v>187047.1216</v>
+        <v>131395.0867</v>
       </c>
       <c r="G27" t="n">
-        <v>4.613333333333341</v>
+        <v>4.609166666666677</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1333,7 +1427,11 @@
       </c>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M27" t="n">
         <v>1</v>
       </c>
@@ -1343,7 +1441,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>4.61</v>
+        <v>4.6</v>
       </c>
       <c r="C28" t="n">
         <v>4.64</v>
@@ -1352,13 +1450,13 @@
         <v>4.64</v>
       </c>
       <c r="E28" t="n">
-        <v>4.61</v>
+        <v>4.6</v>
       </c>
       <c r="F28" t="n">
-        <v>323444.1924</v>
+        <v>187047.1216</v>
       </c>
       <c r="G28" t="n">
-        <v>4.626666666666674</v>
+        <v>4.610333333333343</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1368,7 +1466,11 @@
       </c>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M28" t="n">
         <v>1</v>
       </c>
@@ -1378,22 +1480,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
+        <v>4.61</v>
+      </c>
+      <c r="C29" t="n">
         <v>4.64</v>
       </c>
-      <c r="C29" t="n">
-        <v>4.65</v>
-      </c>
       <c r="D29" t="n">
-        <v>4.65</v>
+        <v>4.64</v>
       </c>
       <c r="E29" t="n">
-        <v>4.64</v>
+        <v>4.61</v>
       </c>
       <c r="F29" t="n">
-        <v>279631.2988</v>
+        <v>323444.1924</v>
       </c>
       <c r="G29" t="n">
-        <v>4.643333333333341</v>
+        <v>4.614000000000009</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1403,7 +1505,11 @@
       </c>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M29" t="n">
         <v>1</v>
       </c>
@@ -1413,22 +1519,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>4.6</v>
+        <v>4.64</v>
       </c>
       <c r="C30" t="n">
-        <v>4.6</v>
+        <v>4.65</v>
       </c>
       <c r="D30" t="n">
-        <v>4.6</v>
+        <v>4.65</v>
       </c>
       <c r="E30" t="n">
-        <v>4.6</v>
+        <v>4.64</v>
       </c>
       <c r="F30" t="n">
-        <v>19689.3105</v>
+        <v>279631.2988</v>
       </c>
       <c r="G30" t="n">
-        <v>4.630000000000007</v>
+        <v>4.615000000000009</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1438,7 +1544,11 @@
       </c>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M30" t="n">
         <v>1</v>
       </c>
@@ -1448,22 +1558,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>4.63</v>
+        <v>4.6</v>
       </c>
       <c r="C31" t="n">
-        <v>4.65</v>
+        <v>4.6</v>
       </c>
       <c r="D31" t="n">
-        <v>4.65</v>
+        <v>4.6</v>
       </c>
       <c r="E31" t="n">
-        <v>4.58</v>
+        <v>4.6</v>
       </c>
       <c r="F31" t="n">
-        <v>183612.7364</v>
+        <v>19689.3105</v>
       </c>
       <c r="G31" t="n">
-        <v>4.63333333333334</v>
+        <v>4.615666666666676</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1473,7 +1583,11 @@
       </c>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M31" t="n">
         <v>1</v>
       </c>
@@ -1483,22 +1597,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>4.64</v>
+        <v>4.63</v>
       </c>
       <c r="C32" t="n">
-        <v>4.64</v>
+        <v>4.65</v>
       </c>
       <c r="D32" t="n">
-        <v>4.64</v>
+        <v>4.65</v>
       </c>
       <c r="E32" t="n">
-        <v>4.64</v>
+        <v>4.58</v>
       </c>
       <c r="F32" t="n">
-        <v>67215.3492</v>
+        <v>183612.7364</v>
       </c>
       <c r="G32" t="n">
-        <v>4.630000000000007</v>
+        <v>4.615833333333343</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1508,7 +1622,11 @@
       </c>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M32" t="n">
         <v>1</v>
       </c>
@@ -1530,10 +1648,10 @@
         <v>4.64</v>
       </c>
       <c r="F33" t="n">
-        <v>102599.5214</v>
+        <v>67215.3492</v>
       </c>
       <c r="G33" t="n">
-        <v>4.64333333333334</v>
+        <v>4.613333333333342</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1543,7 +1661,11 @@
       </c>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M33" t="n">
         <v>1</v>
       </c>
@@ -1553,22 +1675,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>4.6</v>
+        <v>4.64</v>
       </c>
       <c r="C34" t="n">
-        <v>4.6</v>
+        <v>4.64</v>
       </c>
       <c r="D34" t="n">
-        <v>4.6</v>
+        <v>4.64</v>
       </c>
       <c r="E34" t="n">
-        <v>4.6</v>
+        <v>4.64</v>
       </c>
       <c r="F34" t="n">
-        <v>137681.2608</v>
+        <v>102599.5214</v>
       </c>
       <c r="G34" t="n">
-        <v>4.626666666666673</v>
+        <v>4.611333333333342</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1578,7 +1700,11 @@
       </c>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M34" t="n">
         <v>1</v>
       </c>
@@ -1600,10 +1726,10 @@
         <v>4.6</v>
       </c>
       <c r="F35" t="n">
-        <v>85149.2148</v>
+        <v>137681.2608</v>
       </c>
       <c r="G35" t="n">
-        <v>4.61333333333334</v>
+        <v>4.608666666666676</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1613,7 +1739,11 @@
       </c>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M35" t="n">
         <v>1</v>
       </c>
@@ -1623,22 +1753,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>4.56</v>
+        <v>4.6</v>
       </c>
       <c r="C36" t="n">
-        <v>4.51</v>
+        <v>4.6</v>
       </c>
       <c r="D36" t="n">
-        <v>4.62</v>
+        <v>4.6</v>
       </c>
       <c r="E36" t="n">
-        <v>4.51</v>
+        <v>4.6</v>
       </c>
       <c r="F36" t="n">
-        <v>493142.2461</v>
+        <v>85149.2148</v>
       </c>
       <c r="G36" t="n">
-        <v>4.570000000000005</v>
+        <v>4.60750000000001</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1648,7 +1778,11 @@
       </c>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M36" t="n">
         <v>1</v>
       </c>
@@ -1658,22 +1792,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>4.65</v>
+        <v>4.56</v>
       </c>
       <c r="C37" t="n">
-        <v>4.65</v>
+        <v>4.51</v>
       </c>
       <c r="D37" t="n">
-        <v>4.65</v>
+        <v>4.62</v>
       </c>
       <c r="E37" t="n">
-        <v>4.65</v>
+        <v>4.51</v>
       </c>
       <c r="F37" t="n">
-        <v>100</v>
+        <v>493142.2461</v>
       </c>
       <c r="G37" t="n">
-        <v>4.586666666666671</v>
+        <v>4.607833333333343</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1683,7 +1817,11 @@
       </c>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M37" t="n">
         <v>1</v>
       </c>
@@ -1693,22 +1831,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>4.64</v>
+        <v>4.65</v>
       </c>
       <c r="C38" t="n">
-        <v>4.64</v>
+        <v>4.65</v>
       </c>
       <c r="D38" t="n">
-        <v>4.64</v>
+        <v>4.65</v>
       </c>
       <c r="E38" t="n">
-        <v>4.64</v>
+        <v>4.65</v>
       </c>
       <c r="F38" t="n">
-        <v>107758.6206</v>
+        <v>100</v>
       </c>
       <c r="G38" t="n">
-        <v>4.600000000000004</v>
+        <v>4.607500000000008</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1718,7 +1856,11 @@
       </c>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M38" t="n">
         <v>1</v>
       </c>
@@ -1728,22 +1870,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>4.54</v>
+        <v>4.64</v>
       </c>
       <c r="C39" t="n">
-        <v>4.54</v>
+        <v>4.64</v>
       </c>
       <c r="D39" t="n">
-        <v>4.54</v>
+        <v>4.64</v>
       </c>
       <c r="E39" t="n">
-        <v>4.54</v>
+        <v>4.64</v>
       </c>
       <c r="F39" t="n">
-        <v>179339.616</v>
+        <v>107758.6206</v>
       </c>
       <c r="G39" t="n">
-        <v>4.610000000000005</v>
+        <v>4.606666666666674</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1753,7 +1895,11 @@
       </c>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M39" t="n">
         <v>1</v>
       </c>
@@ -1766,19 +1912,19 @@
         <v>4.54</v>
       </c>
       <c r="C40" t="n">
-        <v>4.52</v>
+        <v>4.54</v>
       </c>
       <c r="D40" t="n">
         <v>4.54</v>
       </c>
       <c r="E40" t="n">
-        <v>4.52</v>
+        <v>4.54</v>
       </c>
       <c r="F40" t="n">
-        <v>902338.1677</v>
+        <v>179339.616</v>
       </c>
       <c r="G40" t="n">
-        <v>4.566666666666672</v>
+        <v>4.608166666666675</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1788,7 +1934,11 @@
       </c>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M40" t="n">
         <v>1</v>
       </c>
@@ -1798,22 +1948,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="C41" t="n">
         <v>4.52</v>
       </c>
-      <c r="C41" t="n">
-        <v>4.5</v>
-      </c>
       <c r="D41" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="E41" t="n">
         <v>4.52</v>
       </c>
-      <c r="E41" t="n">
-        <v>4.5</v>
-      </c>
       <c r="F41" t="n">
-        <v>84900</v>
+        <v>902338.1677</v>
       </c>
       <c r="G41" t="n">
-        <v>4.520000000000006</v>
+        <v>4.607166666666675</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1823,7 +1973,11 @@
       </c>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M41" t="n">
         <v>1</v>
       </c>
@@ -1833,7 +1987,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>4.5</v>
+        <v>4.52</v>
       </c>
       <c r="C42" t="n">
         <v>4.5</v>
@@ -1845,10 +1999,10 @@
         <v>4.5</v>
       </c>
       <c r="F42" t="n">
-        <v>775487.0324</v>
+        <v>84900</v>
       </c>
       <c r="G42" t="n">
-        <v>4.506666666666672</v>
+        <v>4.606000000000009</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1858,7 +2012,11 @@
       </c>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M42" t="n">
         <v>1</v>
       </c>
@@ -1868,22 +2026,22 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>4.59</v>
+        <v>4.5</v>
       </c>
       <c r="C43" t="n">
-        <v>4.49</v>
+        <v>4.5</v>
       </c>
       <c r="D43" t="n">
-        <v>4.59</v>
+        <v>4.52</v>
       </c>
       <c r="E43" t="n">
-        <v>4.49</v>
+        <v>4.5</v>
       </c>
       <c r="F43" t="n">
-        <v>340299.6269</v>
+        <v>775487.0324</v>
       </c>
       <c r="G43" t="n">
-        <v>4.496666666666673</v>
+        <v>4.606333333333342</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1893,7 +2051,11 @@
       </c>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M43" t="n">
         <v>1</v>
       </c>
@@ -1903,10 +2065,10 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>4.5</v>
+        <v>4.59</v>
       </c>
       <c r="C44" t="n">
-        <v>4.59</v>
+        <v>4.49</v>
       </c>
       <c r="D44" t="n">
         <v>4.59</v>
@@ -1915,10 +2077,10 @@
         <v>4.49</v>
       </c>
       <c r="F44" t="n">
-        <v>455144.9756</v>
+        <v>340299.6269</v>
       </c>
       <c r="G44" t="n">
-        <v>4.526666666666673</v>
+        <v>4.606500000000008</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1928,7 +2090,11 @@
       </c>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M44" t="n">
         <v>1</v>
       </c>
@@ -1938,7 +2104,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>4.59</v>
+        <v>4.5</v>
       </c>
       <c r="C45" t="n">
         <v>4.59</v>
@@ -1947,13 +2113,13 @@
         <v>4.59</v>
       </c>
       <c r="E45" t="n">
-        <v>4.59</v>
+        <v>4.49</v>
       </c>
       <c r="F45" t="n">
-        <v>11226.3834</v>
+        <v>455144.9756</v>
       </c>
       <c r="G45" t="n">
-        <v>4.556666666666673</v>
+        <v>4.608500000000007</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -1963,7 +2129,11 @@
       </c>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M45" t="n">
         <v>1</v>
       </c>
@@ -1973,22 +2143,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>4.53</v>
+        <v>4.59</v>
       </c>
       <c r="C46" t="n">
-        <v>4.51</v>
+        <v>4.59</v>
       </c>
       <c r="D46" t="n">
-        <v>4.53</v>
+        <v>4.59</v>
       </c>
       <c r="E46" t="n">
-        <v>4.51</v>
+        <v>4.59</v>
       </c>
       <c r="F46" t="n">
-        <v>408947.1966</v>
+        <v>11226.3834</v>
       </c>
       <c r="G46" t="n">
-        <v>4.563333333333341</v>
+        <v>4.610000000000007</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -1998,7 +2168,11 @@
       </c>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M46" t="n">
         <v>1</v>
       </c>
@@ -2008,22 +2182,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>4.49</v>
+        <v>4.53</v>
       </c>
       <c r="C47" t="n">
-        <v>4.58</v>
+        <v>4.51</v>
       </c>
       <c r="D47" t="n">
-        <v>4.58</v>
+        <v>4.53</v>
       </c>
       <c r="E47" t="n">
-        <v>4.48</v>
+        <v>4.51</v>
       </c>
       <c r="F47" t="n">
-        <v>260403.7329</v>
+        <v>408947.1966</v>
       </c>
       <c r="G47" t="n">
-        <v>4.560000000000007</v>
+        <v>4.61033333333334</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2033,7 +2207,11 @@
       </c>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M47" t="n">
         <v>1</v>
       </c>
@@ -2046,19 +2224,19 @@
         <v>4.49</v>
       </c>
       <c r="C48" t="n">
-        <v>4.49</v>
+        <v>4.58</v>
       </c>
       <c r="D48" t="n">
-        <v>4.49</v>
+        <v>4.58</v>
       </c>
       <c r="E48" t="n">
-        <v>4.49</v>
+        <v>4.48</v>
       </c>
       <c r="F48" t="n">
-        <v>96995.1744</v>
+        <v>260403.7329</v>
       </c>
       <c r="G48" t="n">
-        <v>4.526666666666674</v>
+        <v>4.61033333333334</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2068,7 +2246,11 @@
       </c>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M48" t="n">
         <v>1</v>
       </c>
@@ -2078,22 +2260,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>4.56</v>
+        <v>4.49</v>
       </c>
       <c r="C49" t="n">
-        <v>4.59</v>
+        <v>4.49</v>
       </c>
       <c r="D49" t="n">
-        <v>4.59</v>
+        <v>4.49</v>
       </c>
       <c r="E49" t="n">
-        <v>4.56</v>
+        <v>4.49</v>
       </c>
       <c r="F49" t="n">
-        <v>810010</v>
+        <v>96995.1744</v>
       </c>
       <c r="G49" t="n">
-        <v>4.553333333333341</v>
+        <v>4.609000000000007</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2103,7 +2285,11 @@
       </c>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M49" t="n">
         <v>1</v>
       </c>
@@ -2113,22 +2299,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
+        <v>4.56</v>
+      </c>
+      <c r="C50" t="n">
         <v>4.59</v>
       </c>
-      <c r="C50" t="n">
-        <v>4.6</v>
-      </c>
       <c r="D50" t="n">
-        <v>4.6</v>
+        <v>4.59</v>
       </c>
       <c r="E50" t="n">
-        <v>4.59</v>
+        <v>4.56</v>
       </c>
       <c r="F50" t="n">
-        <v>168211.186</v>
+        <v>810010</v>
       </c>
       <c r="G50" t="n">
-        <v>4.560000000000008</v>
+        <v>4.609500000000007</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2138,7 +2324,11 @@
       </c>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M50" t="n">
         <v>1</v>
       </c>
@@ -2148,22 +2338,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>4.62</v>
+        <v>4.59</v>
       </c>
       <c r="C51" t="n">
-        <v>4.62</v>
+        <v>4.6</v>
       </c>
       <c r="D51" t="n">
-        <v>4.62</v>
+        <v>4.6</v>
       </c>
       <c r="E51" t="n">
-        <v>4.62</v>
+        <v>4.59</v>
       </c>
       <c r="F51" t="n">
-        <v>31505.6277</v>
+        <v>168211.186</v>
       </c>
       <c r="G51" t="n">
-        <v>4.603333333333341</v>
+        <v>4.609833333333341</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2173,7 +2363,11 @@
       </c>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M51" t="n">
         <v>1</v>
       </c>
@@ -2195,10 +2389,10 @@
         <v>4.62</v>
       </c>
       <c r="F52" t="n">
-        <v>96458</v>
+        <v>31505.6277</v>
       </c>
       <c r="G52" t="n">
-        <v>4.61333333333334</v>
+        <v>4.611166666666674</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2208,7 +2402,11 @@
       </c>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M52" t="n">
         <v>1</v>
       </c>
@@ -2230,10 +2428,10 @@
         <v>4.62</v>
       </c>
       <c r="F53" t="n">
-        <v>9297.8441</v>
+        <v>96458</v>
       </c>
       <c r="G53" t="n">
-        <v>4.620000000000007</v>
+        <v>4.610833333333341</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2243,7 +2441,11 @@
       </c>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M53" t="n">
         <v>1</v>
       </c>
@@ -2253,22 +2455,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>4.56</v>
+        <v>4.62</v>
       </c>
       <c r="C54" t="n">
-        <v>4.56</v>
+        <v>4.62</v>
       </c>
       <c r="D54" t="n">
-        <v>4.56</v>
+        <v>4.62</v>
       </c>
       <c r="E54" t="n">
-        <v>4.56</v>
+        <v>4.62</v>
       </c>
       <c r="F54" t="n">
-        <v>20162.5677</v>
+        <v>9297.8441</v>
       </c>
       <c r="G54" t="n">
-        <v>4.600000000000008</v>
+        <v>4.609666666666674</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2278,7 +2480,11 @@
       </c>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M54" t="n">
         <v>1</v>
       </c>
@@ -2288,22 +2494,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>4.54</v>
+        <v>4.56</v>
       </c>
       <c r="C55" t="n">
-        <v>4.49</v>
+        <v>4.56</v>
       </c>
       <c r="D55" t="n">
-        <v>4.62</v>
+        <v>4.56</v>
       </c>
       <c r="E55" t="n">
-        <v>4.49</v>
+        <v>4.56</v>
       </c>
       <c r="F55" t="n">
-        <v>910278.3734</v>
+        <v>20162.5677</v>
       </c>
       <c r="G55" t="n">
-        <v>4.556666666666673</v>
+        <v>4.606666666666674</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2313,7 +2519,11 @@
       </c>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M55" t="n">
         <v>1</v>
       </c>
@@ -2323,22 +2533,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>4.6</v>
+        <v>4.54</v>
       </c>
       <c r="C56" t="n">
-        <v>4.6</v>
+        <v>4.49</v>
       </c>
       <c r="D56" t="n">
-        <v>4.6</v>
+        <v>4.62</v>
       </c>
       <c r="E56" t="n">
-        <v>4.6</v>
+        <v>4.49</v>
       </c>
       <c r="F56" t="n">
-        <v>85743.1868</v>
+        <v>910278.3734</v>
       </c>
       <c r="G56" t="n">
-        <v>4.550000000000005</v>
+        <v>4.603333333333341</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2348,7 +2558,11 @@
       </c>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M56" t="n">
         <v>1</v>
       </c>
@@ -2358,22 +2572,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>4.59</v>
+        <v>4.6</v>
       </c>
       <c r="C57" t="n">
-        <v>4.59</v>
+        <v>4.6</v>
       </c>
       <c r="D57" t="n">
-        <v>4.59</v>
+        <v>4.6</v>
       </c>
       <c r="E57" t="n">
-        <v>4.58</v>
+        <v>4.6</v>
       </c>
       <c r="F57" t="n">
-        <v>74889.37089999999</v>
+        <v>85743.1868</v>
       </c>
       <c r="G57" t="n">
-        <v>4.560000000000006</v>
+        <v>4.603666666666674</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2383,7 +2597,11 @@
       </c>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M57" t="n">
         <v>1</v>
       </c>
@@ -2393,7 +2611,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>4.57</v>
+        <v>4.59</v>
       </c>
       <c r="C58" t="n">
         <v>4.59</v>
@@ -2402,13 +2620,13 @@
         <v>4.59</v>
       </c>
       <c r="E58" t="n">
-        <v>4.57</v>
+        <v>4.58</v>
       </c>
       <c r="F58" t="n">
-        <v>387000</v>
+        <v>74889.37089999999</v>
       </c>
       <c r="G58" t="n">
-        <v>4.593333333333339</v>
+        <v>4.602833333333341</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2418,7 +2636,11 @@
       </c>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M58" t="n">
         <v>1</v>
       </c>
@@ -2428,22 +2650,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>4.58</v>
+        <v>4.57</v>
       </c>
       <c r="C59" t="n">
-        <v>4.58</v>
+        <v>4.59</v>
       </c>
       <c r="D59" t="n">
-        <v>4.58</v>
+        <v>4.59</v>
       </c>
       <c r="E59" t="n">
-        <v>4.58</v>
+        <v>4.57</v>
       </c>
       <c r="F59" t="n">
-        <v>261747.6657</v>
+        <v>387000</v>
       </c>
       <c r="G59" t="n">
-        <v>4.586666666666672</v>
+        <v>4.603333333333341</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2453,7 +2675,11 @@
       </c>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M59" t="n">
         <v>1</v>
       </c>
@@ -2463,22 +2689,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>4.62</v>
+        <v>4.58</v>
       </c>
       <c r="C60" t="n">
-        <v>4.68</v>
+        <v>4.58</v>
       </c>
       <c r="D60" t="n">
-        <v>4.68</v>
+        <v>4.58</v>
       </c>
       <c r="E60" t="n">
-        <v>4.6</v>
+        <v>4.58</v>
       </c>
       <c r="F60" t="n">
-        <v>351693.2559</v>
+        <v>261747.6657</v>
       </c>
       <c r="G60" t="n">
-        <v>4.616666666666673</v>
+        <v>4.604333333333341</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2488,7 +2714,11 @@
       </c>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M60" t="n">
         <v>1</v>
       </c>
@@ -2498,22 +2728,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
+        <v>4.62</v>
+      </c>
+      <c r="C61" t="n">
         <v>4.68</v>
-      </c>
-      <c r="C61" t="n">
-        <v>4.61</v>
       </c>
       <c r="D61" t="n">
         <v>4.68</v>
       </c>
       <c r="E61" t="n">
-        <v>4.61</v>
+        <v>4.6</v>
       </c>
       <c r="F61" t="n">
-        <v>905165.6731</v>
+        <v>351693.2559</v>
       </c>
       <c r="G61" t="n">
-        <v>4.623333333333339</v>
+        <v>4.606333333333341</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2523,7 +2753,11 @@
       </c>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M61" t="n">
         <v>1</v>
       </c>
@@ -2533,22 +2767,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>4.62</v>
+        <v>4.68</v>
       </c>
       <c r="C62" t="n">
-        <v>4.62</v>
+        <v>4.61</v>
       </c>
       <c r="D62" t="n">
-        <v>4.62</v>
+        <v>4.68</v>
       </c>
       <c r="E62" t="n">
-        <v>4.62</v>
+        <v>4.61</v>
       </c>
       <c r="F62" t="n">
-        <v>192315.478</v>
+        <v>905165.6731</v>
       </c>
       <c r="G62" t="n">
-        <v>4.636666666666673</v>
+        <v>4.606833333333341</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2558,7 +2792,11 @@
       </c>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M62" t="n">
         <v>1</v>
       </c>
@@ -2580,10 +2818,10 @@
         <v>4.62</v>
       </c>
       <c r="F63" t="n">
-        <v>257572.7195</v>
+        <v>192315.478</v>
       </c>
       <c r="G63" t="n">
-        <v>4.616666666666673</v>
+        <v>4.606833333333341</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2593,7 +2831,11 @@
       </c>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M63" t="n">
         <v>1</v>
       </c>
@@ -2606,19 +2848,19 @@
         <v>4.62</v>
       </c>
       <c r="C64" t="n">
-        <v>4.58</v>
+        <v>4.62</v>
       </c>
       <c r="D64" t="n">
         <v>4.62</v>
       </c>
       <c r="E64" t="n">
-        <v>4.58</v>
+        <v>4.62</v>
       </c>
       <c r="F64" t="n">
-        <v>250197.4084</v>
+        <v>257572.7195</v>
       </c>
       <c r="G64" t="n">
-        <v>4.606666666666674</v>
+        <v>4.607500000000008</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2628,7 +2870,11 @@
       </c>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M64" t="n">
         <v>1</v>
       </c>
@@ -2638,22 +2884,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>4.64</v>
+        <v>4.62</v>
       </c>
       <c r="C65" t="n">
-        <v>4.64</v>
+        <v>4.58</v>
       </c>
       <c r="D65" t="n">
-        <v>4.64</v>
+        <v>4.62</v>
       </c>
       <c r="E65" t="n">
-        <v>4.64</v>
+        <v>4.58</v>
       </c>
       <c r="F65" t="n">
-        <v>110</v>
+        <v>250197.4084</v>
       </c>
       <c r="G65" t="n">
-        <v>4.61333333333334</v>
+        <v>4.607333333333342</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2663,7 +2909,11 @@
       </c>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M65" t="n">
         <v>1</v>
       </c>
@@ -2676,19 +2926,19 @@
         <v>4.64</v>
       </c>
       <c r="C66" t="n">
-        <v>4.6</v>
+        <v>4.64</v>
       </c>
       <c r="D66" t="n">
         <v>4.64</v>
       </c>
       <c r="E66" t="n">
-        <v>4.6</v>
+        <v>4.64</v>
       </c>
       <c r="F66" t="n">
-        <v>1050651.5086</v>
+        <v>110</v>
       </c>
       <c r="G66" t="n">
-        <v>4.606666666666673</v>
+        <v>4.607166666666675</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2698,7 +2948,11 @@
       </c>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M66" t="n">
         <v>1</v>
       </c>
@@ -2708,22 +2962,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>4.62</v>
+        <v>4.64</v>
       </c>
       <c r="C67" t="n">
-        <v>4.62</v>
+        <v>4.6</v>
       </c>
       <c r="D67" t="n">
-        <v>4.62</v>
+        <v>4.64</v>
       </c>
       <c r="E67" t="n">
-        <v>4.62</v>
+        <v>4.6</v>
       </c>
       <c r="F67" t="n">
-        <v>139133.5951</v>
+        <v>1050651.5086</v>
       </c>
       <c r="G67" t="n">
-        <v>4.620000000000006</v>
+        <v>4.606166666666676</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2733,7 +2987,11 @@
       </c>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M67" t="n">
         <v>1</v>
       </c>
@@ -2743,22 +3001,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>4.69</v>
+        <v>4.62</v>
       </c>
       <c r="C68" t="n">
-        <v>4.59</v>
+        <v>4.62</v>
       </c>
       <c r="D68" t="n">
-        <v>4.69</v>
+        <v>4.62</v>
       </c>
       <c r="E68" t="n">
-        <v>4.59</v>
+        <v>4.62</v>
       </c>
       <c r="F68" t="n">
-        <v>868143.6902</v>
+        <v>139133.5951</v>
       </c>
       <c r="G68" t="n">
-        <v>4.603333333333339</v>
+        <v>4.605666666666676</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2768,7 +3026,11 @@
       </c>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M68" t="n">
         <v>1</v>
       </c>
@@ -2778,22 +3040,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>4.64</v>
+        <v>4.69</v>
       </c>
       <c r="C69" t="n">
         <v>4.59</v>
       </c>
       <c r="D69" t="n">
-        <v>4.64</v>
+        <v>4.69</v>
       </c>
       <c r="E69" t="n">
         <v>4.59</v>
       </c>
       <c r="F69" t="n">
-        <v>46979.0248</v>
+        <v>868143.6902</v>
       </c>
       <c r="G69" t="n">
-        <v>4.600000000000006</v>
+        <v>4.604666666666676</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2803,7 +3065,11 @@
       </c>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M69" t="n">
         <v>1</v>
       </c>
@@ -2813,22 +3079,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>4.58</v>
+        <v>4.64</v>
       </c>
       <c r="C70" t="n">
-        <v>4.57</v>
+        <v>4.59</v>
       </c>
       <c r="D70" t="n">
-        <v>4.58</v>
+        <v>4.64</v>
       </c>
       <c r="E70" t="n">
-        <v>4.57</v>
+        <v>4.59</v>
       </c>
       <c r="F70" t="n">
-        <v>890485.2751</v>
+        <v>46979.0248</v>
       </c>
       <c r="G70" t="n">
-        <v>4.583333333333339</v>
+        <v>4.603666666666675</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2838,7 +3104,11 @@
       </c>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M70" t="n">
         <v>1</v>
       </c>
@@ -2851,19 +3121,19 @@
         <v>4.58</v>
       </c>
       <c r="C71" t="n">
-        <v>4.58</v>
+        <v>4.57</v>
       </c>
       <c r="D71" t="n">
         <v>4.58</v>
       </c>
       <c r="E71" t="n">
-        <v>4.58</v>
+        <v>4.57</v>
       </c>
       <c r="F71" t="n">
-        <v>50952.0807</v>
+        <v>890485.2751</v>
       </c>
       <c r="G71" t="n">
-        <v>4.580000000000006</v>
+        <v>4.603166666666676</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2873,7 +3143,11 @@
       </c>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M71" t="n">
         <v>1</v>
       </c>
@@ -2883,22 +3157,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>4.64</v>
+        <v>4.58</v>
       </c>
       <c r="C72" t="n">
-        <v>4.64</v>
+        <v>4.58</v>
       </c>
       <c r="D72" t="n">
-        <v>4.64</v>
+        <v>4.58</v>
       </c>
       <c r="E72" t="n">
-        <v>4.64</v>
+        <v>4.58</v>
       </c>
       <c r="F72" t="n">
-        <v>10</v>
+        <v>50952.0807</v>
       </c>
       <c r="G72" t="n">
-        <v>4.596666666666674</v>
+        <v>4.601333333333342</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2908,7 +3182,11 @@
       </c>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M72" t="n">
         <v>1</v>
       </c>
@@ -2921,19 +3199,19 @@
         <v>4.64</v>
       </c>
       <c r="C73" t="n">
-        <v>4.59</v>
+        <v>4.64</v>
       </c>
       <c r="D73" t="n">
         <v>4.64</v>
       </c>
       <c r="E73" t="n">
-        <v>4.59</v>
+        <v>4.64</v>
       </c>
       <c r="F73" t="n">
-        <v>263620.571</v>
+        <v>10</v>
       </c>
       <c r="G73" t="n">
-        <v>4.60333333333334</v>
+        <v>4.601333333333342</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -2943,7 +3221,11 @@
       </c>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M73" t="n">
         <v>1</v>
       </c>
@@ -2953,22 +3235,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>4.67</v>
+        <v>4.64</v>
       </c>
       <c r="C74" t="n">
-        <v>4.67</v>
+        <v>4.59</v>
       </c>
       <c r="D74" t="n">
-        <v>4.67</v>
+        <v>4.64</v>
       </c>
       <c r="E74" t="n">
-        <v>4.67</v>
+        <v>4.59</v>
       </c>
       <c r="F74" t="n">
-        <v>10</v>
+        <v>263620.571</v>
       </c>
       <c r="G74" t="n">
-        <v>4.633333333333339</v>
+        <v>4.599666666666675</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -2978,7 +3260,11 @@
       </c>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M74" t="n">
         <v>1</v>
       </c>
@@ -2988,22 +3274,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>4.68</v>
+        <v>4.67</v>
       </c>
       <c r="C75" t="n">
-        <v>4.68</v>
+        <v>4.67</v>
       </c>
       <c r="D75" t="n">
-        <v>4.68</v>
+        <v>4.67</v>
       </c>
       <c r="E75" t="n">
-        <v>4.68</v>
+        <v>4.67</v>
       </c>
       <c r="F75" t="n">
-        <v>99</v>
+        <v>10</v>
       </c>
       <c r="G75" t="n">
-        <v>4.646666666666673</v>
+        <v>4.598166666666675</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3013,7 +3299,11 @@
       </c>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M75" t="n">
         <v>1</v>
       </c>
@@ -3023,22 +3313,22 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>4.61</v>
+        <v>4.68</v>
       </c>
       <c r="C76" t="n">
-        <v>4.61</v>
+        <v>4.68</v>
       </c>
       <c r="D76" t="n">
-        <v>4.61</v>
+        <v>4.68</v>
       </c>
       <c r="E76" t="n">
-        <v>4.61</v>
+        <v>4.68</v>
       </c>
       <c r="F76" t="n">
-        <v>1229.727</v>
+        <v>99</v>
       </c>
       <c r="G76" t="n">
-        <v>4.65333333333334</v>
+        <v>4.597500000000008</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3048,7 +3338,11 @@
       </c>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M76" t="n">
         <v>1</v>
       </c>
@@ -3061,19 +3355,19 @@
         <v>4.61</v>
       </c>
       <c r="C77" t="n">
-        <v>4.6</v>
+        <v>4.61</v>
       </c>
       <c r="D77" t="n">
-        <v>4.66</v>
+        <v>4.61</v>
       </c>
       <c r="E77" t="n">
-        <v>4.6</v>
+        <v>4.61</v>
       </c>
       <c r="F77" t="n">
-        <v>310373.1333</v>
+        <v>1229.727</v>
       </c>
       <c r="G77" t="n">
-        <v>4.630000000000005</v>
+        <v>4.598000000000009</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3083,7 +3377,11 @@
       </c>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M77" t="n">
         <v>1</v>
       </c>
@@ -3093,22 +3391,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
+        <v>4.61</v>
+      </c>
+      <c r="C78" t="n">
         <v>4.6</v>
       </c>
-      <c r="C78" t="n">
-        <v>4.59</v>
-      </c>
       <c r="D78" t="n">
+        <v>4.66</v>
+      </c>
+      <c r="E78" t="n">
         <v>4.6</v>
       </c>
-      <c r="E78" t="n">
-        <v>4.59</v>
-      </c>
       <c r="F78" t="n">
-        <v>320394.033</v>
+        <v>310373.1333</v>
       </c>
       <c r="G78" t="n">
-        <v>4.600000000000006</v>
+        <v>4.598166666666676</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3118,7 +3416,11 @@
       </c>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M78" t="n">
         <v>1</v>
       </c>
@@ -3128,22 +3430,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>4.65</v>
+        <v>4.6</v>
       </c>
       <c r="C79" t="n">
-        <v>4.61</v>
+        <v>4.59</v>
       </c>
       <c r="D79" t="n">
-        <v>4.65</v>
+        <v>4.6</v>
       </c>
       <c r="E79" t="n">
         <v>4.59</v>
       </c>
       <c r="F79" t="n">
-        <v>392420.6399</v>
+        <v>320394.033</v>
       </c>
       <c r="G79" t="n">
-        <v>4.600000000000006</v>
+        <v>4.597833333333342</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3153,7 +3455,11 @@
       </c>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M79" t="n">
         <v>1</v>
       </c>
@@ -3163,22 +3469,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>4.67</v>
+        <v>4.65</v>
       </c>
       <c r="C80" t="n">
-        <v>4.62</v>
+        <v>4.61</v>
       </c>
       <c r="D80" t="n">
-        <v>4.67</v>
+        <v>4.65</v>
       </c>
       <c r="E80" t="n">
-        <v>4.62</v>
+        <v>4.59</v>
       </c>
       <c r="F80" t="n">
-        <v>198118.6147</v>
+        <v>392420.6399</v>
       </c>
       <c r="G80" t="n">
-        <v>4.606666666666674</v>
+        <v>4.597500000000009</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3188,7 +3494,11 @@
       </c>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M80" t="n">
         <v>1</v>
       </c>
@@ -3198,22 +3508,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
+        <v>4.67</v>
+      </c>
+      <c r="C81" t="n">
         <v>4.62</v>
       </c>
-      <c r="C81" t="n">
-        <v>4.59</v>
-      </c>
       <c r="D81" t="n">
+        <v>4.67</v>
+      </c>
+      <c r="E81" t="n">
         <v>4.62</v>
       </c>
-      <c r="E81" t="n">
-        <v>4.59</v>
-      </c>
       <c r="F81" t="n">
-        <v>513021.6013</v>
+        <v>198118.6147</v>
       </c>
       <c r="G81" t="n">
-        <v>4.606666666666673</v>
+        <v>4.597333333333342</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3223,7 +3533,11 @@
       </c>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M81" t="n">
         <v>1</v>
       </c>
@@ -3233,22 +3547,22 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
+        <v>4.62</v>
+      </c>
+      <c r="C82" t="n">
         <v>4.59</v>
       </c>
-      <c r="C82" t="n">
-        <v>4.66</v>
-      </c>
       <c r="D82" t="n">
-        <v>4.66</v>
+        <v>4.62</v>
       </c>
       <c r="E82" t="n">
         <v>4.59</v>
       </c>
       <c r="F82" t="n">
-        <v>153502.9847</v>
+        <v>513021.6013</v>
       </c>
       <c r="G82" t="n">
-        <v>4.623333333333339</v>
+        <v>4.596500000000009</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3258,7 +3572,11 @@
       </c>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M82" t="n">
         <v>1</v>
       </c>
@@ -3268,22 +3586,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
+        <v>4.59</v>
+      </c>
+      <c r="C83" t="n">
         <v>4.66</v>
       </c>
-      <c r="C83" t="n">
-        <v>4.67</v>
-      </c>
       <c r="D83" t="n">
-        <v>4.67</v>
+        <v>4.66</v>
       </c>
       <c r="E83" t="n">
-        <v>4.58</v>
+        <v>4.59</v>
       </c>
       <c r="F83" t="n">
-        <v>171659.4766</v>
+        <v>153502.9847</v>
       </c>
       <c r="G83" t="n">
-        <v>4.640000000000007</v>
+        <v>4.596833333333342</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3293,7 +3611,11 @@
       </c>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M83" t="n">
         <v>1</v>
       </c>
@@ -3303,22 +3625,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>4.6</v>
+        <v>4.66</v>
       </c>
       <c r="C84" t="n">
-        <v>4.66</v>
+        <v>4.67</v>
       </c>
       <c r="D84" t="n">
         <v>4.67</v>
       </c>
       <c r="E84" t="n">
-        <v>4.6</v>
+        <v>4.58</v>
       </c>
       <c r="F84" t="n">
-        <v>1530918.8352</v>
+        <v>171659.4766</v>
       </c>
       <c r="G84" t="n">
-        <v>4.66333333333334</v>
+        <v>4.597666666666677</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3328,7 +3650,11 @@
       </c>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M84" t="n">
         <v>1</v>
       </c>
@@ -3338,22 +3664,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="C85" t="n">
         <v>4.66</v>
       </c>
-      <c r="C85" t="n">
-        <v>4.56</v>
-      </c>
       <c r="D85" t="n">
-        <v>4.79</v>
+        <v>4.67</v>
       </c>
       <c r="E85" t="n">
-        <v>4.55</v>
+        <v>4.6</v>
       </c>
       <c r="F85" t="n">
-        <v>2073312.46600876</v>
+        <v>1530918.8352</v>
       </c>
       <c r="G85" t="n">
-        <v>4.630000000000006</v>
+        <v>4.598666666666676</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3363,7 +3689,11 @@
       </c>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M85" t="n">
         <v>1</v>
       </c>
@@ -3373,22 +3703,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>4.77</v>
+        <v>4.66</v>
       </c>
       <c r="C86" t="n">
-        <v>4.71</v>
+        <v>4.56</v>
       </c>
       <c r="D86" t="n">
-        <v>4.77</v>
+        <v>4.79</v>
       </c>
       <c r="E86" t="n">
-        <v>4.61</v>
+        <v>4.55</v>
       </c>
       <c r="F86" t="n">
-        <v>566490.2601</v>
+        <v>2073312.46600876</v>
       </c>
       <c r="G86" t="n">
-        <v>4.64333333333334</v>
+        <v>4.59800000000001</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3398,7 +3728,11 @@
       </c>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M86" t="n">
         <v>1</v>
       </c>
@@ -3408,22 +3742,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>4.61</v>
+        <v>4.77</v>
       </c>
       <c r="C87" t="n">
-        <v>4.62</v>
+        <v>4.71</v>
       </c>
       <c r="D87" t="n">
-        <v>4.69</v>
+        <v>4.77</v>
       </c>
       <c r="E87" t="n">
         <v>4.61</v>
       </c>
       <c r="F87" t="n">
-        <v>102504.9494</v>
+        <v>566490.2601</v>
       </c>
       <c r="G87" t="n">
-        <v>4.630000000000006</v>
+        <v>4.599833333333342</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3433,7 +3767,11 @@
       </c>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M87" t="n">
         <v>1</v>
       </c>
@@ -3443,10 +3781,10 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>4.63</v>
+        <v>4.61</v>
       </c>
       <c r="C88" t="n">
-        <v>4.69</v>
+        <v>4.62</v>
       </c>
       <c r="D88" t="n">
         <v>4.69</v>
@@ -3455,10 +3793,10 @@
         <v>4.61</v>
       </c>
       <c r="F88" t="n">
-        <v>78898.2552</v>
+        <v>102504.9494</v>
       </c>
       <c r="G88" t="n">
-        <v>4.67333333333334</v>
+        <v>4.599500000000009</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3468,7 +3806,11 @@
       </c>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M88" t="n">
         <v>1</v>
       </c>
@@ -3487,13 +3829,13 @@
         <v>4.69</v>
       </c>
       <c r="E89" t="n">
-        <v>4.63</v>
+        <v>4.61</v>
       </c>
       <c r="F89" t="n">
-        <v>698624.2373</v>
+        <v>78898.2552</v>
       </c>
       <c r="G89" t="n">
-        <v>4.666666666666674</v>
+        <v>4.600333333333342</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3503,7 +3845,11 @@
       </c>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M89" t="n">
         <v>1</v>
       </c>
@@ -3513,10 +3859,10 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>4.64</v>
+        <v>4.63</v>
       </c>
       <c r="C90" t="n">
-        <v>4.63</v>
+        <v>4.69</v>
       </c>
       <c r="D90" t="n">
         <v>4.69</v>
@@ -3525,10 +3871,10 @@
         <v>4.63</v>
       </c>
       <c r="F90" t="n">
-        <v>311512.138</v>
+        <v>698624.2373</v>
       </c>
       <c r="G90" t="n">
-        <v>4.670000000000006</v>
+        <v>4.60100000000001</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3538,7 +3884,11 @@
       </c>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M90" t="n">
         <v>1</v>
       </c>
@@ -3548,22 +3898,22 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>4.68</v>
+        <v>4.64</v>
       </c>
       <c r="C91" t="n">
-        <v>4.6</v>
+        <v>4.63</v>
       </c>
       <c r="D91" t="n">
         <v>4.69</v>
       </c>
       <c r="E91" t="n">
-        <v>4.6</v>
+        <v>4.63</v>
       </c>
       <c r="F91" t="n">
-        <v>47643.6589</v>
+        <v>311512.138</v>
       </c>
       <c r="G91" t="n">
-        <v>4.640000000000007</v>
+        <v>4.601500000000009</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3573,7 +3923,11 @@
       </c>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M91" t="n">
         <v>1</v>
       </c>
@@ -3583,22 +3937,22 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>4.69</v>
+        <v>4.68</v>
       </c>
       <c r="C92" t="n">
-        <v>4.69</v>
+        <v>4.6</v>
       </c>
       <c r="D92" t="n">
         <v>4.69</v>
       </c>
       <c r="E92" t="n">
-        <v>4.69</v>
+        <v>4.6</v>
       </c>
       <c r="F92" t="n">
-        <v>13</v>
+        <v>47643.6589</v>
       </c>
       <c r="G92" t="n">
-        <v>4.640000000000007</v>
+        <v>4.600666666666677</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3608,7 +3962,11 @@
       </c>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M92" t="n">
         <v>1</v>
       </c>
@@ -3618,22 +3976,22 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>4.63</v>
+        <v>4.69</v>
       </c>
       <c r="C93" t="n">
-        <v>4.63</v>
+        <v>4.69</v>
       </c>
       <c r="D93" t="n">
-        <v>4.63</v>
+        <v>4.69</v>
       </c>
       <c r="E93" t="n">
-        <v>4.63</v>
+        <v>4.69</v>
       </c>
       <c r="F93" t="n">
-        <v>148567.9265</v>
+        <v>13</v>
       </c>
       <c r="G93" t="n">
-        <v>4.640000000000007</v>
+        <v>4.60150000000001</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3643,7 +4001,11 @@
       </c>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M93" t="n">
         <v>1</v>
       </c>
@@ -3656,19 +4018,19 @@
         <v>4.63</v>
       </c>
       <c r="C94" t="n">
-        <v>4.61</v>
+        <v>4.63</v>
       </c>
       <c r="D94" t="n">
-        <v>4.69</v>
+        <v>4.63</v>
       </c>
       <c r="E94" t="n">
-        <v>4.61</v>
+        <v>4.63</v>
       </c>
       <c r="F94" t="n">
-        <v>516318.2797</v>
+        <v>148567.9265</v>
       </c>
       <c r="G94" t="n">
-        <v>4.64333333333334</v>
+        <v>4.601333333333343</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3678,7 +4040,11 @@
       </c>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M94" t="n">
         <v>1</v>
       </c>
@@ -3688,22 +4054,22 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>4.62</v>
+        <v>4.63</v>
       </c>
       <c r="C95" t="n">
-        <v>4.6</v>
+        <v>4.61</v>
       </c>
       <c r="D95" t="n">
-        <v>4.62</v>
+        <v>4.69</v>
       </c>
       <c r="E95" t="n">
-        <v>4.6</v>
+        <v>4.61</v>
       </c>
       <c r="F95" t="n">
-        <v>307283.8301</v>
+        <v>516318.2797</v>
       </c>
       <c r="G95" t="n">
-        <v>4.61333333333334</v>
+        <v>4.60150000000001</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3713,7 +4079,11 @@
       </c>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M95" t="n">
         <v>1</v>
       </c>
@@ -3723,22 +4093,22 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>4.63</v>
+        <v>4.62</v>
       </c>
       <c r="C96" t="n">
         <v>4.6</v>
       </c>
       <c r="D96" t="n">
-        <v>4.63</v>
+        <v>4.62</v>
       </c>
       <c r="E96" t="n">
         <v>4.6</v>
       </c>
       <c r="F96" t="n">
-        <v>46927.8951</v>
+        <v>307283.8301</v>
       </c>
       <c r="G96" t="n">
-        <v>4.60333333333334</v>
+        <v>4.60150000000001</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3748,7 +4118,11 @@
       </c>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M96" t="n">
         <v>1</v>
       </c>
@@ -3758,22 +4132,22 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>4.68</v>
+        <v>4.63</v>
       </c>
       <c r="C97" t="n">
-        <v>4.68</v>
+        <v>4.6</v>
       </c>
       <c r="D97" t="n">
-        <v>4.68</v>
+        <v>4.63</v>
       </c>
       <c r="E97" t="n">
-        <v>4.68</v>
+        <v>4.6</v>
       </c>
       <c r="F97" t="n">
-        <v>12</v>
+        <v>46927.8951</v>
       </c>
       <c r="G97" t="n">
-        <v>4.626666666666673</v>
+        <v>4.60300000000001</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3783,7 +4157,11 @@
       </c>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M97" t="n">
         <v>1</v>
       </c>
@@ -3793,22 +4171,22 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>4.65</v>
+        <v>4.68</v>
       </c>
       <c r="C98" t="n">
-        <v>4.65</v>
+        <v>4.68</v>
       </c>
       <c r="D98" t="n">
-        <v>4.65</v>
+        <v>4.68</v>
       </c>
       <c r="E98" t="n">
-        <v>4.65</v>
+        <v>4.68</v>
       </c>
       <c r="F98" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G98" t="n">
-        <v>4.643333333333341</v>
+        <v>4.603500000000011</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3818,7 +4196,11 @@
       </c>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M98" t="n">
         <v>1</v>
       </c>
@@ -3828,22 +4210,22 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>4.6</v>
+        <v>4.65</v>
       </c>
       <c r="C99" t="n">
-        <v>4.59</v>
+        <v>4.65</v>
       </c>
       <c r="D99" t="n">
-        <v>4.6</v>
+        <v>4.65</v>
       </c>
       <c r="E99" t="n">
-        <v>4.59</v>
+        <v>4.65</v>
       </c>
       <c r="F99" t="n">
-        <v>69265.1439</v>
+        <v>10</v>
       </c>
       <c r="G99" t="n">
-        <v>4.640000000000009</v>
+        <v>4.603666666666678</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -3853,7 +4235,11 @@
       </c>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M99" t="n">
         <v>1</v>
       </c>
@@ -3863,22 +4249,22 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="C100" t="n">
         <v>4.59</v>
       </c>
-      <c r="C100" t="n">
-        <v>4.55</v>
-      </c>
       <c r="D100" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="E100" t="n">
         <v>4.59</v>
       </c>
-      <c r="E100" t="n">
-        <v>4.55</v>
-      </c>
       <c r="F100" t="n">
-        <v>720000.8847000001</v>
+        <v>69265.1439</v>
       </c>
       <c r="G100" t="n">
-        <v>4.596666666666675</v>
+        <v>4.60450000000001</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -3888,7 +4274,11 @@
       </c>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M100" t="n">
         <v>1</v>
       </c>
@@ -3898,22 +4288,22 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>4.64</v>
+        <v>4.59</v>
       </c>
       <c r="C101" t="n">
-        <v>4.61</v>
+        <v>4.55</v>
       </c>
       <c r="D101" t="n">
-        <v>4.64</v>
+        <v>4.59</v>
       </c>
       <c r="E101" t="n">
-        <v>4.61</v>
+        <v>4.55</v>
       </c>
       <c r="F101" t="n">
-        <v>20</v>
+        <v>720000.8847000001</v>
       </c>
       <c r="G101" t="n">
-        <v>4.583333333333341</v>
+        <v>4.60500000000001</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -3923,7 +4313,11 @@
       </c>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M101" t="n">
         <v>1</v>
       </c>
@@ -3933,22 +4327,22 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
+        <v>4.64</v>
+      </c>
+      <c r="C102" t="n">
         <v>4.61</v>
       </c>
-      <c r="C102" t="n">
-        <v>4.55</v>
-      </c>
       <c r="D102" t="n">
+        <v>4.64</v>
+      </c>
+      <c r="E102" t="n">
         <v>4.61</v>
       </c>
-      <c r="E102" t="n">
-        <v>4.55</v>
-      </c>
       <c r="F102" t="n">
-        <v>257748.5422</v>
+        <v>20</v>
       </c>
       <c r="G102" t="n">
-        <v>4.570000000000007</v>
+        <v>4.606833333333344</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -3958,7 +4352,11 @@
       </c>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M102" t="n">
         <v>1</v>
       </c>
@@ -3968,22 +4366,22 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>4.62</v>
+        <v>4.61</v>
       </c>
       <c r="C103" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="D103" t="n">
         <v>4.61</v>
       </c>
-      <c r="D103" t="n">
-        <v>4.62</v>
-      </c>
       <c r="E103" t="n">
-        <v>4.52</v>
+        <v>4.55</v>
       </c>
       <c r="F103" t="n">
-        <v>15102</v>
+        <v>257748.5422</v>
       </c>
       <c r="G103" t="n">
-        <v>4.590000000000007</v>
+        <v>4.607666666666677</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -3993,7 +4391,11 @@
       </c>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M103" t="n">
         <v>1</v>
       </c>
@@ -4003,22 +4405,22 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>4.59</v>
+        <v>4.62</v>
       </c>
       <c r="C104" t="n">
-        <v>4.49</v>
+        <v>4.61</v>
       </c>
       <c r="D104" t="n">
-        <v>4.59</v>
+        <v>4.62</v>
       </c>
       <c r="E104" t="n">
-        <v>4.49</v>
+        <v>4.52</v>
       </c>
       <c r="F104" t="n">
-        <v>242413.5138</v>
+        <v>15102</v>
       </c>
       <c r="G104" t="n">
-        <v>4.550000000000007</v>
+        <v>4.609666666666678</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4028,7 +4430,11 @@
       </c>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M104" t="n">
         <v>1</v>
       </c>
@@ -4038,22 +4444,22 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
+        <v>4.59</v>
+      </c>
+      <c r="C105" t="n">
         <v>4.49</v>
       </c>
-      <c r="C105" t="n">
-        <v>4.46</v>
-      </c>
       <c r="D105" t="n">
+        <v>4.59</v>
+      </c>
+      <c r="E105" t="n">
         <v>4.49</v>
       </c>
-      <c r="E105" t="n">
-        <v>4.46</v>
-      </c>
       <c r="F105" t="n">
-        <v>273417.1912</v>
+        <v>242413.5138</v>
       </c>
       <c r="G105" t="n">
-        <v>4.520000000000007</v>
+        <v>4.608000000000012</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4063,7 +4469,11 @@
       </c>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M105" t="n">
         <v>1</v>
       </c>
@@ -4076,19 +4486,19 @@
         <v>4.49</v>
       </c>
       <c r="C106" t="n">
-        <v>4.49</v>
+        <v>4.46</v>
       </c>
       <c r="D106" t="n">
         <v>4.49</v>
       </c>
       <c r="E106" t="n">
-        <v>4.49</v>
+        <v>4.46</v>
       </c>
       <c r="F106" t="n">
-        <v>31473.4845</v>
+        <v>273417.1912</v>
       </c>
       <c r="G106" t="n">
-        <v>4.480000000000007</v>
+        <v>4.605833333333345</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4098,7 +4508,11 @@
       </c>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M106" t="n">
         <v>1</v>
       </c>
@@ -4111,19 +4525,19 @@
         <v>4.49</v>
       </c>
       <c r="C107" t="n">
-        <v>4.6</v>
+        <v>4.49</v>
       </c>
       <c r="D107" t="n">
-        <v>4.6</v>
+        <v>4.49</v>
       </c>
       <c r="E107" t="n">
         <v>4.49</v>
       </c>
       <c r="F107" t="n">
-        <v>5038.5738</v>
+        <v>31473.4845</v>
       </c>
       <c r="G107" t="n">
-        <v>4.516666666666674</v>
+        <v>4.605500000000012</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4133,7 +4547,11 @@
       </c>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M107" t="n">
         <v>1</v>
       </c>
@@ -4146,19 +4564,19 @@
         <v>4.49</v>
       </c>
       <c r="C108" t="n">
-        <v>4.49</v>
+        <v>4.6</v>
       </c>
       <c r="D108" t="n">
-        <v>4.49</v>
+        <v>4.6</v>
       </c>
       <c r="E108" t="n">
         <v>4.49</v>
       </c>
       <c r="F108" t="n">
-        <v>450089.1954</v>
+        <v>5038.5738</v>
       </c>
       <c r="G108" t="n">
-        <v>4.526666666666673</v>
+        <v>4.605833333333346</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4168,7 +4586,11 @@
       </c>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M108" t="n">
         <v>1</v>
       </c>
@@ -4190,10 +4612,10 @@
         <v>4.49</v>
       </c>
       <c r="F109" t="n">
-        <v>8502.590099999999</v>
+        <v>450089.1954</v>
       </c>
       <c r="G109" t="n">
-        <v>4.526666666666673</v>
+        <v>4.605833333333346</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4203,7 +4625,11 @@
       </c>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M109" t="n">
         <v>1</v>
       </c>
@@ -4213,22 +4639,22 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>4.55</v>
+        <v>4.49</v>
       </c>
       <c r="C110" t="n">
-        <v>4.55</v>
+        <v>4.49</v>
       </c>
       <c r="D110" t="n">
-        <v>4.6</v>
+        <v>4.49</v>
       </c>
       <c r="E110" t="n">
-        <v>4.55</v>
+        <v>4.49</v>
       </c>
       <c r="F110" t="n">
-        <v>596809.9054</v>
+        <v>8502.590099999999</v>
       </c>
       <c r="G110" t="n">
-        <v>4.510000000000007</v>
+        <v>4.60416666666668</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4238,7 +4664,11 @@
       </c>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M110" t="n">
         <v>1</v>
       </c>
@@ -4254,16 +4684,16 @@
         <v>4.55</v>
       </c>
       <c r="D111" t="n">
-        <v>4.55</v>
+        <v>4.6</v>
       </c>
       <c r="E111" t="n">
         <v>4.55</v>
       </c>
       <c r="F111" t="n">
-        <v>17558.6492</v>
+        <v>596809.9054</v>
       </c>
       <c r="G111" t="n">
-        <v>4.530000000000006</v>
+        <v>4.603333333333347</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4273,7 +4703,11 @@
       </c>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M111" t="n">
         <v>1</v>
       </c>
@@ -4295,10 +4729,10 @@
         <v>4.55</v>
       </c>
       <c r="F112" t="n">
-        <v>25342.7292</v>
+        <v>17558.6492</v>
       </c>
       <c r="G112" t="n">
-        <v>4.550000000000006</v>
+        <v>4.60216666666668</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4308,7 +4742,11 @@
       </c>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M112" t="n">
         <v>1</v>
       </c>
@@ -4330,10 +4768,10 @@
         <v>4.55</v>
       </c>
       <c r="F113" t="n">
-        <v>216000.4204</v>
+        <v>25342.7292</v>
       </c>
       <c r="G113" t="n">
-        <v>4.550000000000005</v>
+        <v>4.601000000000013</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4343,7 +4781,11 @@
       </c>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M113" t="n">
         <v>1</v>
       </c>
@@ -4365,10 +4807,10 @@
         <v>4.55</v>
       </c>
       <c r="F114" t="n">
-        <v>20300.6894</v>
+        <v>216000.4204</v>
       </c>
       <c r="G114" t="n">
-        <v>4.550000000000005</v>
+        <v>4.599833333333347</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4378,7 +4820,11 @@
       </c>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M114" t="n">
         <v>1</v>
       </c>
@@ -4388,22 +4834,22 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>4.54</v>
+        <v>4.55</v>
       </c>
       <c r="C115" t="n">
-        <v>4.54</v>
+        <v>4.55</v>
       </c>
       <c r="D115" t="n">
-        <v>4.54</v>
+        <v>4.55</v>
       </c>
       <c r="E115" t="n">
-        <v>4.54</v>
+        <v>4.55</v>
       </c>
       <c r="F115" t="n">
-        <v>29855.7268</v>
+        <v>20300.6894</v>
       </c>
       <c r="G115" t="n">
-        <v>4.546666666666671</v>
+        <v>4.59966666666668</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4413,7 +4859,11 @@
       </c>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M115" t="n">
         <v>1</v>
       </c>
@@ -4426,19 +4876,19 @@
         <v>4.54</v>
       </c>
       <c r="C116" t="n">
-        <v>4.55</v>
+        <v>4.54</v>
       </c>
       <c r="D116" t="n">
-        <v>4.55</v>
+        <v>4.54</v>
       </c>
       <c r="E116" t="n">
         <v>4.54</v>
       </c>
       <c r="F116" t="n">
-        <v>1289193.1886</v>
+        <v>29855.7268</v>
       </c>
       <c r="G116" t="n">
-        <v>4.546666666666671</v>
+        <v>4.600500000000014</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4448,7 +4898,11 @@
       </c>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M116" t="n">
         <v>1</v>
       </c>
@@ -4458,7 +4912,7 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>4.55</v>
+        <v>4.54</v>
       </c>
       <c r="C117" t="n">
         <v>4.55</v>
@@ -4467,13 +4921,13 @@
         <v>4.55</v>
       </c>
       <c r="E117" t="n">
-        <v>4.55</v>
+        <v>4.54</v>
       </c>
       <c r="F117" t="n">
-        <v>70619.02340000001</v>
+        <v>1289193.1886</v>
       </c>
       <c r="G117" t="n">
-        <v>4.546666666666671</v>
+        <v>4.59966666666668</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4483,7 +4937,11 @@
       </c>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M117" t="n">
         <v>1</v>
       </c>
@@ -4493,22 +4951,22 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>4.47</v>
+        <v>4.55</v>
       </c>
       <c r="C118" t="n">
-        <v>4.43</v>
+        <v>4.55</v>
       </c>
       <c r="D118" t="n">
-        <v>4.47</v>
+        <v>4.55</v>
       </c>
       <c r="E118" t="n">
-        <v>4.43</v>
+        <v>4.55</v>
       </c>
       <c r="F118" t="n">
-        <v>464094.8782</v>
+        <v>70619.02340000001</v>
       </c>
       <c r="G118" t="n">
-        <v>4.510000000000005</v>
+        <v>4.599000000000014</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4518,7 +4976,11 @@
       </c>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M118" t="n">
         <v>1</v>
       </c>
@@ -4528,22 +4990,22 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>4.46</v>
+        <v>4.47</v>
       </c>
       <c r="C119" t="n">
-        <v>4.46</v>
+        <v>4.43</v>
       </c>
       <c r="D119" t="n">
-        <v>4.46</v>
+        <v>4.47</v>
       </c>
       <c r="E119" t="n">
-        <v>4.46</v>
+        <v>4.43</v>
       </c>
       <c r="F119" t="n">
-        <v>58932.6431</v>
+        <v>464094.8782</v>
       </c>
       <c r="G119" t="n">
-        <v>4.480000000000005</v>
+        <v>4.596333333333348</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4553,7 +5015,11 @@
       </c>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M119" t="n">
         <v>1</v>
       </c>
@@ -4563,22 +5029,22 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>4.53</v>
+        <v>4.46</v>
       </c>
       <c r="C120" t="n">
-        <v>4.53</v>
+        <v>4.46</v>
       </c>
       <c r="D120" t="n">
-        <v>4.53</v>
+        <v>4.46</v>
       </c>
       <c r="E120" t="n">
-        <v>4.53</v>
+        <v>4.46</v>
       </c>
       <c r="F120" t="n">
-        <v>6108.3885</v>
+        <v>58932.6431</v>
       </c>
       <c r="G120" t="n">
-        <v>4.473333333333339</v>
+        <v>4.594333333333348</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4588,7 +5054,11 @@
       </c>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M120" t="n">
         <v>1</v>
       </c>
@@ -4598,22 +5068,22 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>4.43</v>
+        <v>4.53</v>
       </c>
       <c r="C121" t="n">
-        <v>4.42</v>
+        <v>4.53</v>
       </c>
       <c r="D121" t="n">
-        <v>4.43</v>
+        <v>4.53</v>
       </c>
       <c r="E121" t="n">
-        <v>4.42</v>
+        <v>4.53</v>
       </c>
       <c r="F121" t="n">
-        <v>257974.1378</v>
+        <v>6108.3885</v>
       </c>
       <c r="G121" t="n">
-        <v>4.470000000000006</v>
+        <v>4.591833333333347</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -4623,7 +5093,11 @@
       </c>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M121" t="n">
         <v>1</v>
       </c>
@@ -4633,22 +5107,22 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>4.47</v>
+        <v>4.43</v>
       </c>
       <c r="C122" t="n">
-        <v>4.47</v>
+        <v>4.42</v>
       </c>
       <c r="D122" t="n">
-        <v>4.47</v>
+        <v>4.43</v>
       </c>
       <c r="E122" t="n">
-        <v>4.47</v>
+        <v>4.42</v>
       </c>
       <c r="F122" t="n">
-        <v>20</v>
+        <v>257974.1378</v>
       </c>
       <c r="G122" t="n">
-        <v>4.473333333333339</v>
+        <v>4.588666666666681</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -4658,7 +5132,11 @@
       </c>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M122" t="n">
         <v>1</v>
       </c>
@@ -4671,19 +5149,19 @@
         <v>4.47</v>
       </c>
       <c r="C123" t="n">
-        <v>4.48</v>
+        <v>4.47</v>
       </c>
       <c r="D123" t="n">
-        <v>4.49</v>
+        <v>4.47</v>
       </c>
       <c r="E123" t="n">
         <v>4.47</v>
       </c>
       <c r="F123" t="n">
-        <v>481928.357</v>
+        <v>20</v>
       </c>
       <c r="G123" t="n">
-        <v>4.456666666666671</v>
+        <v>4.586166666666681</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -4693,7 +5171,11 @@
       </c>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M123" t="n">
         <v>1</v>
       </c>
@@ -4703,22 +5185,22 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
+        <v>4.47</v>
+      </c>
+      <c r="C124" t="n">
+        <v>4.48</v>
+      </c>
+      <c r="D124" t="n">
         <v>4.49</v>
       </c>
-      <c r="C124" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="D124" t="n">
-        <v>4.5</v>
-      </c>
       <c r="E124" t="n">
-        <v>4.49</v>
+        <v>4.47</v>
       </c>
       <c r="F124" t="n">
-        <v>15112</v>
+        <v>481928.357</v>
       </c>
       <c r="G124" t="n">
-        <v>4.483333333333339</v>
+        <v>4.583833333333348</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -4728,7 +5210,11 @@
       </c>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M124" t="n">
         <v>1</v>
       </c>
@@ -4738,36 +5224,34 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>4.51</v>
+        <v>4.49</v>
       </c>
       <c r="C125" t="n">
-        <v>4.56</v>
+        <v>4.5</v>
       </c>
       <c r="D125" t="n">
-        <v>4.56</v>
+        <v>4.5</v>
       </c>
       <c r="E125" t="n">
-        <v>4.47</v>
+        <v>4.49</v>
       </c>
       <c r="F125" t="n">
-        <v>492187.777</v>
+        <v>15112</v>
       </c>
       <c r="G125" t="n">
-        <v>4.513333333333339</v>
+        <v>4.582500000000015</v>
       </c>
       <c r="H125" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I125" t="n">
         <v>0</v>
       </c>
-      <c r="J125" t="n">
-        <v>4.5</v>
-      </c>
+      <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
       <c r="L125" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M125" t="n">
@@ -4779,22 +5263,22 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>4.5</v>
+        <v>4.51</v>
       </c>
       <c r="C126" t="n">
-        <v>4.42</v>
+        <v>4.56</v>
       </c>
       <c r="D126" t="n">
-        <v>4.5</v>
+        <v>4.56</v>
       </c>
       <c r="E126" t="n">
-        <v>4.42</v>
+        <v>4.47</v>
       </c>
       <c r="F126" t="n">
-        <v>492158.0842</v>
+        <v>492187.777</v>
       </c>
       <c r="G126" t="n">
-        <v>4.493333333333339</v>
+        <v>4.581166666666681</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -4818,22 +5302,22 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>4.53</v>
+        <v>4.5</v>
       </c>
       <c r="C127" t="n">
-        <v>4.49</v>
+        <v>4.42</v>
       </c>
       <c r="D127" t="n">
-        <v>4.53</v>
+        <v>4.5</v>
       </c>
       <c r="E127" t="n">
-        <v>4.48</v>
+        <v>4.42</v>
       </c>
       <c r="F127" t="n">
-        <v>216872.8691</v>
+        <v>492158.0842</v>
       </c>
       <c r="G127" t="n">
-        <v>4.490000000000005</v>
+        <v>4.578166666666681</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -4857,22 +5341,22 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>4.44</v>
+        <v>4.53</v>
       </c>
       <c r="C128" t="n">
-        <v>4.43</v>
+        <v>4.49</v>
       </c>
       <c r="D128" t="n">
-        <v>4.44</v>
+        <v>4.53</v>
       </c>
       <c r="E128" t="n">
-        <v>4.43</v>
+        <v>4.48</v>
       </c>
       <c r="F128" t="n">
-        <v>268051.4885</v>
+        <v>216872.8691</v>
       </c>
       <c r="G128" t="n">
-        <v>4.446666666666672</v>
+        <v>4.576000000000016</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -4896,22 +5380,22 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>4.47</v>
+        <v>4.44</v>
       </c>
       <c r="C129" t="n">
-        <v>4.47</v>
+        <v>4.43</v>
       </c>
       <c r="D129" t="n">
-        <v>4.47</v>
+        <v>4.44</v>
       </c>
       <c r="E129" t="n">
-        <v>4.42</v>
+        <v>4.43</v>
       </c>
       <c r="F129" t="n">
-        <v>994676.0965</v>
+        <v>268051.4885</v>
       </c>
       <c r="G129" t="n">
-        <v>4.463333333333337</v>
+        <v>4.573333333333349</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -4935,7 +5419,7 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>4.41</v>
+        <v>4.47</v>
       </c>
       <c r="C130" t="n">
         <v>4.47</v>
@@ -4944,13 +5428,13 @@
         <v>4.47</v>
       </c>
       <c r="E130" t="n">
-        <v>4.4</v>
+        <v>4.42</v>
       </c>
       <c r="F130" t="n">
-        <v>1157557.5942</v>
+        <v>994676.0965</v>
       </c>
       <c r="G130" t="n">
-        <v>4.456666666666671</v>
+        <v>4.57133333333335</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -4983,13 +5467,13 @@
         <v>4.47</v>
       </c>
       <c r="E131" t="n">
-        <v>4.41</v>
+        <v>4.4</v>
       </c>
       <c r="F131" t="n">
-        <v>6103.1176</v>
+        <v>1157557.5942</v>
       </c>
       <c r="G131" t="n">
-        <v>4.470000000000005</v>
+        <v>4.569666666666683</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -5013,22 +5497,22 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>4.42</v>
+        <v>4.41</v>
       </c>
       <c r="C132" t="n">
-        <v>4.42</v>
+        <v>4.47</v>
       </c>
       <c r="D132" t="n">
-        <v>4.42</v>
+        <v>4.47</v>
       </c>
       <c r="E132" t="n">
-        <v>4.42</v>
+        <v>4.41</v>
       </c>
       <c r="F132" t="n">
-        <v>154673.5313</v>
+        <v>6103.1176</v>
       </c>
       <c r="G132" t="n">
-        <v>4.453333333333338</v>
+        <v>4.567833333333351</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5052,22 +5536,22 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>4.47</v>
+        <v>4.42</v>
       </c>
       <c r="C133" t="n">
-        <v>4.47</v>
+        <v>4.42</v>
       </c>
       <c r="D133" t="n">
-        <v>4.47</v>
+        <v>4.42</v>
       </c>
       <c r="E133" t="n">
-        <v>4.47</v>
+        <v>4.42</v>
       </c>
       <c r="F133" t="n">
-        <v>10</v>
+        <v>154673.5313</v>
       </c>
       <c r="G133" t="n">
-        <v>4.453333333333338</v>
+        <v>4.564166666666685</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5103,10 +5587,10 @@
         <v>4.47</v>
       </c>
       <c r="F134" t="n">
-        <v>55380</v>
+        <v>10</v>
       </c>
       <c r="G134" t="n">
-        <v>4.453333333333338</v>
+        <v>4.562166666666686</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5142,10 +5626,10 @@
         <v>4.47</v>
       </c>
       <c r="F135" t="n">
-        <v>60546.8045</v>
+        <v>55380</v>
       </c>
       <c r="G135" t="n">
-        <v>4.470000000000004</v>
+        <v>4.558833333333353</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5169,7 +5653,7 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>4.42</v>
+        <v>4.47</v>
       </c>
       <c r="C136" t="n">
         <v>4.47</v>
@@ -5178,13 +5662,13 @@
         <v>4.47</v>
       </c>
       <c r="E136" t="n">
-        <v>4.42</v>
+        <v>4.47</v>
       </c>
       <c r="F136" t="n">
-        <v>315919.5261</v>
+        <v>60546.8045</v>
       </c>
       <c r="G136" t="n">
-        <v>4.470000000000005</v>
+        <v>4.555333333333353</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5208,7 +5692,7 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>4.45</v>
+        <v>4.42</v>
       </c>
       <c r="C137" t="n">
         <v>4.47</v>
@@ -5217,13 +5701,13 @@
         <v>4.47</v>
       </c>
       <c r="E137" t="n">
-        <v>4.44</v>
+        <v>4.42</v>
       </c>
       <c r="F137" t="n">
-        <v>208512.3932</v>
+        <v>315919.5261</v>
       </c>
       <c r="G137" t="n">
-        <v>4.470000000000005</v>
+        <v>4.55300000000002</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -5247,22 +5731,22 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="C138" t="n">
         <v>4.47</v>
       </c>
-      <c r="C138" t="n">
-        <v>4.58</v>
-      </c>
       <c r="D138" t="n">
-        <v>4.58</v>
+        <v>4.47</v>
       </c>
       <c r="E138" t="n">
-        <v>4.47</v>
+        <v>4.44</v>
       </c>
       <c r="F138" t="n">
-        <v>291688.1849</v>
+        <v>208512.3932</v>
       </c>
       <c r="G138" t="n">
-        <v>4.506666666666672</v>
+        <v>4.550833333333354</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -5286,22 +5770,22 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>4.46</v>
+        <v>4.47</v>
       </c>
       <c r="C139" t="n">
-        <v>4.46</v>
+        <v>4.58</v>
       </c>
       <c r="D139" t="n">
-        <v>4.46</v>
+        <v>4.58</v>
       </c>
       <c r="E139" t="n">
-        <v>4.46</v>
+        <v>4.47</v>
       </c>
       <c r="F139" t="n">
-        <v>10320.0668</v>
+        <v>291688.1849</v>
       </c>
       <c r="G139" t="n">
-        <v>4.50333333333334</v>
+        <v>4.550666666666687</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -5325,22 +5809,22 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>4.56</v>
+        <v>4.46</v>
       </c>
       <c r="C140" t="n">
-        <v>4.56</v>
+        <v>4.46</v>
       </c>
       <c r="D140" t="n">
-        <v>4.56</v>
+        <v>4.46</v>
       </c>
       <c r="E140" t="n">
         <v>4.46</v>
       </c>
       <c r="F140" t="n">
-        <v>90020</v>
+        <v>10320.0668</v>
       </c>
       <c r="G140" t="n">
-        <v>4.533333333333339</v>
+        <v>4.548166666666686</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -5364,22 +5848,22 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>4.44</v>
+        <v>4.56</v>
       </c>
       <c r="C141" t="n">
-        <v>4.53</v>
+        <v>4.56</v>
       </c>
       <c r="D141" t="n">
-        <v>4.53</v>
+        <v>4.56</v>
       </c>
       <c r="E141" t="n">
-        <v>4.44</v>
+        <v>4.46</v>
       </c>
       <c r="F141" t="n">
-        <v>80010</v>
+        <v>90020</v>
       </c>
       <c r="G141" t="n">
-        <v>4.516666666666674</v>
+        <v>4.547166666666686</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -5406,19 +5890,19 @@
         <v>4.44</v>
       </c>
       <c r="C142" t="n">
-        <v>4.54</v>
+        <v>4.53</v>
       </c>
       <c r="D142" t="n">
-        <v>4.54</v>
+        <v>4.53</v>
       </c>
       <c r="E142" t="n">
-        <v>4.43</v>
+        <v>4.44</v>
       </c>
       <c r="F142" t="n">
-        <v>100020</v>
+        <v>80010</v>
       </c>
       <c r="G142" t="n">
-        <v>4.54333333333334</v>
+        <v>4.546166666666687</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -5445,19 +5929,19 @@
         <v>4.44</v>
       </c>
       <c r="C143" t="n">
-        <v>4.52</v>
+        <v>4.54</v>
       </c>
       <c r="D143" t="n">
-        <v>4.53</v>
+        <v>4.54</v>
       </c>
       <c r="E143" t="n">
-        <v>4.44</v>
+        <v>4.43</v>
       </c>
       <c r="F143" t="n">
-        <v>86435.61259999999</v>
+        <v>100020</v>
       </c>
       <c r="G143" t="n">
-        <v>4.530000000000007</v>
+        <v>4.544166666666686</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -5481,22 +5965,22 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>4.43</v>
+        <v>4.44</v>
       </c>
       <c r="C144" t="n">
-        <v>4.53</v>
+        <v>4.52</v>
       </c>
       <c r="D144" t="n">
         <v>4.53</v>
       </c>
       <c r="E144" t="n">
-        <v>4.43</v>
+        <v>4.44</v>
       </c>
       <c r="F144" t="n">
-        <v>100010</v>
+        <v>86435.61259999999</v>
       </c>
       <c r="G144" t="n">
-        <v>4.530000000000007</v>
+        <v>4.541666666666686</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -5523,7 +6007,7 @@
         <v>4.43</v>
       </c>
       <c r="C145" t="n">
-        <v>4.51</v>
+        <v>4.53</v>
       </c>
       <c r="D145" t="n">
         <v>4.53</v>
@@ -5532,10 +6016,10 @@
         <v>4.43</v>
       </c>
       <c r="F145" t="n">
-        <v>268828.4271</v>
+        <v>100010</v>
       </c>
       <c r="G145" t="n">
-        <v>4.520000000000008</v>
+        <v>4.539500000000018</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -5562,19 +6046,19 @@
         <v>4.43</v>
       </c>
       <c r="C146" t="n">
-        <v>4.5</v>
+        <v>4.51</v>
       </c>
       <c r="D146" t="n">
-        <v>4.5</v>
+        <v>4.53</v>
       </c>
       <c r="E146" t="n">
         <v>4.43</v>
       </c>
       <c r="F146" t="n">
-        <v>125722</v>
+        <v>268828.4271</v>
       </c>
       <c r="G146" t="n">
-        <v>4.513333333333342</v>
+        <v>4.538666666666685</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -5598,7 +6082,7 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>4.5</v>
+        <v>4.43</v>
       </c>
       <c r="C147" t="n">
         <v>4.5</v>
@@ -5607,13 +6091,13 @@
         <v>4.5</v>
       </c>
       <c r="E147" t="n">
-        <v>4.5</v>
+        <v>4.43</v>
       </c>
       <c r="F147" t="n">
-        <v>60870</v>
+        <v>125722</v>
       </c>
       <c r="G147" t="n">
-        <v>4.503333333333341</v>
+        <v>4.535166666666685</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -5637,22 +6121,22 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>4.53</v>
+        <v>4.5</v>
       </c>
       <c r="C148" t="n">
-        <v>4.53</v>
+        <v>4.5</v>
       </c>
       <c r="D148" t="n">
-        <v>4.53</v>
+        <v>4.5</v>
       </c>
       <c r="E148" t="n">
-        <v>4.53</v>
+        <v>4.5</v>
       </c>
       <c r="F148" t="n">
-        <v>10</v>
+        <v>60870</v>
       </c>
       <c r="G148" t="n">
-        <v>4.510000000000008</v>
+        <v>4.533166666666685</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -5676,22 +6160,22 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>4.5</v>
+        <v>4.53</v>
       </c>
       <c r="C149" t="n">
-        <v>4.5</v>
+        <v>4.53</v>
       </c>
       <c r="D149" t="n">
-        <v>4.5</v>
+        <v>4.53</v>
       </c>
       <c r="E149" t="n">
-        <v>4.5</v>
+        <v>4.53</v>
       </c>
       <c r="F149" t="n">
-        <v>14651</v>
+        <v>10</v>
       </c>
       <c r="G149" t="n">
-        <v>4.510000000000008</v>
+        <v>4.530500000000018</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -5715,22 +6199,22 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>4.51</v>
+        <v>4.5</v>
       </c>
       <c r="C150" t="n">
-        <v>4.51</v>
+        <v>4.5</v>
       </c>
       <c r="D150" t="n">
-        <v>4.51</v>
+        <v>4.5</v>
       </c>
       <c r="E150" t="n">
-        <v>4.51</v>
+        <v>4.5</v>
       </c>
       <c r="F150" t="n">
-        <v>51857.2996</v>
+        <v>14651</v>
       </c>
       <c r="G150" t="n">
-        <v>4.51333333333334</v>
+        <v>4.527333333333351</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -5754,22 +6238,22 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>4.53</v>
+        <v>4.51</v>
       </c>
       <c r="C151" t="n">
-        <v>4.53</v>
+        <v>4.51</v>
       </c>
       <c r="D151" t="n">
-        <v>4.53</v>
+        <v>4.51</v>
       </c>
       <c r="E151" t="n">
-        <v>4.53</v>
+        <v>4.51</v>
       </c>
       <c r="F151" t="n">
-        <v>34893</v>
+        <v>51857.2996</v>
       </c>
       <c r="G151" t="n">
-        <v>4.51333333333334</v>
+        <v>4.525333333333351</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -5793,22 +6277,22 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>4.56</v>
+        <v>4.53</v>
       </c>
       <c r="C152" t="n">
-        <v>4.56</v>
+        <v>4.53</v>
       </c>
       <c r="D152" t="n">
-        <v>4.56</v>
+        <v>4.53</v>
       </c>
       <c r="E152" t="n">
-        <v>4.56</v>
+        <v>4.53</v>
       </c>
       <c r="F152" t="n">
-        <v>52893.6403</v>
+        <v>34893</v>
       </c>
       <c r="G152" t="n">
-        <v>4.533333333333339</v>
+        <v>4.524166666666684</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -5832,22 +6316,22 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>4.54</v>
+        <v>4.56</v>
       </c>
       <c r="C153" t="n">
-        <v>4.54</v>
+        <v>4.56</v>
       </c>
       <c r="D153" t="n">
-        <v>4.54</v>
+        <v>4.56</v>
       </c>
       <c r="E153" t="n">
-        <v>4.54</v>
+        <v>4.56</v>
       </c>
       <c r="F153" t="n">
-        <v>80921.10129999999</v>
+        <v>52893.6403</v>
       </c>
       <c r="G153" t="n">
-        <v>4.543333333333339</v>
+        <v>4.522000000000017</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -5871,22 +6355,22 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>4.5</v>
+        <v>4.54</v>
       </c>
       <c r="C154" t="n">
-        <v>4.5</v>
+        <v>4.54</v>
       </c>
       <c r="D154" t="n">
-        <v>4.5</v>
+        <v>4.54</v>
       </c>
       <c r="E154" t="n">
-        <v>4.5</v>
+        <v>4.54</v>
       </c>
       <c r="F154" t="n">
-        <v>9723.546200000001</v>
+        <v>80921.10129999999</v>
       </c>
       <c r="G154" t="n">
-        <v>4.533333333333339</v>
+        <v>4.520500000000017</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -5910,22 +6394,22 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>4.51</v>
+        <v>4.5</v>
       </c>
       <c r="C155" t="n">
-        <v>4.51</v>
+        <v>4.5</v>
       </c>
       <c r="D155" t="n">
-        <v>4.51</v>
+        <v>4.5</v>
       </c>
       <c r="E155" t="n">
-        <v>4.51</v>
+        <v>4.5</v>
       </c>
       <c r="F155" t="n">
-        <v>15081.9999</v>
+        <v>9723.546200000001</v>
       </c>
       <c r="G155" t="n">
-        <v>4.516666666666672</v>
+        <v>4.518666666666684</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -5961,10 +6445,10 @@
         <v>4.51</v>
       </c>
       <c r="F156" t="n">
-        <v>24749.9999</v>
+        <v>15081.9999</v>
       </c>
       <c r="G156" t="n">
-        <v>4.506666666666672</v>
+        <v>4.517166666666683</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -5988,22 +6472,22 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>4.55</v>
+        <v>4.51</v>
       </c>
       <c r="C157" t="n">
         <v>4.51</v>
       </c>
       <c r="D157" t="n">
-        <v>4.55</v>
+        <v>4.51</v>
       </c>
       <c r="E157" t="n">
         <v>4.51</v>
       </c>
       <c r="F157" t="n">
-        <v>9946.604499999999</v>
+        <v>24749.9999</v>
       </c>
       <c r="G157" t="n">
-        <v>4.510000000000005</v>
+        <v>4.515666666666683</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -6027,22 +6511,22 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>4.53</v>
+        <v>4.55</v>
       </c>
       <c r="C158" t="n">
-        <v>4.53</v>
+        <v>4.51</v>
       </c>
       <c r="D158" t="n">
-        <v>4.53</v>
+        <v>4.55</v>
       </c>
       <c r="E158" t="n">
-        <v>4.53</v>
+        <v>4.51</v>
       </c>
       <c r="F158" t="n">
-        <v>10</v>
+        <v>9946.604499999999</v>
       </c>
       <c r="G158" t="n">
-        <v>4.516666666666672</v>
+        <v>4.512833333333349</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -6066,22 +6550,22 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>4.51</v>
+        <v>4.53</v>
       </c>
       <c r="C159" t="n">
-        <v>4.5</v>
+        <v>4.53</v>
       </c>
       <c r="D159" t="n">
-        <v>4.51</v>
+        <v>4.53</v>
       </c>
       <c r="E159" t="n">
-        <v>4.5</v>
+        <v>4.53</v>
       </c>
       <c r="F159" t="n">
-        <v>91314.4507</v>
+        <v>10</v>
       </c>
       <c r="G159" t="n">
-        <v>4.51333333333334</v>
+        <v>4.510833333333349</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -6105,22 +6589,22 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>4.53</v>
+        <v>4.51</v>
       </c>
       <c r="C160" t="n">
-        <v>4.53</v>
+        <v>4.5</v>
       </c>
       <c r="D160" t="n">
-        <v>4.53</v>
+        <v>4.51</v>
       </c>
       <c r="E160" t="n">
-        <v>4.53</v>
+        <v>4.5</v>
       </c>
       <c r="F160" t="n">
-        <v>22075.0551</v>
+        <v>91314.4507</v>
       </c>
       <c r="G160" t="n">
-        <v>4.520000000000006</v>
+        <v>4.509333333333349</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -6156,10 +6640,10 @@
         <v>4.53</v>
       </c>
       <c r="F161" t="n">
-        <v>56244.7866</v>
+        <v>22075.0551</v>
       </c>
       <c r="G161" t="n">
-        <v>4.520000000000006</v>
+        <v>4.509000000000015</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -6183,22 +6667,22 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>4.51</v>
+        <v>4.53</v>
       </c>
       <c r="C162" t="n">
-        <v>4.5</v>
+        <v>4.53</v>
       </c>
       <c r="D162" t="n">
-        <v>4.51</v>
+        <v>4.53</v>
       </c>
       <c r="E162" t="n">
-        <v>4.5</v>
+        <v>4.53</v>
       </c>
       <c r="F162" t="n">
-        <v>289035.7276</v>
+        <v>56244.7866</v>
       </c>
       <c r="G162" t="n">
-        <v>4.520000000000006</v>
+        <v>4.507666666666681</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -6222,22 +6706,22 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>4.5</v>
+        <v>4.51</v>
       </c>
       <c r="C163" t="n">
         <v>4.5</v>
       </c>
       <c r="D163" t="n">
-        <v>4.5</v>
+        <v>4.51</v>
       </c>
       <c r="E163" t="n">
         <v>4.5</v>
       </c>
       <c r="F163" t="n">
-        <v>82671.2687</v>
+        <v>289035.7276</v>
       </c>
       <c r="G163" t="n">
-        <v>4.510000000000005</v>
+        <v>4.506833333333348</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -6261,22 +6745,22 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>4.48</v>
+        <v>4.5</v>
       </c>
       <c r="C164" t="n">
-        <v>4.47</v>
+        <v>4.5</v>
       </c>
       <c r="D164" t="n">
-        <v>4.48</v>
+        <v>4.5</v>
       </c>
       <c r="E164" t="n">
-        <v>4.47</v>
+        <v>4.5</v>
       </c>
       <c r="F164" t="n">
-        <v>62573.7897</v>
+        <v>82671.2687</v>
       </c>
       <c r="G164" t="n">
-        <v>4.490000000000005</v>
+        <v>4.505000000000014</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -6300,22 +6784,22 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>4.53</v>
+        <v>4.48</v>
       </c>
       <c r="C165" t="n">
-        <v>4.53</v>
+        <v>4.47</v>
       </c>
       <c r="D165" t="n">
-        <v>4.53</v>
+        <v>4.48</v>
       </c>
       <c r="E165" t="n">
-        <v>4.53</v>
+        <v>4.47</v>
       </c>
       <c r="F165" t="n">
-        <v>2160.0005</v>
+        <v>62573.7897</v>
       </c>
       <c r="G165" t="n">
-        <v>4.500000000000004</v>
+        <v>4.504666666666681</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -6342,19 +6826,19 @@
         <v>4.53</v>
       </c>
       <c r="C166" t="n">
-        <v>4.6</v>
+        <v>4.53</v>
       </c>
       <c r="D166" t="n">
-        <v>4.6</v>
+        <v>4.53</v>
       </c>
       <c r="E166" t="n">
         <v>4.53</v>
       </c>
       <c r="F166" t="n">
-        <v>222652.2492</v>
+        <v>2160.0005</v>
       </c>
       <c r="G166" t="n">
-        <v>4.533333333333339</v>
+        <v>4.505833333333348</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -6378,22 +6862,22 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>4.55</v>
+        <v>4.53</v>
       </c>
       <c r="C167" t="n">
-        <v>4.55</v>
+        <v>4.6</v>
       </c>
       <c r="D167" t="n">
-        <v>4.55</v>
+        <v>4.6</v>
       </c>
       <c r="E167" t="n">
-        <v>4.55</v>
+        <v>4.53</v>
       </c>
       <c r="F167" t="n">
-        <v>41042.1978</v>
+        <v>222652.2492</v>
       </c>
       <c r="G167" t="n">
-        <v>4.560000000000006</v>
+        <v>4.507666666666681</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -6429,10 +6913,10 @@
         <v>4.55</v>
       </c>
       <c r="F168" t="n">
-        <v>18872.3076</v>
+        <v>41042.1978</v>
       </c>
       <c r="G168" t="n">
-        <v>4.566666666666673</v>
+        <v>4.506833333333348</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -6456,22 +6940,22 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>4.53</v>
+        <v>4.55</v>
       </c>
       <c r="C169" t="n">
-        <v>4.53</v>
+        <v>4.55</v>
       </c>
       <c r="D169" t="n">
-        <v>4.53</v>
+        <v>4.55</v>
       </c>
       <c r="E169" t="n">
-        <v>4.53</v>
+        <v>4.55</v>
       </c>
       <c r="F169" t="n">
-        <v>863.8702</v>
+        <v>18872.3076</v>
       </c>
       <c r="G169" t="n">
-        <v>4.543333333333339</v>
+        <v>4.507833333333348</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -6495,22 +6979,22 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>4.48</v>
+        <v>4.53</v>
       </c>
       <c r="C170" t="n">
-        <v>4.48</v>
+        <v>4.53</v>
       </c>
       <c r="D170" t="n">
-        <v>4.48</v>
+        <v>4.53</v>
       </c>
       <c r="E170" t="n">
-        <v>4.48</v>
+        <v>4.53</v>
       </c>
       <c r="F170" t="n">
-        <v>18825.1268</v>
+        <v>863.8702</v>
       </c>
       <c r="G170" t="n">
-        <v>4.520000000000007</v>
+        <v>4.508500000000014</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -6534,22 +7018,22 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>4.5</v>
+        <v>4.48</v>
       </c>
       <c r="C171" t="n">
-        <v>4.5</v>
+        <v>4.48</v>
       </c>
       <c r="D171" t="n">
-        <v>4.5</v>
+        <v>4.48</v>
       </c>
       <c r="E171" t="n">
-        <v>4.5</v>
+        <v>4.48</v>
       </c>
       <c r="F171" t="n">
-        <v>13908.8283</v>
+        <v>18825.1268</v>
       </c>
       <c r="G171" t="n">
-        <v>4.50333333333334</v>
+        <v>4.507333333333348</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -6573,22 +7057,22 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>4.51</v>
+        <v>4.5</v>
       </c>
       <c r="C172" t="n">
         <v>4.5</v>
       </c>
       <c r="D172" t="n">
-        <v>4.51</v>
+        <v>4.5</v>
       </c>
       <c r="E172" t="n">
         <v>4.5</v>
       </c>
       <c r="F172" t="n">
-        <v>225917</v>
+        <v>13908.8283</v>
       </c>
       <c r="G172" t="n">
-        <v>4.493333333333339</v>
+        <v>4.506500000000014</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -6612,22 +7096,22 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>4.5</v>
+        <v>4.51</v>
       </c>
       <c r="C173" t="n">
         <v>4.5</v>
       </c>
       <c r="D173" t="n">
-        <v>4.5</v>
+        <v>4.51</v>
       </c>
       <c r="E173" t="n">
         <v>4.5</v>
       </c>
       <c r="F173" t="n">
-        <v>100405.4955</v>
+        <v>225917</v>
       </c>
       <c r="G173" t="n">
-        <v>4.500000000000006</v>
+        <v>4.505666666666681</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -6663,10 +7147,10 @@
         <v>4.5</v>
       </c>
       <c r="F174" t="n">
-        <v>145976.6619</v>
+        <v>100405.4955</v>
       </c>
       <c r="G174" t="n">
-        <v>4.500000000000006</v>
+        <v>4.504833333333347</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -6702,10 +7186,10 @@
         <v>4.5</v>
       </c>
       <c r="F175" t="n">
-        <v>21058.9593</v>
+        <v>145976.6619</v>
       </c>
       <c r="G175" t="n">
-        <v>4.500000000000006</v>
+        <v>4.504000000000014</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -6729,22 +7213,22 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>4.53</v>
+        <v>4.5</v>
       </c>
       <c r="C176" t="n">
-        <v>4.53</v>
+        <v>4.5</v>
       </c>
       <c r="D176" t="n">
-        <v>4.53</v>
+        <v>4.5</v>
       </c>
       <c r="E176" t="n">
-        <v>4.53</v>
+        <v>4.5</v>
       </c>
       <c r="F176" t="n">
-        <v>44150.11037527</v>
+        <v>21058.9593</v>
       </c>
       <c r="G176" t="n">
-        <v>4.510000000000006</v>
+        <v>4.503333333333346</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -6768,22 +7252,22 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>4.5</v>
+        <v>4.53</v>
       </c>
       <c r="C177" t="n">
-        <v>4.47</v>
+        <v>4.53</v>
       </c>
       <c r="D177" t="n">
-        <v>4.5</v>
+        <v>4.53</v>
       </c>
       <c r="E177" t="n">
-        <v>4.47</v>
+        <v>4.53</v>
       </c>
       <c r="F177" t="n">
-        <v>90000</v>
+        <v>44150.11037527</v>
       </c>
       <c r="G177" t="n">
-        <v>4.500000000000006</v>
+        <v>4.503000000000013</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -6807,22 +7291,22 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>4.54</v>
+        <v>4.5</v>
       </c>
       <c r="C178" t="n">
-        <v>4.54</v>
+        <v>4.47</v>
       </c>
       <c r="D178" t="n">
-        <v>4.54</v>
+        <v>4.5</v>
       </c>
       <c r="E178" t="n">
-        <v>4.54</v>
+        <v>4.47</v>
       </c>
       <c r="F178" t="n">
-        <v>8330.3964</v>
+        <v>90000</v>
       </c>
       <c r="G178" t="n">
-        <v>4.513333333333339</v>
+        <v>4.501666666666679</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -6858,10 +7342,10 @@
         <v>4.54</v>
       </c>
       <c r="F179" t="n">
-        <v>139801.3152</v>
+        <v>8330.3964</v>
       </c>
       <c r="G179" t="n">
-        <v>4.516666666666672</v>
+        <v>4.503500000000013</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -6885,22 +7369,22 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>4.55</v>
+        <v>4.54</v>
       </c>
       <c r="C180" t="n">
-        <v>4.55</v>
+        <v>4.54</v>
       </c>
       <c r="D180" t="n">
-        <v>4.55</v>
+        <v>4.54</v>
       </c>
       <c r="E180" t="n">
-        <v>4.55</v>
+        <v>4.54</v>
       </c>
       <c r="F180" t="n">
-        <v>2288.5143</v>
+        <v>139801.3152</v>
       </c>
       <c r="G180" t="n">
-        <v>4.543333333333339</v>
+        <v>4.504833333333347</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -6924,22 +7408,22 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>4.58</v>
+        <v>4.55</v>
       </c>
       <c r="C181" t="n">
-        <v>4.57</v>
+        <v>4.55</v>
       </c>
       <c r="D181" t="n">
-        <v>4.58</v>
+        <v>4.55</v>
       </c>
       <c r="E181" t="n">
-        <v>4.56</v>
+        <v>4.55</v>
       </c>
       <c r="F181" t="n">
-        <v>230033.3876</v>
+        <v>2288.5143</v>
       </c>
       <c r="G181" t="n">
-        <v>4.553333333333339</v>
+        <v>4.505166666666681</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -6963,22 +7447,22 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>4.57</v>
+        <v>4.58</v>
       </c>
       <c r="C182" t="n">
         <v>4.57</v>
       </c>
       <c r="D182" t="n">
-        <v>4.57</v>
+        <v>4.58</v>
       </c>
       <c r="E182" t="n">
-        <v>4.57</v>
+        <v>4.56</v>
       </c>
       <c r="F182" t="n">
-        <v>20697.8118</v>
+        <v>230033.3876</v>
       </c>
       <c r="G182" t="n">
-        <v>4.56333333333334</v>
+        <v>4.50766666666668</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -7002,22 +7486,22 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>4.58</v>
+        <v>4.57</v>
       </c>
       <c r="C183" t="n">
         <v>4.57</v>
       </c>
       <c r="D183" t="n">
-        <v>4.58</v>
+        <v>4.57</v>
       </c>
       <c r="E183" t="n">
         <v>4.57</v>
       </c>
       <c r="F183" t="n">
-        <v>20675.286</v>
+        <v>20697.8118</v>
       </c>
       <c r="G183" t="n">
-        <v>4.570000000000007</v>
+        <v>4.509333333333347</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -7041,37 +7525,39 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>4.57</v>
+        <v>4.58</v>
       </c>
       <c r="C184" t="n">
         <v>4.57</v>
       </c>
       <c r="D184" t="n">
-        <v>4.57</v>
+        <v>4.58</v>
       </c>
       <c r="E184" t="n">
         <v>4.57</v>
       </c>
       <c r="F184" t="n">
-        <v>10447.4835</v>
+        <v>20675.286</v>
       </c>
       <c r="G184" t="n">
-        <v>4.570000000000007</v>
+        <v>4.510833333333347</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
       </c>
       <c r="I184" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr"/>
       <c r="L184" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M184" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M184" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -7081,19 +7567,19 @@
         <v>4.57</v>
       </c>
       <c r="C185" t="n">
-        <v>4.56</v>
+        <v>4.57</v>
       </c>
       <c r="D185" t="n">
         <v>4.57</v>
       </c>
       <c r="E185" t="n">
-        <v>4.56</v>
+        <v>4.57</v>
       </c>
       <c r="F185" t="n">
-        <v>80910.47349999999</v>
+        <v>10447.4835</v>
       </c>
       <c r="G185" t="n">
-        <v>4.566666666666673</v>
+        <v>4.512000000000013</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -7103,32 +7589,34 @@
       </c>
       <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr"/>
-      <c r="M185" t="n">
-        <v>1</v>
-      </c>
+      <c r="L185" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>4.6</v>
+        <v>4.57</v>
       </c>
       <c r="C186" t="n">
-        <v>4.6</v>
+        <v>4.56</v>
       </c>
       <c r="D186" t="n">
-        <v>4.6</v>
+        <v>4.57</v>
       </c>
       <c r="E186" t="n">
-        <v>4.6</v>
+        <v>4.56</v>
       </c>
       <c r="F186" t="n">
-        <v>1918.5853</v>
+        <v>80910.47349999999</v>
       </c>
       <c r="G186" t="n">
-        <v>4.576666666666672</v>
+        <v>4.512000000000013</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -7148,22 +7636,22 @@
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>4.57</v>
+        <v>4.6</v>
       </c>
       <c r="C187" t="n">
-        <v>4.57</v>
+        <v>4.6</v>
       </c>
       <c r="D187" t="n">
-        <v>4.57</v>
+        <v>4.6</v>
       </c>
       <c r="E187" t="n">
-        <v>4.57</v>
+        <v>4.6</v>
       </c>
       <c r="F187" t="n">
-        <v>139606</v>
+        <v>1918.5853</v>
       </c>
       <c r="G187" t="n">
-        <v>4.576666666666672</v>
+        <v>4.515000000000013</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -7178,6 +7666,41 @@
         <v>1</v>
       </c>
     </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="n">
+        <v>4.57</v>
+      </c>
+      <c r="C188" t="n">
+        <v>4.57</v>
+      </c>
+      <c r="D188" t="n">
+        <v>4.57</v>
+      </c>
+      <c r="E188" t="n">
+        <v>4.57</v>
+      </c>
+      <c r="F188" t="n">
+        <v>139606</v>
+      </c>
+      <c r="G188" t="n">
+        <v>4.516333333333346</v>
+      </c>
+      <c r="H188" t="n">
+        <v>0</v>
+      </c>
+      <c r="I188" t="n">
+        <v>1</v>
+      </c>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="inlineStr"/>
+      <c r="L188" t="inlineStr"/>
+      <c r="M188" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/BackTest/2019-10-31 BackTest XVG.xlsx
+++ b/BackTest/2019-10-31 BackTest XVG.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M227"/>
+  <dimension ref="A1:N185"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -427,28 +427,33 @@
           <t>Profits</t>
         </is>
       </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Price_point</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>4.47</v>
+        <v>4.69</v>
       </c>
       <c r="C2" t="n">
-        <v>4.79</v>
+        <v>4.76</v>
       </c>
       <c r="D2" t="n">
-        <v>4.8</v>
+        <v>4.76</v>
       </c>
       <c r="E2" t="n">
-        <v>4.47</v>
+        <v>4.62</v>
       </c>
       <c r="F2" t="n">
-        <v>1326190.00846563</v>
+        <v>184469.6359</v>
       </c>
       <c r="G2" t="n">
-        <v>-403911.1424757401</v>
+        <v>4.696666666666672</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -462,28 +467,29 @@
       <c r="M2" t="n">
         <v>1</v>
       </c>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>4.79</v>
+        <v>4.63</v>
       </c>
       <c r="C3" t="n">
-        <v>4.76</v>
+        <v>4.72</v>
       </c>
       <c r="D3" t="n">
-        <v>4.8</v>
+        <v>4.72</v>
       </c>
       <c r="E3" t="n">
-        <v>4.41</v>
+        <v>4.63</v>
       </c>
       <c r="F3" t="n">
-        <v>954273.47426937</v>
+        <v>151827.645</v>
       </c>
       <c r="G3" t="n">
-        <v>-1358184.61674511</v>
+        <v>4.723333333333337</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -497,28 +503,29 @@
       <c r="M3" t="n">
         <v>1</v>
       </c>
+      <c r="N3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>4.79</v>
+        <v>4.67</v>
       </c>
       <c r="C4" t="n">
-        <v>4.76</v>
+        <v>4.58</v>
       </c>
       <c r="D4" t="n">
-        <v>4.79</v>
+        <v>4.67</v>
       </c>
       <c r="E4" t="n">
-        <v>4.36</v>
+        <v>4.57</v>
       </c>
       <c r="F4" t="n">
-        <v>1133775.55648535</v>
+        <v>856436.6633</v>
       </c>
       <c r="G4" t="n">
-        <v>-1358184.61674511</v>
+        <v>4.686666666666671</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -532,28 +539,29 @@
       <c r="M4" t="n">
         <v>1</v>
       </c>
+      <c r="N4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>4.45</v>
+        <v>4.6</v>
       </c>
       <c r="C5" t="n">
-        <v>4.67</v>
+        <v>4.59</v>
       </c>
       <c r="D5" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="E5" t="n">
-        <v>4.4</v>
+        <v>4.59</v>
       </c>
       <c r="F5" t="n">
-        <v>466786.52457687</v>
+        <v>250000</v>
       </c>
       <c r="G5" t="n">
-        <v>-1824971.14132198</v>
+        <v>4.630000000000004</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -567,28 +575,29 @@
       <c r="M5" t="n">
         <v>1</v>
       </c>
+      <c r="N5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="C6" t="n">
-        <v>4.49</v>
+        <v>4.61</v>
       </c>
       <c r="D6" t="n">
-        <v>4.5</v>
+        <v>4.66</v>
       </c>
       <c r="E6" t="n">
-        <v>4.49</v>
+        <v>4.6</v>
       </c>
       <c r="F6" t="n">
-        <v>15116.2457</v>
+        <v>328044.2178</v>
       </c>
       <c r="G6" t="n">
-        <v>-1840087.38702198</v>
+        <v>4.593333333333338</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -602,28 +611,29 @@
       <c r="M6" t="n">
         <v>1</v>
       </c>
+      <c r="N6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>4.48</v>
+        <v>4.64</v>
       </c>
       <c r="C7" t="n">
-        <v>4.67</v>
+        <v>4.63</v>
       </c>
       <c r="D7" t="n">
-        <v>4.69</v>
+        <v>4.64</v>
       </c>
       <c r="E7" t="n">
-        <v>4.4</v>
+        <v>4.63</v>
       </c>
       <c r="F7" t="n">
-        <v>2331369.0903</v>
+        <v>175653.084</v>
       </c>
       <c r="G7" t="n">
-        <v>491281.7032780196</v>
+        <v>4.610000000000005</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -637,34 +647,35 @@
       <c r="M7" t="n">
         <v>1</v>
       </c>
+      <c r="N7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>4.67</v>
+        <v>4.7</v>
       </c>
       <c r="C8" t="n">
-        <v>4.69</v>
+        <v>4.63</v>
       </c>
       <c r="D8" t="n">
         <v>4.7</v>
       </c>
       <c r="E8" t="n">
-        <v>4.67</v>
+        <v>4.63</v>
       </c>
       <c r="F8" t="n">
-        <v>209045.91968</v>
+        <v>347634.5673</v>
       </c>
       <c r="G8" t="n">
-        <v>700327.6229580196</v>
+        <v>4.623333333333338</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
@@ -672,28 +683,29 @@
       <c r="M8" t="n">
         <v>1</v>
       </c>
+      <c r="N8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>4.5</v>
+        <v>4.71</v>
       </c>
       <c r="C9" t="n">
-        <v>4.45</v>
+        <v>4.64</v>
       </c>
       <c r="D9" t="n">
-        <v>4.68</v>
+        <v>4.71</v>
       </c>
       <c r="E9" t="n">
-        <v>4.4</v>
+        <v>4.64</v>
       </c>
       <c r="F9" t="n">
-        <v>1118051.4848</v>
+        <v>341131.9189</v>
       </c>
       <c r="G9" t="n">
-        <v>-417723.8618419804</v>
+        <v>4.633333333333339</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -707,28 +719,29 @@
       <c r="M9" t="n">
         <v>1</v>
       </c>
+      <c r="N9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>4.68</v>
+        <v>4.7</v>
       </c>
       <c r="C10" t="n">
-        <v>4.58</v>
+        <v>4.64</v>
       </c>
       <c r="D10" t="n">
-        <v>4.68</v>
+        <v>4.7</v>
       </c>
       <c r="E10" t="n">
-        <v>4.46</v>
+        <v>4.63</v>
       </c>
       <c r="F10" t="n">
-        <v>3058916.5944</v>
+        <v>277635.7978</v>
       </c>
       <c r="G10" t="n">
-        <v>2641192.732558019</v>
+        <v>4.636666666666673</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -742,34 +755,35 @@
       <c r="M10" t="n">
         <v>1</v>
       </c>
+      <c r="N10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>4.58</v>
+        <v>4.63</v>
       </c>
       <c r="C11" t="n">
-        <v>4.57</v>
+        <v>4.62</v>
       </c>
       <c r="D11" t="n">
-        <v>4.64</v>
+        <v>4.63</v>
       </c>
       <c r="E11" t="n">
-        <v>4.48</v>
+        <v>4.62</v>
       </c>
       <c r="F11" t="n">
-        <v>1832959.9473</v>
+        <v>160000</v>
       </c>
       <c r="G11" t="n">
-        <v>808232.7852580193</v>
+        <v>4.63333333333334</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
@@ -777,28 +791,29 @@
       <c r="M11" t="n">
         <v>1</v>
       </c>
+      <c r="N11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>4.49</v>
+        <v>4.62</v>
       </c>
       <c r="C12" t="n">
-        <v>4.48</v>
+        <v>4.6</v>
       </c>
       <c r="D12" t="n">
-        <v>4.56</v>
+        <v>4.62</v>
       </c>
       <c r="E12" t="n">
-        <v>4.45</v>
+        <v>4.6</v>
       </c>
       <c r="F12" t="n">
-        <v>468778.8666</v>
+        <v>1424634.6726</v>
       </c>
       <c r="G12" t="n">
-        <v>339453.9186580193</v>
+        <v>4.620000000000007</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -812,28 +827,29 @@
       <c r="M12" t="n">
         <v>1</v>
       </c>
+      <c r="N12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>4.48</v>
+        <v>4.6</v>
       </c>
       <c r="C13" t="n">
-        <v>4.48</v>
+        <v>4.6</v>
       </c>
       <c r="D13" t="n">
-        <v>4.48</v>
+        <v>4.6</v>
       </c>
       <c r="E13" t="n">
-        <v>4.48</v>
+        <v>4.6</v>
       </c>
       <c r="F13" t="n">
-        <v>6691.0675</v>
+        <v>169523.4968</v>
       </c>
       <c r="G13" t="n">
-        <v>339453.9186580193</v>
+        <v>4.606666666666674</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -847,34 +863,35 @@
       <c r="M13" t="n">
         <v>1</v>
       </c>
+      <c r="N13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>4.45</v>
+        <v>4.61</v>
       </c>
       <c r="C14" t="n">
-        <v>4.47</v>
+        <v>4.6</v>
       </c>
       <c r="D14" t="n">
-        <v>4.47</v>
+        <v>4.61</v>
       </c>
       <c r="E14" t="n">
-        <v>4.44</v>
+        <v>4.6</v>
       </c>
       <c r="F14" t="n">
-        <v>832141.6939</v>
+        <v>131395.0867</v>
       </c>
       <c r="G14" t="n">
-        <v>-492687.7752419806</v>
+        <v>4.600000000000008</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
@@ -882,28 +899,29 @@
       <c r="M14" t="n">
         <v>1</v>
       </c>
+      <c r="N14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>4.44</v>
+        <v>4.6</v>
       </c>
       <c r="C15" t="n">
-        <v>4.5</v>
+        <v>4.64</v>
       </c>
       <c r="D15" t="n">
-        <v>4.5</v>
+        <v>4.64</v>
       </c>
       <c r="E15" t="n">
-        <v>4.44</v>
+        <v>4.6</v>
       </c>
       <c r="F15" t="n">
-        <v>319193.2589</v>
+        <v>187047.1216</v>
       </c>
       <c r="G15" t="n">
-        <v>-173494.5163419806</v>
+        <v>4.613333333333341</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -917,6 +935,7 @@
       <c r="M15" t="n">
         <v>1</v>
       </c>
+      <c r="N15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -926,19 +945,19 @@
         <v>4.61</v>
       </c>
       <c r="C16" t="n">
-        <v>4.49</v>
+        <v>4.64</v>
       </c>
       <c r="D16" t="n">
+        <v>4.64</v>
+      </c>
+      <c r="E16" t="n">
         <v>4.61</v>
       </c>
-      <c r="E16" t="n">
-        <v>4.49</v>
-      </c>
       <c r="F16" t="n">
-        <v>3830.387</v>
+        <v>323444.1924</v>
       </c>
       <c r="G16" t="n">
-        <v>-177324.9033419806</v>
+        <v>4.626666666666674</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -952,28 +971,29 @@
       <c r="M16" t="n">
         <v>1</v>
       </c>
+      <c r="N16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>4.57</v>
+        <v>4.64</v>
       </c>
       <c r="C17" t="n">
-        <v>4.58</v>
+        <v>4.65</v>
       </c>
       <c r="D17" t="n">
-        <v>4.58</v>
+        <v>4.65</v>
       </c>
       <c r="E17" t="n">
-        <v>4.44</v>
+        <v>4.64</v>
       </c>
       <c r="F17" t="n">
-        <v>1272468.1175</v>
+        <v>279631.2988</v>
       </c>
       <c r="G17" t="n">
-        <v>1095143.214158019</v>
+        <v>4.643333333333341</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -987,28 +1007,29 @@
       <c r="M17" t="n">
         <v>1</v>
       </c>
+      <c r="N17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>4.47</v>
+        <v>4.6</v>
       </c>
       <c r="C18" t="n">
-        <v>4.57</v>
+        <v>4.6</v>
       </c>
       <c r="D18" t="n">
-        <v>4.57</v>
+        <v>4.6</v>
       </c>
       <c r="E18" t="n">
-        <v>4.47</v>
+        <v>4.6</v>
       </c>
       <c r="F18" t="n">
-        <v>261812.4139</v>
+        <v>19689.3105</v>
       </c>
       <c r="G18" t="n">
-        <v>833330.8002580192</v>
+        <v>4.630000000000007</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1022,34 +1043,35 @@
       <c r="M18" t="n">
         <v>1</v>
       </c>
+      <c r="N18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>4.5</v>
+        <v>4.63</v>
       </c>
       <c r="C19" t="n">
-        <v>4.56</v>
+        <v>4.65</v>
       </c>
       <c r="D19" t="n">
-        <v>4.57</v>
+        <v>4.65</v>
       </c>
       <c r="E19" t="n">
-        <v>4.45</v>
+        <v>4.58</v>
       </c>
       <c r="F19" t="n">
-        <v>1389422.4122</v>
+        <v>183612.7364</v>
       </c>
       <c r="G19" t="n">
-        <v>-556091.6119419807</v>
+        <v>4.63333333333334</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
@@ -1057,28 +1079,29 @@
       <c r="M19" t="n">
         <v>1</v>
       </c>
+      <c r="N19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>4.54</v>
+        <v>4.64</v>
       </c>
       <c r="C20" t="n">
-        <v>4.58</v>
+        <v>4.64</v>
       </c>
       <c r="D20" t="n">
-        <v>4.58</v>
+        <v>4.64</v>
       </c>
       <c r="E20" t="n">
-        <v>4.49</v>
+        <v>4.64</v>
       </c>
       <c r="F20" t="n">
-        <v>368974.6914</v>
+        <v>67215.3492</v>
       </c>
       <c r="G20" t="n">
-        <v>-187116.9205419807</v>
+        <v>4.630000000000007</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1092,28 +1115,29 @@
       <c r="M20" t="n">
         <v>1</v>
       </c>
+      <c r="N20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>4.57</v>
+        <v>4.64</v>
       </c>
       <c r="C21" t="n">
-        <v>4.54</v>
+        <v>4.64</v>
       </c>
       <c r="D21" t="n">
-        <v>4.57</v>
+        <v>4.64</v>
       </c>
       <c r="E21" t="n">
-        <v>4.54</v>
+        <v>4.64</v>
       </c>
       <c r="F21" t="n">
-        <v>100914.4763</v>
+        <v>102599.5214</v>
       </c>
       <c r="G21" t="n">
-        <v>-288031.3968419806</v>
+        <v>4.64333333333334</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1127,28 +1151,29 @@
       <c r="M21" t="n">
         <v>1</v>
       </c>
+      <c r="N21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>4.57</v>
+        <v>4.6</v>
       </c>
       <c r="C22" t="n">
-        <v>4.64</v>
+        <v>4.6</v>
       </c>
       <c r="D22" t="n">
-        <v>4.64</v>
+        <v>4.6</v>
       </c>
       <c r="E22" t="n">
-        <v>4.56</v>
+        <v>4.6</v>
       </c>
       <c r="F22" t="n">
-        <v>371506.0088</v>
+        <v>137681.2608</v>
       </c>
       <c r="G22" t="n">
-        <v>83474.61195801938</v>
+        <v>4.626666666666673</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1162,28 +1187,29 @@
       <c r="M22" t="n">
         <v>1</v>
       </c>
+      <c r="N22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>4.64</v>
+        <v>4.6</v>
       </c>
       <c r="C23" t="n">
-        <v>4.69</v>
+        <v>4.6</v>
       </c>
       <c r="D23" t="n">
-        <v>4.77</v>
+        <v>4.6</v>
       </c>
       <c r="E23" t="n">
-        <v>4.58</v>
+        <v>4.6</v>
       </c>
       <c r="F23" t="n">
-        <v>546045.3628999999</v>
+        <v>85149.2148</v>
       </c>
       <c r="G23" t="n">
-        <v>629519.9748580193</v>
+        <v>4.61333333333334</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1197,28 +1223,29 @@
       <c r="M23" t="n">
         <v>1</v>
       </c>
+      <c r="N23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>4.59</v>
+        <v>4.56</v>
       </c>
       <c r="C24" t="n">
-        <v>4.74</v>
+        <v>4.51</v>
       </c>
       <c r="D24" t="n">
-        <v>4.74</v>
+        <v>4.62</v>
       </c>
       <c r="E24" t="n">
-        <v>4.59</v>
+        <v>4.51</v>
       </c>
       <c r="F24" t="n">
-        <v>634048.368</v>
+        <v>493142.2461</v>
       </c>
       <c r="G24" t="n">
-        <v>1263568.342858019</v>
+        <v>4.570000000000005</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1232,28 +1259,29 @@
       <c r="M24" t="n">
         <v>1</v>
       </c>
+      <c r="N24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>4.6</v>
+        <v>4.65</v>
       </c>
       <c r="C25" t="n">
-        <v>4.69</v>
+        <v>4.65</v>
       </c>
       <c r="D25" t="n">
-        <v>4.72</v>
+        <v>4.65</v>
       </c>
       <c r="E25" t="n">
-        <v>4.56</v>
+        <v>4.65</v>
       </c>
       <c r="F25" t="n">
-        <v>839895.6296</v>
+        <v>100</v>
       </c>
       <c r="G25" t="n">
-        <v>423672.7132580193</v>
+        <v>4.586666666666671</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1267,28 +1295,29 @@
       <c r="M25" t="n">
         <v>1</v>
       </c>
+      <c r="N25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>4.58</v>
+        <v>4.64</v>
       </c>
       <c r="C26" t="n">
-        <v>4.58</v>
+        <v>4.64</v>
       </c>
       <c r="D26" t="n">
-        <v>4.65</v>
+        <v>4.64</v>
       </c>
       <c r="E26" t="n">
-        <v>4.56</v>
+        <v>4.64</v>
       </c>
       <c r="F26" t="n">
-        <v>1407913.387</v>
+        <v>107758.6206</v>
       </c>
       <c r="G26" t="n">
-        <v>-984240.6737419808</v>
+        <v>4.600000000000004</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1302,28 +1331,29 @@
       <c r="M26" t="n">
         <v>1</v>
       </c>
+      <c r="N26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>4.57</v>
+        <v>4.54</v>
       </c>
       <c r="C27" t="n">
-        <v>4.64</v>
+        <v>4.54</v>
       </c>
       <c r="D27" t="n">
-        <v>4.64</v>
+        <v>4.54</v>
       </c>
       <c r="E27" t="n">
-        <v>4.57</v>
+        <v>4.54</v>
       </c>
       <c r="F27" t="n">
-        <v>414988.1921</v>
+        <v>179339.616</v>
       </c>
       <c r="G27" t="n">
-        <v>-569252.4816419808</v>
+        <v>4.610000000000005</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1337,28 +1367,29 @@
       <c r="M27" t="n">
         <v>1</v>
       </c>
+      <c r="N27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>4.56</v>
+        <v>4.54</v>
       </c>
       <c r="C28" t="n">
-        <v>4.56</v>
+        <v>4.52</v>
       </c>
       <c r="D28" t="n">
-        <v>4.56</v>
+        <v>4.54</v>
       </c>
       <c r="E28" t="n">
-        <v>4.56</v>
+        <v>4.52</v>
       </c>
       <c r="F28" t="n">
-        <v>205479.9797</v>
+        <v>902338.1677</v>
       </c>
       <c r="G28" t="n">
-        <v>-774732.4613419808</v>
+        <v>4.566666666666672</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1372,28 +1403,29 @@
       <c r="M28" t="n">
         <v>1</v>
       </c>
+      <c r="N28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>4.56</v>
+        <v>4.52</v>
       </c>
       <c r="C29" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="D29" t="n">
         <v>4.52</v>
       </c>
-      <c r="D29" t="n">
-        <v>4.64</v>
-      </c>
       <c r="E29" t="n">
-        <v>4.51</v>
+        <v>4.5</v>
       </c>
       <c r="F29" t="n">
-        <v>1267805.1304</v>
+        <v>84900</v>
       </c>
       <c r="G29" t="n">
-        <v>-2042537.591741981</v>
+        <v>4.520000000000006</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1407,28 +1439,29 @@
       <c r="M29" t="n">
         <v>1</v>
       </c>
+      <c r="N29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>4.56</v>
+        <v>4.5</v>
       </c>
       <c r="C30" t="n">
-        <v>4.56</v>
+        <v>4.5</v>
       </c>
       <c r="D30" t="n">
-        <v>4.56</v>
+        <v>4.52</v>
       </c>
       <c r="E30" t="n">
-        <v>4.56</v>
+        <v>4.5</v>
       </c>
       <c r="F30" t="n">
-        <v>57736.2763</v>
+        <v>775487.0324</v>
       </c>
       <c r="G30" t="n">
-        <v>-1984801.315441981</v>
+        <v>4.506666666666672</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1442,28 +1475,29 @@
       <c r="M30" t="n">
         <v>1</v>
       </c>
+      <c r="N30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>4.63</v>
+        <v>4.59</v>
       </c>
       <c r="C31" t="n">
-        <v>4.58</v>
+        <v>4.49</v>
       </c>
       <c r="D31" t="n">
-        <v>4.63</v>
+        <v>4.59</v>
       </c>
       <c r="E31" t="n">
-        <v>4.51</v>
+        <v>4.49</v>
       </c>
       <c r="F31" t="n">
-        <v>882826.4365</v>
+        <v>340299.6269</v>
       </c>
       <c r="G31" t="n">
-        <v>-1101974.878941981</v>
+        <v>4.496666666666673</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1477,28 +1511,29 @@
       <c r="M31" t="n">
         <v>1</v>
       </c>
+      <c r="N31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>4.52</v>
+        <v>4.5</v>
       </c>
       <c r="C32" t="n">
-        <v>4.62</v>
+        <v>4.59</v>
       </c>
       <c r="D32" t="n">
-        <v>4.62</v>
+        <v>4.59</v>
       </c>
       <c r="E32" t="n">
-        <v>4.52</v>
+        <v>4.49</v>
       </c>
       <c r="F32" t="n">
-        <v>403955.1347</v>
+        <v>455144.9756</v>
       </c>
       <c r="G32" t="n">
-        <v>-698019.7442419806</v>
+        <v>4.526666666666673</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1512,28 +1547,29 @@
       <c r="M32" t="n">
         <v>1</v>
       </c>
+      <c r="N32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>4.62</v>
+        <v>4.59</v>
       </c>
       <c r="C33" t="n">
-        <v>4.58</v>
+        <v>4.59</v>
       </c>
       <c r="D33" t="n">
-        <v>4.65</v>
+        <v>4.59</v>
       </c>
       <c r="E33" t="n">
-        <v>4.52</v>
+        <v>4.59</v>
       </c>
       <c r="F33" t="n">
-        <v>1659555.2119</v>
+        <v>11226.3834</v>
       </c>
       <c r="G33" t="n">
-        <v>-2357574.95614198</v>
+        <v>4.556666666666673</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1547,28 +1583,29 @@
       <c r="M33" t="n">
         <v>1</v>
       </c>
+      <c r="N33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>4.56</v>
+        <v>4.53</v>
       </c>
       <c r="C34" t="n">
-        <v>4.59</v>
+        <v>4.51</v>
       </c>
       <c r="D34" t="n">
-        <v>4.59</v>
+        <v>4.53</v>
       </c>
       <c r="E34" t="n">
-        <v>4.56</v>
+        <v>4.51</v>
       </c>
       <c r="F34" t="n">
-        <v>263386.3369</v>
+        <v>408947.1966</v>
       </c>
       <c r="G34" t="n">
-        <v>-2094188.61924198</v>
+        <v>4.563333333333341</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1582,28 +1619,29 @@
       <c r="M34" t="n">
         <v>1</v>
       </c>
+      <c r="N34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>4.59</v>
+        <v>4.49</v>
       </c>
       <c r="C35" t="n">
-        <v>4.65</v>
+        <v>4.58</v>
       </c>
       <c r="D35" t="n">
-        <v>4.66</v>
+        <v>4.58</v>
       </c>
       <c r="E35" t="n">
-        <v>4.52</v>
+        <v>4.48</v>
       </c>
       <c r="F35" t="n">
-        <v>904468.9892</v>
+        <v>260403.7329</v>
       </c>
       <c r="G35" t="n">
-        <v>-1189719.63004198</v>
+        <v>4.560000000000007</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1617,28 +1655,29 @@
       <c r="M35" t="n">
         <v>1</v>
       </c>
+      <c r="N35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>4.62</v>
+        <v>4.49</v>
       </c>
       <c r="C36" t="n">
-        <v>4.66</v>
+        <v>4.49</v>
       </c>
       <c r="D36" t="n">
-        <v>4.66</v>
+        <v>4.49</v>
       </c>
       <c r="E36" t="n">
-        <v>4.62</v>
+        <v>4.49</v>
       </c>
       <c r="F36" t="n">
-        <v>431140.4056</v>
+        <v>96995.1744</v>
       </c>
       <c r="G36" t="n">
-        <v>-758579.2244419805</v>
+        <v>4.526666666666674</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1652,28 +1691,29 @@
       <c r="M36" t="n">
         <v>1</v>
       </c>
+      <c r="N36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>4.66</v>
+        <v>4.56</v>
       </c>
       <c r="C37" t="n">
-        <v>4.65</v>
+        <v>4.59</v>
       </c>
       <c r="D37" t="n">
-        <v>4.69</v>
+        <v>4.59</v>
       </c>
       <c r="E37" t="n">
-        <v>4.57</v>
+        <v>4.56</v>
       </c>
       <c r="F37" t="n">
-        <v>1253534.6788</v>
+        <v>810010</v>
       </c>
       <c r="G37" t="n">
-        <v>-2012113.903241981</v>
+        <v>4.553333333333341</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1687,28 +1727,29 @@
       <c r="M37" t="n">
         <v>1</v>
       </c>
+      <c r="N37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>4.65</v>
+        <v>4.59</v>
       </c>
       <c r="C38" t="n">
-        <v>4.65</v>
+        <v>4.6</v>
       </c>
       <c r="D38" t="n">
-        <v>4.69</v>
+        <v>4.6</v>
       </c>
       <c r="E38" t="n">
-        <v>4.55</v>
+        <v>4.59</v>
       </c>
       <c r="F38" t="n">
-        <v>249288.1173</v>
+        <v>168211.186</v>
       </c>
       <c r="G38" t="n">
-        <v>-2012113.903241981</v>
+        <v>4.560000000000008</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1722,28 +1763,29 @@
       <c r="M38" t="n">
         <v>1</v>
       </c>
+      <c r="N38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>4.65</v>
+        <v>4.62</v>
       </c>
       <c r="C39" t="n">
-        <v>4.65</v>
+        <v>4.62</v>
       </c>
       <c r="D39" t="n">
-        <v>4.69</v>
+        <v>4.62</v>
       </c>
       <c r="E39" t="n">
-        <v>4.65</v>
+        <v>4.62</v>
       </c>
       <c r="F39" t="n">
-        <v>186131.8191</v>
+        <v>31505.6277</v>
       </c>
       <c r="G39" t="n">
-        <v>-2012113.903241981</v>
+        <v>4.603333333333341</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1757,28 +1799,29 @@
       <c r="M39" t="n">
         <v>1</v>
       </c>
+      <c r="N39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>4.7</v>
+        <v>4.62</v>
       </c>
       <c r="C40" t="n">
-        <v>4.6</v>
+        <v>4.62</v>
       </c>
       <c r="D40" t="n">
-        <v>4.7</v>
+        <v>4.62</v>
       </c>
       <c r="E40" t="n">
-        <v>4.6</v>
+        <v>4.62</v>
       </c>
       <c r="F40" t="n">
-        <v>120163.4103</v>
+        <v>96458</v>
       </c>
       <c r="G40" t="n">
-        <v>-2132277.31354198</v>
+        <v>4.61333333333334</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1792,28 +1835,29 @@
       <c r="M40" t="n">
         <v>1</v>
       </c>
+      <c r="N40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>4.6</v>
+        <v>4.62</v>
       </c>
       <c r="C41" t="n">
-        <v>4.69</v>
+        <v>4.62</v>
       </c>
       <c r="D41" t="n">
-        <v>4.69</v>
+        <v>4.62</v>
       </c>
       <c r="E41" t="n">
-        <v>4.6</v>
+        <v>4.62</v>
       </c>
       <c r="F41" t="n">
-        <v>79709.91590000001</v>
+        <v>9297.8441</v>
       </c>
       <c r="G41" t="n">
-        <v>-2052567.397641981</v>
+        <v>4.620000000000007</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1827,28 +1871,29 @@
       <c r="M41" t="n">
         <v>1</v>
       </c>
+      <c r="N41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>4.69</v>
+        <v>4.56</v>
       </c>
       <c r="C42" t="n">
-        <v>4.64</v>
+        <v>4.56</v>
       </c>
       <c r="D42" t="n">
-        <v>4.69</v>
+        <v>4.56</v>
       </c>
       <c r="E42" t="n">
-        <v>4.62</v>
+        <v>4.56</v>
       </c>
       <c r="F42" t="n">
-        <v>95218.35679999999</v>
+        <v>20162.5677</v>
       </c>
       <c r="G42" t="n">
-        <v>-2147785.754441981</v>
+        <v>4.600000000000008</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1862,28 +1907,29 @@
       <c r="M42" t="n">
         <v>1</v>
       </c>
+      <c r="N42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>4.7</v>
+        <v>4.54</v>
       </c>
       <c r="C43" t="n">
-        <v>4.69</v>
+        <v>4.49</v>
       </c>
       <c r="D43" t="n">
-        <v>4.7</v>
+        <v>4.62</v>
       </c>
       <c r="E43" t="n">
-        <v>4.61</v>
+        <v>4.49</v>
       </c>
       <c r="F43" t="n">
-        <v>52239.7338</v>
+        <v>910278.3734</v>
       </c>
       <c r="G43" t="n">
-        <v>-2095546.020641981</v>
+        <v>4.556666666666673</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1897,28 +1943,29 @@
       <c r="M43" t="n">
         <v>1</v>
       </c>
+      <c r="N43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>4.69</v>
+        <v>4.6</v>
       </c>
       <c r="C44" t="n">
-        <v>4.76</v>
+        <v>4.6</v>
       </c>
       <c r="D44" t="n">
-        <v>4.76</v>
+        <v>4.6</v>
       </c>
       <c r="E44" t="n">
-        <v>4.62</v>
+        <v>4.6</v>
       </c>
       <c r="F44" t="n">
-        <v>184469.6359</v>
+        <v>85743.1868</v>
       </c>
       <c r="G44" t="n">
-        <v>-1911076.384741981</v>
+        <v>4.550000000000005</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1932,34 +1979,35 @@
       <c r="M44" t="n">
         <v>1</v>
       </c>
+      <c r="N44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>4.63</v>
+        <v>4.59</v>
       </c>
       <c r="C45" t="n">
-        <v>4.72</v>
+        <v>4.59</v>
       </c>
       <c r="D45" t="n">
-        <v>4.72</v>
+        <v>4.59</v>
       </c>
       <c r="E45" t="n">
-        <v>4.63</v>
+        <v>4.58</v>
       </c>
       <c r="F45" t="n">
-        <v>151827.645</v>
+        <v>74889.37089999999</v>
       </c>
       <c r="G45" t="n">
-        <v>-2062904.029741981</v>
+        <v>4.560000000000006</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
@@ -1967,28 +2015,29 @@
       <c r="M45" t="n">
         <v>1</v>
       </c>
+      <c r="N45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>4.67</v>
+        <v>4.57</v>
       </c>
       <c r="C46" t="n">
-        <v>4.58</v>
+        <v>4.59</v>
       </c>
       <c r="D46" t="n">
-        <v>4.67</v>
+        <v>4.59</v>
       </c>
       <c r="E46" t="n">
         <v>4.57</v>
       </c>
       <c r="F46" t="n">
-        <v>856436.6633</v>
+        <v>387000</v>
       </c>
       <c r="G46" t="n">
-        <v>-2919340.693041981</v>
+        <v>4.593333333333339</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2002,28 +2051,29 @@
       <c r="M46" t="n">
         <v>1</v>
       </c>
+      <c r="N46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>4.6</v>
+        <v>4.58</v>
       </c>
       <c r="C47" t="n">
-        <v>4.59</v>
+        <v>4.58</v>
       </c>
       <c r="D47" t="n">
-        <v>4.6</v>
+        <v>4.58</v>
       </c>
       <c r="E47" t="n">
-        <v>4.59</v>
+        <v>4.58</v>
       </c>
       <c r="F47" t="n">
-        <v>250000</v>
+        <v>261747.6657</v>
       </c>
       <c r="G47" t="n">
-        <v>-2669340.693041981</v>
+        <v>4.586666666666672</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2037,28 +2087,29 @@
       <c r="M47" t="n">
         <v>1</v>
       </c>
+      <c r="N47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>4.6</v>
+        <v>4.62</v>
       </c>
       <c r="C48" t="n">
-        <v>4.61</v>
+        <v>4.68</v>
       </c>
       <c r="D48" t="n">
-        <v>4.66</v>
+        <v>4.68</v>
       </c>
       <c r="E48" t="n">
         <v>4.6</v>
       </c>
       <c r="F48" t="n">
-        <v>328044.2178</v>
+        <v>351693.2559</v>
       </c>
       <c r="G48" t="n">
-        <v>-2341296.475241981</v>
+        <v>4.616666666666673</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2072,28 +2123,29 @@
       <c r="M48" t="n">
         <v>1</v>
       </c>
+      <c r="N48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>4.64</v>
+        <v>4.68</v>
       </c>
       <c r="C49" t="n">
-        <v>4.63</v>
+        <v>4.61</v>
       </c>
       <c r="D49" t="n">
-        <v>4.64</v>
+        <v>4.68</v>
       </c>
       <c r="E49" t="n">
-        <v>4.63</v>
+        <v>4.61</v>
       </c>
       <c r="F49" t="n">
-        <v>175653.084</v>
+        <v>905165.6731</v>
       </c>
       <c r="G49" t="n">
-        <v>-2165643.391241981</v>
+        <v>4.623333333333339</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2107,28 +2159,29 @@
       <c r="M49" t="n">
         <v>1</v>
       </c>
+      <c r="N49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>4.7</v>
+        <v>4.62</v>
       </c>
       <c r="C50" t="n">
-        <v>4.63</v>
+        <v>4.62</v>
       </c>
       <c r="D50" t="n">
-        <v>4.7</v>
+        <v>4.62</v>
       </c>
       <c r="E50" t="n">
-        <v>4.63</v>
+        <v>4.62</v>
       </c>
       <c r="F50" t="n">
-        <v>347634.5673</v>
+        <v>192315.478</v>
       </c>
       <c r="G50" t="n">
-        <v>-2165643.391241981</v>
+        <v>4.636666666666673</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2142,34 +2195,35 @@
       <c r="M50" t="n">
         <v>1</v>
       </c>
+      <c r="N50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>4.71</v>
+        <v>4.62</v>
       </c>
       <c r="C51" t="n">
-        <v>4.64</v>
+        <v>4.62</v>
       </c>
       <c r="D51" t="n">
-        <v>4.71</v>
+        <v>4.62</v>
       </c>
       <c r="E51" t="n">
-        <v>4.64</v>
+        <v>4.62</v>
       </c>
       <c r="F51" t="n">
-        <v>341131.9189</v>
+        <v>257572.7195</v>
       </c>
       <c r="G51" t="n">
-        <v>-1824511.472341981</v>
+        <v>4.616666666666673</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
       </c>
       <c r="I51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
@@ -2177,34 +2231,35 @@
       <c r="M51" t="n">
         <v>1</v>
       </c>
+      <c r="N51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>4.7</v>
+        <v>4.62</v>
       </c>
       <c r="C52" t="n">
-        <v>4.64</v>
+        <v>4.58</v>
       </c>
       <c r="D52" t="n">
-        <v>4.7</v>
+        <v>4.62</v>
       </c>
       <c r="E52" t="n">
-        <v>4.63</v>
+        <v>4.58</v>
       </c>
       <c r="F52" t="n">
-        <v>277635.7978</v>
+        <v>250197.4084</v>
       </c>
       <c r="G52" t="n">
-        <v>-1824511.472341981</v>
+        <v>4.606666666666674</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
       </c>
       <c r="I52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
@@ -2212,34 +2267,35 @@
       <c r="M52" t="n">
         <v>1</v>
       </c>
+      <c r="N52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>4.63</v>
+        <v>4.64</v>
       </c>
       <c r="C53" t="n">
-        <v>4.62</v>
+        <v>4.64</v>
       </c>
       <c r="D53" t="n">
-        <v>4.63</v>
+        <v>4.64</v>
       </c>
       <c r="E53" t="n">
-        <v>4.62</v>
+        <v>4.64</v>
       </c>
       <c r="F53" t="n">
-        <v>160000</v>
+        <v>110</v>
       </c>
       <c r="G53" t="n">
-        <v>-1984511.472341981</v>
+        <v>4.61333333333334</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
       </c>
       <c r="I53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
@@ -2247,28 +2303,29 @@
       <c r="M53" t="n">
         <v>1</v>
       </c>
+      <c r="N53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>4.62</v>
+        <v>4.64</v>
       </c>
       <c r="C54" t="n">
         <v>4.6</v>
       </c>
       <c r="D54" t="n">
-        <v>4.62</v>
+        <v>4.64</v>
       </c>
       <c r="E54" t="n">
         <v>4.6</v>
       </c>
       <c r="F54" t="n">
-        <v>1424634.6726</v>
+        <v>1050651.5086</v>
       </c>
       <c r="G54" t="n">
-        <v>-3409146.144941981</v>
+        <v>4.606666666666673</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2282,34 +2339,35 @@
       <c r="M54" t="n">
         <v>1</v>
       </c>
+      <c r="N54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>4.6</v>
+        <v>4.62</v>
       </c>
       <c r="C55" t="n">
-        <v>4.6</v>
+        <v>4.62</v>
       </c>
       <c r="D55" t="n">
-        <v>4.6</v>
+        <v>4.62</v>
       </c>
       <c r="E55" t="n">
-        <v>4.6</v>
+        <v>4.62</v>
       </c>
       <c r="F55" t="n">
-        <v>169523.4968</v>
+        <v>139133.5951</v>
       </c>
       <c r="G55" t="n">
-        <v>-3409146.144941981</v>
+        <v>4.620000000000006</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
       </c>
       <c r="I55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
@@ -2317,28 +2375,29 @@
       <c r="M55" t="n">
         <v>1</v>
       </c>
+      <c r="N55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>4.61</v>
+        <v>4.69</v>
       </c>
       <c r="C56" t="n">
-        <v>4.6</v>
+        <v>4.59</v>
       </c>
       <c r="D56" t="n">
-        <v>4.61</v>
+        <v>4.69</v>
       </c>
       <c r="E56" t="n">
-        <v>4.6</v>
+        <v>4.59</v>
       </c>
       <c r="F56" t="n">
-        <v>131395.0867</v>
+        <v>868143.6902</v>
       </c>
       <c r="G56" t="n">
-        <v>-3409146.144941981</v>
+        <v>4.603333333333339</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2352,34 +2411,35 @@
       <c r="M56" t="n">
         <v>1</v>
       </c>
+      <c r="N56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>4.6</v>
+        <v>4.64</v>
       </c>
       <c r="C57" t="n">
-        <v>4.64</v>
+        <v>4.59</v>
       </c>
       <c r="D57" t="n">
         <v>4.64</v>
       </c>
       <c r="E57" t="n">
-        <v>4.6</v>
+        <v>4.59</v>
       </c>
       <c r="F57" t="n">
-        <v>187047.1216</v>
+        <v>46979.0248</v>
       </c>
       <c r="G57" t="n">
-        <v>-3222099.023341981</v>
+        <v>4.600000000000006</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
       </c>
       <c r="I57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
@@ -2387,28 +2447,29 @@
       <c r="M57" t="n">
         <v>1</v>
       </c>
+      <c r="N57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>4.61</v>
+        <v>4.58</v>
       </c>
       <c r="C58" t="n">
-        <v>4.64</v>
+        <v>4.57</v>
       </c>
       <c r="D58" t="n">
-        <v>4.64</v>
+        <v>4.58</v>
       </c>
       <c r="E58" t="n">
-        <v>4.61</v>
+        <v>4.57</v>
       </c>
       <c r="F58" t="n">
-        <v>323444.1924</v>
+        <v>890485.2751</v>
       </c>
       <c r="G58" t="n">
-        <v>-3222099.023341981</v>
+        <v>4.583333333333339</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2422,28 +2483,29 @@
       <c r="M58" t="n">
         <v>1</v>
       </c>
+      <c r="N58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>4.64</v>
+        <v>4.58</v>
       </c>
       <c r="C59" t="n">
-        <v>4.65</v>
+        <v>4.58</v>
       </c>
       <c r="D59" t="n">
-        <v>4.65</v>
+        <v>4.58</v>
       </c>
       <c r="E59" t="n">
-        <v>4.64</v>
+        <v>4.58</v>
       </c>
       <c r="F59" t="n">
-        <v>279631.2988</v>
+        <v>50952.0807</v>
       </c>
       <c r="G59" t="n">
-        <v>-2942467.724541981</v>
+        <v>4.580000000000006</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2457,34 +2519,35 @@
       <c r="M59" t="n">
         <v>1</v>
       </c>
+      <c r="N59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>4.6</v>
+        <v>4.64</v>
       </c>
       <c r="C60" t="n">
-        <v>4.6</v>
+        <v>4.64</v>
       </c>
       <c r="D60" t="n">
-        <v>4.6</v>
+        <v>4.64</v>
       </c>
       <c r="E60" t="n">
-        <v>4.6</v>
+        <v>4.64</v>
       </c>
       <c r="F60" t="n">
-        <v>19689.3105</v>
+        <v>10</v>
       </c>
       <c r="G60" t="n">
-        <v>-2962157.035041981</v>
+        <v>4.596666666666674</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
       </c>
       <c r="I60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
@@ -2492,28 +2555,29 @@
       <c r="M60" t="n">
         <v>1</v>
       </c>
+      <c r="N60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>4.63</v>
+        <v>4.64</v>
       </c>
       <c r="C61" t="n">
-        <v>4.65</v>
+        <v>4.59</v>
       </c>
       <c r="D61" t="n">
-        <v>4.65</v>
+        <v>4.64</v>
       </c>
       <c r="E61" t="n">
-        <v>4.58</v>
+        <v>4.59</v>
       </c>
       <c r="F61" t="n">
-        <v>183612.7364</v>
+        <v>263620.571</v>
       </c>
       <c r="G61" t="n">
-        <v>-2778544.298641981</v>
+        <v>4.60333333333334</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2527,34 +2591,35 @@
       <c r="M61" t="n">
         <v>1</v>
       </c>
+      <c r="N61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>4.64</v>
+        <v>4.67</v>
       </c>
       <c r="C62" t="n">
-        <v>4.64</v>
+        <v>4.67</v>
       </c>
       <c r="D62" t="n">
-        <v>4.64</v>
+        <v>4.67</v>
       </c>
       <c r="E62" t="n">
-        <v>4.64</v>
+        <v>4.67</v>
       </c>
       <c r="F62" t="n">
-        <v>67215.3492</v>
+        <v>10</v>
       </c>
       <c r="G62" t="n">
-        <v>-2845759.647841981</v>
+        <v>4.633333333333339</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
       </c>
       <c r="I62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
@@ -2562,28 +2627,29 @@
       <c r="M62" t="n">
         <v>1</v>
       </c>
+      <c r="N62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>4.64</v>
+        <v>4.68</v>
       </c>
       <c r="C63" t="n">
-        <v>4.64</v>
+        <v>4.68</v>
       </c>
       <c r="D63" t="n">
-        <v>4.64</v>
+        <v>4.68</v>
       </c>
       <c r="E63" t="n">
-        <v>4.64</v>
+        <v>4.68</v>
       </c>
       <c r="F63" t="n">
-        <v>102599.5214</v>
+        <v>99</v>
       </c>
       <c r="G63" t="n">
-        <v>-2845759.647841981</v>
+        <v>4.646666666666673</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2597,28 +2663,29 @@
       <c r="M63" t="n">
         <v>1</v>
       </c>
+      <c r="N63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>4.6</v>
+        <v>4.61</v>
       </c>
       <c r="C64" t="n">
-        <v>4.6</v>
+        <v>4.61</v>
       </c>
       <c r="D64" t="n">
-        <v>4.6</v>
+        <v>4.61</v>
       </c>
       <c r="E64" t="n">
-        <v>4.6</v>
+        <v>4.61</v>
       </c>
       <c r="F64" t="n">
-        <v>137681.2608</v>
+        <v>1229.727</v>
       </c>
       <c r="G64" t="n">
-        <v>-2983440.908641981</v>
+        <v>4.65333333333334</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2632,28 +2699,29 @@
       <c r="M64" t="n">
         <v>1</v>
       </c>
+      <c r="N64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>4.6</v>
+        <v>4.61</v>
       </c>
       <c r="C65" t="n">
         <v>4.6</v>
       </c>
       <c r="D65" t="n">
-        <v>4.6</v>
+        <v>4.66</v>
       </c>
       <c r="E65" t="n">
         <v>4.6</v>
       </c>
       <c r="F65" t="n">
-        <v>85149.2148</v>
+        <v>310373.1333</v>
       </c>
       <c r="G65" t="n">
-        <v>-2983440.908641981</v>
+        <v>4.630000000000005</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2667,28 +2735,29 @@
       <c r="M65" t="n">
         <v>1</v>
       </c>
+      <c r="N65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>4.56</v>
+        <v>4.6</v>
       </c>
       <c r="C66" t="n">
-        <v>4.51</v>
+        <v>4.59</v>
       </c>
       <c r="D66" t="n">
-        <v>4.62</v>
+        <v>4.6</v>
       </c>
       <c r="E66" t="n">
-        <v>4.51</v>
+        <v>4.59</v>
       </c>
       <c r="F66" t="n">
-        <v>493142.2461</v>
+        <v>320394.033</v>
       </c>
       <c r="G66" t="n">
-        <v>-3476583.154741981</v>
+        <v>4.600000000000006</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2702,6 +2771,7 @@
       <c r="M66" t="n">
         <v>1</v>
       </c>
+      <c r="N66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2711,25 +2781,25 @@
         <v>4.65</v>
       </c>
       <c r="C67" t="n">
-        <v>4.65</v>
+        <v>4.61</v>
       </c>
       <c r="D67" t="n">
         <v>4.65</v>
       </c>
       <c r="E67" t="n">
-        <v>4.65</v>
+        <v>4.59</v>
       </c>
       <c r="F67" t="n">
-        <v>100</v>
+        <v>392420.6399</v>
       </c>
       <c r="G67" t="n">
-        <v>-3476483.154741981</v>
+        <v>4.600000000000006</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
       </c>
       <c r="I67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
@@ -2737,28 +2807,29 @@
       <c r="M67" t="n">
         <v>1</v>
       </c>
+      <c r="N67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>4.64</v>
+        <v>4.67</v>
       </c>
       <c r="C68" t="n">
-        <v>4.64</v>
+        <v>4.62</v>
       </c>
       <c r="D68" t="n">
-        <v>4.64</v>
+        <v>4.67</v>
       </c>
       <c r="E68" t="n">
-        <v>4.64</v>
+        <v>4.62</v>
       </c>
       <c r="F68" t="n">
-        <v>107758.6206</v>
+        <v>198118.6147</v>
       </c>
       <c r="G68" t="n">
-        <v>-3584241.775341981</v>
+        <v>4.606666666666674</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2772,28 +2843,29 @@
       <c r="M68" t="n">
         <v>1</v>
       </c>
+      <c r="N68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>4.54</v>
+        <v>4.62</v>
       </c>
       <c r="C69" t="n">
-        <v>4.54</v>
+        <v>4.59</v>
       </c>
       <c r="D69" t="n">
-        <v>4.54</v>
+        <v>4.62</v>
       </c>
       <c r="E69" t="n">
-        <v>4.54</v>
+        <v>4.59</v>
       </c>
       <c r="F69" t="n">
-        <v>179339.616</v>
+        <v>513021.6013</v>
       </c>
       <c r="G69" t="n">
-        <v>-3763581.391341981</v>
+        <v>4.606666666666673</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2807,34 +2879,35 @@
       <c r="M69" t="n">
         <v>1</v>
       </c>
+      <c r="N69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>4.54</v>
+        <v>4.59</v>
       </c>
       <c r="C70" t="n">
-        <v>4.52</v>
+        <v>4.66</v>
       </c>
       <c r="D70" t="n">
-        <v>4.54</v>
+        <v>4.66</v>
       </c>
       <c r="E70" t="n">
-        <v>4.52</v>
+        <v>4.59</v>
       </c>
       <c r="F70" t="n">
-        <v>902338.1677</v>
+        <v>153502.9847</v>
       </c>
       <c r="G70" t="n">
-        <v>-4665919.559041981</v>
+        <v>4.623333333333339</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
       </c>
       <c r="I70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
@@ -2842,34 +2915,35 @@
       <c r="M70" t="n">
         <v>1</v>
       </c>
+      <c r="N70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>4.52</v>
+        <v>4.66</v>
       </c>
       <c r="C71" t="n">
-        <v>4.5</v>
+        <v>4.67</v>
       </c>
       <c r="D71" t="n">
-        <v>4.52</v>
+        <v>4.67</v>
       </c>
       <c r="E71" t="n">
-        <v>4.5</v>
+        <v>4.58</v>
       </c>
       <c r="F71" t="n">
-        <v>84900</v>
+        <v>171659.4766</v>
       </c>
       <c r="G71" t="n">
-        <v>-4750819.559041981</v>
+        <v>4.640000000000007</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
       </c>
       <c r="I71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
@@ -2877,28 +2951,29 @@
       <c r="M71" t="n">
         <v>1</v>
       </c>
+      <c r="N71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="C72" t="n">
-        <v>4.5</v>
+        <v>4.66</v>
       </c>
       <c r="D72" t="n">
-        <v>4.52</v>
+        <v>4.67</v>
       </c>
       <c r="E72" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="F72" t="n">
-        <v>775487.0324</v>
+        <v>1530918.8352</v>
       </c>
       <c r="G72" t="n">
-        <v>-4750819.559041981</v>
+        <v>4.66333333333334</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2912,34 +2987,35 @@
       <c r="M72" t="n">
         <v>1</v>
       </c>
+      <c r="N72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>4.59</v>
+        <v>4.66</v>
       </c>
       <c r="C73" t="n">
-        <v>4.49</v>
+        <v>4.56</v>
       </c>
       <c r="D73" t="n">
-        <v>4.59</v>
+        <v>4.79</v>
       </c>
       <c r="E73" t="n">
-        <v>4.49</v>
+        <v>4.55</v>
       </c>
       <c r="F73" t="n">
-        <v>340299.6269</v>
+        <v>2073312.46600876</v>
       </c>
       <c r="G73" t="n">
-        <v>-5091119.18594198</v>
+        <v>4.630000000000006</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
       </c>
       <c r="I73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
@@ -2947,34 +3023,35 @@
       <c r="M73" t="n">
         <v>1</v>
       </c>
+      <c r="N73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>4.5</v>
+        <v>4.77</v>
       </c>
       <c r="C74" t="n">
-        <v>4.59</v>
+        <v>4.71</v>
       </c>
       <c r="D74" t="n">
-        <v>4.59</v>
+        <v>4.77</v>
       </c>
       <c r="E74" t="n">
-        <v>4.49</v>
+        <v>4.61</v>
       </c>
       <c r="F74" t="n">
-        <v>455144.9756</v>
+        <v>566490.2601</v>
       </c>
       <c r="G74" t="n">
-        <v>-4635974.210341981</v>
+        <v>4.64333333333334</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
       </c>
       <c r="I74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
@@ -2982,34 +3059,35 @@
       <c r="M74" t="n">
         <v>1</v>
       </c>
+      <c r="N74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>4.59</v>
+        <v>4.61</v>
       </c>
       <c r="C75" t="n">
-        <v>4.59</v>
+        <v>4.62</v>
       </c>
       <c r="D75" t="n">
-        <v>4.59</v>
+        <v>4.69</v>
       </c>
       <c r="E75" t="n">
-        <v>4.59</v>
+        <v>4.61</v>
       </c>
       <c r="F75" t="n">
-        <v>11226.3834</v>
+        <v>102504.9494</v>
       </c>
       <c r="G75" t="n">
-        <v>-4635974.210341981</v>
+        <v>4.630000000000006</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
       </c>
       <c r="I75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
@@ -3017,34 +3095,35 @@
       <c r="M75" t="n">
         <v>1</v>
       </c>
+      <c r="N75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>4.53</v>
+        <v>4.63</v>
       </c>
       <c r="C76" t="n">
-        <v>4.51</v>
+        <v>4.69</v>
       </c>
       <c r="D76" t="n">
-        <v>4.53</v>
+        <v>4.69</v>
       </c>
       <c r="E76" t="n">
-        <v>4.51</v>
+        <v>4.61</v>
       </c>
       <c r="F76" t="n">
-        <v>408947.1966</v>
+        <v>78898.2552</v>
       </c>
       <c r="G76" t="n">
-        <v>-5044921.406941981</v>
+        <v>4.67333333333334</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
       </c>
       <c r="I76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
@@ -3052,34 +3131,35 @@
       <c r="M76" t="n">
         <v>1</v>
       </c>
+      <c r="N76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>4.49</v>
+        <v>4.63</v>
       </c>
       <c r="C77" t="n">
-        <v>4.58</v>
+        <v>4.69</v>
       </c>
       <c r="D77" t="n">
-        <v>4.58</v>
+        <v>4.69</v>
       </c>
       <c r="E77" t="n">
-        <v>4.48</v>
+        <v>4.63</v>
       </c>
       <c r="F77" t="n">
-        <v>260403.7329</v>
+        <v>698624.2373</v>
       </c>
       <c r="G77" t="n">
-        <v>-4784517.674041981</v>
+        <v>4.666666666666674</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
       </c>
       <c r="I77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
@@ -3087,34 +3167,35 @@
       <c r="M77" t="n">
         <v>1</v>
       </c>
+      <c r="N77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>4.49</v>
+        <v>4.64</v>
       </c>
       <c r="C78" t="n">
-        <v>4.49</v>
+        <v>4.63</v>
       </c>
       <c r="D78" t="n">
-        <v>4.49</v>
+        <v>4.69</v>
       </c>
       <c r="E78" t="n">
-        <v>4.49</v>
+        <v>4.63</v>
       </c>
       <c r="F78" t="n">
-        <v>96995.1744</v>
+        <v>311512.138</v>
       </c>
       <c r="G78" t="n">
-        <v>-4881512.848441981</v>
+        <v>4.670000000000006</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
       </c>
       <c r="I78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
@@ -3122,34 +3203,35 @@
       <c r="M78" t="n">
         <v>1</v>
       </c>
+      <c r="N78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>4.56</v>
+        <v>4.68</v>
       </c>
       <c r="C79" t="n">
-        <v>4.59</v>
+        <v>4.6</v>
       </c>
       <c r="D79" t="n">
-        <v>4.59</v>
+        <v>4.69</v>
       </c>
       <c r="E79" t="n">
-        <v>4.56</v>
+        <v>4.6</v>
       </c>
       <c r="F79" t="n">
-        <v>810010</v>
+        <v>47643.6589</v>
       </c>
       <c r="G79" t="n">
-        <v>-4071502.848441981</v>
+        <v>4.640000000000007</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
       </c>
       <c r="I79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
@@ -3157,34 +3239,35 @@
       <c r="M79" t="n">
         <v>1</v>
       </c>
+      <c r="N79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>4.59</v>
+        <v>4.69</v>
       </c>
       <c r="C80" t="n">
-        <v>4.6</v>
+        <v>4.69</v>
       </c>
       <c r="D80" t="n">
-        <v>4.6</v>
+        <v>4.69</v>
       </c>
       <c r="E80" t="n">
-        <v>4.59</v>
+        <v>4.69</v>
       </c>
       <c r="F80" t="n">
-        <v>168211.186</v>
+        <v>13</v>
       </c>
       <c r="G80" t="n">
-        <v>-3903291.662441981</v>
+        <v>4.640000000000007</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
       </c>
       <c r="I80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
@@ -3192,34 +3275,35 @@
       <c r="M80" t="n">
         <v>1</v>
       </c>
+      <c r="N80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>4.62</v>
+        <v>4.63</v>
       </c>
       <c r="C81" t="n">
-        <v>4.62</v>
+        <v>4.63</v>
       </c>
       <c r="D81" t="n">
-        <v>4.62</v>
+        <v>4.63</v>
       </c>
       <c r="E81" t="n">
-        <v>4.62</v>
+        <v>4.63</v>
       </c>
       <c r="F81" t="n">
-        <v>31505.6277</v>
+        <v>148567.9265</v>
       </c>
       <c r="G81" t="n">
-        <v>-3871786.034741981</v>
+        <v>4.640000000000007</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
       </c>
       <c r="I81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
@@ -3227,34 +3311,35 @@
       <c r="M81" t="n">
         <v>1</v>
       </c>
+      <c r="N81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>4.62</v>
+        <v>4.63</v>
       </c>
       <c r="C82" t="n">
-        <v>4.62</v>
+        <v>4.61</v>
       </c>
       <c r="D82" t="n">
-        <v>4.62</v>
+        <v>4.69</v>
       </c>
       <c r="E82" t="n">
-        <v>4.62</v>
+        <v>4.61</v>
       </c>
       <c r="F82" t="n">
-        <v>96458</v>
+        <v>516318.2797</v>
       </c>
       <c r="G82" t="n">
-        <v>-3871786.034741981</v>
+        <v>4.64333333333334</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
       </c>
       <c r="I82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
@@ -3262,6 +3347,7 @@
       <c r="M82" t="n">
         <v>1</v>
       </c>
+      <c r="N82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3271,25 +3357,25 @@
         <v>4.62</v>
       </c>
       <c r="C83" t="n">
-        <v>4.62</v>
+        <v>4.6</v>
       </c>
       <c r="D83" t="n">
         <v>4.62</v>
       </c>
       <c r="E83" t="n">
-        <v>4.62</v>
+        <v>4.6</v>
       </c>
       <c r="F83" t="n">
-        <v>9297.8441</v>
+        <v>307283.8301</v>
       </c>
       <c r="G83" t="n">
-        <v>-3871786.034741981</v>
+        <v>4.61333333333334</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
       </c>
       <c r="I83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
@@ -3297,34 +3383,35 @@
       <c r="M83" t="n">
         <v>1</v>
       </c>
+      <c r="N83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>4.56</v>
+        <v>4.63</v>
       </c>
       <c r="C84" t="n">
-        <v>4.56</v>
+        <v>4.6</v>
       </c>
       <c r="D84" t="n">
-        <v>4.56</v>
+        <v>4.63</v>
       </c>
       <c r="E84" t="n">
-        <v>4.56</v>
+        <v>4.6</v>
       </c>
       <c r="F84" t="n">
-        <v>20162.5677</v>
+        <v>46927.8951</v>
       </c>
       <c r="G84" t="n">
-        <v>-3891948.602441981</v>
+        <v>4.60333333333334</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
       </c>
       <c r="I84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
@@ -3332,34 +3419,35 @@
       <c r="M84" t="n">
         <v>1</v>
       </c>
+      <c r="N84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>4.54</v>
+        <v>4.68</v>
       </c>
       <c r="C85" t="n">
-        <v>4.49</v>
+        <v>4.68</v>
       </c>
       <c r="D85" t="n">
-        <v>4.62</v>
+        <v>4.68</v>
       </c>
       <c r="E85" t="n">
-        <v>4.49</v>
+        <v>4.68</v>
       </c>
       <c r="F85" t="n">
-        <v>910278.3734</v>
+        <v>12</v>
       </c>
       <c r="G85" t="n">
-        <v>-4802226.975841981</v>
+        <v>4.626666666666673</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
       </c>
       <c r="I85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
@@ -3367,34 +3455,35 @@
       <c r="M85" t="n">
         <v>1</v>
       </c>
+      <c r="N85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>4.6</v>
+        <v>4.65</v>
       </c>
       <c r="C86" t="n">
-        <v>4.6</v>
+        <v>4.65</v>
       </c>
       <c r="D86" t="n">
-        <v>4.6</v>
+        <v>4.65</v>
       </c>
       <c r="E86" t="n">
-        <v>4.6</v>
+        <v>4.65</v>
       </c>
       <c r="F86" t="n">
-        <v>85743.1868</v>
+        <v>10</v>
       </c>
       <c r="G86" t="n">
-        <v>-4716483.789041981</v>
+        <v>4.643333333333341</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
       </c>
       <c r="I86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
@@ -3402,34 +3491,35 @@
       <c r="M86" t="n">
         <v>1</v>
       </c>
+      <c r="N86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>4.59</v>
+        <v>4.6</v>
       </c>
       <c r="C87" t="n">
         <v>4.59</v>
       </c>
       <c r="D87" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="E87" t="n">
         <v>4.59</v>
       </c>
-      <c r="E87" t="n">
-        <v>4.58</v>
-      </c>
       <c r="F87" t="n">
-        <v>74889.37089999999</v>
+        <v>69265.1439</v>
       </c>
       <c r="G87" t="n">
-        <v>-4791373.159941982</v>
+        <v>4.640000000000009</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
       </c>
       <c r="I87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
@@ -3437,34 +3527,35 @@
       <c r="M87" t="n">
         <v>1</v>
       </c>
+      <c r="N87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>4.57</v>
+        <v>4.59</v>
       </c>
       <c r="C88" t="n">
-        <v>4.59</v>
+        <v>4.55</v>
       </c>
       <c r="D88" t="n">
         <v>4.59</v>
       </c>
       <c r="E88" t="n">
-        <v>4.57</v>
+        <v>4.55</v>
       </c>
       <c r="F88" t="n">
-        <v>387000</v>
+        <v>720000.8847000001</v>
       </c>
       <c r="G88" t="n">
-        <v>-4791373.159941982</v>
+        <v>4.596666666666675</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
       </c>
       <c r="I88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
@@ -3472,34 +3563,35 @@
       <c r="M88" t="n">
         <v>1</v>
       </c>
+      <c r="N88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>4.58</v>
+        <v>4.64</v>
       </c>
       <c r="C89" t="n">
-        <v>4.58</v>
+        <v>4.61</v>
       </c>
       <c r="D89" t="n">
-        <v>4.58</v>
+        <v>4.64</v>
       </c>
       <c r="E89" t="n">
-        <v>4.58</v>
+        <v>4.61</v>
       </c>
       <c r="F89" t="n">
-        <v>261747.6657</v>
+        <v>20</v>
       </c>
       <c r="G89" t="n">
-        <v>-5053120.825641981</v>
+        <v>4.583333333333341</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
       </c>
       <c r="I89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
@@ -3507,34 +3599,35 @@
       <c r="M89" t="n">
         <v>1</v>
       </c>
+      <c r="N89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>4.62</v>
+        <v>4.61</v>
       </c>
       <c r="C90" t="n">
-        <v>4.68</v>
+        <v>4.55</v>
       </c>
       <c r="D90" t="n">
-        <v>4.68</v>
+        <v>4.61</v>
       </c>
       <c r="E90" t="n">
-        <v>4.6</v>
+        <v>4.55</v>
       </c>
       <c r="F90" t="n">
-        <v>351693.2559</v>
+        <v>257748.5422</v>
       </c>
       <c r="G90" t="n">
-        <v>-4701427.569741981</v>
+        <v>4.570000000000007</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
       </c>
       <c r="I90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
@@ -3542,34 +3635,35 @@
       <c r="M90" t="n">
         <v>1</v>
       </c>
+      <c r="N90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>4.68</v>
+        <v>4.62</v>
       </c>
       <c r="C91" t="n">
         <v>4.61</v>
       </c>
       <c r="D91" t="n">
-        <v>4.68</v>
+        <v>4.62</v>
       </c>
       <c r="E91" t="n">
-        <v>4.61</v>
+        <v>4.52</v>
       </c>
       <c r="F91" t="n">
-        <v>905165.6731</v>
+        <v>15102</v>
       </c>
       <c r="G91" t="n">
-        <v>-5606593.242841981</v>
+        <v>4.590000000000007</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
       </c>
       <c r="I91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
@@ -3577,28 +3671,29 @@
       <c r="M91" t="n">
         <v>1</v>
       </c>
+      <c r="N91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>4.62</v>
+        <v>4.59</v>
       </c>
       <c r="C92" t="n">
-        <v>4.62</v>
+        <v>4.49</v>
       </c>
       <c r="D92" t="n">
-        <v>4.62</v>
+        <v>4.59</v>
       </c>
       <c r="E92" t="n">
-        <v>4.62</v>
+        <v>4.49</v>
       </c>
       <c r="F92" t="n">
-        <v>192315.478</v>
+        <v>242413.5138</v>
       </c>
       <c r="G92" t="n">
-        <v>-5414277.764841981</v>
+        <v>4.550000000000007</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3612,28 +3707,29 @@
       <c r="M92" t="n">
         <v>1</v>
       </c>
+      <c r="N92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>4.62</v>
+        <v>4.49</v>
       </c>
       <c r="C93" t="n">
-        <v>4.62</v>
+        <v>4.46</v>
       </c>
       <c r="D93" t="n">
-        <v>4.62</v>
+        <v>4.49</v>
       </c>
       <c r="E93" t="n">
-        <v>4.62</v>
+        <v>4.46</v>
       </c>
       <c r="F93" t="n">
-        <v>257572.7195</v>
+        <v>273417.1912</v>
       </c>
       <c r="G93" t="n">
-        <v>-5414277.764841981</v>
+        <v>4.520000000000007</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3647,28 +3743,29 @@
       <c r="M93" t="n">
         <v>1</v>
       </c>
+      <c r="N93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>4.62</v>
+        <v>4.49</v>
       </c>
       <c r="C94" t="n">
-        <v>4.58</v>
+        <v>4.49</v>
       </c>
       <c r="D94" t="n">
-        <v>4.62</v>
+        <v>4.49</v>
       </c>
       <c r="E94" t="n">
-        <v>4.58</v>
+        <v>4.49</v>
       </c>
       <c r="F94" t="n">
-        <v>250197.4084</v>
+        <v>31473.4845</v>
       </c>
       <c r="G94" t="n">
-        <v>-5664475.173241981</v>
+        <v>4.480000000000007</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3682,28 +3779,29 @@
       <c r="M94" t="n">
         <v>1</v>
       </c>
+      <c r="N94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>4.64</v>
+        <v>4.49</v>
       </c>
       <c r="C95" t="n">
-        <v>4.64</v>
+        <v>4.6</v>
       </c>
       <c r="D95" t="n">
-        <v>4.64</v>
+        <v>4.6</v>
       </c>
       <c r="E95" t="n">
-        <v>4.64</v>
+        <v>4.49</v>
       </c>
       <c r="F95" t="n">
-        <v>110</v>
+        <v>5038.5738</v>
       </c>
       <c r="G95" t="n">
-        <v>-5664365.173241981</v>
+        <v>4.516666666666674</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3717,28 +3815,29 @@
       <c r="M95" t="n">
         <v>1</v>
       </c>
+      <c r="N95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>4.64</v>
+        <v>4.49</v>
       </c>
       <c r="C96" t="n">
-        <v>4.6</v>
+        <v>4.49</v>
       </c>
       <c r="D96" t="n">
-        <v>4.64</v>
+        <v>4.49</v>
       </c>
       <c r="E96" t="n">
-        <v>4.6</v>
+        <v>4.49</v>
       </c>
       <c r="F96" t="n">
-        <v>1050651.5086</v>
+        <v>450089.1954</v>
       </c>
       <c r="G96" t="n">
-        <v>-6715016.681841982</v>
+        <v>4.526666666666673</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3752,28 +3851,29 @@
       <c r="M96" t="n">
         <v>1</v>
       </c>
+      <c r="N96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>4.62</v>
+        <v>4.49</v>
       </c>
       <c r="C97" t="n">
-        <v>4.62</v>
+        <v>4.49</v>
       </c>
       <c r="D97" t="n">
-        <v>4.62</v>
+        <v>4.49</v>
       </c>
       <c r="E97" t="n">
-        <v>4.62</v>
+        <v>4.49</v>
       </c>
       <c r="F97" t="n">
-        <v>139133.5951</v>
+        <v>8502.590099999999</v>
       </c>
       <c r="G97" t="n">
-        <v>-6575883.086741982</v>
+        <v>4.526666666666673</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3787,28 +3887,29 @@
       <c r="M97" t="n">
         <v>1</v>
       </c>
+      <c r="N97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>4.69</v>
+        <v>4.55</v>
       </c>
       <c r="C98" t="n">
-        <v>4.59</v>
+        <v>4.55</v>
       </c>
       <c r="D98" t="n">
-        <v>4.69</v>
+        <v>4.6</v>
       </c>
       <c r="E98" t="n">
-        <v>4.59</v>
+        <v>4.55</v>
       </c>
       <c r="F98" t="n">
-        <v>868143.6902</v>
+        <v>596809.9054</v>
       </c>
       <c r="G98" t="n">
-        <v>-7444026.776941982</v>
+        <v>4.510000000000007</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3822,28 +3923,29 @@
       <c r="M98" t="n">
         <v>1</v>
       </c>
+      <c r="N98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>4.64</v>
+        <v>4.55</v>
       </c>
       <c r="C99" t="n">
-        <v>4.59</v>
+        <v>4.55</v>
       </c>
       <c r="D99" t="n">
-        <v>4.64</v>
+        <v>4.55</v>
       </c>
       <c r="E99" t="n">
-        <v>4.59</v>
+        <v>4.55</v>
       </c>
       <c r="F99" t="n">
-        <v>46979.0248</v>
+        <v>17558.6492</v>
       </c>
       <c r="G99" t="n">
-        <v>-7444026.776941982</v>
+        <v>4.530000000000006</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -3857,28 +3959,29 @@
       <c r="M99" t="n">
         <v>1</v>
       </c>
+      <c r="N99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>4.58</v>
+        <v>4.55</v>
       </c>
       <c r="C100" t="n">
-        <v>4.57</v>
+        <v>4.55</v>
       </c>
       <c r="D100" t="n">
-        <v>4.58</v>
+        <v>4.55</v>
       </c>
       <c r="E100" t="n">
-        <v>4.57</v>
+        <v>4.55</v>
       </c>
       <c r="F100" t="n">
-        <v>890485.2751</v>
+        <v>25342.7292</v>
       </c>
       <c r="G100" t="n">
-        <v>-8334512.052041982</v>
+        <v>4.550000000000006</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -3892,28 +3995,29 @@
       <c r="M100" t="n">
         <v>1</v>
       </c>
+      <c r="N100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>4.58</v>
+        <v>4.55</v>
       </c>
       <c r="C101" t="n">
-        <v>4.58</v>
+        <v>4.55</v>
       </c>
       <c r="D101" t="n">
-        <v>4.58</v>
+        <v>4.55</v>
       </c>
       <c r="E101" t="n">
-        <v>4.58</v>
+        <v>4.55</v>
       </c>
       <c r="F101" t="n">
-        <v>50952.0807</v>
+        <v>216000.4204</v>
       </c>
       <c r="G101" t="n">
-        <v>-8283559.971341982</v>
+        <v>4.550000000000005</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -3927,28 +4031,29 @@
       <c r="M101" t="n">
         <v>1</v>
       </c>
+      <c r="N101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>4.64</v>
+        <v>4.55</v>
       </c>
       <c r="C102" t="n">
-        <v>4.64</v>
+        <v>4.55</v>
       </c>
       <c r="D102" t="n">
-        <v>4.64</v>
+        <v>4.55</v>
       </c>
       <c r="E102" t="n">
-        <v>4.64</v>
+        <v>4.55</v>
       </c>
       <c r="F102" t="n">
-        <v>10</v>
+        <v>20300.6894</v>
       </c>
       <c r="G102" t="n">
-        <v>-8283549.971341982</v>
+        <v>4.550000000000005</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -3962,28 +4067,29 @@
       <c r="M102" t="n">
         <v>1</v>
       </c>
+      <c r="N102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>4.64</v>
+        <v>4.54</v>
       </c>
       <c r="C103" t="n">
-        <v>4.59</v>
+        <v>4.54</v>
       </c>
       <c r="D103" t="n">
-        <v>4.64</v>
+        <v>4.54</v>
       </c>
       <c r="E103" t="n">
-        <v>4.59</v>
+        <v>4.54</v>
       </c>
       <c r="F103" t="n">
-        <v>263620.571</v>
+        <v>29855.7268</v>
       </c>
       <c r="G103" t="n">
-        <v>-8547170.542341983</v>
+        <v>4.546666666666671</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -3997,28 +4103,29 @@
       <c r="M103" t="n">
         <v>1</v>
       </c>
+      <c r="N103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>4.67</v>
+        <v>4.54</v>
       </c>
       <c r="C104" t="n">
-        <v>4.67</v>
+        <v>4.55</v>
       </c>
       <c r="D104" t="n">
-        <v>4.67</v>
+        <v>4.55</v>
       </c>
       <c r="E104" t="n">
-        <v>4.67</v>
+        <v>4.54</v>
       </c>
       <c r="F104" t="n">
-        <v>10</v>
+        <v>1289193.1886</v>
       </c>
       <c r="G104" t="n">
-        <v>-8547160.542341983</v>
+        <v>4.546666666666671</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4032,28 +4139,29 @@
       <c r="M104" t="n">
         <v>1</v>
       </c>
+      <c r="N104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>4.68</v>
+        <v>4.55</v>
       </c>
       <c r="C105" t="n">
-        <v>4.68</v>
+        <v>4.55</v>
       </c>
       <c r="D105" t="n">
-        <v>4.68</v>
+        <v>4.55</v>
       </c>
       <c r="E105" t="n">
-        <v>4.68</v>
+        <v>4.55</v>
       </c>
       <c r="F105" t="n">
-        <v>99</v>
+        <v>70619.02340000001</v>
       </c>
       <c r="G105" t="n">
-        <v>-8547061.542341983</v>
+        <v>4.546666666666671</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4067,34 +4175,35 @@
       <c r="M105" t="n">
         <v>1</v>
       </c>
+      <c r="N105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>4.61</v>
+        <v>4.47</v>
       </c>
       <c r="C106" t="n">
-        <v>4.61</v>
+        <v>4.43</v>
       </c>
       <c r="D106" t="n">
-        <v>4.61</v>
+        <v>4.47</v>
       </c>
       <c r="E106" t="n">
-        <v>4.61</v>
+        <v>4.43</v>
       </c>
       <c r="F106" t="n">
-        <v>1229.727</v>
+        <v>464094.8782</v>
       </c>
       <c r="G106" t="n">
-        <v>-8548291.269341983</v>
+        <v>4.510000000000005</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
       </c>
       <c r="I106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
@@ -4102,28 +4211,29 @@
       <c r="M106" t="n">
         <v>1</v>
       </c>
+      <c r="N106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>4.61</v>
+        <v>4.46</v>
       </c>
       <c r="C107" t="n">
-        <v>4.6</v>
+        <v>4.46</v>
       </c>
       <c r="D107" t="n">
-        <v>4.66</v>
+        <v>4.46</v>
       </c>
       <c r="E107" t="n">
-        <v>4.6</v>
+        <v>4.46</v>
       </c>
       <c r="F107" t="n">
-        <v>310373.1333</v>
+        <v>58932.6431</v>
       </c>
       <c r="G107" t="n">
-        <v>-8858664.402641984</v>
+        <v>4.480000000000005</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4137,28 +4247,29 @@
       <c r="M107" t="n">
         <v>1</v>
       </c>
+      <c r="N107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>4.6</v>
+        <v>4.53</v>
       </c>
       <c r="C108" t="n">
-        <v>4.59</v>
+        <v>4.53</v>
       </c>
       <c r="D108" t="n">
-        <v>4.6</v>
+        <v>4.53</v>
       </c>
       <c r="E108" t="n">
-        <v>4.59</v>
+        <v>4.53</v>
       </c>
       <c r="F108" t="n">
-        <v>320394.033</v>
+        <v>6108.3885</v>
       </c>
       <c r="G108" t="n">
-        <v>-9179058.435641984</v>
+        <v>4.473333333333339</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4172,28 +4283,29 @@
       <c r="M108" t="n">
         <v>1</v>
       </c>
+      <c r="N108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>4.65</v>
+        <v>4.43</v>
       </c>
       <c r="C109" t="n">
-        <v>4.61</v>
+        <v>4.42</v>
       </c>
       <c r="D109" t="n">
-        <v>4.65</v>
+        <v>4.43</v>
       </c>
       <c r="E109" t="n">
-        <v>4.59</v>
+        <v>4.42</v>
       </c>
       <c r="F109" t="n">
-        <v>392420.6399</v>
+        <v>257974.1378</v>
       </c>
       <c r="G109" t="n">
-        <v>-8786637.795741983</v>
+        <v>4.470000000000006</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4207,28 +4319,29 @@
       <c r="M109" t="n">
         <v>1</v>
       </c>
+      <c r="N109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>4.67</v>
+        <v>4.47</v>
       </c>
       <c r="C110" t="n">
-        <v>4.62</v>
+        <v>4.47</v>
       </c>
       <c r="D110" t="n">
-        <v>4.67</v>
+        <v>4.47</v>
       </c>
       <c r="E110" t="n">
-        <v>4.62</v>
+        <v>4.47</v>
       </c>
       <c r="F110" t="n">
-        <v>198118.6147</v>
+        <v>20</v>
       </c>
       <c r="G110" t="n">
-        <v>-8588519.181041982</v>
+        <v>4.473333333333339</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4242,28 +4355,29 @@
       <c r="M110" t="n">
         <v>1</v>
       </c>
+      <c r="N110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>4.62</v>
+        <v>4.47</v>
       </c>
       <c r="C111" t="n">
-        <v>4.59</v>
+        <v>4.48</v>
       </c>
       <c r="D111" t="n">
-        <v>4.62</v>
+        <v>4.49</v>
       </c>
       <c r="E111" t="n">
-        <v>4.59</v>
+        <v>4.47</v>
       </c>
       <c r="F111" t="n">
-        <v>513021.6013</v>
+        <v>481928.357</v>
       </c>
       <c r="G111" t="n">
-        <v>-9101540.782341981</v>
+        <v>4.456666666666671</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4277,28 +4391,29 @@
       <c r="M111" t="n">
         <v>1</v>
       </c>
+      <c r="N111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>4.59</v>
+        <v>4.49</v>
       </c>
       <c r="C112" t="n">
-        <v>4.66</v>
+        <v>4.5</v>
       </c>
       <c r="D112" t="n">
-        <v>4.66</v>
+        <v>4.5</v>
       </c>
       <c r="E112" t="n">
-        <v>4.59</v>
+        <v>4.49</v>
       </c>
       <c r="F112" t="n">
-        <v>153502.9847</v>
+        <v>15112</v>
       </c>
       <c r="G112" t="n">
-        <v>-8948037.797641981</v>
+        <v>4.483333333333339</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4312,28 +4427,29 @@
       <c r="M112" t="n">
         <v>1</v>
       </c>
+      <c r="N112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>4.66</v>
+        <v>4.51</v>
       </c>
       <c r="C113" t="n">
-        <v>4.67</v>
+        <v>4.56</v>
       </c>
       <c r="D113" t="n">
-        <v>4.67</v>
+        <v>4.56</v>
       </c>
       <c r="E113" t="n">
-        <v>4.58</v>
+        <v>4.47</v>
       </c>
       <c r="F113" t="n">
-        <v>171659.4766</v>
+        <v>492187.777</v>
       </c>
       <c r="G113" t="n">
-        <v>-8776378.321041981</v>
+        <v>4.513333333333339</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4347,28 +4463,29 @@
       <c r="M113" t="n">
         <v>1</v>
       </c>
+      <c r="N113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="C114" t="n">
-        <v>4.66</v>
+        <v>4.42</v>
       </c>
       <c r="D114" t="n">
-        <v>4.67</v>
+        <v>4.5</v>
       </c>
       <c r="E114" t="n">
-        <v>4.6</v>
+        <v>4.42</v>
       </c>
       <c r="F114" t="n">
-        <v>1530918.8352</v>
+        <v>492158.0842</v>
       </c>
       <c r="G114" t="n">
-        <v>-10307297.15624198</v>
+        <v>4.493333333333339</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4382,28 +4499,29 @@
       <c r="M114" t="n">
         <v>1</v>
       </c>
+      <c r="N114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>4.66</v>
+        <v>4.53</v>
       </c>
       <c r="C115" t="n">
-        <v>4.56</v>
+        <v>4.49</v>
       </c>
       <c r="D115" t="n">
-        <v>4.79</v>
+        <v>4.53</v>
       </c>
       <c r="E115" t="n">
-        <v>4.55</v>
+        <v>4.48</v>
       </c>
       <c r="F115" t="n">
-        <v>2073312.46600876</v>
+        <v>216872.8691</v>
       </c>
       <c r="G115" t="n">
-        <v>-12380609.62225074</v>
+        <v>4.490000000000005</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4417,28 +4535,29 @@
       <c r="M115" t="n">
         <v>1</v>
       </c>
+      <c r="N115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>4.77</v>
+        <v>4.44</v>
       </c>
       <c r="C116" t="n">
-        <v>4.71</v>
+        <v>4.43</v>
       </c>
       <c r="D116" t="n">
-        <v>4.77</v>
+        <v>4.44</v>
       </c>
       <c r="E116" t="n">
-        <v>4.61</v>
+        <v>4.43</v>
       </c>
       <c r="F116" t="n">
-        <v>566490.2601</v>
+        <v>268051.4885</v>
       </c>
       <c r="G116" t="n">
-        <v>-11814119.36215074</v>
+        <v>4.446666666666672</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4452,34 +4571,35 @@
       <c r="M116" t="n">
         <v>1</v>
       </c>
+      <c r="N116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>4.61</v>
+        <v>4.47</v>
       </c>
       <c r="C117" t="n">
-        <v>4.62</v>
+        <v>4.47</v>
       </c>
       <c r="D117" t="n">
-        <v>4.69</v>
+        <v>4.47</v>
       </c>
       <c r="E117" t="n">
-        <v>4.61</v>
+        <v>4.42</v>
       </c>
       <c r="F117" t="n">
-        <v>102504.9494</v>
+        <v>994676.0965</v>
       </c>
       <c r="G117" t="n">
-        <v>-11916624.31155074</v>
+        <v>4.463333333333337</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
       </c>
       <c r="I117" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
@@ -4487,28 +4607,29 @@
       <c r="M117" t="n">
         <v>1</v>
       </c>
+      <c r="N117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>4.63</v>
+        <v>4.41</v>
       </c>
       <c r="C118" t="n">
-        <v>4.69</v>
+        <v>4.47</v>
       </c>
       <c r="D118" t="n">
-        <v>4.69</v>
+        <v>4.47</v>
       </c>
       <c r="E118" t="n">
-        <v>4.61</v>
+        <v>4.4</v>
       </c>
       <c r="F118" t="n">
-        <v>78898.2552</v>
+        <v>1157557.5942</v>
       </c>
       <c r="G118" t="n">
-        <v>-11837726.05635074</v>
+        <v>4.456666666666671</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4522,28 +4643,29 @@
       <c r="M118" t="n">
         <v>1</v>
       </c>
+      <c r="N118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>4.63</v>
+        <v>4.41</v>
       </c>
       <c r="C119" t="n">
-        <v>4.69</v>
+        <v>4.47</v>
       </c>
       <c r="D119" t="n">
-        <v>4.69</v>
+        <v>4.47</v>
       </c>
       <c r="E119" t="n">
-        <v>4.63</v>
+        <v>4.41</v>
       </c>
       <c r="F119" t="n">
-        <v>698624.2373</v>
+        <v>6103.1176</v>
       </c>
       <c r="G119" t="n">
-        <v>-11837726.05635074</v>
+        <v>4.470000000000005</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4557,28 +4679,29 @@
       <c r="M119" t="n">
         <v>1</v>
       </c>
+      <c r="N119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>4.64</v>
+        <v>4.42</v>
       </c>
       <c r="C120" t="n">
-        <v>4.63</v>
+        <v>4.42</v>
       </c>
       <c r="D120" t="n">
-        <v>4.69</v>
+        <v>4.42</v>
       </c>
       <c r="E120" t="n">
-        <v>4.63</v>
+        <v>4.42</v>
       </c>
       <c r="F120" t="n">
-        <v>311512.138</v>
+        <v>154673.5313</v>
       </c>
       <c r="G120" t="n">
-        <v>-12149238.19435074</v>
+        <v>4.453333333333338</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4592,133 +4715,157 @@
       <c r="M120" t="n">
         <v>1</v>
       </c>
+      <c r="N120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>4.68</v>
+        <v>4.47</v>
       </c>
       <c r="C121" t="n">
-        <v>4.6</v>
+        <v>4.47</v>
       </c>
       <c r="D121" t="n">
-        <v>4.69</v>
+        <v>4.47</v>
       </c>
       <c r="E121" t="n">
-        <v>4.6</v>
+        <v>4.47</v>
       </c>
       <c r="F121" t="n">
-        <v>47643.6589</v>
+        <v>10</v>
       </c>
       <c r="G121" t="n">
-        <v>-12196881.85325074</v>
+        <v>4.453333333333338</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>4.42</v>
+      </c>
+      <c r="K121" t="n">
+        <v>4.42</v>
+      </c>
       <c r="L121" t="inlineStr"/>
       <c r="M121" t="n">
         <v>1</v>
       </c>
+      <c r="N121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>4.69</v>
+        <v>4.47</v>
       </c>
       <c r="C122" t="n">
-        <v>4.69</v>
+        <v>4.47</v>
       </c>
       <c r="D122" t="n">
-        <v>4.69</v>
+        <v>4.47</v>
       </c>
       <c r="E122" t="n">
-        <v>4.69</v>
+        <v>4.47</v>
       </c>
       <c r="F122" t="n">
-        <v>13</v>
+        <v>55380</v>
       </c>
       <c r="G122" t="n">
-        <v>-12196868.85325074</v>
+        <v>4.453333333333338</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>4.47</v>
+      </c>
+      <c r="K122" t="n">
+        <v>4.42</v>
+      </c>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M122" t="n">
         <v>1</v>
       </c>
+      <c r="N122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>4.63</v>
+        <v>4.47</v>
       </c>
       <c r="C123" t="n">
-        <v>4.63</v>
+        <v>4.47</v>
       </c>
       <c r="D123" t="n">
-        <v>4.63</v>
+        <v>4.47</v>
       </c>
       <c r="E123" t="n">
-        <v>4.63</v>
+        <v>4.47</v>
       </c>
       <c r="F123" t="n">
-        <v>148567.9265</v>
+        <v>60546.8045</v>
       </c>
       <c r="G123" t="n">
-        <v>-12345436.77975074</v>
+        <v>4.470000000000004</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I123" t="n">
         <v>0</v>
       </c>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>4.47</v>
+      </c>
+      <c r="K123" t="n">
+        <v>4.42</v>
+      </c>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M123" t="n">
         <v>1</v>
       </c>
+      <c r="N123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>4.63</v>
+        <v>4.42</v>
       </c>
       <c r="C124" t="n">
-        <v>4.61</v>
+        <v>4.47</v>
       </c>
       <c r="D124" t="n">
-        <v>4.69</v>
+        <v>4.47</v>
       </c>
       <c r="E124" t="n">
-        <v>4.61</v>
+        <v>4.42</v>
       </c>
       <c r="F124" t="n">
-        <v>516318.2797</v>
+        <v>315919.5261</v>
       </c>
       <c r="G124" t="n">
-        <v>-12861755.05945074</v>
+        <v>4.470000000000005</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -4732,98 +4879,113 @@
       <c r="M124" t="n">
         <v>1</v>
       </c>
+      <c r="N124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>4.62</v>
+        <v>4.45</v>
       </c>
       <c r="C125" t="n">
-        <v>4.6</v>
+        <v>4.47</v>
       </c>
       <c r="D125" t="n">
-        <v>4.62</v>
+        <v>4.47</v>
       </c>
       <c r="E125" t="n">
-        <v>4.6</v>
+        <v>4.44</v>
       </c>
       <c r="F125" t="n">
-        <v>307283.8301</v>
+        <v>208512.3932</v>
       </c>
       <c r="G125" t="n">
-        <v>-13169038.88955074</v>
+        <v>4.470000000000005</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I125" t="n">
         <v>0</v>
       </c>
-      <c r="J125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>4.47</v>
+      </c>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M125" t="n">
         <v>1</v>
       </c>
+      <c r="N125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>4.63</v>
+        <v>4.47</v>
       </c>
       <c r="C126" t="n">
-        <v>4.6</v>
+        <v>4.58</v>
       </c>
       <c r="D126" t="n">
-        <v>4.63</v>
+        <v>4.58</v>
       </c>
       <c r="E126" t="n">
-        <v>4.6</v>
+        <v>4.47</v>
       </c>
       <c r="F126" t="n">
-        <v>46927.8951</v>
+        <v>291688.1849</v>
       </c>
       <c r="G126" t="n">
-        <v>-13169038.88955074</v>
+        <v>4.506666666666672</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I126" t="n">
         <v>0</v>
       </c>
-      <c r="J126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>4.47</v>
+      </c>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M126" t="n">
         <v>1</v>
       </c>
+      <c r="N126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>4.68</v>
+        <v>4.46</v>
       </c>
       <c r="C127" t="n">
-        <v>4.68</v>
+        <v>4.46</v>
       </c>
       <c r="D127" t="n">
-        <v>4.68</v>
+        <v>4.46</v>
       </c>
       <c r="E127" t="n">
-        <v>4.68</v>
+        <v>4.46</v>
       </c>
       <c r="F127" t="n">
-        <v>12</v>
+        <v>10320.0668</v>
       </c>
       <c r="G127" t="n">
-        <v>-13169026.88955074</v>
+        <v>4.50333333333334</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -4833,32 +4995,37 @@
       </c>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M127" t="n">
         <v>1</v>
       </c>
+      <c r="N127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>4.65</v>
+        <v>4.56</v>
       </c>
       <c r="C128" t="n">
-        <v>4.65</v>
+        <v>4.56</v>
       </c>
       <c r="D128" t="n">
-        <v>4.65</v>
+        <v>4.56</v>
       </c>
       <c r="E128" t="n">
-        <v>4.65</v>
+        <v>4.46</v>
       </c>
       <c r="F128" t="n">
-        <v>10</v>
+        <v>90020</v>
       </c>
       <c r="G128" t="n">
-        <v>-13169036.88955074</v>
+        <v>4.533333333333339</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -4868,32 +5035,37 @@
       </c>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M128" t="n">
         <v>1</v>
       </c>
+      <c r="N128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>4.6</v>
+        <v>4.44</v>
       </c>
       <c r="C129" t="n">
-        <v>4.59</v>
+        <v>4.53</v>
       </c>
       <c r="D129" t="n">
-        <v>4.6</v>
+        <v>4.53</v>
       </c>
       <c r="E129" t="n">
-        <v>4.59</v>
+        <v>4.44</v>
       </c>
       <c r="F129" t="n">
-        <v>69265.1439</v>
+        <v>80010</v>
       </c>
       <c r="G129" t="n">
-        <v>-13238302.03345074</v>
+        <v>4.516666666666674</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -4903,32 +5075,37 @@
       </c>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M129" t="n">
         <v>1</v>
       </c>
+      <c r="N129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>4.59</v>
+        <v>4.44</v>
       </c>
       <c r="C130" t="n">
-        <v>4.55</v>
+        <v>4.54</v>
       </c>
       <c r="D130" t="n">
-        <v>4.59</v>
+        <v>4.54</v>
       </c>
       <c r="E130" t="n">
-        <v>4.55</v>
+        <v>4.43</v>
       </c>
       <c r="F130" t="n">
-        <v>720000.8847000001</v>
+        <v>100020</v>
       </c>
       <c r="G130" t="n">
-        <v>-13958302.91815074</v>
+        <v>4.54333333333334</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -4938,32 +5115,37 @@
       </c>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M130" t="n">
         <v>1</v>
       </c>
+      <c r="N130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>4.64</v>
+        <v>4.44</v>
       </c>
       <c r="C131" t="n">
-        <v>4.61</v>
+        <v>4.52</v>
       </c>
       <c r="D131" t="n">
-        <v>4.64</v>
+        <v>4.53</v>
       </c>
       <c r="E131" t="n">
-        <v>4.61</v>
+        <v>4.44</v>
       </c>
       <c r="F131" t="n">
-        <v>20</v>
+        <v>86435.61259999999</v>
       </c>
       <c r="G131" t="n">
-        <v>-13958282.91815074</v>
+        <v>4.530000000000007</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -4973,32 +5155,37 @@
       </c>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M131" t="n">
         <v>1</v>
       </c>
+      <c r="N131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>4.61</v>
+        <v>4.43</v>
       </c>
       <c r="C132" t="n">
-        <v>4.55</v>
+        <v>4.53</v>
       </c>
       <c r="D132" t="n">
-        <v>4.61</v>
+        <v>4.53</v>
       </c>
       <c r="E132" t="n">
-        <v>4.55</v>
+        <v>4.43</v>
       </c>
       <c r="F132" t="n">
-        <v>257748.5422</v>
+        <v>100010</v>
       </c>
       <c r="G132" t="n">
-        <v>-14216031.46035074</v>
+        <v>4.530000000000007</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5008,32 +5195,37 @@
       </c>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
+      <c r="L132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M132" t="n">
         <v>1</v>
       </c>
+      <c r="N132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>4.62</v>
+        <v>4.43</v>
       </c>
       <c r="C133" t="n">
-        <v>4.61</v>
+        <v>4.51</v>
       </c>
       <c r="D133" t="n">
-        <v>4.62</v>
+        <v>4.53</v>
       </c>
       <c r="E133" t="n">
-        <v>4.52</v>
+        <v>4.43</v>
       </c>
       <c r="F133" t="n">
-        <v>15102</v>
+        <v>268828.4271</v>
       </c>
       <c r="G133" t="n">
-        <v>-14200929.46035074</v>
+        <v>4.520000000000008</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5043,32 +5235,37 @@
       </c>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M133" t="n">
         <v>1</v>
       </c>
+      <c r="N133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>4.59</v>
+        <v>4.43</v>
       </c>
       <c r="C134" t="n">
-        <v>4.49</v>
+        <v>4.5</v>
       </c>
       <c r="D134" t="n">
-        <v>4.59</v>
+        <v>4.5</v>
       </c>
       <c r="E134" t="n">
-        <v>4.49</v>
+        <v>4.43</v>
       </c>
       <c r="F134" t="n">
-        <v>242413.5138</v>
+        <v>125722</v>
       </c>
       <c r="G134" t="n">
-        <v>-14443342.97415074</v>
+        <v>4.513333333333342</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5078,32 +5275,37 @@
       </c>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
+      <c r="L134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M134" t="n">
         <v>1</v>
       </c>
+      <c r="N134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>4.49</v>
+        <v>4.5</v>
       </c>
       <c r="C135" t="n">
-        <v>4.46</v>
+        <v>4.5</v>
       </c>
       <c r="D135" t="n">
-        <v>4.49</v>
+        <v>4.5</v>
       </c>
       <c r="E135" t="n">
-        <v>4.46</v>
+        <v>4.5</v>
       </c>
       <c r="F135" t="n">
-        <v>273417.1912</v>
+        <v>60870</v>
       </c>
       <c r="G135" t="n">
-        <v>-14716760.16535074</v>
+        <v>4.503333333333341</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5113,32 +5315,37 @@
       </c>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
+      <c r="L135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M135" t="n">
         <v>1</v>
       </c>
+      <c r="N135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>4.49</v>
+        <v>4.53</v>
       </c>
       <c r="C136" t="n">
-        <v>4.49</v>
+        <v>4.53</v>
       </c>
       <c r="D136" t="n">
-        <v>4.49</v>
+        <v>4.53</v>
       </c>
       <c r="E136" t="n">
-        <v>4.49</v>
+        <v>4.53</v>
       </c>
       <c r="F136" t="n">
-        <v>31473.4845</v>
+        <v>10</v>
       </c>
       <c r="G136" t="n">
-        <v>-14685286.68085074</v>
+        <v>4.510000000000008</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5148,32 +5355,37 @@
       </c>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
+      <c r="L136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M136" t="n">
         <v>1</v>
       </c>
+      <c r="N136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>4.49</v>
+        <v>4.5</v>
       </c>
       <c r="C137" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="D137" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="E137" t="n">
-        <v>4.49</v>
+        <v>4.5</v>
       </c>
       <c r="F137" t="n">
-        <v>5038.5738</v>
+        <v>14651</v>
       </c>
       <c r="G137" t="n">
-        <v>-14680248.10705074</v>
+        <v>4.510000000000008</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -5183,32 +5395,37 @@
       </c>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
+      <c r="L137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M137" t="n">
         <v>1</v>
       </c>
+      <c r="N137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>4.49</v>
+        <v>4.51</v>
       </c>
       <c r="C138" t="n">
-        <v>4.49</v>
+        <v>4.51</v>
       </c>
       <c r="D138" t="n">
-        <v>4.49</v>
+        <v>4.51</v>
       </c>
       <c r="E138" t="n">
-        <v>4.49</v>
+        <v>4.51</v>
       </c>
       <c r="F138" t="n">
-        <v>450089.1954</v>
+        <v>51857.2996</v>
       </c>
       <c r="G138" t="n">
-        <v>-15130337.30245074</v>
+        <v>4.51333333333334</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -5218,32 +5435,37 @@
       </c>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
+      <c r="L138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M138" t="n">
         <v>1</v>
       </c>
+      <c r="N138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>4.49</v>
+        <v>4.53</v>
       </c>
       <c r="C139" t="n">
-        <v>4.49</v>
+        <v>4.53</v>
       </c>
       <c r="D139" t="n">
-        <v>4.49</v>
+        <v>4.53</v>
       </c>
       <c r="E139" t="n">
-        <v>4.49</v>
+        <v>4.53</v>
       </c>
       <c r="F139" t="n">
-        <v>8502.590099999999</v>
+        <v>34893</v>
       </c>
       <c r="G139" t="n">
-        <v>-15130337.30245074</v>
+        <v>4.51333333333334</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -5253,32 +5475,37 @@
       </c>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
+      <c r="L139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M139" t="n">
         <v>1</v>
       </c>
+      <c r="N139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>4.55</v>
+        <v>4.56</v>
       </c>
       <c r="C140" t="n">
-        <v>4.55</v>
+        <v>4.56</v>
       </c>
       <c r="D140" t="n">
-        <v>4.6</v>
+        <v>4.56</v>
       </c>
       <c r="E140" t="n">
-        <v>4.55</v>
+        <v>4.56</v>
       </c>
       <c r="F140" t="n">
-        <v>596809.9054</v>
+        <v>52893.6403</v>
       </c>
       <c r="G140" t="n">
-        <v>-14533527.39705074</v>
+        <v>4.533333333333339</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -5288,32 +5515,37 @@
       </c>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
+      <c r="L140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M140" t="n">
         <v>1</v>
       </c>
+      <c r="N140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>4.55</v>
+        <v>4.54</v>
       </c>
       <c r="C141" t="n">
-        <v>4.55</v>
+        <v>4.54</v>
       </c>
       <c r="D141" t="n">
-        <v>4.55</v>
+        <v>4.54</v>
       </c>
       <c r="E141" t="n">
-        <v>4.55</v>
+        <v>4.54</v>
       </c>
       <c r="F141" t="n">
-        <v>17558.6492</v>
+        <v>80921.10129999999</v>
       </c>
       <c r="G141" t="n">
-        <v>-14533527.39705074</v>
+        <v>4.543333333333339</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -5323,32 +5555,37 @@
       </c>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
+      <c r="L141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M141" t="n">
         <v>1</v>
       </c>
+      <c r="N141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>4.55</v>
+        <v>4.5</v>
       </c>
       <c r="C142" t="n">
-        <v>4.55</v>
+        <v>4.5</v>
       </c>
       <c r="D142" t="n">
-        <v>4.55</v>
+        <v>4.5</v>
       </c>
       <c r="E142" t="n">
-        <v>4.55</v>
+        <v>4.5</v>
       </c>
       <c r="F142" t="n">
-        <v>25342.7292</v>
+        <v>9723.546200000001</v>
       </c>
       <c r="G142" t="n">
-        <v>-14533527.39705074</v>
+        <v>4.533333333333339</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -5358,32 +5595,37 @@
       </c>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
+      <c r="L142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M142" t="n">
         <v>1</v>
       </c>
+      <c r="N142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>4.55</v>
+        <v>4.51</v>
       </c>
       <c r="C143" t="n">
-        <v>4.55</v>
+        <v>4.51</v>
       </c>
       <c r="D143" t="n">
-        <v>4.55</v>
+        <v>4.51</v>
       </c>
       <c r="E143" t="n">
-        <v>4.55</v>
+        <v>4.51</v>
       </c>
       <c r="F143" t="n">
-        <v>216000.4204</v>
+        <v>15081.9999</v>
       </c>
       <c r="G143" t="n">
-        <v>-14533527.39705074</v>
+        <v>4.516666666666672</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -5393,32 +5635,37 @@
       </c>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
+      <c r="L143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M143" t="n">
         <v>1</v>
       </c>
+      <c r="N143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>4.55</v>
+        <v>4.51</v>
       </c>
       <c r="C144" t="n">
-        <v>4.55</v>
+        <v>4.51</v>
       </c>
       <c r="D144" t="n">
-        <v>4.55</v>
+        <v>4.51</v>
       </c>
       <c r="E144" t="n">
-        <v>4.55</v>
+        <v>4.51</v>
       </c>
       <c r="F144" t="n">
-        <v>20300.6894</v>
+        <v>24749.9999</v>
       </c>
       <c r="G144" t="n">
-        <v>-14533527.39705074</v>
+        <v>4.506666666666672</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -5428,32 +5675,37 @@
       </c>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
+      <c r="L144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M144" t="n">
         <v>1</v>
       </c>
+      <c r="N144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>4.54</v>
+        <v>4.55</v>
       </c>
       <c r="C145" t="n">
-        <v>4.54</v>
+        <v>4.51</v>
       </c>
       <c r="D145" t="n">
-        <v>4.54</v>
+        <v>4.55</v>
       </c>
       <c r="E145" t="n">
-        <v>4.54</v>
+        <v>4.51</v>
       </c>
       <c r="F145" t="n">
-        <v>29855.7268</v>
+        <v>9946.604499999999</v>
       </c>
       <c r="G145" t="n">
-        <v>-14563383.12385074</v>
+        <v>4.510000000000005</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -5463,32 +5715,37 @@
       </c>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
+      <c r="L145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M145" t="n">
         <v>1</v>
       </c>
+      <c r="N145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>4.54</v>
+        <v>4.53</v>
       </c>
       <c r="C146" t="n">
-        <v>4.55</v>
+        <v>4.53</v>
       </c>
       <c r="D146" t="n">
-        <v>4.55</v>
+        <v>4.53</v>
       </c>
       <c r="E146" t="n">
-        <v>4.54</v>
+        <v>4.53</v>
       </c>
       <c r="F146" t="n">
-        <v>1289193.1886</v>
+        <v>10</v>
       </c>
       <c r="G146" t="n">
-        <v>-13274189.93525074</v>
+        <v>4.516666666666672</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -5498,32 +5755,37 @@
       </c>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
+      <c r="L146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M146" t="n">
         <v>1</v>
       </c>
+      <c r="N146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>4.55</v>
+        <v>4.51</v>
       </c>
       <c r="C147" t="n">
-        <v>4.55</v>
+        <v>4.5</v>
       </c>
       <c r="D147" t="n">
-        <v>4.55</v>
+        <v>4.51</v>
       </c>
       <c r="E147" t="n">
-        <v>4.55</v>
+        <v>4.5</v>
       </c>
       <c r="F147" t="n">
-        <v>70619.02340000001</v>
+        <v>91314.4507</v>
       </c>
       <c r="G147" t="n">
-        <v>-13274189.93525074</v>
+        <v>4.51333333333334</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -5533,32 +5795,37 @@
       </c>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
+      <c r="L147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M147" t="n">
         <v>1</v>
       </c>
+      <c r="N147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>4.47</v>
+        <v>4.53</v>
       </c>
       <c r="C148" t="n">
-        <v>4.43</v>
+        <v>4.53</v>
       </c>
       <c r="D148" t="n">
-        <v>4.47</v>
+        <v>4.53</v>
       </c>
       <c r="E148" t="n">
-        <v>4.43</v>
+        <v>4.53</v>
       </c>
       <c r="F148" t="n">
-        <v>464094.8782</v>
+        <v>22075.0551</v>
       </c>
       <c r="G148" t="n">
-        <v>-13738284.81345074</v>
+        <v>4.520000000000006</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -5568,32 +5835,37 @@
       </c>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
+      <c r="L148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M148" t="n">
         <v>1</v>
       </c>
+      <c r="N148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>4.46</v>
+        <v>4.53</v>
       </c>
       <c r="C149" t="n">
-        <v>4.46</v>
+        <v>4.53</v>
       </c>
       <c r="D149" t="n">
-        <v>4.46</v>
+        <v>4.53</v>
       </c>
       <c r="E149" t="n">
-        <v>4.46</v>
+        <v>4.53</v>
       </c>
       <c r="F149" t="n">
-        <v>58932.6431</v>
+        <v>56244.7866</v>
       </c>
       <c r="G149" t="n">
-        <v>-13679352.17035074</v>
+        <v>4.520000000000006</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -5603,32 +5875,37 @@
       </c>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
+      <c r="L149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M149" t="n">
         <v>1</v>
       </c>
+      <c r="N149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>4.53</v>
+        <v>4.51</v>
       </c>
       <c r="C150" t="n">
-        <v>4.53</v>
+        <v>4.5</v>
       </c>
       <c r="D150" t="n">
-        <v>4.53</v>
+        <v>4.51</v>
       </c>
       <c r="E150" t="n">
-        <v>4.53</v>
+        <v>4.5</v>
       </c>
       <c r="F150" t="n">
-        <v>6108.3885</v>
+        <v>289035.7276</v>
       </c>
       <c r="G150" t="n">
-        <v>-13673243.78185074</v>
+        <v>4.520000000000006</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -5638,32 +5915,37 @@
       </c>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
+      <c r="L150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M150" t="n">
         <v>1</v>
       </c>
+      <c r="N150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>4.43</v>
+        <v>4.5</v>
       </c>
       <c r="C151" t="n">
-        <v>4.42</v>
+        <v>4.5</v>
       </c>
       <c r="D151" t="n">
-        <v>4.43</v>
+        <v>4.5</v>
       </c>
       <c r="E151" t="n">
-        <v>4.42</v>
+        <v>4.5</v>
       </c>
       <c r="F151" t="n">
-        <v>257974.1378</v>
+        <v>82671.2687</v>
       </c>
       <c r="G151" t="n">
-        <v>-13931217.91965074</v>
+        <v>4.510000000000005</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -5673,32 +5955,37 @@
       </c>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
+      <c r="L151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M151" t="n">
         <v>1</v>
       </c>
+      <c r="N151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>4.47</v>
+        <v>4.48</v>
       </c>
       <c r="C152" t="n">
         <v>4.47</v>
       </c>
       <c r="D152" t="n">
-        <v>4.47</v>
+        <v>4.48</v>
       </c>
       <c r="E152" t="n">
         <v>4.47</v>
       </c>
       <c r="F152" t="n">
-        <v>20</v>
+        <v>62573.7897</v>
       </c>
       <c r="G152" t="n">
-        <v>-13931197.91965074</v>
+        <v>4.490000000000005</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -5708,32 +5995,37 @@
       </c>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
+      <c r="L152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M152" t="n">
         <v>1</v>
       </c>
+      <c r="N152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>4.47</v>
+        <v>4.53</v>
       </c>
       <c r="C153" t="n">
-        <v>4.48</v>
+        <v>4.53</v>
       </c>
       <c r="D153" t="n">
-        <v>4.49</v>
+        <v>4.53</v>
       </c>
       <c r="E153" t="n">
-        <v>4.47</v>
+        <v>4.53</v>
       </c>
       <c r="F153" t="n">
-        <v>481928.357</v>
+        <v>2160.0005</v>
       </c>
       <c r="G153" t="n">
-        <v>-13449269.56265074</v>
+        <v>4.500000000000004</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -5743,32 +6035,37 @@
       </c>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
+      <c r="L153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M153" t="n">
         <v>1</v>
       </c>
+      <c r="N153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>4.49</v>
+        <v>4.53</v>
       </c>
       <c r="C154" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="D154" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="E154" t="n">
-        <v>4.49</v>
+        <v>4.53</v>
       </c>
       <c r="F154" t="n">
-        <v>15112</v>
+        <v>222652.2492</v>
       </c>
       <c r="G154" t="n">
-        <v>-13434157.56265074</v>
+        <v>4.533333333333339</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -5778,32 +6075,37 @@
       </c>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
+      <c r="L154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M154" t="n">
         <v>1</v>
       </c>
+      <c r="N154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>4.51</v>
+        <v>4.55</v>
       </c>
       <c r="C155" t="n">
-        <v>4.56</v>
+        <v>4.55</v>
       </c>
       <c r="D155" t="n">
-        <v>4.56</v>
+        <v>4.55</v>
       </c>
       <c r="E155" t="n">
-        <v>4.47</v>
+        <v>4.55</v>
       </c>
       <c r="F155" t="n">
-        <v>492187.777</v>
+        <v>41042.1978</v>
       </c>
       <c r="G155" t="n">
-        <v>-12941969.78565074</v>
+        <v>4.560000000000006</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -5813,32 +6115,37 @@
       </c>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
+      <c r="L155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M155" t="n">
         <v>1</v>
       </c>
+      <c r="N155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>4.5</v>
+        <v>4.55</v>
       </c>
       <c r="C156" t="n">
-        <v>4.42</v>
+        <v>4.55</v>
       </c>
       <c r="D156" t="n">
-        <v>4.5</v>
+        <v>4.55</v>
       </c>
       <c r="E156" t="n">
-        <v>4.42</v>
+        <v>4.55</v>
       </c>
       <c r="F156" t="n">
-        <v>492158.0842</v>
+        <v>18872.3076</v>
       </c>
       <c r="G156" t="n">
-        <v>-13434127.86985074</v>
+        <v>4.566666666666673</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -5848,10 +6155,15 @@
       </c>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
+      <c r="L156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M156" t="n">
         <v>1</v>
       </c>
+      <c r="N156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -5861,19 +6173,19 @@
         <v>4.53</v>
       </c>
       <c r="C157" t="n">
-        <v>4.49</v>
+        <v>4.53</v>
       </c>
       <c r="D157" t="n">
         <v>4.53</v>
       </c>
       <c r="E157" t="n">
-        <v>4.48</v>
+        <v>4.53</v>
       </c>
       <c r="F157" t="n">
-        <v>216872.8691</v>
+        <v>863.8702</v>
       </c>
       <c r="G157" t="n">
-        <v>-13217255.00075074</v>
+        <v>4.543333333333339</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -5883,32 +6195,37 @@
       </c>
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
+      <c r="L157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M157" t="n">
         <v>1</v>
       </c>
+      <c r="N157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>4.44</v>
+        <v>4.48</v>
       </c>
       <c r="C158" t="n">
-        <v>4.43</v>
+        <v>4.48</v>
       </c>
       <c r="D158" t="n">
-        <v>4.44</v>
+        <v>4.48</v>
       </c>
       <c r="E158" t="n">
-        <v>4.43</v>
+        <v>4.48</v>
       </c>
       <c r="F158" t="n">
-        <v>268051.4885</v>
+        <v>18825.1268</v>
       </c>
       <c r="G158" t="n">
-        <v>-13485306.48925074</v>
+        <v>4.520000000000007</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -5918,32 +6235,37 @@
       </c>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
+      <c r="L158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M158" t="n">
         <v>1</v>
       </c>
+      <c r="N158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>4.47</v>
+        <v>4.5</v>
       </c>
       <c r="C159" t="n">
-        <v>4.47</v>
+        <v>4.5</v>
       </c>
       <c r="D159" t="n">
-        <v>4.47</v>
+        <v>4.5</v>
       </c>
       <c r="E159" t="n">
-        <v>4.42</v>
+        <v>4.5</v>
       </c>
       <c r="F159" t="n">
-        <v>994676.0965</v>
+        <v>13908.8283</v>
       </c>
       <c r="G159" t="n">
-        <v>-12490630.39275074</v>
+        <v>4.50333333333334</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -5953,32 +6275,37 @@
       </c>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr"/>
+      <c r="L159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M159" t="n">
         <v>1</v>
       </c>
+      <c r="N159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>4.41</v>
+        <v>4.51</v>
       </c>
       <c r="C160" t="n">
-        <v>4.47</v>
+        <v>4.5</v>
       </c>
       <c r="D160" t="n">
-        <v>4.47</v>
+        <v>4.51</v>
       </c>
       <c r="E160" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="F160" t="n">
-        <v>1157557.5942</v>
+        <v>225917</v>
       </c>
       <c r="G160" t="n">
-        <v>-12490630.39275074</v>
+        <v>4.493333333333339</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -5988,32 +6315,37 @@
       </c>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr"/>
+      <c r="L160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M160" t="n">
         <v>1</v>
       </c>
+      <c r="N160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>4.41</v>
+        <v>4.5</v>
       </c>
       <c r="C161" t="n">
-        <v>4.47</v>
+        <v>4.5</v>
       </c>
       <c r="D161" t="n">
-        <v>4.47</v>
+        <v>4.5</v>
       </c>
       <c r="E161" t="n">
-        <v>4.41</v>
+        <v>4.5</v>
       </c>
       <c r="F161" t="n">
-        <v>6103.1176</v>
+        <v>100405.4955</v>
       </c>
       <c r="G161" t="n">
-        <v>-12490630.39275074</v>
+        <v>4.500000000000006</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -6023,32 +6355,37 @@
       </c>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr"/>
+      <c r="L161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M161" t="n">
         <v>1</v>
       </c>
+      <c r="N161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>4.42</v>
+        <v>4.5</v>
       </c>
       <c r="C162" t="n">
-        <v>4.42</v>
+        <v>4.5</v>
       </c>
       <c r="D162" t="n">
-        <v>4.42</v>
+        <v>4.5</v>
       </c>
       <c r="E162" t="n">
-        <v>4.42</v>
+        <v>4.5</v>
       </c>
       <c r="F162" t="n">
-        <v>154673.5313</v>
+        <v>145976.6619</v>
       </c>
       <c r="G162" t="n">
-        <v>-12645303.92405074</v>
+        <v>4.500000000000006</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -6058,32 +6395,37 @@
       </c>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr"/>
+      <c r="L162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M162" t="n">
         <v>1</v>
       </c>
+      <c r="N162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>4.47</v>
+        <v>4.5</v>
       </c>
       <c r="C163" t="n">
-        <v>4.47</v>
+        <v>4.5</v>
       </c>
       <c r="D163" t="n">
-        <v>4.47</v>
+        <v>4.5</v>
       </c>
       <c r="E163" t="n">
-        <v>4.47</v>
+        <v>4.5</v>
       </c>
       <c r="F163" t="n">
-        <v>10</v>
+        <v>21058.9593</v>
       </c>
       <c r="G163" t="n">
-        <v>-12645293.92405074</v>
+        <v>4.500000000000006</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -6093,32 +6435,37 @@
       </c>
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr"/>
+      <c r="L163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M163" t="n">
         <v>1</v>
       </c>
+      <c r="N163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>4.47</v>
+        <v>4.53</v>
       </c>
       <c r="C164" t="n">
-        <v>4.47</v>
+        <v>4.53</v>
       </c>
       <c r="D164" t="n">
-        <v>4.47</v>
+        <v>4.53</v>
       </c>
       <c r="E164" t="n">
-        <v>4.47</v>
+        <v>4.53</v>
       </c>
       <c r="F164" t="n">
-        <v>55380</v>
+        <v>44150.11037527</v>
       </c>
       <c r="G164" t="n">
-        <v>-12645293.92405074</v>
+        <v>4.510000000000006</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -6128,32 +6475,37 @@
       </c>
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr"/>
+      <c r="L164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M164" t="n">
         <v>1</v>
       </c>
+      <c r="N164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>4.47</v>
+        <v>4.5</v>
       </c>
       <c r="C165" t="n">
         <v>4.47</v>
       </c>
       <c r="D165" t="n">
-        <v>4.47</v>
+        <v>4.5</v>
       </c>
       <c r="E165" t="n">
         <v>4.47</v>
       </c>
       <c r="F165" t="n">
-        <v>60546.8045</v>
+        <v>90000</v>
       </c>
       <c r="G165" t="n">
-        <v>-12645293.92405074</v>
+        <v>4.500000000000006</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -6163,32 +6515,37 @@
       </c>
       <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr"/>
+      <c r="L165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M165" t="n">
         <v>1</v>
       </c>
+      <c r="N165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>4.42</v>
+        <v>4.54</v>
       </c>
       <c r="C166" t="n">
-        <v>4.47</v>
+        <v>4.54</v>
       </c>
       <c r="D166" t="n">
-        <v>4.47</v>
+        <v>4.54</v>
       </c>
       <c r="E166" t="n">
-        <v>4.42</v>
+        <v>4.54</v>
       </c>
       <c r="F166" t="n">
-        <v>315919.5261</v>
+        <v>8330.3964</v>
       </c>
       <c r="G166" t="n">
-        <v>-12645293.92405074</v>
+        <v>4.513333333333339</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -6198,32 +6555,37 @@
       </c>
       <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr"/>
+      <c r="L166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M166" t="n">
         <v>1</v>
       </c>
+      <c r="N166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>4.45</v>
+        <v>4.54</v>
       </c>
       <c r="C167" t="n">
-        <v>4.47</v>
+        <v>4.54</v>
       </c>
       <c r="D167" t="n">
-        <v>4.47</v>
+        <v>4.54</v>
       </c>
       <c r="E167" t="n">
-        <v>4.44</v>
+        <v>4.54</v>
       </c>
       <c r="F167" t="n">
-        <v>208512.3932</v>
+        <v>139801.3152</v>
       </c>
       <c r="G167" t="n">
-        <v>-12645293.92405074</v>
+        <v>4.516666666666672</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -6233,32 +6595,37 @@
       </c>
       <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr"/>
+      <c r="L167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M167" t="n">
         <v>1</v>
       </c>
+      <c r="N167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>4.47</v>
+        <v>4.55</v>
       </c>
       <c r="C168" t="n">
-        <v>4.58</v>
+        <v>4.55</v>
       </c>
       <c r="D168" t="n">
-        <v>4.58</v>
+        <v>4.55</v>
       </c>
       <c r="E168" t="n">
-        <v>4.47</v>
+        <v>4.55</v>
       </c>
       <c r="F168" t="n">
-        <v>291688.1849</v>
+        <v>2288.5143</v>
       </c>
       <c r="G168" t="n">
-        <v>-12353605.73915074</v>
+        <v>4.543333333333339</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -6268,32 +6635,37 @@
       </c>
       <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr"/>
+      <c r="L168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M168" t="n">
         <v>1</v>
       </c>
+      <c r="N168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>4.46</v>
+        <v>4.58</v>
       </c>
       <c r="C169" t="n">
-        <v>4.46</v>
+        <v>4.57</v>
       </c>
       <c r="D169" t="n">
-        <v>4.46</v>
+        <v>4.58</v>
       </c>
       <c r="E169" t="n">
-        <v>4.46</v>
+        <v>4.56</v>
       </c>
       <c r="F169" t="n">
-        <v>10320.0668</v>
+        <v>230033.3876</v>
       </c>
       <c r="G169" t="n">
-        <v>-12363925.80595074</v>
+        <v>4.553333333333339</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -6303,32 +6675,37 @@
       </c>
       <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr"/>
+      <c r="L169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M169" t="n">
         <v>1</v>
       </c>
+      <c r="N169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>4.56</v>
+        <v>4.57</v>
       </c>
       <c r="C170" t="n">
-        <v>4.56</v>
+        <v>4.57</v>
       </c>
       <c r="D170" t="n">
-        <v>4.56</v>
+        <v>4.57</v>
       </c>
       <c r="E170" t="n">
-        <v>4.46</v>
+        <v>4.57</v>
       </c>
       <c r="F170" t="n">
-        <v>90020</v>
+        <v>20697.8118</v>
       </c>
       <c r="G170" t="n">
-        <v>-12273905.80595074</v>
+        <v>4.56333333333334</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -6338,32 +6715,37 @@
       </c>
       <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr"/>
+      <c r="L170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M170" t="n">
         <v>1</v>
       </c>
+      <c r="N170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>4.44</v>
+        <v>4.58</v>
       </c>
       <c r="C171" t="n">
-        <v>4.53</v>
+        <v>4.57</v>
       </c>
       <c r="D171" t="n">
-        <v>4.53</v>
+        <v>4.58</v>
       </c>
       <c r="E171" t="n">
-        <v>4.44</v>
+        <v>4.57</v>
       </c>
       <c r="F171" t="n">
-        <v>80010</v>
+        <v>20675.286</v>
       </c>
       <c r="G171" t="n">
-        <v>-12353915.80595074</v>
+        <v>4.570000000000007</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -6373,32 +6755,37 @@
       </c>
       <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr"/>
+      <c r="L171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M171" t="n">
         <v>1</v>
       </c>
+      <c r="N171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>4.44</v>
+        <v>4.57</v>
       </c>
       <c r="C172" t="n">
-        <v>4.54</v>
+        <v>4.57</v>
       </c>
       <c r="D172" t="n">
-        <v>4.54</v>
+        <v>4.57</v>
       </c>
       <c r="E172" t="n">
-        <v>4.43</v>
+        <v>4.57</v>
       </c>
       <c r="F172" t="n">
-        <v>100020</v>
+        <v>10447.4835</v>
       </c>
       <c r="G172" t="n">
-        <v>-12253895.80595074</v>
+        <v>4.570000000000007</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -6408,32 +6795,37 @@
       </c>
       <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr"/>
+      <c r="L172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M172" t="n">
         <v>1</v>
       </c>
+      <c r="N172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>4.44</v>
+        <v>4.57</v>
       </c>
       <c r="C173" t="n">
-        <v>4.52</v>
+        <v>4.56</v>
       </c>
       <c r="D173" t="n">
-        <v>4.53</v>
+        <v>4.57</v>
       </c>
       <c r="E173" t="n">
-        <v>4.44</v>
+        <v>4.56</v>
       </c>
       <c r="F173" t="n">
-        <v>86435.61259999999</v>
+        <v>80910.47349999999</v>
       </c>
       <c r="G173" t="n">
-        <v>-12340331.41855074</v>
+        <v>4.566666666666673</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -6443,32 +6835,37 @@
       </c>
       <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr"/>
+      <c r="L173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M173" t="n">
         <v>1</v>
       </c>
+      <c r="N173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>4.43</v>
+        <v>4.6</v>
       </c>
       <c r="C174" t="n">
-        <v>4.53</v>
+        <v>4.6</v>
       </c>
       <c r="D174" t="n">
-        <v>4.53</v>
+        <v>4.6</v>
       </c>
       <c r="E174" t="n">
-        <v>4.43</v>
+        <v>4.6</v>
       </c>
       <c r="F174" t="n">
-        <v>100010</v>
+        <v>1918.5853</v>
       </c>
       <c r="G174" t="n">
-        <v>-12240321.41855074</v>
+        <v>4.576666666666672</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -6478,32 +6875,37 @@
       </c>
       <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr"/>
+      <c r="L174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M174" t="n">
         <v>1</v>
       </c>
+      <c r="N174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>4.43</v>
+        <v>4.57</v>
       </c>
       <c r="C175" t="n">
-        <v>4.51</v>
+        <v>4.57</v>
       </c>
       <c r="D175" t="n">
-        <v>4.53</v>
+        <v>4.57</v>
       </c>
       <c r="E175" t="n">
-        <v>4.43</v>
+        <v>4.57</v>
       </c>
       <c r="F175" t="n">
-        <v>268828.4271</v>
+        <v>139606</v>
       </c>
       <c r="G175" t="n">
-        <v>-12509149.84565074</v>
+        <v>4.576666666666672</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -6513,32 +6915,37 @@
       </c>
       <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr"/>
+      <c r="L175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M175" t="n">
         <v>1</v>
       </c>
+      <c r="N175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>4.43</v>
+        <v>4.62</v>
       </c>
       <c r="C176" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="D176" t="n">
-        <v>4.5</v>
+        <v>4.62</v>
       </c>
       <c r="E176" t="n">
-        <v>4.43</v>
+        <v>4.57</v>
       </c>
       <c r="F176" t="n">
-        <v>125722</v>
+        <v>474497.3426</v>
       </c>
       <c r="G176" t="n">
-        <v>-12634871.84565074</v>
+        <v>4.590000000000007</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -6548,32 +6955,37 @@
       </c>
       <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr"/>
+      <c r="L176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M176" t="n">
         <v>1</v>
       </c>
+      <c r="N176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>4.5</v>
+        <v>4.58</v>
       </c>
       <c r="C177" t="n">
-        <v>4.5</v>
+        <v>4.58</v>
       </c>
       <c r="D177" t="n">
-        <v>4.5</v>
+        <v>4.61</v>
       </c>
       <c r="E177" t="n">
-        <v>4.5</v>
+        <v>4.57</v>
       </c>
       <c r="F177" t="n">
-        <v>60870</v>
+        <v>483336.3741</v>
       </c>
       <c r="G177" t="n">
-        <v>-12634871.84565074</v>
+        <v>4.583333333333341</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -6583,32 +6995,37 @@
       </c>
       <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr"/>
+      <c r="L177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M177" t="n">
         <v>1</v>
       </c>
+      <c r="N177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>4.53</v>
+        <v>4.57</v>
       </c>
       <c r="C178" t="n">
-        <v>4.53</v>
+        <v>4.58</v>
       </c>
       <c r="D178" t="n">
-        <v>4.53</v>
+        <v>4.58</v>
       </c>
       <c r="E178" t="n">
-        <v>4.53</v>
+        <v>4.57</v>
       </c>
       <c r="F178" t="n">
-        <v>10</v>
+        <v>5263</v>
       </c>
       <c r="G178" t="n">
-        <v>-12634861.84565074</v>
+        <v>4.586666666666674</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -6618,32 +7035,37 @@
       </c>
       <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr"/>
+      <c r="L178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M178" t="n">
         <v>1</v>
       </c>
+      <c r="N178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>4.5</v>
+        <v>4.57</v>
       </c>
       <c r="C179" t="n">
-        <v>4.5</v>
+        <v>4.57</v>
       </c>
       <c r="D179" t="n">
-        <v>4.5</v>
+        <v>4.57</v>
       </c>
       <c r="E179" t="n">
-        <v>4.5</v>
+        <v>4.57</v>
       </c>
       <c r="F179" t="n">
-        <v>14651</v>
+        <v>87538.5704</v>
       </c>
       <c r="G179" t="n">
-        <v>-12649512.84565074</v>
+        <v>4.576666666666674</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -6653,32 +7075,37 @@
       </c>
       <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr"/>
+      <c r="L179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M179" t="n">
         <v>1</v>
       </c>
+      <c r="N179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>4.51</v>
+        <v>4.56</v>
       </c>
       <c r="C180" t="n">
-        <v>4.51</v>
+        <v>4.56</v>
       </c>
       <c r="D180" t="n">
-        <v>4.51</v>
+        <v>4.56</v>
       </c>
       <c r="E180" t="n">
-        <v>4.51</v>
+        <v>4.56</v>
       </c>
       <c r="F180" t="n">
-        <v>51857.2996</v>
+        <v>11814.9894</v>
       </c>
       <c r="G180" t="n">
-        <v>-12597655.54605074</v>
+        <v>4.570000000000008</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -6688,32 +7115,37 @@
       </c>
       <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr"/>
+      <c r="L180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M180" t="n">
         <v>1</v>
       </c>
+      <c r="N180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>4.53</v>
+        <v>4.56</v>
       </c>
       <c r="C181" t="n">
-        <v>4.53</v>
+        <v>4.52</v>
       </c>
       <c r="D181" t="n">
-        <v>4.53</v>
+        <v>4.56</v>
       </c>
       <c r="E181" t="n">
-        <v>4.53</v>
+        <v>4.52</v>
       </c>
       <c r="F181" t="n">
-        <v>34893</v>
+        <v>188399.3988</v>
       </c>
       <c r="G181" t="n">
-        <v>-12562762.54605074</v>
+        <v>4.550000000000009</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -6723,32 +7155,37 @@
       </c>
       <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr"/>
+      <c r="L181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M181" t="n">
         <v>1</v>
       </c>
+      <c r="N181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>4.56</v>
+        <v>4.52</v>
       </c>
       <c r="C182" t="n">
-        <v>4.56</v>
+        <v>4.52</v>
       </c>
       <c r="D182" t="n">
-        <v>4.56</v>
+        <v>4.52</v>
       </c>
       <c r="E182" t="n">
-        <v>4.56</v>
+        <v>4.52</v>
       </c>
       <c r="F182" t="n">
-        <v>52893.6403</v>
+        <v>38606</v>
       </c>
       <c r="G182" t="n">
-        <v>-12509868.90575074</v>
+        <v>4.533333333333341</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -6758,1751 +7195,141 @@
       </c>
       <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr"/>
+      <c r="L182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M182" t="n">
         <v>1</v>
       </c>
+      <c r="N182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>4.54</v>
+        <v>4.52</v>
       </c>
       <c r="C183" t="n">
-        <v>4.54</v>
+        <v>4.49</v>
       </c>
       <c r="D183" t="n">
-        <v>4.54</v>
+        <v>4.52</v>
       </c>
       <c r="E183" t="n">
-        <v>4.54</v>
+        <v>4.49</v>
       </c>
       <c r="F183" t="n">
-        <v>80921.10129999999</v>
+        <v>142024.8793</v>
       </c>
       <c r="G183" t="n">
-        <v>-12590790.00705074</v>
+        <v>4.510000000000009</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I183" t="n">
         <v>0</v>
       </c>
-      <c r="J183" t="inlineStr"/>
+      <c r="J183" t="n">
+        <v>4.52</v>
+      </c>
       <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr"/>
+      <c r="L183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M183" t="n">
         <v>1</v>
       </c>
+      <c r="N183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>4.5</v>
+        <v>4.49</v>
       </c>
       <c r="C184" t="n">
-        <v>4.5</v>
+        <v>4.49</v>
       </c>
       <c r="D184" t="n">
-        <v>4.5</v>
+        <v>4.49</v>
       </c>
       <c r="E184" t="n">
-        <v>4.5</v>
+        <v>4.49</v>
       </c>
       <c r="F184" t="n">
-        <v>9723.546200000001</v>
+        <v>22455.34</v>
       </c>
       <c r="G184" t="n">
-        <v>-12600513.55325074</v>
+        <v>4.500000000000008</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I184" t="n">
         <v>0</v>
       </c>
-      <c r="J184" t="inlineStr"/>
+      <c r="J184" t="n">
+        <v>4.49</v>
+      </c>
       <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr"/>
+      <c r="L184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M184" t="n">
         <v>1</v>
       </c>
+      <c r="N184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>4.51</v>
+        <v>4.49</v>
       </c>
       <c r="C185" t="n">
-        <v>4.51</v>
+        <v>4.43</v>
       </c>
       <c r="D185" t="n">
-        <v>4.51</v>
+        <v>4.49</v>
       </c>
       <c r="E185" t="n">
-        <v>4.51</v>
+        <v>4.43</v>
       </c>
       <c r="F185" t="n">
-        <v>15081.9999</v>
+        <v>1247869.4223</v>
       </c>
       <c r="G185" t="n">
-        <v>-12585431.55335074</v>
+        <v>4.470000000000009</v>
       </c>
       <c r="H185" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I185" t="n">
         <v>0</v>
       </c>
-      <c r="J185" t="inlineStr"/>
+      <c r="J185" t="n">
+        <v>4.49</v>
+      </c>
       <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr"/>
+      <c r="L185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M185" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="186">
-      <c r="A186" s="1" t="n">
-        <v>184</v>
-      </c>
-      <c r="B186" t="n">
-        <v>4.51</v>
-      </c>
-      <c r="C186" t="n">
-        <v>4.51</v>
-      </c>
-      <c r="D186" t="n">
-        <v>4.51</v>
-      </c>
-      <c r="E186" t="n">
-        <v>4.51</v>
-      </c>
-      <c r="F186" t="n">
-        <v>24749.9999</v>
-      </c>
-      <c r="G186" t="n">
-        <v>-12585431.55335074</v>
-      </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
-      <c r="I186" t="n">
-        <v>0</v>
-      </c>
-      <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr"/>
-      <c r="M186" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" s="1" t="n">
-        <v>185</v>
-      </c>
-      <c r="B187" t="n">
-        <v>4.55</v>
-      </c>
-      <c r="C187" t="n">
-        <v>4.51</v>
-      </c>
-      <c r="D187" t="n">
-        <v>4.55</v>
-      </c>
-      <c r="E187" t="n">
-        <v>4.51</v>
-      </c>
-      <c r="F187" t="n">
-        <v>9946.604499999999</v>
-      </c>
-      <c r="G187" t="n">
-        <v>-12585431.55335074</v>
-      </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
-      <c r="I187" t="n">
-        <v>0</v>
-      </c>
-      <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr"/>
-      <c r="M187" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" s="1" t="n">
-        <v>186</v>
-      </c>
-      <c r="B188" t="n">
-        <v>4.53</v>
-      </c>
-      <c r="C188" t="n">
-        <v>4.53</v>
-      </c>
-      <c r="D188" t="n">
-        <v>4.53</v>
-      </c>
-      <c r="E188" t="n">
-        <v>4.53</v>
-      </c>
-      <c r="F188" t="n">
-        <v>10</v>
-      </c>
-      <c r="G188" t="n">
-        <v>-12585421.55335074</v>
-      </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
-      <c r="I188" t="n">
-        <v>0</v>
-      </c>
-      <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr"/>
-      <c r="M188" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" s="1" t="n">
-        <v>187</v>
-      </c>
-      <c r="B189" t="n">
-        <v>4.51</v>
-      </c>
-      <c r="C189" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="D189" t="n">
-        <v>4.51</v>
-      </c>
-      <c r="E189" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="F189" t="n">
-        <v>91314.4507</v>
-      </c>
-      <c r="G189" t="n">
-        <v>-12676736.00405074</v>
-      </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
-      <c r="I189" t="n">
-        <v>0</v>
-      </c>
-      <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr"/>
-      <c r="M189" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" s="1" t="n">
-        <v>188</v>
-      </c>
-      <c r="B190" t="n">
-        <v>4.53</v>
-      </c>
-      <c r="C190" t="n">
-        <v>4.53</v>
-      </c>
-      <c r="D190" t="n">
-        <v>4.53</v>
-      </c>
-      <c r="E190" t="n">
-        <v>4.53</v>
-      </c>
-      <c r="F190" t="n">
-        <v>22075.0551</v>
-      </c>
-      <c r="G190" t="n">
-        <v>-12654660.94895074</v>
-      </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
-      <c r="I190" t="n">
-        <v>0</v>
-      </c>
-      <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr"/>
-      <c r="M190" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" s="1" t="n">
-        <v>189</v>
-      </c>
-      <c r="B191" t="n">
-        <v>4.53</v>
-      </c>
-      <c r="C191" t="n">
-        <v>4.53</v>
-      </c>
-      <c r="D191" t="n">
-        <v>4.53</v>
-      </c>
-      <c r="E191" t="n">
-        <v>4.53</v>
-      </c>
-      <c r="F191" t="n">
-        <v>56244.7866</v>
-      </c>
-      <c r="G191" t="n">
-        <v>-12654660.94895074</v>
-      </c>
-      <c r="H191" t="n">
-        <v>0</v>
-      </c>
-      <c r="I191" t="n">
-        <v>0</v>
-      </c>
-      <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr"/>
-      <c r="M191" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" s="1" t="n">
-        <v>190</v>
-      </c>
-      <c r="B192" t="n">
-        <v>4.51</v>
-      </c>
-      <c r="C192" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="D192" t="n">
-        <v>4.51</v>
-      </c>
-      <c r="E192" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="F192" t="n">
-        <v>289035.7276</v>
-      </c>
-      <c r="G192" t="n">
-        <v>-12943696.67655074</v>
-      </c>
-      <c r="H192" t="n">
-        <v>0</v>
-      </c>
-      <c r="I192" t="n">
-        <v>0</v>
-      </c>
-      <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr"/>
-      <c r="M192" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" s="1" t="n">
-        <v>191</v>
-      </c>
-      <c r="B193" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="C193" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="D193" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="E193" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="F193" t="n">
-        <v>82671.2687</v>
-      </c>
-      <c r="G193" t="n">
-        <v>-12943696.67655074</v>
-      </c>
-      <c r="H193" t="n">
-        <v>0</v>
-      </c>
-      <c r="I193" t="n">
-        <v>0</v>
-      </c>
-      <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr"/>
-      <c r="M193" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" s="1" t="n">
-        <v>192</v>
-      </c>
-      <c r="B194" t="n">
-        <v>4.48</v>
-      </c>
-      <c r="C194" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="D194" t="n">
-        <v>4.48</v>
-      </c>
-      <c r="E194" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="F194" t="n">
-        <v>62573.7897</v>
-      </c>
-      <c r="G194" t="n">
-        <v>-13006270.46625074</v>
-      </c>
-      <c r="H194" t="n">
-        <v>0</v>
-      </c>
-      <c r="I194" t="n">
-        <v>0</v>
-      </c>
-      <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr"/>
-      <c r="M194" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" s="1" t="n">
-        <v>193</v>
-      </c>
-      <c r="B195" t="n">
-        <v>4.53</v>
-      </c>
-      <c r="C195" t="n">
-        <v>4.53</v>
-      </c>
-      <c r="D195" t="n">
-        <v>4.53</v>
-      </c>
-      <c r="E195" t="n">
-        <v>4.53</v>
-      </c>
-      <c r="F195" t="n">
-        <v>2160.0005</v>
-      </c>
-      <c r="G195" t="n">
-        <v>-13004110.46575074</v>
-      </c>
-      <c r="H195" t="n">
-        <v>0</v>
-      </c>
-      <c r="I195" t="n">
-        <v>0</v>
-      </c>
-      <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr"/>
-      <c r="M195" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="196">
-      <c r="A196" s="1" t="n">
-        <v>194</v>
-      </c>
-      <c r="B196" t="n">
-        <v>4.53</v>
-      </c>
-      <c r="C196" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="D196" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="E196" t="n">
-        <v>4.53</v>
-      </c>
-      <c r="F196" t="n">
-        <v>222652.2492</v>
-      </c>
-      <c r="G196" t="n">
-        <v>-12781458.21655074</v>
-      </c>
-      <c r="H196" t="n">
-        <v>0</v>
-      </c>
-      <c r="I196" t="n">
-        <v>0</v>
-      </c>
-      <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
-      <c r="L196" t="inlineStr"/>
-      <c r="M196" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" s="1" t="n">
-        <v>195</v>
-      </c>
-      <c r="B197" t="n">
-        <v>4.55</v>
-      </c>
-      <c r="C197" t="n">
-        <v>4.55</v>
-      </c>
-      <c r="D197" t="n">
-        <v>4.55</v>
-      </c>
-      <c r="E197" t="n">
-        <v>4.55</v>
-      </c>
-      <c r="F197" t="n">
-        <v>41042.1978</v>
-      </c>
-      <c r="G197" t="n">
-        <v>-12822500.41435074</v>
-      </c>
-      <c r="H197" t="n">
-        <v>0</v>
-      </c>
-      <c r="I197" t="n">
-        <v>0</v>
-      </c>
-      <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr"/>
-      <c r="M197" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" s="1" t="n">
-        <v>196</v>
-      </c>
-      <c r="B198" t="n">
-        <v>4.55</v>
-      </c>
-      <c r="C198" t="n">
-        <v>4.55</v>
-      </c>
-      <c r="D198" t="n">
-        <v>4.55</v>
-      </c>
-      <c r="E198" t="n">
-        <v>4.55</v>
-      </c>
-      <c r="F198" t="n">
-        <v>18872.3076</v>
-      </c>
-      <c r="G198" t="n">
-        <v>-12822500.41435074</v>
-      </c>
-      <c r="H198" t="n">
-        <v>0</v>
-      </c>
-      <c r="I198" t="n">
-        <v>0</v>
-      </c>
-      <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
-      <c r="L198" t="inlineStr"/>
-      <c r="M198" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="199">
-      <c r="A199" s="1" t="n">
-        <v>197</v>
-      </c>
-      <c r="B199" t="n">
-        <v>4.53</v>
-      </c>
-      <c r="C199" t="n">
-        <v>4.53</v>
-      </c>
-      <c r="D199" t="n">
-        <v>4.53</v>
-      </c>
-      <c r="E199" t="n">
-        <v>4.53</v>
-      </c>
-      <c r="F199" t="n">
-        <v>863.8702</v>
-      </c>
-      <c r="G199" t="n">
-        <v>-12823364.28455074</v>
-      </c>
-      <c r="H199" t="n">
-        <v>0</v>
-      </c>
-      <c r="I199" t="n">
-        <v>0</v>
-      </c>
-      <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
-      <c r="L199" t="inlineStr"/>
-      <c r="M199" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="200">
-      <c r="A200" s="1" t="n">
-        <v>198</v>
-      </c>
-      <c r="B200" t="n">
-        <v>4.48</v>
-      </c>
-      <c r="C200" t="n">
-        <v>4.48</v>
-      </c>
-      <c r="D200" t="n">
-        <v>4.48</v>
-      </c>
-      <c r="E200" t="n">
-        <v>4.48</v>
-      </c>
-      <c r="F200" t="n">
-        <v>18825.1268</v>
-      </c>
-      <c r="G200" t="n">
-        <v>-12842189.41135074</v>
-      </c>
-      <c r="H200" t="n">
-        <v>0</v>
-      </c>
-      <c r="I200" t="n">
-        <v>0</v>
-      </c>
-      <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
-      <c r="L200" t="inlineStr"/>
-      <c r="M200" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="201">
-      <c r="A201" s="1" t="n">
-        <v>199</v>
-      </c>
-      <c r="B201" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="C201" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="D201" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="E201" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="F201" t="n">
-        <v>13908.8283</v>
-      </c>
-      <c r="G201" t="n">
-        <v>-12828280.58305074</v>
-      </c>
-      <c r="H201" t="n">
-        <v>0</v>
-      </c>
-      <c r="I201" t="n">
-        <v>0</v>
-      </c>
-      <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
-      <c r="L201" t="inlineStr"/>
-      <c r="M201" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="202">
-      <c r="A202" s="1" t="n">
-        <v>200</v>
-      </c>
-      <c r="B202" t="n">
-        <v>4.51</v>
-      </c>
-      <c r="C202" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="D202" t="n">
-        <v>4.51</v>
-      </c>
-      <c r="E202" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="F202" t="n">
-        <v>225917</v>
-      </c>
-      <c r="G202" t="n">
-        <v>-12828280.58305074</v>
-      </c>
-      <c r="H202" t="n">
-        <v>0</v>
-      </c>
-      <c r="I202" t="n">
-        <v>0</v>
-      </c>
-      <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
-      <c r="L202" t="inlineStr"/>
-      <c r="M202" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="203">
-      <c r="A203" s="1" t="n">
-        <v>201</v>
-      </c>
-      <c r="B203" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="C203" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="D203" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="E203" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="F203" t="n">
-        <v>100405.4955</v>
-      </c>
-      <c r="G203" t="n">
-        <v>-12828280.58305074</v>
-      </c>
-      <c r="H203" t="n">
-        <v>0</v>
-      </c>
-      <c r="I203" t="n">
-        <v>0</v>
-      </c>
-      <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
-      <c r="L203" t="inlineStr"/>
-      <c r="M203" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="204">
-      <c r="A204" s="1" t="n">
-        <v>202</v>
-      </c>
-      <c r="B204" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="C204" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="D204" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="E204" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="F204" t="n">
-        <v>145976.6619</v>
-      </c>
-      <c r="G204" t="n">
-        <v>-12828280.58305074</v>
-      </c>
-      <c r="H204" t="n">
-        <v>1</v>
-      </c>
-      <c r="I204" t="n">
-        <v>0</v>
-      </c>
-      <c r="J204" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="K204" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="L204" t="inlineStr"/>
-      <c r="M204" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="205">
-      <c r="A205" s="1" t="n">
-        <v>203</v>
-      </c>
-      <c r="B205" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="C205" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="D205" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="E205" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="F205" t="n">
-        <v>21058.9593</v>
-      </c>
-      <c r="G205" t="n">
-        <v>-12828280.58305074</v>
-      </c>
-      <c r="H205" t="n">
-        <v>1</v>
-      </c>
-      <c r="I205" t="n">
-        <v>0</v>
-      </c>
-      <c r="J205" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="K205" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="L205" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M205" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="206">
-      <c r="A206" s="1" t="n">
-        <v>204</v>
-      </c>
-      <c r="B206" t="n">
-        <v>4.53</v>
-      </c>
-      <c r="C206" t="n">
-        <v>4.53</v>
-      </c>
-      <c r="D206" t="n">
-        <v>4.53</v>
-      </c>
-      <c r="E206" t="n">
-        <v>4.53</v>
-      </c>
-      <c r="F206" t="n">
-        <v>44150.11037527</v>
-      </c>
-      <c r="G206" t="n">
-        <v>-12784130.47267547</v>
-      </c>
-      <c r="H206" t="n">
-        <v>1</v>
-      </c>
-      <c r="I206" t="n">
-        <v>0</v>
-      </c>
-      <c r="J206" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="K206" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="L206" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M206" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="207">
-      <c r="A207" s="1" t="n">
-        <v>205</v>
-      </c>
-      <c r="B207" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="C207" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="D207" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="E207" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="F207" t="n">
-        <v>90000</v>
-      </c>
-      <c r="G207" t="n">
-        <v>-12874130.47267547</v>
-      </c>
-      <c r="H207" t="n">
-        <v>1</v>
-      </c>
-      <c r="I207" t="n">
-        <v>0</v>
-      </c>
-      <c r="J207" t="n">
-        <v>4.53</v>
-      </c>
-      <c r="K207" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="L207" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M207" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="208">
-      <c r="A208" s="1" t="n">
-        <v>206</v>
-      </c>
-      <c r="B208" t="n">
-        <v>4.54</v>
-      </c>
-      <c r="C208" t="n">
-        <v>4.54</v>
-      </c>
-      <c r="D208" t="n">
-        <v>4.54</v>
-      </c>
-      <c r="E208" t="n">
-        <v>4.54</v>
-      </c>
-      <c r="F208" t="n">
-        <v>8330.3964</v>
-      </c>
-      <c r="G208" t="n">
-        <v>-12865800.07627547</v>
-      </c>
-      <c r="H208" t="n">
-        <v>0</v>
-      </c>
-      <c r="I208" t="n">
-        <v>0</v>
-      </c>
-      <c r="J208" t="inlineStr"/>
-      <c r="K208" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="L208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M208" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="209">
-      <c r="A209" s="1" t="n">
-        <v>207</v>
-      </c>
-      <c r="B209" t="n">
-        <v>4.54</v>
-      </c>
-      <c r="C209" t="n">
-        <v>4.54</v>
-      </c>
-      <c r="D209" t="n">
-        <v>4.54</v>
-      </c>
-      <c r="E209" t="n">
-        <v>4.54</v>
-      </c>
-      <c r="F209" t="n">
-        <v>139801.3152</v>
-      </c>
-      <c r="G209" t="n">
-        <v>-12865800.07627547</v>
-      </c>
-      <c r="H209" t="n">
-        <v>1</v>
-      </c>
-      <c r="I209" t="n">
-        <v>0</v>
-      </c>
-      <c r="J209" t="n">
-        <v>4.54</v>
-      </c>
-      <c r="K209" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="L209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M209" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="210">
-      <c r="A210" s="1" t="n">
-        <v>208</v>
-      </c>
-      <c r="B210" t="n">
-        <v>4.55</v>
-      </c>
-      <c r="C210" t="n">
-        <v>4.55</v>
-      </c>
-      <c r="D210" t="n">
-        <v>4.55</v>
-      </c>
-      <c r="E210" t="n">
-        <v>4.55</v>
-      </c>
-      <c r="F210" t="n">
-        <v>2288.5143</v>
-      </c>
-      <c r="G210" t="n">
-        <v>-12863511.56197547</v>
-      </c>
-      <c r="H210" t="n">
-        <v>1</v>
-      </c>
-      <c r="I210" t="n">
-        <v>0</v>
-      </c>
-      <c r="J210" t="n">
-        <v>4.54</v>
-      </c>
-      <c r="K210" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="L210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M210" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="211">
-      <c r="A211" s="1" t="n">
-        <v>209</v>
-      </c>
-      <c r="B211" t="n">
-        <v>4.58</v>
-      </c>
-      <c r="C211" t="n">
-        <v>4.57</v>
-      </c>
-      <c r="D211" t="n">
-        <v>4.58</v>
-      </c>
-      <c r="E211" t="n">
-        <v>4.56</v>
-      </c>
-      <c r="F211" t="n">
-        <v>230033.3876</v>
-      </c>
-      <c r="G211" t="n">
-        <v>-12633478.17437547</v>
-      </c>
-      <c r="H211" t="n">
-        <v>1</v>
-      </c>
-      <c r="I211" t="n">
-        <v>0</v>
-      </c>
-      <c r="J211" t="n">
-        <v>4.55</v>
-      </c>
-      <c r="K211" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="L211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M211" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="212">
-      <c r="A212" s="1" t="n">
-        <v>210</v>
-      </c>
-      <c r="B212" t="n">
-        <v>4.57</v>
-      </c>
-      <c r="C212" t="n">
-        <v>4.57</v>
-      </c>
-      <c r="D212" t="n">
-        <v>4.57</v>
-      </c>
-      <c r="E212" t="n">
-        <v>4.57</v>
-      </c>
-      <c r="F212" t="n">
-        <v>20697.8118</v>
-      </c>
-      <c r="G212" t="n">
-        <v>-12633478.17437547</v>
-      </c>
-      <c r="H212" t="n">
-        <v>1</v>
-      </c>
-      <c r="I212" t="n">
-        <v>0</v>
-      </c>
-      <c r="J212" t="n">
-        <v>4.57</v>
-      </c>
-      <c r="K212" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="L212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M212" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="213">
-      <c r="A213" s="1" t="n">
-        <v>211</v>
-      </c>
-      <c r="B213" t="n">
-        <v>4.58</v>
-      </c>
-      <c r="C213" t="n">
-        <v>4.57</v>
-      </c>
-      <c r="D213" t="n">
-        <v>4.58</v>
-      </c>
-      <c r="E213" t="n">
-        <v>4.57</v>
-      </c>
-      <c r="F213" t="n">
-        <v>20675.286</v>
-      </c>
-      <c r="G213" t="n">
-        <v>-12633478.17437547</v>
-      </c>
-      <c r="H213" t="n">
-        <v>1</v>
-      </c>
-      <c r="I213" t="n">
-        <v>0</v>
-      </c>
-      <c r="J213" t="n">
-        <v>4.57</v>
-      </c>
-      <c r="K213" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="L213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M213" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="214">
-      <c r="A214" s="1" t="n">
-        <v>212</v>
-      </c>
-      <c r="B214" t="n">
-        <v>4.57</v>
-      </c>
-      <c r="C214" t="n">
-        <v>4.57</v>
-      </c>
-      <c r="D214" t="n">
-        <v>4.57</v>
-      </c>
-      <c r="E214" t="n">
-        <v>4.57</v>
-      </c>
-      <c r="F214" t="n">
-        <v>10447.4835</v>
-      </c>
-      <c r="G214" t="n">
-        <v>-12633478.17437547</v>
-      </c>
-      <c r="H214" t="n">
-        <v>0</v>
-      </c>
-      <c r="I214" t="n">
-        <v>0</v>
-      </c>
-      <c r="J214" t="inlineStr"/>
-      <c r="K214" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="L214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M214" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="215">
-      <c r="A215" s="1" t="n">
-        <v>213</v>
-      </c>
-      <c r="B215" t="n">
-        <v>4.57</v>
-      </c>
-      <c r="C215" t="n">
-        <v>4.56</v>
-      </c>
-      <c r="D215" t="n">
-        <v>4.57</v>
-      </c>
-      <c r="E215" t="n">
-        <v>4.56</v>
-      </c>
-      <c r="F215" t="n">
-        <v>80910.47349999999</v>
-      </c>
-      <c r="G215" t="n">
-        <v>-12714388.64787547</v>
-      </c>
-      <c r="H215" t="n">
-        <v>0</v>
-      </c>
-      <c r="I215" t="n">
-        <v>0</v>
-      </c>
-      <c r="J215" t="inlineStr"/>
-      <c r="K215" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="L215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M215" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="216">
-      <c r="A216" s="1" t="n">
-        <v>214</v>
-      </c>
-      <c r="B216" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="C216" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="D216" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="E216" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="F216" t="n">
-        <v>1918.5853</v>
-      </c>
-      <c r="G216" t="n">
-        <v>-12712470.06257547</v>
-      </c>
-      <c r="H216" t="n">
-        <v>0</v>
-      </c>
-      <c r="I216" t="n">
-        <v>0</v>
-      </c>
-      <c r="J216" t="inlineStr"/>
-      <c r="K216" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="L216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M216" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="217">
-      <c r="A217" s="1" t="n">
-        <v>215</v>
-      </c>
-      <c r="B217" t="n">
-        <v>4.57</v>
-      </c>
-      <c r="C217" t="n">
-        <v>4.57</v>
-      </c>
-      <c r="D217" t="n">
-        <v>4.57</v>
-      </c>
-      <c r="E217" t="n">
-        <v>4.57</v>
-      </c>
-      <c r="F217" t="n">
-        <v>139606</v>
-      </c>
-      <c r="G217" t="n">
-        <v>-12852076.06257547</v>
-      </c>
-      <c r="H217" t="n">
-        <v>0</v>
-      </c>
-      <c r="I217" t="n">
-        <v>0</v>
-      </c>
-      <c r="J217" t="inlineStr"/>
-      <c r="K217" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="L217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M217" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="218">
-      <c r="A218" s="1" t="n">
-        <v>216</v>
-      </c>
-      <c r="B218" t="n">
-        <v>4.62</v>
-      </c>
-      <c r="C218" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="D218" t="n">
-        <v>4.62</v>
-      </c>
-      <c r="E218" t="n">
-        <v>4.57</v>
-      </c>
-      <c r="F218" t="n">
-        <v>474497.3426</v>
-      </c>
-      <c r="G218" t="n">
-        <v>-12377578.71997547</v>
-      </c>
-      <c r="H218" t="n">
-        <v>0</v>
-      </c>
-      <c r="I218" t="n">
-        <v>0</v>
-      </c>
-      <c r="J218" t="inlineStr"/>
-      <c r="K218" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="L218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M218" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="219">
-      <c r="A219" s="1" t="n">
-        <v>217</v>
-      </c>
-      <c r="B219" t="n">
-        <v>4.58</v>
-      </c>
-      <c r="C219" t="n">
-        <v>4.58</v>
-      </c>
-      <c r="D219" t="n">
-        <v>4.61</v>
-      </c>
-      <c r="E219" t="n">
-        <v>4.57</v>
-      </c>
-      <c r="F219" t="n">
-        <v>483336.3741</v>
-      </c>
-      <c r="G219" t="n">
-        <v>-12860915.09407547</v>
-      </c>
-      <c r="H219" t="n">
-        <v>1</v>
-      </c>
-      <c r="I219" t="n">
-        <v>0</v>
-      </c>
-      <c r="J219" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="K219" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="L219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M219" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="220">
-      <c r="A220" s="1" t="n">
-        <v>218</v>
-      </c>
-      <c r="B220" t="n">
-        <v>4.57</v>
-      </c>
-      <c r="C220" t="n">
-        <v>4.58</v>
-      </c>
-      <c r="D220" t="n">
-        <v>4.58</v>
-      </c>
-      <c r="E220" t="n">
-        <v>4.57</v>
-      </c>
-      <c r="F220" t="n">
-        <v>5263</v>
-      </c>
-      <c r="G220" t="n">
-        <v>-12860915.09407547</v>
-      </c>
-      <c r="H220" t="n">
-        <v>0</v>
-      </c>
-      <c r="I220" t="n">
-        <v>0</v>
-      </c>
-      <c r="J220" t="inlineStr"/>
-      <c r="K220" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="L220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M220" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="221">
-      <c r="A221" s="1" t="n">
-        <v>219</v>
-      </c>
-      <c r="B221" t="n">
-        <v>4.57</v>
-      </c>
-      <c r="C221" t="n">
-        <v>4.57</v>
-      </c>
-      <c r="D221" t="n">
-        <v>4.57</v>
-      </c>
-      <c r="E221" t="n">
-        <v>4.57</v>
-      </c>
-      <c r="F221" t="n">
-        <v>87538.5704</v>
-      </c>
-      <c r="G221" t="n">
-        <v>-12948453.66447547</v>
-      </c>
-      <c r="H221" t="n">
-        <v>0</v>
-      </c>
-      <c r="I221" t="n">
-        <v>0</v>
-      </c>
-      <c r="J221" t="inlineStr"/>
-      <c r="K221" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="L221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M221" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="222">
-      <c r="A222" s="1" t="n">
-        <v>220</v>
-      </c>
-      <c r="B222" t="n">
-        <v>4.56</v>
-      </c>
-      <c r="C222" t="n">
-        <v>4.56</v>
-      </c>
-      <c r="D222" t="n">
-        <v>4.56</v>
-      </c>
-      <c r="E222" t="n">
-        <v>4.56</v>
-      </c>
-      <c r="F222" t="n">
-        <v>11814.9894</v>
-      </c>
-      <c r="G222" t="n">
-        <v>-12960268.65387547</v>
-      </c>
-      <c r="H222" t="n">
-        <v>0</v>
-      </c>
-      <c r="I222" t="n">
-        <v>0</v>
-      </c>
-      <c r="J222" t="inlineStr"/>
-      <c r="K222" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="L222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M222" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="223">
-      <c r="A223" s="1" t="n">
-        <v>221</v>
-      </c>
-      <c r="B223" t="n">
-        <v>4.56</v>
-      </c>
-      <c r="C223" t="n">
-        <v>4.52</v>
-      </c>
-      <c r="D223" t="n">
-        <v>4.56</v>
-      </c>
-      <c r="E223" t="n">
-        <v>4.52</v>
-      </c>
-      <c r="F223" t="n">
-        <v>188399.3988</v>
-      </c>
-      <c r="G223" t="n">
-        <v>-13148668.05267547</v>
-      </c>
-      <c r="H223" t="n">
-        <v>0</v>
-      </c>
-      <c r="I223" t="n">
-        <v>0</v>
-      </c>
-      <c r="J223" t="inlineStr"/>
-      <c r="K223" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="L223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M223" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="224">
-      <c r="A224" s="1" t="n">
-        <v>222</v>
-      </c>
-      <c r="B224" t="n">
-        <v>4.52</v>
-      </c>
-      <c r="C224" t="n">
-        <v>4.52</v>
-      </c>
-      <c r="D224" t="n">
-        <v>4.52</v>
-      </c>
-      <c r="E224" t="n">
-        <v>4.52</v>
-      </c>
-      <c r="F224" t="n">
-        <v>38606</v>
-      </c>
-      <c r="G224" t="n">
-        <v>-13148668.05267547</v>
-      </c>
-      <c r="H224" t="n">
-        <v>0</v>
-      </c>
-      <c r="I224" t="n">
-        <v>0</v>
-      </c>
-      <c r="J224" t="inlineStr"/>
-      <c r="K224" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="L224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M224" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="225">
-      <c r="A225" s="1" t="n">
-        <v>223</v>
-      </c>
-      <c r="B225" t="n">
-        <v>4.52</v>
-      </c>
-      <c r="C225" t="n">
-        <v>4.49</v>
-      </c>
-      <c r="D225" t="n">
-        <v>4.52</v>
-      </c>
-      <c r="E225" t="n">
-        <v>4.49</v>
-      </c>
-      <c r="F225" t="n">
-        <v>142024.8793</v>
-      </c>
-      <c r="G225" t="n">
-        <v>-13290692.93197547</v>
-      </c>
-      <c r="H225" t="n">
-        <v>1</v>
-      </c>
-      <c r="I225" t="n">
-        <v>0</v>
-      </c>
-      <c r="J225" t="n">
-        <v>4.52</v>
-      </c>
-      <c r="K225" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="L225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M225" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="226">
-      <c r="A226" s="1" t="n">
-        <v>224</v>
-      </c>
-      <c r="B226" t="n">
-        <v>4.49</v>
-      </c>
-      <c r="C226" t="n">
-        <v>4.49</v>
-      </c>
-      <c r="D226" t="n">
-        <v>4.49</v>
-      </c>
-      <c r="E226" t="n">
-        <v>4.49</v>
-      </c>
-      <c r="F226" t="n">
-        <v>22455.34</v>
-      </c>
-      <c r="G226" t="n">
-        <v>-13290692.93197547</v>
-      </c>
-      <c r="H226" t="n">
-        <v>1</v>
-      </c>
-      <c r="I226" t="n">
-        <v>0</v>
-      </c>
-      <c r="J226" t="n">
-        <v>4.49</v>
-      </c>
-      <c r="K226" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="L226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M226" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="227">
-      <c r="A227" s="1" t="n">
-        <v>225</v>
-      </c>
-      <c r="B227" t="n">
-        <v>4.49</v>
-      </c>
-      <c r="C227" t="n">
-        <v>4.43</v>
-      </c>
-      <c r="D227" t="n">
-        <v>4.49</v>
-      </c>
-      <c r="E227" t="n">
-        <v>4.43</v>
-      </c>
-      <c r="F227" t="n">
-        <v>1247869.4223</v>
-      </c>
-      <c r="G227" t="n">
-        <v>-14538562.35427547</v>
-      </c>
-      <c r="H227" t="n">
-        <v>1</v>
-      </c>
-      <c r="I227" t="n">
-        <v>0</v>
-      </c>
-      <c r="J227" t="n">
-        <v>4.49</v>
-      </c>
-      <c r="K227" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="L227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M227" t="n">
-        <v>1</v>
-      </c>
+      <c r="N185" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2019-10-31 BackTest XVG.xlsx
+++ b/BackTest/2019-10-31 BackTest XVG.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N256"/>
+  <dimension ref="A1:M256"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>high_check</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -456,18 +451,15 @@
         <v>-1624292.0692</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -492,22 +484,15 @@
         <v>-1624292.0692</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="K3" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -532,2822 +517,2569 @@
         <v>-1624292.0692</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
         <v>4.33</v>
       </c>
-      <c r="K4" t="n">
+      <c r="C5" t="n">
         <v>4.33</v>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="D5" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="E5" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="F5" t="n">
+        <v>94168.1168</v>
+      </c>
+      <c r="G5" t="n">
+        <v>-1624292.0692</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>4.32</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4.32</v>
+      </c>
+      <c r="D6" t="n">
+        <v>4.32</v>
+      </c>
+      <c r="E6" t="n">
+        <v>4.32</v>
+      </c>
+      <c r="F6" t="n">
+        <v>111000</v>
+      </c>
+      <c r="G6" t="n">
+        <v>-1735292.0692</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>4.32</v>
+      </c>
+      <c r="C7" t="n">
+        <v>4.32</v>
+      </c>
+      <c r="D7" t="n">
+        <v>4.32</v>
+      </c>
+      <c r="E7" t="n">
+        <v>4.32</v>
+      </c>
+      <c r="F7" t="n">
+        <v>544090.9089</v>
+      </c>
+      <c r="G7" t="n">
+        <v>-1735292.0692</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>4.32</v>
+      </c>
+      <c r="C8" t="n">
+        <v>4.38</v>
+      </c>
+      <c r="D8" t="n">
+        <v>4.38</v>
+      </c>
+      <c r="E8" t="n">
+        <v>4.32</v>
+      </c>
+      <c r="F8" t="n">
+        <v>172023.234</v>
+      </c>
+      <c r="G8" t="n">
+        <v>-1563268.8352</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>4.36</v>
+      </c>
+      <c r="C9" t="n">
+        <v>4.36</v>
+      </c>
+      <c r="D9" t="n">
+        <v>4.36</v>
+      </c>
+      <c r="E9" t="n">
+        <v>4.36</v>
+      </c>
+      <c r="F9" t="n">
+        <v>48720</v>
+      </c>
+      <c r="G9" t="n">
+        <v>-1611988.8352</v>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+      <c r="I9" t="n">
+        <v>4.38</v>
+      </c>
+      <c r="J9" t="n">
+        <v>4.38</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="C10" t="n">
+        <v>4.36</v>
+      </c>
+      <c r="D10" t="n">
+        <v>4.36</v>
+      </c>
+      <c r="E10" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="F10" t="n">
+        <v>57713</v>
+      </c>
+      <c r="G10" t="n">
+        <v>-1611988.8352</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>4.38</v>
+      </c>
+      <c r="K10" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="C5" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="D5" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="E5" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="F5" t="n">
-        <v>94168.1168</v>
-      </c>
-      <c r="G5" t="n">
-        <v>-1624292.0692</v>
-      </c>
-      <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="K5" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="L5" t="inlineStr">
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>4.38</v>
+      </c>
+      <c r="C11" t="n">
+        <v>4.39</v>
+      </c>
+      <c r="D11" t="n">
+        <v>4.39</v>
+      </c>
+      <c r="E11" t="n">
+        <v>4.38</v>
+      </c>
+      <c r="F11" t="n">
+        <v>481693.9892</v>
+      </c>
+      <c r="G11" t="n">
+        <v>-1130294.846</v>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+      <c r="I11" t="n">
+        <v>4.36</v>
+      </c>
+      <c r="J11" t="n">
+        <v>4.38</v>
+      </c>
+      <c r="K11" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>4.32</v>
-      </c>
-      <c r="C6" t="n">
-        <v>4.32</v>
-      </c>
-      <c r="D6" t="n">
-        <v>4.32</v>
-      </c>
-      <c r="E6" t="n">
-        <v>4.32</v>
-      </c>
-      <c r="F6" t="n">
-        <v>111000</v>
-      </c>
-      <c r="G6" t="n">
-        <v>-1735292.0692</v>
-      </c>
-      <c r="H6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="K6" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="L6" t="inlineStr">
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="C12" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="D12" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="E12" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="F12" t="n">
+        <v>310960.6011</v>
+      </c>
+      <c r="G12" t="n">
+        <v>-819334.2448999998</v>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+      <c r="I12" t="n">
+        <v>4.39</v>
+      </c>
+      <c r="J12" t="n">
+        <v>4.38</v>
+      </c>
+      <c r="K12" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>4.32</v>
-      </c>
-      <c r="C7" t="n">
-        <v>4.32</v>
-      </c>
-      <c r="D7" t="n">
-        <v>4.32</v>
-      </c>
-      <c r="E7" t="n">
-        <v>4.32</v>
-      </c>
-      <c r="F7" t="n">
-        <v>544090.9089</v>
-      </c>
-      <c r="G7" t="n">
-        <v>-1735292.0692</v>
-      </c>
-      <c r="H7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>4.32</v>
-      </c>
-      <c r="K7" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="L7" t="inlineStr">
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="C13" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="D13" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="E13" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="F13" t="n">
+        <v>16097.4602</v>
+      </c>
+      <c r="G13" t="n">
+        <v>-803236.7846999998</v>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+      <c r="I13" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="J13" t="n">
+        <v>4.38</v>
+      </c>
+      <c r="K13" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="n">
-        <v>4.32</v>
-      </c>
-      <c r="C8" t="n">
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="C14" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="D14" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="E14" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="F14" t="n">
+        <v>10683.4708</v>
+      </c>
+      <c r="G14" t="n">
+        <v>-803236.7846999998</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="n">
         <v>4.38</v>
       </c>
-      <c r="D8" t="n">
-        <v>4.38</v>
-      </c>
-      <c r="E8" t="n">
-        <v>4.32</v>
-      </c>
-      <c r="F8" t="n">
-        <v>172023.234</v>
-      </c>
-      <c r="G8" t="n">
-        <v>-1563268.8352</v>
-      </c>
-      <c r="H8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>4.32</v>
-      </c>
-      <c r="K8" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="L8" t="inlineStr">
+      <c r="K14" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="n">
-        <v>4.36</v>
-      </c>
-      <c r="C9" t="n">
-        <v>4.36</v>
-      </c>
-      <c r="D9" t="n">
-        <v>4.36</v>
-      </c>
-      <c r="E9" t="n">
-        <v>4.36</v>
-      </c>
-      <c r="F9" t="n">
-        <v>48720</v>
-      </c>
-      <c r="G9" t="n">
-        <v>-1611988.8352</v>
-      </c>
-      <c r="H9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="C15" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="D15" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="E15" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="F15" t="n">
+        <v>3677.2353</v>
+      </c>
+      <c r="G15" t="n">
+        <v>-803236.7846999998</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="n">
         <v>4.38</v>
       </c>
-      <c r="K9" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="L9" t="inlineStr">
+      <c r="K15" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="n">
-        <v>4.35</v>
-      </c>
-      <c r="C10" t="n">
-        <v>4.36</v>
-      </c>
-      <c r="D10" t="n">
-        <v>4.36</v>
-      </c>
-      <c r="E10" t="n">
-        <v>4.35</v>
-      </c>
-      <c r="F10" t="n">
-        <v>57713</v>
-      </c>
-      <c r="G10" t="n">
-        <v>-1611988.8352</v>
-      </c>
-      <c r="H10" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>4.36</v>
-      </c>
-      <c r="K10" t="n">
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>4.43</v>
+      </c>
+      <c r="C16" t="n">
         <v>4.33</v>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="D16" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="E16" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="F16" t="n">
+        <v>1725928.0153</v>
+      </c>
+      <c r="G16" t="n">
+        <v>-2529164.8</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>4.38</v>
+      </c>
+      <c r="K16" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="n">
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
+        <v>4.44</v>
+      </c>
+      <c r="C17" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="D17" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="E17" t="n">
+        <v>4.44</v>
+      </c>
+      <c r="F17" t="n">
+        <v>138420.292</v>
+      </c>
+      <c r="G17" t="n">
+        <v>-2390744.508</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="n">
         <v>4.38</v>
       </c>
-      <c r="C11" t="n">
-        <v>4.39</v>
-      </c>
-      <c r="D11" t="n">
-        <v>4.39</v>
-      </c>
-      <c r="E11" t="n">
-        <v>4.38</v>
-      </c>
-      <c r="F11" t="n">
-        <v>481693.9892</v>
-      </c>
-      <c r="G11" t="n">
-        <v>-1130294.846</v>
-      </c>
-      <c r="H11" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>4.36</v>
-      </c>
-      <c r="K11" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="L11" t="inlineStr">
+      <c r="K17" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="C12" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="D12" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="E12" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="F12" t="n">
-        <v>310960.6011</v>
-      </c>
-      <c r="G12" t="n">
-        <v>-819334.2448999998</v>
-      </c>
-      <c r="H12" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="n">
-        <v>4.39</v>
-      </c>
-      <c r="K12" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="L12" t="inlineStr">
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="C18" t="n">
+        <v>4.49</v>
+      </c>
+      <c r="D18" t="n">
+        <v>4.49</v>
+      </c>
+      <c r="E18" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="F18" t="n">
+        <v>333122.3652</v>
+      </c>
+      <c r="G18" t="n">
+        <v>-2057622.1428</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>4.38</v>
+      </c>
+      <c r="K18" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="C13" t="n">
-        <v>4.41</v>
-      </c>
-      <c r="D13" t="n">
-        <v>4.41</v>
-      </c>
-      <c r="E13" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="F13" t="n">
-        <v>16097.4602</v>
-      </c>
-      <c r="G13" t="n">
-        <v>-803236.7846999998</v>
-      </c>
-      <c r="H13" t="n">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="K13" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="L13" t="inlineStr">
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="n">
+        <v>4.49</v>
+      </c>
+      <c r="C19" t="n">
+        <v>4.49</v>
+      </c>
+      <c r="D19" t="n">
+        <v>4.49</v>
+      </c>
+      <c r="E19" t="n">
+        <v>4.49</v>
+      </c>
+      <c r="F19" t="n">
+        <v>5731.1024</v>
+      </c>
+      <c r="G19" t="n">
+        <v>-2057622.1428</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>4.38</v>
+      </c>
+      <c r="K19" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="n">
-        <v>4.41</v>
-      </c>
-      <c r="C14" t="n">
-        <v>4.41</v>
-      </c>
-      <c r="D14" t="n">
-        <v>4.41</v>
-      </c>
-      <c r="E14" t="n">
-        <v>4.41</v>
-      </c>
-      <c r="F14" t="n">
-        <v>10683.4708</v>
-      </c>
-      <c r="G14" t="n">
-        <v>-803236.7846999998</v>
-      </c>
-      <c r="H14" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>4.41</v>
-      </c>
-      <c r="K14" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="L14" t="inlineStr">
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="n">
+        <v>4.49</v>
+      </c>
+      <c r="C20" t="n">
+        <v>4.44</v>
+      </c>
+      <c r="D20" t="n">
+        <v>4.49</v>
+      </c>
+      <c r="E20" t="n">
+        <v>4.44</v>
+      </c>
+      <c r="F20" t="n">
+        <v>215444.7546</v>
+      </c>
+      <c r="G20" t="n">
+        <v>-2273066.8974</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>4.38</v>
+      </c>
+      <c r="K20" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="n">
-        <v>4.41</v>
-      </c>
-      <c r="C15" t="n">
-        <v>4.41</v>
-      </c>
-      <c r="D15" t="n">
-        <v>4.41</v>
-      </c>
-      <c r="E15" t="n">
-        <v>4.41</v>
-      </c>
-      <c r="F15" t="n">
-        <v>3677.2353</v>
-      </c>
-      <c r="G15" t="n">
-        <v>-803236.7846999998</v>
-      </c>
-      <c r="H15" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>4.41</v>
-      </c>
-      <c r="K15" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="L15" t="inlineStr">
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="n">
+        <v>4.44</v>
+      </c>
+      <c r="C21" t="n">
+        <v>4.56</v>
+      </c>
+      <c r="D21" t="n">
+        <v>4.56</v>
+      </c>
+      <c r="E21" t="n">
+        <v>4.42</v>
+      </c>
+      <c r="F21" t="n">
+        <v>929020.5853</v>
+      </c>
+      <c r="G21" t="n">
+        <v>-1344046.3121</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>4.38</v>
+      </c>
+      <c r="K21" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="n">
-        <v>4.43</v>
-      </c>
-      <c r="C16" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="D16" t="n">
-        <v>4.45</v>
-      </c>
-      <c r="E16" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="F16" t="n">
-        <v>1725928.0153</v>
-      </c>
-      <c r="G16" t="n">
-        <v>-2529164.8</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="L16" t="inlineStr">
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="n">
+        <v>4.56</v>
+      </c>
+      <c r="C22" t="n">
+        <v>4.59</v>
+      </c>
+      <c r="D22" t="n">
+        <v>4.59</v>
+      </c>
+      <c r="E22" t="n">
+        <v>4.42</v>
+      </c>
+      <c r="F22" t="n">
+        <v>191126.291</v>
+      </c>
+      <c r="G22" t="n">
+        <v>-1152920.0211</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>4.38</v>
+      </c>
+      <c r="K22" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="n">
-        <v>4.44</v>
-      </c>
-      <c r="C17" t="n">
-        <v>4.45</v>
-      </c>
-      <c r="D17" t="n">
-        <v>4.45</v>
-      </c>
-      <c r="E17" t="n">
-        <v>4.44</v>
-      </c>
-      <c r="F17" t="n">
-        <v>138420.292</v>
-      </c>
-      <c r="G17" t="n">
-        <v>-2390744.508</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="L17" t="inlineStr">
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="n">
+        <v>4.58</v>
+      </c>
+      <c r="C23" t="n">
+        <v>4.58</v>
+      </c>
+      <c r="D23" t="n">
+        <v>4.58</v>
+      </c>
+      <c r="E23" t="n">
+        <v>4.58</v>
+      </c>
+      <c r="F23" t="n">
+        <v>95931.87772925</v>
+      </c>
+      <c r="G23" t="n">
+        <v>-1248851.89882925</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>4.38</v>
+      </c>
+      <c r="K23" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="n">
-        <v>4.45</v>
-      </c>
-      <c r="C18" t="n">
-        <v>4.49</v>
-      </c>
-      <c r="D18" t="n">
-        <v>4.49</v>
-      </c>
-      <c r="E18" t="n">
-        <v>4.45</v>
-      </c>
-      <c r="F18" t="n">
-        <v>333122.3652</v>
-      </c>
-      <c r="G18" t="n">
-        <v>-2057622.1428</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="L18" t="inlineStr">
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="n">
+        <v>4.58</v>
+      </c>
+      <c r="C24" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="D24" t="n">
+        <v>4.58</v>
+      </c>
+      <c r="E24" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="F24" t="n">
+        <v>983678.10043668</v>
+      </c>
+      <c r="G24" t="n">
+        <v>-2232529.99926593</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>4.38</v>
+      </c>
+      <c r="K24" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="n">
-        <v>4.49</v>
-      </c>
-      <c r="C19" t="n">
-        <v>4.49</v>
-      </c>
-      <c r="D19" t="n">
-        <v>4.49</v>
-      </c>
-      <c r="E19" t="n">
-        <v>4.49</v>
-      </c>
-      <c r="F19" t="n">
-        <v>5731.1024</v>
-      </c>
-      <c r="G19" t="n">
-        <v>-2057622.1428</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="L19" t="inlineStr">
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="n">
+        <v>4.56</v>
+      </c>
+      <c r="C25" t="n">
+        <v>4.56</v>
+      </c>
+      <c r="D25" t="n">
+        <v>4.56</v>
+      </c>
+      <c r="E25" t="n">
+        <v>4.56</v>
+      </c>
+      <c r="F25" t="n">
+        <v>11</v>
+      </c>
+      <c r="G25" t="n">
+        <v>-2232518.99926593</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>4.38</v>
+      </c>
+      <c r="K25" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="n">
-        <v>4.49</v>
-      </c>
-      <c r="C20" t="n">
-        <v>4.44</v>
-      </c>
-      <c r="D20" t="n">
-        <v>4.49</v>
-      </c>
-      <c r="E20" t="n">
-        <v>4.44</v>
-      </c>
-      <c r="F20" t="n">
-        <v>215444.7546</v>
-      </c>
-      <c r="G20" t="n">
-        <v>-2273066.8974</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="L20" t="inlineStr">
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="n">
+        <v>4.56</v>
+      </c>
+      <c r="C26" t="n">
+        <v>4.57</v>
+      </c>
+      <c r="D26" t="n">
+        <v>4.58</v>
+      </c>
+      <c r="E26" t="n">
+        <v>4.43</v>
+      </c>
+      <c r="F26" t="n">
+        <v>148963.4649</v>
+      </c>
+      <c r="G26" t="n">
+        <v>-2083555.53436593</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>4.38</v>
+      </c>
+      <c r="K26" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="n">
-        <v>4.44</v>
-      </c>
-      <c r="C21" t="n">
-        <v>4.56</v>
-      </c>
-      <c r="D21" t="n">
-        <v>4.56</v>
-      </c>
-      <c r="E21" t="n">
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="C27" t="n">
         <v>4.42</v>
       </c>
-      <c r="F21" t="n">
-        <v>929020.5853</v>
-      </c>
-      <c r="G21" t="n">
-        <v>-1344046.3121</v>
-      </c>
-      <c r="H21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" t="n">
-        <v>4.44</v>
-      </c>
-      <c r="K21" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="L21" t="inlineStr">
+      <c r="D27" t="n">
+        <v>4.57</v>
+      </c>
+      <c r="E27" t="n">
+        <v>4.42</v>
+      </c>
+      <c r="F27" t="n">
+        <v>474005.7992</v>
+      </c>
+      <c r="G27" t="n">
+        <v>-2557561.33356593</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>4.38</v>
+      </c>
+      <c r="K27" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="n">
-        <v>4.56</v>
-      </c>
-      <c r="C22" t="n">
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="n">
+        <v>4.44</v>
+      </c>
+      <c r="C28" t="n">
         <v>4.59</v>
       </c>
-      <c r="D22" t="n">
+      <c r="D28" t="n">
         <v>4.59</v>
       </c>
-      <c r="E22" t="n">
-        <v>4.42</v>
-      </c>
-      <c r="F22" t="n">
-        <v>191126.291</v>
-      </c>
-      <c r="G22" t="n">
-        <v>-1152920.0211</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="L22" t="inlineStr">
+      <c r="E28" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="F28" t="n">
+        <v>575809.0198</v>
+      </c>
+      <c r="G28" t="n">
+        <v>-1981752.31376593</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>4.38</v>
+      </c>
+      <c r="K28" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="n">
-        <v>4.58</v>
-      </c>
-      <c r="C23" t="n">
-        <v>4.58</v>
-      </c>
-      <c r="D23" t="n">
-        <v>4.58</v>
-      </c>
-      <c r="E23" t="n">
-        <v>4.58</v>
-      </c>
-      <c r="F23" t="n">
-        <v>95931.87772925</v>
-      </c>
-      <c r="G23" t="n">
-        <v>-1248851.89882925</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="L23" t="inlineStr">
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="C29" t="n">
+        <v>4.56</v>
+      </c>
+      <c r="D29" t="n">
+        <v>4.56</v>
+      </c>
+      <c r="E29" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="F29" t="n">
+        <v>342074.3305</v>
+      </c>
+      <c r="G29" t="n">
+        <v>-2323826.64426593</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>4.38</v>
+      </c>
+      <c r="K29" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="n">
-        <v>4.58</v>
-      </c>
-      <c r="C24" t="n">
-        <v>4.55</v>
-      </c>
-      <c r="D24" t="n">
-        <v>4.58</v>
-      </c>
-      <c r="E24" t="n">
-        <v>4.41</v>
-      </c>
-      <c r="F24" t="n">
-        <v>983678.10043668</v>
-      </c>
-      <c r="G24" t="n">
-        <v>-2232529.99926593</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="L24" t="inlineStr">
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="n">
+        <v>4.56</v>
+      </c>
+      <c r="C30" t="n">
+        <v>4.64</v>
+      </c>
+      <c r="D30" t="n">
+        <v>4.64</v>
+      </c>
+      <c r="E30" t="n">
+        <v>4.56</v>
+      </c>
+      <c r="F30" t="n">
+        <v>593725.49332456</v>
+      </c>
+      <c r="G30" t="n">
+        <v>-1730101.15094137</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>4.38</v>
+      </c>
+      <c r="K30" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="n">
-        <v>4.56</v>
-      </c>
-      <c r="C25" t="n">
-        <v>4.56</v>
-      </c>
-      <c r="D25" t="n">
-        <v>4.56</v>
-      </c>
-      <c r="E25" t="n">
-        <v>4.56</v>
-      </c>
-      <c r="F25" t="n">
-        <v>11</v>
-      </c>
-      <c r="G25" t="n">
-        <v>-2232518.99926593</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="L25" t="inlineStr">
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="n">
+        <v>4.47</v>
+      </c>
+      <c r="C31" t="n">
+        <v>4.79</v>
+      </c>
+      <c r="D31" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="E31" t="n">
+        <v>4.47</v>
+      </c>
+      <c r="F31" t="n">
+        <v>1326190.00846563</v>
+      </c>
+      <c r="G31" t="n">
+        <v>-403911.1424757401</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>4.38</v>
+      </c>
+      <c r="K31" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="n">
-        <v>4.56</v>
-      </c>
-      <c r="C26" t="n">
-        <v>4.57</v>
-      </c>
-      <c r="D26" t="n">
-        <v>4.58</v>
-      </c>
-      <c r="E26" t="n">
-        <v>4.43</v>
-      </c>
-      <c r="F26" t="n">
-        <v>148963.4649</v>
-      </c>
-      <c r="G26" t="n">
-        <v>-2083555.53436593</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="L26" t="inlineStr">
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="n">
+        <v>4.79</v>
+      </c>
+      <c r="C32" t="n">
+        <v>4.76</v>
+      </c>
+      <c r="D32" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="E32" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="F32" t="n">
+        <v>954273.47426937</v>
+      </c>
+      <c r="G32" t="n">
+        <v>-1358184.61674511</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>4.38</v>
+      </c>
+      <c r="K32" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="n">
-        <v>4.45</v>
-      </c>
-      <c r="C27" t="n">
-        <v>4.42</v>
-      </c>
-      <c r="D27" t="n">
-        <v>4.57</v>
-      </c>
-      <c r="E27" t="n">
-        <v>4.42</v>
-      </c>
-      <c r="F27" t="n">
-        <v>474005.7992</v>
-      </c>
-      <c r="G27" t="n">
-        <v>-2557561.33356593</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="L27" t="inlineStr">
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="n">
+        <v>4.79</v>
+      </c>
+      <c r="C33" t="n">
+        <v>4.76</v>
+      </c>
+      <c r="D33" t="n">
+        <v>4.79</v>
+      </c>
+      <c r="E33" t="n">
+        <v>4.36</v>
+      </c>
+      <c r="F33" t="n">
+        <v>1133775.55648535</v>
+      </c>
+      <c r="G33" t="n">
+        <v>-1358184.61674511</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0</v>
+      </c>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>4.38</v>
+      </c>
+      <c r="K33" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="n">
-        <v>4.44</v>
-      </c>
-      <c r="C28" t="n">
-        <v>4.59</v>
-      </c>
-      <c r="D28" t="n">
-        <v>4.59</v>
-      </c>
-      <c r="E28" t="n">
-        <v>4.41</v>
-      </c>
-      <c r="F28" t="n">
-        <v>575809.0198</v>
-      </c>
-      <c r="G28" t="n">
-        <v>-1981752.31376593</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="L28" t="inlineStr">
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="C34" t="n">
+        <v>4.67</v>
+      </c>
+      <c r="D34" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="E34" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="F34" t="n">
+        <v>466786.52457687</v>
+      </c>
+      <c r="G34" t="n">
+        <v>-1824971.14132198</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>4.38</v>
+      </c>
+      <c r="K34" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
-    </row>
-    <row r="29">
-      <c r="A29" s="1" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="n">
-        <v>4.54</v>
-      </c>
-      <c r="C29" t="n">
-        <v>4.56</v>
-      </c>
-      <c r="D29" t="n">
-        <v>4.56</v>
-      </c>
-      <c r="E29" t="n">
-        <v>4.41</v>
-      </c>
-      <c r="F29" t="n">
-        <v>342074.3305</v>
-      </c>
-      <c r="G29" t="n">
-        <v>-2323826.64426593</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="L29" t="inlineStr">
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="C35" t="n">
+        <v>4.49</v>
+      </c>
+      <c r="D35" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="E35" t="n">
+        <v>4.49</v>
+      </c>
+      <c r="F35" t="n">
+        <v>15116.2457</v>
+      </c>
+      <c r="G35" t="n">
+        <v>-1840087.38702198</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>4.38</v>
+      </c>
+      <c r="K35" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
-    </row>
-    <row r="30">
-      <c r="A30" s="1" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="n">
-        <v>4.56</v>
-      </c>
-      <c r="C30" t="n">
-        <v>4.64</v>
-      </c>
-      <c r="D30" t="n">
-        <v>4.64</v>
-      </c>
-      <c r="E30" t="n">
-        <v>4.56</v>
-      </c>
-      <c r="F30" t="n">
-        <v>593725.49332456</v>
-      </c>
-      <c r="G30" t="n">
-        <v>-1730101.15094137</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="L30" t="inlineStr">
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="n">
+        <v>4.48</v>
+      </c>
+      <c r="C36" t="n">
+        <v>4.67</v>
+      </c>
+      <c r="D36" t="n">
+        <v>4.69</v>
+      </c>
+      <c r="E36" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="F36" t="n">
+        <v>2331369.0903</v>
+      </c>
+      <c r="G36" t="n">
+        <v>491281.7032780196</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0</v>
+      </c>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>4.38</v>
+      </c>
+      <c r="K36" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
-    </row>
-    <row r="31">
-      <c r="A31" s="1" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="C31" t="n">
-        <v>4.79</v>
-      </c>
-      <c r="D31" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="E31" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="F31" t="n">
-        <v>1326190.00846563</v>
-      </c>
-      <c r="G31" t="n">
-        <v>-403911.1424757401</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="L31" t="inlineStr">
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="n">
+        <v>4.67</v>
+      </c>
+      <c r="C37" t="n">
+        <v>4.69</v>
+      </c>
+      <c r="D37" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="E37" t="n">
+        <v>4.67</v>
+      </c>
+      <c r="F37" t="n">
+        <v>209045.91968</v>
+      </c>
+      <c r="G37" t="n">
+        <v>700327.6229580196</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>4.38</v>
+      </c>
+      <c r="K37" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
-    </row>
-    <row r="32">
-      <c r="A32" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="n">
-        <v>4.79</v>
-      </c>
-      <c r="C32" t="n">
-        <v>4.76</v>
-      </c>
-      <c r="D32" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="E32" t="n">
-        <v>4.41</v>
-      </c>
-      <c r="F32" t="n">
-        <v>954273.47426937</v>
-      </c>
-      <c r="G32" t="n">
-        <v>-1358184.61674511</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="L32" t="inlineStr">
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="C38" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="D38" t="n">
+        <v>4.68</v>
+      </c>
+      <c r="E38" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="F38" t="n">
+        <v>1118051.4848</v>
+      </c>
+      <c r="G38" t="n">
+        <v>-417723.8618419804</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>4.38</v>
+      </c>
+      <c r="K38" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
-    </row>
-    <row r="33">
-      <c r="A33" s="1" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" t="n">
-        <v>4.79</v>
-      </c>
-      <c r="C33" t="n">
-        <v>4.76</v>
-      </c>
-      <c r="D33" t="n">
-        <v>4.79</v>
-      </c>
-      <c r="E33" t="n">
-        <v>4.36</v>
-      </c>
-      <c r="F33" t="n">
-        <v>1133775.55648535</v>
-      </c>
-      <c r="G33" t="n">
-        <v>-1358184.61674511</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="L33" t="inlineStr">
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="n">
+        <v>4.68</v>
+      </c>
+      <c r="C39" t="n">
+        <v>4.58</v>
+      </c>
+      <c r="D39" t="n">
+        <v>4.68</v>
+      </c>
+      <c r="E39" t="n">
+        <v>4.46</v>
+      </c>
+      <c r="F39" t="n">
+        <v>3058916.5944</v>
+      </c>
+      <c r="G39" t="n">
+        <v>2641192.732558019</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0</v>
+      </c>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>4.38</v>
+      </c>
+      <c r="K39" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
-    </row>
-    <row r="34">
-      <c r="A34" s="1" t="n">
-        <v>32</v>
-      </c>
-      <c r="B34" t="n">
-        <v>4.45</v>
-      </c>
-      <c r="C34" t="n">
-        <v>4.67</v>
-      </c>
-      <c r="D34" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="E34" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="F34" t="n">
-        <v>466786.52457687</v>
-      </c>
-      <c r="G34" t="n">
-        <v>-1824971.14132198</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="L34" t="inlineStr">
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="n">
+        <v>4.58</v>
+      </c>
+      <c r="C40" t="n">
+        <v>4.57</v>
+      </c>
+      <c r="D40" t="n">
+        <v>4.64</v>
+      </c>
+      <c r="E40" t="n">
+        <v>4.48</v>
+      </c>
+      <c r="F40" t="n">
+        <v>1832959.9473</v>
+      </c>
+      <c r="G40" t="n">
+        <v>808232.7852580193</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>4.38</v>
+      </c>
+      <c r="K40" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
-    </row>
-    <row r="35">
-      <c r="A35" s="1" t="n">
-        <v>33</v>
-      </c>
-      <c r="B35" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="C35" t="n">
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="n">
         <v>4.49</v>
       </c>
-      <c r="D35" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="E35" t="n">
-        <v>4.49</v>
-      </c>
-      <c r="F35" t="n">
-        <v>15116.2457</v>
-      </c>
-      <c r="G35" t="n">
-        <v>-1840087.38702198</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="L35" t="inlineStr">
+      <c r="C41" t="n">
+        <v>4.48</v>
+      </c>
+      <c r="D41" t="n">
+        <v>4.56</v>
+      </c>
+      <c r="E41" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="F41" t="n">
+        <v>468778.8666</v>
+      </c>
+      <c r="G41" t="n">
+        <v>339453.9186580193</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>4.38</v>
+      </c>
+      <c r="K41" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
-    </row>
-    <row r="36">
-      <c r="A36" s="1" t="n">
-        <v>34</v>
-      </c>
-      <c r="B36" t="n">
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="n">
         <v>4.48</v>
       </c>
-      <c r="C36" t="n">
-        <v>4.67</v>
-      </c>
-      <c r="D36" t="n">
-        <v>4.69</v>
-      </c>
-      <c r="E36" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="F36" t="n">
-        <v>2331369.0903</v>
-      </c>
-      <c r="G36" t="n">
-        <v>491281.7032780196</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="L36" t="inlineStr">
+      <c r="C42" t="n">
+        <v>4.48</v>
+      </c>
+      <c r="D42" t="n">
+        <v>4.48</v>
+      </c>
+      <c r="E42" t="n">
+        <v>4.48</v>
+      </c>
+      <c r="F42" t="n">
+        <v>6691.0675</v>
+      </c>
+      <c r="G42" t="n">
+        <v>339453.9186580193</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0</v>
+      </c>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>4.38</v>
+      </c>
+      <c r="K42" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
-    </row>
-    <row r="37">
-      <c r="A37" s="1" t="n">
-        <v>35</v>
-      </c>
-      <c r="B37" t="n">
-        <v>4.67</v>
-      </c>
-      <c r="C37" t="n">
-        <v>4.69</v>
-      </c>
-      <c r="D37" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="E37" t="n">
-        <v>4.67</v>
-      </c>
-      <c r="F37" t="n">
-        <v>209045.91968</v>
-      </c>
-      <c r="G37" t="n">
-        <v>700327.6229580196</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="L37" t="inlineStr">
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="C43" t="n">
+        <v>4.47</v>
+      </c>
+      <c r="D43" t="n">
+        <v>4.47</v>
+      </c>
+      <c r="E43" t="n">
+        <v>4.44</v>
+      </c>
+      <c r="F43" t="n">
+        <v>832141.6939</v>
+      </c>
+      <c r="G43" t="n">
+        <v>-492687.7752419806</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>4.38</v>
+      </c>
+      <c r="K43" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
-    </row>
-    <row r="38">
-      <c r="A38" s="1" t="n">
-        <v>36</v>
-      </c>
-      <c r="B38" t="n">
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="n">
+        <v>4.44</v>
+      </c>
+      <c r="C44" t="n">
         <v>4.5</v>
       </c>
-      <c r="C38" t="n">
-        <v>4.45</v>
-      </c>
-      <c r="D38" t="n">
-        <v>4.68</v>
-      </c>
-      <c r="E38" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="F38" t="n">
-        <v>1118051.4848</v>
-      </c>
-      <c r="G38" t="n">
-        <v>-417723.8618419804</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="L38" t="inlineStr">
+      <c r="D44" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="E44" t="n">
+        <v>4.44</v>
+      </c>
+      <c r="F44" t="n">
+        <v>319193.2589</v>
+      </c>
+      <c r="G44" t="n">
+        <v>-173494.5163419806</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>4.38</v>
+      </c>
+      <c r="K44" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
-    </row>
-    <row r="39">
-      <c r="A39" s="1" t="n">
-        <v>37</v>
-      </c>
-      <c r="B39" t="n">
-        <v>4.68</v>
-      </c>
-      <c r="C39" t="n">
-        <v>4.58</v>
-      </c>
-      <c r="D39" t="n">
-        <v>4.68</v>
-      </c>
-      <c r="E39" t="n">
-        <v>4.46</v>
-      </c>
-      <c r="F39" t="n">
-        <v>3058916.5944</v>
-      </c>
-      <c r="G39" t="n">
-        <v>2641192.732558019</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="L39" t="inlineStr">
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="n">
+        <v>4.61</v>
+      </c>
+      <c r="C45" t="n">
+        <v>4.49</v>
+      </c>
+      <c r="D45" t="n">
+        <v>4.61</v>
+      </c>
+      <c r="E45" t="n">
+        <v>4.49</v>
+      </c>
+      <c r="F45" t="n">
+        <v>3830.387</v>
+      </c>
+      <c r="G45" t="n">
+        <v>-177324.9033419806</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0</v>
+      </c>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>4.38</v>
+      </c>
+      <c r="K45" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
-    </row>
-    <row r="40">
-      <c r="A40" s="1" t="n">
-        <v>38</v>
-      </c>
-      <c r="B40" t="n">
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="n">
+        <v>4.57</v>
+      </c>
+      <c r="C46" t="n">
         <v>4.58</v>
       </c>
-      <c r="C40" t="n">
-        <v>4.57</v>
-      </c>
-      <c r="D40" t="n">
-        <v>4.64</v>
-      </c>
-      <c r="E40" t="n">
-        <v>4.48</v>
-      </c>
-      <c r="F40" t="n">
-        <v>1832959.9473</v>
-      </c>
-      <c r="G40" t="n">
-        <v>808232.7852580193</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="L40" t="inlineStr">
+      <c r="D46" t="n">
+        <v>4.58</v>
+      </c>
+      <c r="E46" t="n">
+        <v>4.44</v>
+      </c>
+      <c r="F46" t="n">
+        <v>1272468.1175</v>
+      </c>
+      <c r="G46" t="n">
+        <v>1095143.214158019</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>4.38</v>
+      </c>
+      <c r="K46" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
-    </row>
-    <row r="41">
-      <c r="A41" s="1" t="n">
-        <v>39</v>
-      </c>
-      <c r="B41" t="n">
-        <v>4.49</v>
-      </c>
-      <c r="C41" t="n">
-        <v>4.48</v>
-      </c>
-      <c r="D41" t="n">
-        <v>4.56</v>
-      </c>
-      <c r="E41" t="n">
-        <v>4.45</v>
-      </c>
-      <c r="F41" t="n">
-        <v>468778.8666</v>
-      </c>
-      <c r="G41" t="n">
-        <v>339453.9186580193</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="L41" t="inlineStr">
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="n">
+        <v>4.47</v>
+      </c>
+      <c r="C47" t="n">
+        <v>4.57</v>
+      </c>
+      <c r="D47" t="n">
+        <v>4.57</v>
+      </c>
+      <c r="E47" t="n">
+        <v>4.47</v>
+      </c>
+      <c r="F47" t="n">
+        <v>261812.4139</v>
+      </c>
+      <c r="G47" t="n">
+        <v>833330.8002580192</v>
+      </c>
+      <c r="H47" t="n">
+        <v>0</v>
+      </c>
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>4.38</v>
+      </c>
+      <c r="K47" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
-    </row>
-    <row r="42">
-      <c r="A42" s="1" t="n">
-        <v>40</v>
-      </c>
-      <c r="B42" t="n">
-        <v>4.48</v>
-      </c>
-      <c r="C42" t="n">
-        <v>4.48</v>
-      </c>
-      <c r="D42" t="n">
-        <v>4.48</v>
-      </c>
-      <c r="E42" t="n">
-        <v>4.48</v>
-      </c>
-      <c r="F42" t="n">
-        <v>6691.0675</v>
-      </c>
-      <c r="G42" t="n">
-        <v>339453.9186580193</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="L42" t="inlineStr">
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="C48" t="n">
+        <v>4.56</v>
+      </c>
+      <c r="D48" t="n">
+        <v>4.57</v>
+      </c>
+      <c r="E48" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="F48" t="n">
+        <v>1389422.4122</v>
+      </c>
+      <c r="G48" t="n">
+        <v>-556091.6119419807</v>
+      </c>
+      <c r="H48" t="n">
+        <v>0</v>
+      </c>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>4.38</v>
+      </c>
+      <c r="K48" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
-    </row>
-    <row r="43">
-      <c r="A43" s="1" t="n">
-        <v>41</v>
-      </c>
-      <c r="B43" t="n">
-        <v>4.45</v>
-      </c>
-      <c r="C43" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="D43" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="E43" t="n">
-        <v>4.44</v>
-      </c>
-      <c r="F43" t="n">
-        <v>832141.6939</v>
-      </c>
-      <c r="G43" t="n">
-        <v>-492687.7752419806</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="L43" t="inlineStr">
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="C49" t="n">
+        <v>4.58</v>
+      </c>
+      <c r="D49" t="n">
+        <v>4.58</v>
+      </c>
+      <c r="E49" t="n">
+        <v>4.49</v>
+      </c>
+      <c r="F49" t="n">
+        <v>368974.6914</v>
+      </c>
+      <c r="G49" t="n">
+        <v>-187116.9205419807</v>
+      </c>
+      <c r="H49" t="n">
+        <v>0</v>
+      </c>
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>4.38</v>
+      </c>
+      <c r="K49" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
-    </row>
-    <row r="44">
-      <c r="A44" s="1" t="n">
-        <v>42</v>
-      </c>
-      <c r="B44" t="n">
-        <v>4.44</v>
-      </c>
-      <c r="C44" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="D44" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="E44" t="n">
-        <v>4.44</v>
-      </c>
-      <c r="F44" t="n">
-        <v>319193.2589</v>
-      </c>
-      <c r="G44" t="n">
-        <v>-173494.5163419806</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="L44" t="inlineStr">
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="n">
+        <v>4.57</v>
+      </c>
+      <c r="C50" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="D50" t="n">
+        <v>4.57</v>
+      </c>
+      <c r="E50" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="F50" t="n">
+        <v>100914.4763</v>
+      </c>
+      <c r="G50" t="n">
+        <v>-288031.3968419806</v>
+      </c>
+      <c r="H50" t="n">
+        <v>0</v>
+      </c>
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>4.38</v>
+      </c>
+      <c r="K50" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
-    </row>
-    <row r="45">
-      <c r="A45" s="1" t="n">
-        <v>43</v>
-      </c>
-      <c r="B45" t="n">
-        <v>4.61</v>
-      </c>
-      <c r="C45" t="n">
-        <v>4.49</v>
-      </c>
-      <c r="D45" t="n">
-        <v>4.61</v>
-      </c>
-      <c r="E45" t="n">
-        <v>4.49</v>
-      </c>
-      <c r="F45" t="n">
-        <v>3830.387</v>
-      </c>
-      <c r="G45" t="n">
-        <v>-177324.9033419806</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="L45" t="inlineStr">
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="n">
+        <v>4.57</v>
+      </c>
+      <c r="C51" t="n">
+        <v>4.64</v>
+      </c>
+      <c r="D51" t="n">
+        <v>4.64</v>
+      </c>
+      <c r="E51" t="n">
+        <v>4.56</v>
+      </c>
+      <c r="F51" t="n">
+        <v>371506.0088</v>
+      </c>
+      <c r="G51" t="n">
+        <v>83474.61195801938</v>
+      </c>
+      <c r="H51" t="n">
+        <v>0</v>
+      </c>
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>4.38</v>
+      </c>
+      <c r="K51" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
-    </row>
-    <row r="46">
-      <c r="A46" s="1" t="n">
-        <v>44</v>
-      </c>
-      <c r="B46" t="n">
-        <v>4.57</v>
-      </c>
-      <c r="C46" t="n">
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="n">
+        <v>4.64</v>
+      </c>
+      <c r="C52" t="n">
+        <v>4.69</v>
+      </c>
+      <c r="D52" t="n">
+        <v>4.77</v>
+      </c>
+      <c r="E52" t="n">
         <v>4.58</v>
       </c>
-      <c r="D46" t="n">
-        <v>4.58</v>
-      </c>
-      <c r="E46" t="n">
-        <v>4.44</v>
-      </c>
-      <c r="F46" t="n">
-        <v>1272468.1175</v>
-      </c>
-      <c r="G46" t="n">
-        <v>1095143.214158019</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="L46" t="inlineStr">
+      <c r="F52" t="n">
+        <v>546045.3628999999</v>
+      </c>
+      <c r="G52" t="n">
+        <v>629519.9748580193</v>
+      </c>
+      <c r="H52" t="n">
+        <v>0</v>
+      </c>
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>4.38</v>
+      </c>
+      <c r="K52" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
-    </row>
-    <row r="47">
-      <c r="A47" s="1" t="n">
-        <v>45</v>
-      </c>
-      <c r="B47" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="C47" t="n">
-        <v>4.57</v>
-      </c>
-      <c r="D47" t="n">
-        <v>4.57</v>
-      </c>
-      <c r="E47" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="F47" t="n">
-        <v>261812.4139</v>
-      </c>
-      <c r="G47" t="n">
-        <v>833330.8002580192</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="L47" t="inlineStr">
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="n">
+        <v>4.59</v>
+      </c>
+      <c r="C53" t="n">
+        <v>4.74</v>
+      </c>
+      <c r="D53" t="n">
+        <v>4.74</v>
+      </c>
+      <c r="E53" t="n">
+        <v>4.59</v>
+      </c>
+      <c r="F53" t="n">
+        <v>634048.368</v>
+      </c>
+      <c r="G53" t="n">
+        <v>1263568.342858019</v>
+      </c>
+      <c r="H53" t="n">
+        <v>0</v>
+      </c>
+      <c r="I53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>4.38</v>
+      </c>
+      <c r="K53" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
-    </row>
-    <row r="48">
-      <c r="A48" s="1" t="n">
-        <v>46</v>
-      </c>
-      <c r="B48" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="C48" t="n">
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="C54" t="n">
+        <v>4.69</v>
+      </c>
+      <c r="D54" t="n">
+        <v>4.72</v>
+      </c>
+      <c r="E54" t="n">
         <v>4.56</v>
       </c>
-      <c r="D48" t="n">
-        <v>4.57</v>
-      </c>
-      <c r="E48" t="n">
-        <v>4.45</v>
-      </c>
-      <c r="F48" t="n">
-        <v>1389422.4122</v>
-      </c>
-      <c r="G48" t="n">
-        <v>-556091.6119419807</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="L48" t="inlineStr">
+      <c r="F54" t="n">
+        <v>839895.6296</v>
+      </c>
+      <c r="G54" t="n">
+        <v>423672.7132580193</v>
+      </c>
+      <c r="H54" t="n">
+        <v>0</v>
+      </c>
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>4.38</v>
+      </c>
+      <c r="K54" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
-    </row>
-    <row r="49">
-      <c r="A49" s="1" t="n">
-        <v>47</v>
-      </c>
-      <c r="B49" t="n">
-        <v>4.54</v>
-      </c>
-      <c r="C49" t="n">
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="n">
         <v>4.58</v>
       </c>
-      <c r="D49" t="n">
+      <c r="C55" t="n">
         <v>4.58</v>
       </c>
-      <c r="E49" t="n">
-        <v>4.49</v>
-      </c>
-      <c r="F49" t="n">
-        <v>368974.6914</v>
-      </c>
-      <c r="G49" t="n">
-        <v>-187116.9205419807</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="L49" t="inlineStr">
+      <c r="D55" t="n">
+        <v>4.65</v>
+      </c>
+      <c r="E55" t="n">
+        <v>4.56</v>
+      </c>
+      <c r="F55" t="n">
+        <v>1407913.387</v>
+      </c>
+      <c r="G55" t="n">
+        <v>-984240.6737419808</v>
+      </c>
+      <c r="H55" t="n">
+        <v>0</v>
+      </c>
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>4.38</v>
+      </c>
+      <c r="K55" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
-    </row>
-    <row r="50">
-      <c r="A50" s="1" t="n">
-        <v>48</v>
-      </c>
-      <c r="B50" t="n">
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="n">
         <v>4.57</v>
       </c>
-      <c r="C50" t="n">
-        <v>4.54</v>
-      </c>
-      <c r="D50" t="n">
+      <c r="C56" t="n">
+        <v>4.64</v>
+      </c>
+      <c r="D56" t="n">
+        <v>4.64</v>
+      </c>
+      <c r="E56" t="n">
         <v>4.57</v>
       </c>
-      <c r="E50" t="n">
-        <v>4.54</v>
-      </c>
-      <c r="F50" t="n">
-        <v>100914.4763</v>
-      </c>
-      <c r="G50" t="n">
-        <v>-288031.3968419806</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="L50" t="inlineStr">
+      <c r="F56" t="n">
+        <v>414988.1921</v>
+      </c>
+      <c r="G56" t="n">
+        <v>-569252.4816419808</v>
+      </c>
+      <c r="H56" t="n">
+        <v>0</v>
+      </c>
+      <c r="I56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>4.38</v>
+      </c>
+      <c r="K56" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
-    </row>
-    <row r="51">
-      <c r="A51" s="1" t="n">
-        <v>49</v>
-      </c>
-      <c r="B51" t="n">
-        <v>4.57</v>
-      </c>
-      <c r="C51" t="n">
-        <v>4.64</v>
-      </c>
-      <c r="D51" t="n">
-        <v>4.64</v>
-      </c>
-      <c r="E51" t="n">
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="n">
         <v>4.56</v>
       </c>
-      <c r="F51" t="n">
-        <v>371506.0088</v>
-      </c>
-      <c r="G51" t="n">
-        <v>83474.61195801938</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="L51" t="inlineStr">
+      <c r="C57" t="n">
+        <v>4.56</v>
+      </c>
+      <c r="D57" t="n">
+        <v>4.56</v>
+      </c>
+      <c r="E57" t="n">
+        <v>4.56</v>
+      </c>
+      <c r="F57" t="n">
+        <v>205479.9797</v>
+      </c>
+      <c r="G57" t="n">
+        <v>-774732.4613419808</v>
+      </c>
+      <c r="H57" t="n">
+        <v>0</v>
+      </c>
+      <c r="I57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>4.38</v>
+      </c>
+      <c r="K57" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
-    </row>
-    <row r="52">
-      <c r="A52" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="B52" t="n">
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="n">
+        <v>4.56</v>
+      </c>
+      <c r="C58" t="n">
+        <v>4.52</v>
+      </c>
+      <c r="D58" t="n">
         <v>4.64</v>
       </c>
-      <c r="C52" t="n">
-        <v>4.69</v>
-      </c>
-      <c r="D52" t="n">
-        <v>4.77</v>
-      </c>
-      <c r="E52" t="n">
-        <v>4.58</v>
-      </c>
-      <c r="F52" t="n">
-        <v>546045.3628999999</v>
-      </c>
-      <c r="G52" t="n">
-        <v>629519.9748580193</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="L52" t="inlineStr">
+      <c r="E58" t="n">
+        <v>4.51</v>
+      </c>
+      <c r="F58" t="n">
+        <v>1267805.1304</v>
+      </c>
+      <c r="G58" t="n">
+        <v>-2042537.591741981</v>
+      </c>
+      <c r="H58" t="n">
+        <v>0</v>
+      </c>
+      <c r="I58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>4.38</v>
+      </c>
+      <c r="K58" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
-    </row>
-    <row r="53">
-      <c r="A53" s="1" t="n">
-        <v>51</v>
-      </c>
-      <c r="B53" t="n">
-        <v>4.59</v>
-      </c>
-      <c r="C53" t="n">
-        <v>4.74</v>
-      </c>
-      <c r="D53" t="n">
-        <v>4.74</v>
-      </c>
-      <c r="E53" t="n">
-        <v>4.59</v>
-      </c>
-      <c r="F53" t="n">
-        <v>634048.368</v>
-      </c>
-      <c r="G53" t="n">
-        <v>1263568.342858019</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="L53" t="inlineStr">
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="n">
+        <v>4.56</v>
+      </c>
+      <c r="C59" t="n">
+        <v>4.56</v>
+      </c>
+      <c r="D59" t="n">
+        <v>4.56</v>
+      </c>
+      <c r="E59" t="n">
+        <v>4.56</v>
+      </c>
+      <c r="F59" t="n">
+        <v>57736.2763</v>
+      </c>
+      <c r="G59" t="n">
+        <v>-1984801.315441981</v>
+      </c>
+      <c r="H59" t="n">
+        <v>0</v>
+      </c>
+      <c r="I59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>4.38</v>
+      </c>
+      <c r="K59" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
-    </row>
-    <row r="54">
-      <c r="A54" s="1" t="n">
-        <v>52</v>
-      </c>
-      <c r="B54" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="C54" t="n">
-        <v>4.69</v>
-      </c>
-      <c r="D54" t="n">
-        <v>4.72</v>
-      </c>
-      <c r="E54" t="n">
-        <v>4.56</v>
-      </c>
-      <c r="F54" t="n">
-        <v>839895.6296</v>
-      </c>
-      <c r="G54" t="n">
-        <v>423672.7132580193</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="L54" t="inlineStr">
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="n">
+        <v>4.63</v>
+      </c>
+      <c r="C60" t="n">
+        <v>4.58</v>
+      </c>
+      <c r="D60" t="n">
+        <v>4.63</v>
+      </c>
+      <c r="E60" t="n">
+        <v>4.51</v>
+      </c>
+      <c r="F60" t="n">
+        <v>882826.4365</v>
+      </c>
+      <c r="G60" t="n">
+        <v>-1101974.878941981</v>
+      </c>
+      <c r="H60" t="n">
+        <v>0</v>
+      </c>
+      <c r="I60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>4.38</v>
+      </c>
+      <c r="K60" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
-    </row>
-    <row r="55">
-      <c r="A55" s="1" t="n">
-        <v>53</v>
-      </c>
-      <c r="B55" t="n">
-        <v>4.58</v>
-      </c>
-      <c r="C55" t="n">
-        <v>4.58</v>
-      </c>
-      <c r="D55" t="n">
-        <v>4.65</v>
-      </c>
-      <c r="E55" t="n">
-        <v>4.56</v>
-      </c>
-      <c r="F55" t="n">
-        <v>1407913.387</v>
-      </c>
-      <c r="G55" t="n">
-        <v>-984240.6737419808</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="L55" t="inlineStr">
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="n">
+        <v>4.52</v>
+      </c>
+      <c r="C61" t="n">
+        <v>4.62</v>
+      </c>
+      <c r="D61" t="n">
+        <v>4.62</v>
+      </c>
+      <c r="E61" t="n">
+        <v>4.52</v>
+      </c>
+      <c r="F61" t="n">
+        <v>403955.1347</v>
+      </c>
+      <c r="G61" t="n">
+        <v>-698019.7442419806</v>
+      </c>
+      <c r="H61" t="n">
+        <v>0</v>
+      </c>
+      <c r="I61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>4.38</v>
+      </c>
+      <c r="K61" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
-    </row>
-    <row r="56">
-      <c r="A56" s="1" t="n">
-        <v>54</v>
-      </c>
-      <c r="B56" t="n">
-        <v>4.57</v>
-      </c>
-      <c r="C56" t="n">
-        <v>4.64</v>
-      </c>
-      <c r="D56" t="n">
-        <v>4.64</v>
-      </c>
-      <c r="E56" t="n">
-        <v>4.57</v>
-      </c>
-      <c r="F56" t="n">
-        <v>414988.1921</v>
-      </c>
-      <c r="G56" t="n">
-        <v>-569252.4816419808</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="L56" t="inlineStr">
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="n">
+        <v>4.62</v>
+      </c>
+      <c r="C62" t="n">
+        <v>4.58</v>
+      </c>
+      <c r="D62" t="n">
+        <v>4.65</v>
+      </c>
+      <c r="E62" t="n">
+        <v>4.52</v>
+      </c>
+      <c r="F62" t="n">
+        <v>1659555.2119</v>
+      </c>
+      <c r="G62" t="n">
+        <v>-2357574.95614198</v>
+      </c>
+      <c r="H62" t="n">
+        <v>0</v>
+      </c>
+      <c r="I62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>4.38</v>
+      </c>
+      <c r="K62" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
-    </row>
-    <row r="57">
-      <c r="A57" s="1" t="n">
-        <v>55</v>
-      </c>
-      <c r="B57" t="n">
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="n">
         <v>4.56</v>
       </c>
-      <c r="C57" t="n">
+      <c r="C63" t="n">
+        <v>4.59</v>
+      </c>
+      <c r="D63" t="n">
+        <v>4.59</v>
+      </c>
+      <c r="E63" t="n">
         <v>4.56</v>
       </c>
-      <c r="D57" t="n">
-        <v>4.56</v>
-      </c>
-      <c r="E57" t="n">
-        <v>4.56</v>
-      </c>
-      <c r="F57" t="n">
-        <v>205479.9797</v>
-      </c>
-      <c r="G57" t="n">
-        <v>-774732.4613419808</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="L57" t="inlineStr">
+      <c r="F63" t="n">
+        <v>263386.3369</v>
+      </c>
+      <c r="G63" t="n">
+        <v>-2094188.61924198</v>
+      </c>
+      <c r="H63" t="n">
+        <v>0</v>
+      </c>
+      <c r="I63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>4.38</v>
+      </c>
+      <c r="K63" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
-    </row>
-    <row r="58">
-      <c r="A58" s="1" t="n">
-        <v>56</v>
-      </c>
-      <c r="B58" t="n">
-        <v>4.56</v>
-      </c>
-      <c r="C58" t="n">
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="n">
+        <v>4.59</v>
+      </c>
+      <c r="C64" t="n">
+        <v>4.65</v>
+      </c>
+      <c r="D64" t="n">
+        <v>4.66</v>
+      </c>
+      <c r="E64" t="n">
         <v>4.52</v>
       </c>
-      <c r="D58" t="n">
-        <v>4.64</v>
-      </c>
-      <c r="E58" t="n">
-        <v>4.51</v>
-      </c>
-      <c r="F58" t="n">
-        <v>1267805.1304</v>
-      </c>
-      <c r="G58" t="n">
-        <v>-2042537.591741981</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="L58" t="inlineStr">
+      <c r="F64" t="n">
+        <v>904468.9892</v>
+      </c>
+      <c r="G64" t="n">
+        <v>-1189719.63004198</v>
+      </c>
+      <c r="H64" t="n">
+        <v>0</v>
+      </c>
+      <c r="I64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>4.38</v>
+      </c>
+      <c r="K64" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
-    </row>
-    <row r="59">
-      <c r="A59" s="1" t="n">
-        <v>57</v>
-      </c>
-      <c r="B59" t="n">
-        <v>4.56</v>
-      </c>
-      <c r="C59" t="n">
-        <v>4.56</v>
-      </c>
-      <c r="D59" t="n">
-        <v>4.56</v>
-      </c>
-      <c r="E59" t="n">
-        <v>4.56</v>
-      </c>
-      <c r="F59" t="n">
-        <v>57736.2763</v>
-      </c>
-      <c r="G59" t="n">
-        <v>-1984801.315441981</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="L59" t="inlineStr">
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="n">
+        <v>4.62</v>
+      </c>
+      <c r="C65" t="n">
+        <v>4.66</v>
+      </c>
+      <c r="D65" t="n">
+        <v>4.66</v>
+      </c>
+      <c r="E65" t="n">
+        <v>4.62</v>
+      </c>
+      <c r="F65" t="n">
+        <v>431140.4056</v>
+      </c>
+      <c r="G65" t="n">
+        <v>-758579.2244419805</v>
+      </c>
+      <c r="H65" t="n">
+        <v>0</v>
+      </c>
+      <c r="I65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>4.38</v>
+      </c>
+      <c r="K65" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
-    </row>
-    <row r="60">
-      <c r="A60" s="1" t="n">
-        <v>58</v>
-      </c>
-      <c r="B60" t="n">
-        <v>4.63</v>
-      </c>
-      <c r="C60" t="n">
-        <v>4.58</v>
-      </c>
-      <c r="D60" t="n">
-        <v>4.63</v>
-      </c>
-      <c r="E60" t="n">
-        <v>4.51</v>
-      </c>
-      <c r="F60" t="n">
-        <v>882826.4365</v>
-      </c>
-      <c r="G60" t="n">
-        <v>-1101974.878941981</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="L60" t="inlineStr">
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="n">
+        <v>4.66</v>
+      </c>
+      <c r="C66" t="n">
+        <v>4.65</v>
+      </c>
+      <c r="D66" t="n">
+        <v>4.69</v>
+      </c>
+      <c r="E66" t="n">
+        <v>4.57</v>
+      </c>
+      <c r="F66" t="n">
+        <v>1253534.6788</v>
+      </c>
+      <c r="G66" t="n">
+        <v>-2012113.903241981</v>
+      </c>
+      <c r="H66" t="n">
+        <v>0</v>
+      </c>
+      <c r="I66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>4.38</v>
+      </c>
+      <c r="K66" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
-    </row>
-    <row r="61">
-      <c r="A61" s="1" t="n">
-        <v>59</v>
-      </c>
-      <c r="B61" t="n">
-        <v>4.52</v>
-      </c>
-      <c r="C61" t="n">
-        <v>4.62</v>
-      </c>
-      <c r="D61" t="n">
-        <v>4.62</v>
-      </c>
-      <c r="E61" t="n">
-        <v>4.52</v>
-      </c>
-      <c r="F61" t="n">
-        <v>403955.1347</v>
-      </c>
-      <c r="G61" t="n">
-        <v>-698019.7442419806</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="L61" t="inlineStr">
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="n">
+        <v>4.65</v>
+      </c>
+      <c r="C67" t="n">
+        <v>4.65</v>
+      </c>
+      <c r="D67" t="n">
+        <v>4.69</v>
+      </c>
+      <c r="E67" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="F67" t="n">
+        <v>249288.1173</v>
+      </c>
+      <c r="G67" t="n">
+        <v>-2012113.903241981</v>
+      </c>
+      <c r="H67" t="n">
+        <v>0</v>
+      </c>
+      <c r="I67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>4.38</v>
+      </c>
+      <c r="K67" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
-    </row>
-    <row r="62">
-      <c r="A62" s="1" t="n">
-        <v>60</v>
-      </c>
-      <c r="B62" t="n">
-        <v>4.62</v>
-      </c>
-      <c r="C62" t="n">
-        <v>4.58</v>
-      </c>
-      <c r="D62" t="n">
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="n">
         <v>4.65</v>
       </c>
-      <c r="E62" t="n">
-        <v>4.52</v>
-      </c>
-      <c r="F62" t="n">
-        <v>1659555.2119</v>
-      </c>
-      <c r="G62" t="n">
-        <v>-2357574.95614198</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="L62" t="inlineStr">
+      <c r="C68" t="n">
+        <v>4.65</v>
+      </c>
+      <c r="D68" t="n">
+        <v>4.69</v>
+      </c>
+      <c r="E68" t="n">
+        <v>4.65</v>
+      </c>
+      <c r="F68" t="n">
+        <v>186131.8191</v>
+      </c>
+      <c r="G68" t="n">
+        <v>-2012113.903241981</v>
+      </c>
+      <c r="H68" t="n">
+        <v>0</v>
+      </c>
+      <c r="I68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>4.38</v>
+      </c>
+      <c r="K68" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
-    </row>
-    <row r="63">
-      <c r="A63" s="1" t="n">
-        <v>61</v>
-      </c>
-      <c r="B63" t="n">
-        <v>4.56</v>
-      </c>
-      <c r="C63" t="n">
-        <v>4.59</v>
-      </c>
-      <c r="D63" t="n">
-        <v>4.59</v>
-      </c>
-      <c r="E63" t="n">
-        <v>4.56</v>
-      </c>
-      <c r="F63" t="n">
-        <v>263386.3369</v>
-      </c>
-      <c r="G63" t="n">
-        <v>-2094188.61924198</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="L63" t="inlineStr">
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="C69" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="D69" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="E69" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="F69" t="n">
+        <v>120163.4103</v>
+      </c>
+      <c r="G69" t="n">
+        <v>-2132277.31354198</v>
+      </c>
+      <c r="H69" t="n">
+        <v>0</v>
+      </c>
+      <c r="I69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>4.38</v>
+      </c>
+      <c r="K69" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
-    </row>
-    <row r="64">
-      <c r="A64" s="1" t="n">
-        <v>62</v>
-      </c>
-      <c r="B64" t="n">
-        <v>4.59</v>
-      </c>
-      <c r="C64" t="n">
-        <v>4.65</v>
-      </c>
-      <c r="D64" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="E64" t="n">
-        <v>4.52</v>
-      </c>
-      <c r="F64" t="n">
-        <v>904468.9892</v>
-      </c>
-      <c r="G64" t="n">
-        <v>-1189719.63004198</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="L64" t="inlineStr">
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="C70" t="n">
+        <v>4.69</v>
+      </c>
+      <c r="D70" t="n">
+        <v>4.69</v>
+      </c>
+      <c r="E70" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="F70" t="n">
+        <v>79709.91590000001</v>
+      </c>
+      <c r="G70" t="n">
+        <v>-2052567.397641981</v>
+      </c>
+      <c r="H70" t="n">
+        <v>0</v>
+      </c>
+      <c r="I70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>4.38</v>
+      </c>
+      <c r="K70" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
-    </row>
-    <row r="65">
-      <c r="A65" s="1" t="n">
-        <v>63</v>
-      </c>
-      <c r="B65" t="n">
-        <v>4.62</v>
-      </c>
-      <c r="C65" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="D65" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="E65" t="n">
-        <v>4.62</v>
-      </c>
-      <c r="F65" t="n">
-        <v>431140.4056</v>
-      </c>
-      <c r="G65" t="n">
-        <v>-758579.2244419805</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
-    </row>
-    <row r="66">
-      <c r="A66" s="1" t="n">
-        <v>64</v>
-      </c>
-      <c r="B66" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="C66" t="n">
-        <v>4.65</v>
-      </c>
-      <c r="D66" t="n">
-        <v>4.69</v>
-      </c>
-      <c r="E66" t="n">
-        <v>4.57</v>
-      </c>
-      <c r="F66" t="n">
-        <v>1253534.6788</v>
-      </c>
-      <c r="G66" t="n">
-        <v>-2012113.903241981</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
-    </row>
-    <row r="67">
-      <c r="A67" s="1" t="n">
-        <v>65</v>
-      </c>
-      <c r="B67" t="n">
-        <v>4.65</v>
-      </c>
-      <c r="C67" t="n">
-        <v>4.65</v>
-      </c>
-      <c r="D67" t="n">
-        <v>4.69</v>
-      </c>
-      <c r="E67" t="n">
-        <v>4.55</v>
-      </c>
-      <c r="F67" t="n">
-        <v>249288.1173</v>
-      </c>
-      <c r="G67" t="n">
-        <v>-2012113.903241981</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
-    </row>
-    <row r="68">
-      <c r="A68" s="1" t="n">
-        <v>66</v>
-      </c>
-      <c r="B68" t="n">
-        <v>4.65</v>
-      </c>
-      <c r="C68" t="n">
-        <v>4.65</v>
-      </c>
-      <c r="D68" t="n">
-        <v>4.69</v>
-      </c>
-      <c r="E68" t="n">
-        <v>4.65</v>
-      </c>
-      <c r="F68" t="n">
-        <v>186131.8191</v>
-      </c>
-      <c r="G68" t="n">
-        <v>-2012113.903241981</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
-    </row>
-    <row r="69">
-      <c r="A69" s="1" t="n">
-        <v>67</v>
-      </c>
-      <c r="B69" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="C69" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="D69" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="E69" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="F69" t="n">
-        <v>120163.4103</v>
-      </c>
-      <c r="G69" t="n">
-        <v>-2132277.31354198</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
-    </row>
-    <row r="70">
-      <c r="A70" s="1" t="n">
-        <v>68</v>
-      </c>
-      <c r="B70" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="C70" t="n">
-        <v>4.69</v>
-      </c>
-      <c r="D70" t="n">
-        <v>4.69</v>
-      </c>
-      <c r="E70" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="F70" t="n">
-        <v>79709.91590000001</v>
-      </c>
-      <c r="G70" t="n">
-        <v>-2052567.397641981</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3372,24 +3104,23 @@
         <v>-2147785.754441981</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
-      </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="L71" t="inlineStr">
+        <v>3</v>
+      </c>
+      <c r="I71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>4.38</v>
+      </c>
+      <c r="K71" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
+      <c r="L71" t="n">
+        <v>1.054360730593607</v>
+      </c>
       <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+        <v>1.013888888888889</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3414,24 +3145,15 @@
         <v>-2095546.020641981</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3456,24 +3178,15 @@
         <v>-1911076.384741981</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
-      </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3500,22 +3213,13 @@
       <c r="H74" t="n">
         <v>0</v>
       </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3540,24 +3244,15 @@
         <v>-2919340.693041981</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3584,22 +3279,13 @@
       <c r="H76" t="n">
         <v>0</v>
       </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3624,24 +3310,15 @@
         <v>-2341296.475241981</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3668,22 +3345,13 @@
       <c r="H78" t="n">
         <v>0</v>
       </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3708,24 +3376,15 @@
         <v>-2165643.391241981</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3750,24 +3409,15 @@
         <v>-1824511.472341981</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3794,22 +3444,13 @@
       <c r="H81" t="n">
         <v>0</v>
       </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3836,22 +3477,13 @@
       <c r="H82" t="n">
         <v>0</v>
       </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3876,24 +3508,15 @@
         <v>-3409146.144941981</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3920,22 +3543,13 @@
       <c r="H84" t="n">
         <v>0</v>
       </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3962,22 +3576,13 @@
       <c r="H85" t="n">
         <v>0</v>
       </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -4004,22 +3609,13 @@
       <c r="H86" t="n">
         <v>0</v>
       </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -4044,24 +3640,15 @@
         <v>-3222099.023341981</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -4086,26 +3673,15 @@
         <v>-2942467.724541981</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
-      </c>
-      <c r="I88" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M88" t="n">
-        <v>1.068903002309469</v>
-      </c>
-      <c r="N88" t="n">
-        <v>1</v>
-      </c>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -4132,16 +3708,13 @@
       <c r="H89" t="n">
         <v>0</v>
       </c>
-      <c r="I89" t="n">
-        <v>1</v>
-      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -4168,16 +3741,13 @@
       <c r="H90" t="n">
         <v>0</v>
       </c>
-      <c r="I90" t="n">
-        <v>1</v>
-      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -4202,18 +3772,15 @@
         <v>-2845759.647841981</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -4240,16 +3807,13 @@
       <c r="H92" t="n">
         <v>0</v>
       </c>
-      <c r="I92" t="n">
-        <v>1</v>
-      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -4276,16 +3840,13 @@
       <c r="H93" t="n">
         <v>0</v>
       </c>
-      <c r="I93" t="n">
-        <v>1</v>
-      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -4312,16 +3873,13 @@
       <c r="H94" t="n">
         <v>0</v>
       </c>
-      <c r="I94" t="n">
-        <v>1</v>
-      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -4346,18 +3904,15 @@
         <v>-3476583.154741981</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -4384,16 +3939,13 @@
       <c r="H96" t="n">
         <v>0</v>
       </c>
-      <c r="I96" t="n">
-        <v>1</v>
-      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -4418,18 +3970,15 @@
         <v>-3584241.775341981</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4456,16 +4005,13 @@
       <c r="H98" t="n">
         <v>0</v>
       </c>
-      <c r="I98" t="n">
-        <v>1</v>
-      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4490,18 +4036,15 @@
         <v>-4665919.559041981</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4528,16 +4071,13 @@
       <c r="H100" t="n">
         <v>0</v>
       </c>
-      <c r="I100" t="n">
-        <v>1</v>
-      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4562,18 +4102,15 @@
         <v>-4750819.559041981</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
-      </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4600,16 +4137,13 @@
       <c r="H102" t="n">
         <v>0</v>
       </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4636,16 +4170,13 @@
       <c r="H103" t="n">
         <v>0</v>
       </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4670,18 +4201,15 @@
         <v>-4635974.210341981</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
-      </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4706,18 +4234,15 @@
         <v>-5044921.406941981</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
-      </c>
-      <c r="I105" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4744,16 +4269,13 @@
       <c r="H106" t="n">
         <v>0</v>
       </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4780,16 +4302,13 @@
       <c r="H107" t="n">
         <v>0</v>
       </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4816,16 +4335,13 @@
       <c r="H108" t="n">
         <v>0</v>
       </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4852,16 +4368,13 @@
       <c r="H109" t="n">
         <v>0</v>
       </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4888,16 +4401,13 @@
       <c r="H110" t="n">
         <v>0</v>
       </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4924,16 +4434,13 @@
       <c r="H111" t="n">
         <v>0</v>
       </c>
-      <c r="I111" t="n">
-        <v>1</v>
-      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4960,16 +4467,13 @@
       <c r="H112" t="n">
         <v>0</v>
       </c>
-      <c r="I112" t="n">
-        <v>1</v>
-      </c>
+      <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4996,16 +4500,13 @@
       <c r="H113" t="n">
         <v>0</v>
       </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
+      <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -5030,18 +4531,15 @@
         <v>-4802226.975841981</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
-      </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -5068,16 +4566,13 @@
       <c r="H115" t="n">
         <v>0</v>
       </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
+      <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -5104,16 +4599,13 @@
       <c r="H116" t="n">
         <v>0</v>
       </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
+      <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -5140,16 +4632,13 @@
       <c r="H117" t="n">
         <v>0</v>
       </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
+      <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -5174,18 +4663,15 @@
         <v>-5053120.825641981</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
-      </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -5210,18 +4696,15 @@
         <v>-4701427.569741981</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
-      </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -5248,16 +4731,13 @@
       <c r="H120" t="n">
         <v>0</v>
       </c>
-      <c r="I120" t="n">
-        <v>1</v>
-      </c>
+      <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -5284,16 +4764,13 @@
       <c r="H121" t="n">
         <v>0</v>
       </c>
-      <c r="I121" t="n">
-        <v>1</v>
-      </c>
+      <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -5318,18 +4795,15 @@
         <v>-5414277.764841981</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I122" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -5354,18 +4828,15 @@
         <v>-5664475.173241981</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I123" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -5392,16 +4863,13 @@
       <c r="H124" t="n">
         <v>0</v>
       </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
+      <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -5428,16 +4896,13 @@
       <c r="H125" t="n">
         <v>0</v>
       </c>
-      <c r="I125" t="n">
-        <v>1</v>
-      </c>
+      <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -5462,18 +4927,15 @@
         <v>-6575883.086741982</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I126" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5498,18 +4960,15 @@
         <v>-7444026.776941982</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5534,18 +4993,15 @@
         <v>-7444026.776941982</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I128" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5570,18 +5026,15 @@
         <v>-8334512.052041982</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I129" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5606,18 +5059,15 @@
         <v>-8283559.971341982</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
-      </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5642,18 +5092,15 @@
         <v>-8283549.971341982</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
-      </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5678,18 +5125,15 @@
         <v>-8547170.542341983</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5716,16 +5160,13 @@
       <c r="H133" t="n">
         <v>0</v>
       </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
+      <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5752,16 +5193,13 @@
       <c r="H134" t="n">
         <v>0</v>
       </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
+      <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5786,18 +5224,15 @@
         <v>-8548291.269341983</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
-      </c>
-      <c r="I135" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5824,16 +5259,13 @@
       <c r="H136" t="n">
         <v>0</v>
       </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
+      <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5858,18 +5290,15 @@
         <v>-9179058.435641984</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
-      </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5894,18 +5323,15 @@
         <v>-8786637.795741983</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5932,16 +5358,13 @@
       <c r="H139" t="n">
         <v>0</v>
       </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
+      <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="inlineStr"/>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5968,16 +5391,13 @@
       <c r="H140" t="n">
         <v>0</v>
       </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
+      <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-      <c r="N140" t="inlineStr"/>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -6004,16 +5424,13 @@
       <c r="H141" t="n">
         <v>0</v>
       </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
+      <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-      <c r="N141" t="inlineStr"/>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -6040,16 +5457,13 @@
       <c r="H142" t="n">
         <v>0</v>
       </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
+      <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-      <c r="N142" t="inlineStr"/>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -6076,16 +5490,13 @@
       <c r="H143" t="n">
         <v>0</v>
       </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
+      <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-      <c r="N143" t="inlineStr"/>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -6112,16 +5523,13 @@
       <c r="H144" t="n">
         <v>0</v>
       </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
+      <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-      <c r="N144" t="inlineStr"/>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -6148,16 +5556,13 @@
       <c r="H145" t="n">
         <v>0</v>
       </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
+      <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-      <c r="N145" t="inlineStr"/>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -6182,18 +5587,15 @@
         <v>-11916624.31155074</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
-      </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-      <c r="N146" t="inlineStr"/>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -6220,16 +5622,13 @@
       <c r="H147" t="n">
         <v>0</v>
       </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
+      <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-      <c r="N147" t="inlineStr"/>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -6256,16 +5655,13 @@
       <c r="H148" t="n">
         <v>0</v>
       </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
+      <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-      <c r="N148" t="inlineStr"/>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -6292,16 +5688,13 @@
       <c r="H149" t="n">
         <v>0</v>
       </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
+      <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-      <c r="N149" t="inlineStr"/>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -6328,16 +5721,13 @@
       <c r="H150" t="n">
         <v>0</v>
       </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
+      <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-      <c r="N150" t="inlineStr"/>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -6364,16 +5754,13 @@
       <c r="H151" t="n">
         <v>0</v>
       </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
+      <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-      <c r="N151" t="inlineStr"/>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -6398,18 +5785,15 @@
         <v>-12345436.77975074</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
-      </c>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-      <c r="N152" t="inlineStr"/>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -6434,18 +5818,15 @@
         <v>-12861755.05945074</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
-      </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-      <c r="N153" t="inlineStr"/>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -6472,16 +5853,13 @@
       <c r="H154" t="n">
         <v>0</v>
       </c>
-      <c r="I154" t="n">
-        <v>0</v>
-      </c>
+      <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-      <c r="N154" t="inlineStr"/>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -6508,16 +5886,13 @@
       <c r="H155" t="n">
         <v>0</v>
       </c>
-      <c r="I155" t="n">
-        <v>0</v>
-      </c>
+      <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-      <c r="N155" t="inlineStr"/>
+      <c r="L155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6544,16 +5919,13 @@
       <c r="H156" t="n">
         <v>0</v>
       </c>
-      <c r="I156" t="n">
-        <v>0</v>
-      </c>
+      <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-      <c r="N156" t="inlineStr"/>
+      <c r="L156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6580,16 +5952,13 @@
       <c r="H157" t="n">
         <v>0</v>
       </c>
-      <c r="I157" t="n">
-        <v>0</v>
-      </c>
+      <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-      <c r="N157" t="inlineStr"/>
+      <c r="L157" t="n">
+        <v>1</v>
+      </c>
+      <c r="M157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6616,16 +5985,13 @@
       <c r="H158" t="n">
         <v>0</v>
       </c>
-      <c r="I158" t="n">
-        <v>0</v>
-      </c>
+      <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-      <c r="N158" t="inlineStr"/>
+      <c r="L158" t="n">
+        <v>1</v>
+      </c>
+      <c r="M158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6652,16 +6018,13 @@
       <c r="H159" t="n">
         <v>0</v>
       </c>
-      <c r="I159" t="n">
-        <v>0</v>
-      </c>
+      <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr"/>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-      <c r="N159" t="inlineStr"/>
+      <c r="L159" t="n">
+        <v>1</v>
+      </c>
+      <c r="M159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6688,16 +6051,13 @@
       <c r="H160" t="n">
         <v>0</v>
       </c>
-      <c r="I160" t="n">
-        <v>0</v>
-      </c>
+      <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr"/>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-      <c r="N160" t="inlineStr"/>
+      <c r="L160" t="n">
+        <v>1</v>
+      </c>
+      <c r="M160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6724,16 +6084,13 @@
       <c r="H161" t="n">
         <v>0</v>
       </c>
-      <c r="I161" t="n">
-        <v>0</v>
-      </c>
+      <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr"/>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-      <c r="N161" t="inlineStr"/>
+      <c r="L161" t="n">
+        <v>1</v>
+      </c>
+      <c r="M161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6760,16 +6117,13 @@
       <c r="H162" t="n">
         <v>0</v>
       </c>
-      <c r="I162" t="n">
-        <v>0</v>
-      </c>
+      <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr"/>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-      <c r="N162" t="inlineStr"/>
+      <c r="L162" t="n">
+        <v>1</v>
+      </c>
+      <c r="M162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6796,16 +6150,13 @@
       <c r="H163" t="n">
         <v>0</v>
       </c>
-      <c r="I163" t="n">
-        <v>0</v>
-      </c>
+      <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr"/>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
-      <c r="N163" t="inlineStr"/>
+      <c r="L163" t="n">
+        <v>1</v>
+      </c>
+      <c r="M163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6832,16 +6183,13 @@
       <c r="H164" t="n">
         <v>0</v>
       </c>
-      <c r="I164" t="n">
-        <v>0</v>
-      </c>
+      <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr"/>
-      <c r="M164" t="n">
-        <v>1</v>
-      </c>
-      <c r="N164" t="inlineStr"/>
+      <c r="L164" t="n">
+        <v>1</v>
+      </c>
+      <c r="M164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6868,16 +6216,13 @@
       <c r="H165" t="n">
         <v>0</v>
       </c>
-      <c r="I165" t="n">
-        <v>0</v>
-      </c>
+      <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr"/>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
-      <c r="N165" t="inlineStr"/>
+      <c r="L165" t="n">
+        <v>1</v>
+      </c>
+      <c r="M165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6904,16 +6249,13 @@
       <c r="H166" t="n">
         <v>0</v>
       </c>
-      <c r="I166" t="n">
-        <v>0</v>
-      </c>
+      <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr"/>
-      <c r="M166" t="n">
-        <v>1</v>
-      </c>
-      <c r="N166" t="inlineStr"/>
+      <c r="L166" t="n">
+        <v>1</v>
+      </c>
+      <c r="M166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6940,16 +6282,13 @@
       <c r="H167" t="n">
         <v>0</v>
       </c>
-      <c r="I167" t="n">
-        <v>0</v>
-      </c>
+      <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr"/>
-      <c r="M167" t="n">
-        <v>1</v>
-      </c>
-      <c r="N167" t="inlineStr"/>
+      <c r="L167" t="n">
+        <v>1</v>
+      </c>
+      <c r="M167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6976,16 +6315,13 @@
       <c r="H168" t="n">
         <v>0</v>
       </c>
-      <c r="I168" t="n">
-        <v>0</v>
-      </c>
+      <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr"/>
-      <c r="M168" t="n">
-        <v>1</v>
-      </c>
-      <c r="N168" t="inlineStr"/>
+      <c r="L168" t="n">
+        <v>1</v>
+      </c>
+      <c r="M168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -7012,16 +6348,13 @@
       <c r="H169" t="n">
         <v>0</v>
       </c>
-      <c r="I169" t="n">
-        <v>0</v>
-      </c>
+      <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr"/>
-      <c r="M169" t="n">
-        <v>1</v>
-      </c>
-      <c r="N169" t="inlineStr"/>
+      <c r="L169" t="n">
+        <v>1</v>
+      </c>
+      <c r="M169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -7048,16 +6381,13 @@
       <c r="H170" t="n">
         <v>0</v>
       </c>
-      <c r="I170" t="n">
-        <v>0</v>
-      </c>
+      <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr"/>
-      <c r="M170" t="n">
-        <v>1</v>
-      </c>
-      <c r="N170" t="inlineStr"/>
+      <c r="L170" t="n">
+        <v>1</v>
+      </c>
+      <c r="M170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -7084,16 +6414,13 @@
       <c r="H171" t="n">
         <v>0</v>
       </c>
-      <c r="I171" t="n">
-        <v>0</v>
-      </c>
+      <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr"/>
-      <c r="M171" t="n">
-        <v>1</v>
-      </c>
-      <c r="N171" t="inlineStr"/>
+      <c r="L171" t="n">
+        <v>1</v>
+      </c>
+      <c r="M171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -7120,16 +6447,13 @@
       <c r="H172" t="n">
         <v>0</v>
       </c>
-      <c r="I172" t="n">
-        <v>0</v>
-      </c>
+      <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr"/>
-      <c r="M172" t="n">
-        <v>1</v>
-      </c>
-      <c r="N172" t="inlineStr"/>
+      <c r="L172" t="n">
+        <v>1</v>
+      </c>
+      <c r="M172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -7156,16 +6480,13 @@
       <c r="H173" t="n">
         <v>0</v>
       </c>
-      <c r="I173" t="n">
-        <v>0</v>
-      </c>
+      <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr"/>
-      <c r="M173" t="n">
-        <v>1</v>
-      </c>
-      <c r="N173" t="inlineStr"/>
+      <c r="L173" t="n">
+        <v>1</v>
+      </c>
+      <c r="M173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -7192,16 +6513,13 @@
       <c r="H174" t="n">
         <v>0</v>
       </c>
-      <c r="I174" t="n">
-        <v>0</v>
-      </c>
+      <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr"/>
-      <c r="M174" t="n">
-        <v>1</v>
-      </c>
-      <c r="N174" t="inlineStr"/>
+      <c r="L174" t="n">
+        <v>1</v>
+      </c>
+      <c r="M174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -7228,16 +6546,13 @@
       <c r="H175" t="n">
         <v>0</v>
       </c>
-      <c r="I175" t="n">
-        <v>0</v>
-      </c>
+      <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr"/>
-      <c r="M175" t="n">
-        <v>1</v>
-      </c>
-      <c r="N175" t="inlineStr"/>
+      <c r="L175" t="n">
+        <v>1</v>
+      </c>
+      <c r="M175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -7264,16 +6579,13 @@
       <c r="H176" t="n">
         <v>0</v>
       </c>
-      <c r="I176" t="n">
-        <v>0</v>
-      </c>
+      <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr"/>
-      <c r="M176" t="n">
-        <v>1</v>
-      </c>
-      <c r="N176" t="inlineStr"/>
+      <c r="L176" t="n">
+        <v>1</v>
+      </c>
+      <c r="M176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -7300,16 +6612,13 @@
       <c r="H177" t="n">
         <v>0</v>
       </c>
-      <c r="I177" t="n">
-        <v>0</v>
-      </c>
+      <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr"/>
-      <c r="M177" t="n">
-        <v>1</v>
-      </c>
-      <c r="N177" t="inlineStr"/>
+      <c r="L177" t="n">
+        <v>1</v>
+      </c>
+      <c r="M177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -7336,16 +6645,13 @@
       <c r="H178" t="n">
         <v>0</v>
       </c>
-      <c r="I178" t="n">
-        <v>0</v>
-      </c>
+      <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr"/>
-      <c r="M178" t="n">
-        <v>1</v>
-      </c>
-      <c r="N178" t="inlineStr"/>
+      <c r="L178" t="n">
+        <v>1</v>
+      </c>
+      <c r="M178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -7372,16 +6678,13 @@
       <c r="H179" t="n">
         <v>0</v>
       </c>
-      <c r="I179" t="n">
-        <v>0</v>
-      </c>
+      <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr"/>
-      <c r="M179" t="n">
-        <v>1</v>
-      </c>
-      <c r="N179" t="inlineStr"/>
+      <c r="L179" t="n">
+        <v>1</v>
+      </c>
+      <c r="M179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -7408,16 +6711,13 @@
       <c r="H180" t="n">
         <v>0</v>
       </c>
-      <c r="I180" t="n">
-        <v>0</v>
-      </c>
+      <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr"/>
-      <c r="M180" t="n">
-        <v>1</v>
-      </c>
-      <c r="N180" t="inlineStr"/>
+      <c r="L180" t="n">
+        <v>1</v>
+      </c>
+      <c r="M180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -7444,16 +6744,13 @@
       <c r="H181" t="n">
         <v>0</v>
       </c>
-      <c r="I181" t="n">
-        <v>0</v>
-      </c>
+      <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr"/>
-      <c r="M181" t="n">
-        <v>1</v>
-      </c>
-      <c r="N181" t="inlineStr"/>
+      <c r="L181" t="n">
+        <v>1</v>
+      </c>
+      <c r="M181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -7480,16 +6777,13 @@
       <c r="H182" t="n">
         <v>0</v>
       </c>
-      <c r="I182" t="n">
-        <v>0</v>
-      </c>
+      <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr"/>
-      <c r="M182" t="n">
-        <v>1</v>
-      </c>
-      <c r="N182" t="inlineStr"/>
+      <c r="L182" t="n">
+        <v>1</v>
+      </c>
+      <c r="M182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -7516,16 +6810,13 @@
       <c r="H183" t="n">
         <v>0</v>
       </c>
-      <c r="I183" t="n">
-        <v>0</v>
-      </c>
+      <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr"/>
-      <c r="M183" t="n">
-        <v>1</v>
-      </c>
-      <c r="N183" t="inlineStr"/>
+      <c r="L183" t="n">
+        <v>1</v>
+      </c>
+      <c r="M183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -7552,16 +6843,13 @@
       <c r="H184" t="n">
         <v>0</v>
       </c>
-      <c r="I184" t="n">
-        <v>0</v>
-      </c>
+      <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr"/>
-      <c r="M184" t="n">
-        <v>1</v>
-      </c>
-      <c r="N184" t="inlineStr"/>
+      <c r="L184" t="n">
+        <v>1</v>
+      </c>
+      <c r="M184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -7588,16 +6876,13 @@
       <c r="H185" t="n">
         <v>0</v>
       </c>
-      <c r="I185" t="n">
-        <v>0</v>
-      </c>
+      <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr"/>
-      <c r="M185" t="n">
-        <v>1</v>
-      </c>
-      <c r="N185" t="inlineStr"/>
+      <c r="L185" t="n">
+        <v>1</v>
+      </c>
+      <c r="M185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -7624,16 +6909,13 @@
       <c r="H186" t="n">
         <v>0</v>
       </c>
-      <c r="I186" t="n">
-        <v>0</v>
-      </c>
+      <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr"/>
-      <c r="M186" t="n">
-        <v>1</v>
-      </c>
-      <c r="N186" t="inlineStr"/>
+      <c r="L186" t="n">
+        <v>1</v>
+      </c>
+      <c r="M186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -7660,16 +6942,13 @@
       <c r="H187" t="n">
         <v>0</v>
       </c>
-      <c r="I187" t="n">
-        <v>0</v>
-      </c>
+      <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr"/>
-      <c r="M187" t="n">
-        <v>1</v>
-      </c>
-      <c r="N187" t="inlineStr"/>
+      <c r="L187" t="n">
+        <v>1</v>
+      </c>
+      <c r="M187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -7696,16 +6975,13 @@
       <c r="H188" t="n">
         <v>0</v>
       </c>
-      <c r="I188" t="n">
-        <v>0</v>
-      </c>
+      <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr"/>
-      <c r="M188" t="n">
-        <v>1</v>
-      </c>
-      <c r="N188" t="inlineStr"/>
+      <c r="L188" t="n">
+        <v>1</v>
+      </c>
+      <c r="M188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -7732,16 +7008,13 @@
       <c r="H189" t="n">
         <v>0</v>
       </c>
-      <c r="I189" t="n">
-        <v>0</v>
-      </c>
+      <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr"/>
-      <c r="M189" t="n">
-        <v>1</v>
-      </c>
-      <c r="N189" t="inlineStr"/>
+      <c r="L189" t="n">
+        <v>1</v>
+      </c>
+      <c r="M189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -7768,16 +7041,13 @@
       <c r="H190" t="n">
         <v>0</v>
       </c>
-      <c r="I190" t="n">
-        <v>0</v>
-      </c>
+      <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
       <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr"/>
-      <c r="M190" t="n">
-        <v>1</v>
-      </c>
-      <c r="N190" t="inlineStr"/>
+      <c r="L190" t="n">
+        <v>1</v>
+      </c>
+      <c r="M190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -7804,16 +7074,13 @@
       <c r="H191" t="n">
         <v>0</v>
       </c>
-      <c r="I191" t="n">
-        <v>0</v>
-      </c>
+      <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr"/>
-      <c r="M191" t="n">
-        <v>1</v>
-      </c>
-      <c r="N191" t="inlineStr"/>
+      <c r="L191" t="n">
+        <v>1</v>
+      </c>
+      <c r="M191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -7840,16 +7107,13 @@
       <c r="H192" t="n">
         <v>0</v>
       </c>
-      <c r="I192" t="n">
-        <v>0</v>
-      </c>
+      <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr"/>
-      <c r="M192" t="n">
-        <v>1</v>
-      </c>
-      <c r="N192" t="inlineStr"/>
+      <c r="L192" t="n">
+        <v>1</v>
+      </c>
+      <c r="M192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -7876,16 +7140,13 @@
       <c r="H193" t="n">
         <v>0</v>
       </c>
-      <c r="I193" t="n">
-        <v>0</v>
-      </c>
+      <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
       <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr"/>
-      <c r="M193" t="n">
-        <v>1</v>
-      </c>
-      <c r="N193" t="inlineStr"/>
+      <c r="L193" t="n">
+        <v>1</v>
+      </c>
+      <c r="M193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -7912,16 +7173,13 @@
       <c r="H194" t="n">
         <v>0</v>
       </c>
-      <c r="I194" t="n">
-        <v>0</v>
-      </c>
+      <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
       <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr"/>
-      <c r="M194" t="n">
-        <v>1</v>
-      </c>
-      <c r="N194" t="inlineStr"/>
+      <c r="L194" t="n">
+        <v>1</v>
+      </c>
+      <c r="M194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -7948,16 +7206,13 @@
       <c r="H195" t="n">
         <v>0</v>
       </c>
-      <c r="I195" t="n">
-        <v>0</v>
-      </c>
+      <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
       <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr"/>
-      <c r="M195" t="n">
-        <v>1</v>
-      </c>
-      <c r="N195" t="inlineStr"/>
+      <c r="L195" t="n">
+        <v>1</v>
+      </c>
+      <c r="M195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -7984,16 +7239,13 @@
       <c r="H196" t="n">
         <v>0</v>
       </c>
-      <c r="I196" t="n">
-        <v>0</v>
-      </c>
+      <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
       <c r="K196" t="inlineStr"/>
-      <c r="L196" t="inlineStr"/>
-      <c r="M196" t="n">
-        <v>1</v>
-      </c>
-      <c r="N196" t="inlineStr"/>
+      <c r="L196" t="n">
+        <v>1</v>
+      </c>
+      <c r="M196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -8020,16 +7272,13 @@
       <c r="H197" t="n">
         <v>0</v>
       </c>
-      <c r="I197" t="n">
-        <v>0</v>
-      </c>
+      <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr"/>
-      <c r="M197" t="n">
-        <v>1</v>
-      </c>
-      <c r="N197" t="inlineStr"/>
+      <c r="L197" t="n">
+        <v>1</v>
+      </c>
+      <c r="M197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -8056,16 +7305,13 @@
       <c r="H198" t="n">
         <v>0</v>
       </c>
-      <c r="I198" t="n">
-        <v>0</v>
-      </c>
+      <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
       <c r="K198" t="inlineStr"/>
-      <c r="L198" t="inlineStr"/>
-      <c r="M198" t="n">
-        <v>1</v>
-      </c>
-      <c r="N198" t="inlineStr"/>
+      <c r="L198" t="n">
+        <v>1</v>
+      </c>
+      <c r="M198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -8092,16 +7338,13 @@
       <c r="H199" t="n">
         <v>0</v>
       </c>
-      <c r="I199" t="n">
-        <v>0</v>
-      </c>
+      <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
       <c r="K199" t="inlineStr"/>
-      <c r="L199" t="inlineStr"/>
-      <c r="M199" t="n">
-        <v>1</v>
-      </c>
-      <c r="N199" t="inlineStr"/>
+      <c r="L199" t="n">
+        <v>1</v>
+      </c>
+      <c r="M199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -8128,16 +7371,13 @@
       <c r="H200" t="n">
         <v>0</v>
       </c>
-      <c r="I200" t="n">
-        <v>0</v>
-      </c>
+      <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
       <c r="K200" t="inlineStr"/>
-      <c r="L200" t="inlineStr"/>
-      <c r="M200" t="n">
-        <v>1</v>
-      </c>
-      <c r="N200" t="inlineStr"/>
+      <c r="L200" t="n">
+        <v>1</v>
+      </c>
+      <c r="M200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -8164,16 +7404,13 @@
       <c r="H201" t="n">
         <v>0</v>
       </c>
-      <c r="I201" t="n">
-        <v>0</v>
-      </c>
+      <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
       <c r="K201" t="inlineStr"/>
-      <c r="L201" t="inlineStr"/>
-      <c r="M201" t="n">
-        <v>1</v>
-      </c>
-      <c r="N201" t="inlineStr"/>
+      <c r="L201" t="n">
+        <v>1</v>
+      </c>
+      <c r="M201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -8200,16 +7437,13 @@
       <c r="H202" t="n">
         <v>0</v>
       </c>
-      <c r="I202" t="n">
-        <v>0</v>
-      </c>
+      <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
       <c r="K202" t="inlineStr"/>
-      <c r="L202" t="inlineStr"/>
-      <c r="M202" t="n">
-        <v>1</v>
-      </c>
-      <c r="N202" t="inlineStr"/>
+      <c r="L202" t="n">
+        <v>1</v>
+      </c>
+      <c r="M202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -8236,16 +7470,13 @@
       <c r="H203" t="n">
         <v>0</v>
       </c>
-      <c r="I203" t="n">
-        <v>0</v>
-      </c>
+      <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
       <c r="K203" t="inlineStr"/>
-      <c r="L203" t="inlineStr"/>
-      <c r="M203" t="n">
-        <v>1</v>
-      </c>
-      <c r="N203" t="inlineStr"/>
+      <c r="L203" t="n">
+        <v>1</v>
+      </c>
+      <c r="M203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -8272,16 +7503,13 @@
       <c r="H204" t="n">
         <v>0</v>
       </c>
-      <c r="I204" t="n">
-        <v>0</v>
-      </c>
+      <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
       <c r="K204" t="inlineStr"/>
-      <c r="L204" t="inlineStr"/>
-      <c r="M204" t="n">
-        <v>1</v>
-      </c>
-      <c r="N204" t="inlineStr"/>
+      <c r="L204" t="n">
+        <v>1</v>
+      </c>
+      <c r="M204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -8308,16 +7536,13 @@
       <c r="H205" t="n">
         <v>0</v>
       </c>
-      <c r="I205" t="n">
-        <v>0</v>
-      </c>
+      <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
       <c r="K205" t="inlineStr"/>
-      <c r="L205" t="inlineStr"/>
-      <c r="M205" t="n">
-        <v>1</v>
-      </c>
-      <c r="N205" t="inlineStr"/>
+      <c r="L205" t="n">
+        <v>1</v>
+      </c>
+      <c r="M205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -8344,16 +7569,13 @@
       <c r="H206" t="n">
         <v>0</v>
       </c>
-      <c r="I206" t="n">
-        <v>0</v>
-      </c>
+      <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
       <c r="K206" t="inlineStr"/>
-      <c r="L206" t="inlineStr"/>
-      <c r="M206" t="n">
-        <v>1</v>
-      </c>
-      <c r="N206" t="inlineStr"/>
+      <c r="L206" t="n">
+        <v>1</v>
+      </c>
+      <c r="M206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -8380,16 +7602,13 @@
       <c r="H207" t="n">
         <v>0</v>
       </c>
-      <c r="I207" t="n">
-        <v>0</v>
-      </c>
+      <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
       <c r="K207" t="inlineStr"/>
-      <c r="L207" t="inlineStr"/>
-      <c r="M207" t="n">
-        <v>1</v>
-      </c>
-      <c r="N207" t="inlineStr"/>
+      <c r="L207" t="n">
+        <v>1</v>
+      </c>
+      <c r="M207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -8416,16 +7635,13 @@
       <c r="H208" t="n">
         <v>0</v>
       </c>
-      <c r="I208" t="n">
-        <v>0</v>
-      </c>
+      <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
       <c r="K208" t="inlineStr"/>
-      <c r="L208" t="inlineStr"/>
-      <c r="M208" t="n">
-        <v>1</v>
-      </c>
-      <c r="N208" t="inlineStr"/>
+      <c r="L208" t="n">
+        <v>1</v>
+      </c>
+      <c r="M208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -8452,16 +7668,13 @@
       <c r="H209" t="n">
         <v>0</v>
       </c>
-      <c r="I209" t="n">
-        <v>0</v>
-      </c>
+      <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
       <c r="K209" t="inlineStr"/>
-      <c r="L209" t="inlineStr"/>
-      <c r="M209" t="n">
-        <v>1</v>
-      </c>
-      <c r="N209" t="inlineStr"/>
+      <c r="L209" t="n">
+        <v>1</v>
+      </c>
+      <c r="M209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -8488,16 +7701,13 @@
       <c r="H210" t="n">
         <v>0</v>
       </c>
-      <c r="I210" t="n">
-        <v>0</v>
-      </c>
+      <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
       <c r="K210" t="inlineStr"/>
-      <c r="L210" t="inlineStr"/>
-      <c r="M210" t="n">
-        <v>1</v>
-      </c>
-      <c r="N210" t="inlineStr"/>
+      <c r="L210" t="n">
+        <v>1</v>
+      </c>
+      <c r="M210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -8524,16 +7734,13 @@
       <c r="H211" t="n">
         <v>0</v>
       </c>
-      <c r="I211" t="n">
-        <v>0</v>
-      </c>
+      <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
       <c r="K211" t="inlineStr"/>
-      <c r="L211" t="inlineStr"/>
-      <c r="M211" t="n">
-        <v>1</v>
-      </c>
-      <c r="N211" t="inlineStr"/>
+      <c r="L211" t="n">
+        <v>1</v>
+      </c>
+      <c r="M211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -8560,16 +7767,13 @@
       <c r="H212" t="n">
         <v>0</v>
       </c>
-      <c r="I212" t="n">
-        <v>0</v>
-      </c>
+      <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
       <c r="K212" t="inlineStr"/>
-      <c r="L212" t="inlineStr"/>
-      <c r="M212" t="n">
-        <v>1</v>
-      </c>
-      <c r="N212" t="inlineStr"/>
+      <c r="L212" t="n">
+        <v>1</v>
+      </c>
+      <c r="M212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -8596,16 +7800,13 @@
       <c r="H213" t="n">
         <v>0</v>
       </c>
-      <c r="I213" t="n">
-        <v>0</v>
-      </c>
+      <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
       <c r="K213" t="inlineStr"/>
-      <c r="L213" t="inlineStr"/>
-      <c r="M213" t="n">
-        <v>1</v>
-      </c>
-      <c r="N213" t="inlineStr"/>
+      <c r="L213" t="n">
+        <v>1</v>
+      </c>
+      <c r="M213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -8632,16 +7833,13 @@
       <c r="H214" t="n">
         <v>0</v>
       </c>
-      <c r="I214" t="n">
-        <v>0</v>
-      </c>
+      <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
       <c r="K214" t="inlineStr"/>
-      <c r="L214" t="inlineStr"/>
-      <c r="M214" t="n">
-        <v>1</v>
-      </c>
-      <c r="N214" t="inlineStr"/>
+      <c r="L214" t="n">
+        <v>1</v>
+      </c>
+      <c r="M214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -8668,16 +7866,13 @@
       <c r="H215" t="n">
         <v>0</v>
       </c>
-      <c r="I215" t="n">
-        <v>0</v>
-      </c>
+      <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
       <c r="K215" t="inlineStr"/>
-      <c r="L215" t="inlineStr"/>
-      <c r="M215" t="n">
-        <v>1</v>
-      </c>
-      <c r="N215" t="inlineStr"/>
+      <c r="L215" t="n">
+        <v>1</v>
+      </c>
+      <c r="M215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -8704,16 +7899,13 @@
       <c r="H216" t="n">
         <v>0</v>
       </c>
-      <c r="I216" t="n">
-        <v>0</v>
-      </c>
+      <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
       <c r="K216" t="inlineStr"/>
-      <c r="L216" t="inlineStr"/>
-      <c r="M216" t="n">
-        <v>1</v>
-      </c>
-      <c r="N216" t="inlineStr"/>
+      <c r="L216" t="n">
+        <v>1</v>
+      </c>
+      <c r="M216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -8740,16 +7932,13 @@
       <c r="H217" t="n">
         <v>0</v>
       </c>
-      <c r="I217" t="n">
-        <v>0</v>
-      </c>
+      <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
       <c r="K217" t="inlineStr"/>
-      <c r="L217" t="inlineStr"/>
-      <c r="M217" t="n">
-        <v>1</v>
-      </c>
-      <c r="N217" t="inlineStr"/>
+      <c r="L217" t="n">
+        <v>1</v>
+      </c>
+      <c r="M217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -8776,16 +7965,13 @@
       <c r="H218" t="n">
         <v>0</v>
       </c>
-      <c r="I218" t="n">
-        <v>0</v>
-      </c>
+      <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
       <c r="K218" t="inlineStr"/>
-      <c r="L218" t="inlineStr"/>
-      <c r="M218" t="n">
-        <v>1</v>
-      </c>
-      <c r="N218" t="inlineStr"/>
+      <c r="L218" t="n">
+        <v>1</v>
+      </c>
+      <c r="M218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -8812,16 +7998,13 @@
       <c r="H219" t="n">
         <v>0</v>
       </c>
-      <c r="I219" t="n">
-        <v>0</v>
-      </c>
+      <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
       <c r="K219" t="inlineStr"/>
-      <c r="L219" t="inlineStr"/>
-      <c r="M219" t="n">
-        <v>1</v>
-      </c>
-      <c r="N219" t="inlineStr"/>
+      <c r="L219" t="n">
+        <v>1</v>
+      </c>
+      <c r="M219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -8848,16 +8031,13 @@
       <c r="H220" t="n">
         <v>0</v>
       </c>
-      <c r="I220" t="n">
-        <v>0</v>
-      </c>
+      <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
       <c r="K220" t="inlineStr"/>
-      <c r="L220" t="inlineStr"/>
-      <c r="M220" t="n">
-        <v>1</v>
-      </c>
-      <c r="N220" t="inlineStr"/>
+      <c r="L220" t="n">
+        <v>1</v>
+      </c>
+      <c r="M220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -8884,16 +8064,13 @@
       <c r="H221" t="n">
         <v>0</v>
       </c>
-      <c r="I221" t="n">
-        <v>0</v>
-      </c>
+      <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
       <c r="K221" t="inlineStr"/>
-      <c r="L221" t="inlineStr"/>
-      <c r="M221" t="n">
-        <v>1</v>
-      </c>
-      <c r="N221" t="inlineStr"/>
+      <c r="L221" t="n">
+        <v>1</v>
+      </c>
+      <c r="M221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -8920,16 +8097,13 @@
       <c r="H222" t="n">
         <v>0</v>
       </c>
-      <c r="I222" t="n">
-        <v>0</v>
-      </c>
+      <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
       <c r="K222" t="inlineStr"/>
-      <c r="L222" t="inlineStr"/>
-      <c r="M222" t="n">
-        <v>1</v>
-      </c>
-      <c r="N222" t="inlineStr"/>
+      <c r="L222" t="n">
+        <v>1</v>
+      </c>
+      <c r="M222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -8956,16 +8130,13 @@
       <c r="H223" t="n">
         <v>0</v>
       </c>
-      <c r="I223" t="n">
-        <v>0</v>
-      </c>
+      <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
       <c r="K223" t="inlineStr"/>
-      <c r="L223" t="inlineStr"/>
-      <c r="M223" t="n">
-        <v>1</v>
-      </c>
-      <c r="N223" t="inlineStr"/>
+      <c r="L223" t="n">
+        <v>1</v>
+      </c>
+      <c r="M223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -8992,16 +8163,13 @@
       <c r="H224" t="n">
         <v>0</v>
       </c>
-      <c r="I224" t="n">
-        <v>0</v>
-      </c>
+      <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
       <c r="K224" t="inlineStr"/>
-      <c r="L224" t="inlineStr"/>
-      <c r="M224" t="n">
-        <v>1</v>
-      </c>
-      <c r="N224" t="inlineStr"/>
+      <c r="L224" t="n">
+        <v>1</v>
+      </c>
+      <c r="M224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -9028,16 +8196,13 @@
       <c r="H225" t="n">
         <v>0</v>
       </c>
-      <c r="I225" t="n">
-        <v>0</v>
-      </c>
+      <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
       <c r="K225" t="inlineStr"/>
-      <c r="L225" t="inlineStr"/>
-      <c r="M225" t="n">
-        <v>1</v>
-      </c>
-      <c r="N225" t="inlineStr"/>
+      <c r="L225" t="n">
+        <v>1</v>
+      </c>
+      <c r="M225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -9064,16 +8229,13 @@
       <c r="H226" t="n">
         <v>0</v>
       </c>
-      <c r="I226" t="n">
-        <v>0</v>
-      </c>
+      <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
       <c r="K226" t="inlineStr"/>
-      <c r="L226" t="inlineStr"/>
-      <c r="M226" t="n">
-        <v>1</v>
-      </c>
-      <c r="N226" t="inlineStr"/>
+      <c r="L226" t="n">
+        <v>1</v>
+      </c>
+      <c r="M226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -9100,16 +8262,13 @@
       <c r="H227" t="n">
         <v>0</v>
       </c>
-      <c r="I227" t="n">
-        <v>0</v>
-      </c>
+      <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
       <c r="K227" t="inlineStr"/>
-      <c r="L227" t="inlineStr"/>
-      <c r="M227" t="n">
-        <v>1</v>
-      </c>
-      <c r="N227" t="inlineStr"/>
+      <c r="L227" t="n">
+        <v>1</v>
+      </c>
+      <c r="M227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -9136,16 +8295,13 @@
       <c r="H228" t="n">
         <v>0</v>
       </c>
-      <c r="I228" t="n">
-        <v>0</v>
-      </c>
+      <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
       <c r="K228" t="inlineStr"/>
-      <c r="L228" t="inlineStr"/>
-      <c r="M228" t="n">
-        <v>1</v>
-      </c>
-      <c r="N228" t="inlineStr"/>
+      <c r="L228" t="n">
+        <v>1</v>
+      </c>
+      <c r="M228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -9172,16 +8328,13 @@
       <c r="H229" t="n">
         <v>0</v>
       </c>
-      <c r="I229" t="n">
-        <v>0</v>
-      </c>
+      <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
       <c r="K229" t="inlineStr"/>
-      <c r="L229" t="inlineStr"/>
-      <c r="M229" t="n">
-        <v>1</v>
-      </c>
-      <c r="N229" t="inlineStr"/>
+      <c r="L229" t="n">
+        <v>1</v>
+      </c>
+      <c r="M229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -9208,16 +8361,13 @@
       <c r="H230" t="n">
         <v>0</v>
       </c>
-      <c r="I230" t="n">
-        <v>0</v>
-      </c>
+      <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
       <c r="K230" t="inlineStr"/>
-      <c r="L230" t="inlineStr"/>
-      <c r="M230" t="n">
-        <v>1</v>
-      </c>
-      <c r="N230" t="inlineStr"/>
+      <c r="L230" t="n">
+        <v>1</v>
+      </c>
+      <c r="M230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -9244,16 +8394,13 @@
       <c r="H231" t="n">
         <v>0</v>
       </c>
-      <c r="I231" t="n">
-        <v>0</v>
-      </c>
+      <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
       <c r="K231" t="inlineStr"/>
-      <c r="L231" t="inlineStr"/>
-      <c r="M231" t="n">
-        <v>1</v>
-      </c>
-      <c r="N231" t="inlineStr"/>
+      <c r="L231" t="n">
+        <v>1</v>
+      </c>
+      <c r="M231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
@@ -9280,16 +8427,13 @@
       <c r="H232" t="n">
         <v>0</v>
       </c>
-      <c r="I232" t="n">
-        <v>0</v>
-      </c>
+      <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
       <c r="K232" t="inlineStr"/>
-      <c r="L232" t="inlineStr"/>
-      <c r="M232" t="n">
-        <v>1</v>
-      </c>
-      <c r="N232" t="inlineStr"/>
+      <c r="L232" t="n">
+        <v>1</v>
+      </c>
+      <c r="M232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
@@ -9316,16 +8460,13 @@
       <c r="H233" t="n">
         <v>0</v>
       </c>
-      <c r="I233" t="n">
-        <v>0</v>
-      </c>
+      <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
       <c r="K233" t="inlineStr"/>
-      <c r="L233" t="inlineStr"/>
-      <c r="M233" t="n">
-        <v>1</v>
-      </c>
-      <c r="N233" t="inlineStr"/>
+      <c r="L233" t="n">
+        <v>1</v>
+      </c>
+      <c r="M233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
@@ -9352,16 +8493,13 @@
       <c r="H234" t="n">
         <v>0</v>
       </c>
-      <c r="I234" t="n">
-        <v>0</v>
-      </c>
+      <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
       <c r="K234" t="inlineStr"/>
-      <c r="L234" t="inlineStr"/>
-      <c r="M234" t="n">
-        <v>1</v>
-      </c>
-      <c r="N234" t="inlineStr"/>
+      <c r="L234" t="n">
+        <v>1</v>
+      </c>
+      <c r="M234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
@@ -9388,16 +8526,13 @@
       <c r="H235" t="n">
         <v>0</v>
       </c>
-      <c r="I235" t="n">
-        <v>0</v>
-      </c>
+      <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
       <c r="K235" t="inlineStr"/>
-      <c r="L235" t="inlineStr"/>
-      <c r="M235" t="n">
-        <v>1</v>
-      </c>
-      <c r="N235" t="inlineStr"/>
+      <c r="L235" t="n">
+        <v>1</v>
+      </c>
+      <c r="M235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
@@ -9424,16 +8559,13 @@
       <c r="H236" t="n">
         <v>0</v>
       </c>
-      <c r="I236" t="n">
-        <v>0</v>
-      </c>
+      <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
       <c r="K236" t="inlineStr"/>
-      <c r="L236" t="inlineStr"/>
-      <c r="M236" t="n">
-        <v>1</v>
-      </c>
-      <c r="N236" t="inlineStr"/>
+      <c r="L236" t="n">
+        <v>1</v>
+      </c>
+      <c r="M236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
@@ -9460,16 +8592,13 @@
       <c r="H237" t="n">
         <v>0</v>
       </c>
-      <c r="I237" t="n">
-        <v>0</v>
-      </c>
+      <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
       <c r="K237" t="inlineStr"/>
-      <c r="L237" t="inlineStr"/>
-      <c r="M237" t="n">
-        <v>1</v>
-      </c>
-      <c r="N237" t="inlineStr"/>
+      <c r="L237" t="n">
+        <v>1</v>
+      </c>
+      <c r="M237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
@@ -9496,16 +8625,13 @@
       <c r="H238" t="n">
         <v>0</v>
       </c>
-      <c r="I238" t="n">
-        <v>0</v>
-      </c>
+      <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
       <c r="K238" t="inlineStr"/>
-      <c r="L238" t="inlineStr"/>
-      <c r="M238" t="n">
-        <v>1</v>
-      </c>
-      <c r="N238" t="inlineStr"/>
+      <c r="L238" t="n">
+        <v>1</v>
+      </c>
+      <c r="M238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
@@ -9532,16 +8658,13 @@
       <c r="H239" t="n">
         <v>0</v>
       </c>
-      <c r="I239" t="n">
-        <v>0</v>
-      </c>
+      <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
       <c r="K239" t="inlineStr"/>
-      <c r="L239" t="inlineStr"/>
-      <c r="M239" t="n">
-        <v>1</v>
-      </c>
-      <c r="N239" t="inlineStr"/>
+      <c r="L239" t="n">
+        <v>1</v>
+      </c>
+      <c r="M239" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
@@ -9568,16 +8691,13 @@
       <c r="H240" t="n">
         <v>0</v>
       </c>
-      <c r="I240" t="n">
-        <v>0</v>
-      </c>
+      <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
       <c r="K240" t="inlineStr"/>
-      <c r="L240" t="inlineStr"/>
-      <c r="M240" t="n">
-        <v>1</v>
-      </c>
-      <c r="N240" t="inlineStr"/>
+      <c r="L240" t="n">
+        <v>1</v>
+      </c>
+      <c r="M240" t="inlineStr"/>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
@@ -9604,16 +8724,13 @@
       <c r="H241" t="n">
         <v>0</v>
       </c>
-      <c r="I241" t="n">
-        <v>0</v>
-      </c>
+      <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
       <c r="K241" t="inlineStr"/>
-      <c r="L241" t="inlineStr"/>
-      <c r="M241" t="n">
-        <v>1</v>
-      </c>
-      <c r="N241" t="inlineStr"/>
+      <c r="L241" t="n">
+        <v>1</v>
+      </c>
+      <c r="M241" t="inlineStr"/>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
@@ -9640,16 +8757,13 @@
       <c r="H242" t="n">
         <v>0</v>
       </c>
-      <c r="I242" t="n">
-        <v>0</v>
-      </c>
+      <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
       <c r="K242" t="inlineStr"/>
-      <c r="L242" t="inlineStr"/>
-      <c r="M242" t="n">
-        <v>1</v>
-      </c>
-      <c r="N242" t="inlineStr"/>
+      <c r="L242" t="n">
+        <v>1</v>
+      </c>
+      <c r="M242" t="inlineStr"/>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
@@ -9676,16 +8790,13 @@
       <c r="H243" t="n">
         <v>0</v>
       </c>
-      <c r="I243" t="n">
-        <v>0</v>
-      </c>
+      <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
       <c r="K243" t="inlineStr"/>
-      <c r="L243" t="inlineStr"/>
-      <c r="M243" t="n">
-        <v>1</v>
-      </c>
-      <c r="N243" t="inlineStr"/>
+      <c r="L243" t="n">
+        <v>1</v>
+      </c>
+      <c r="M243" t="inlineStr"/>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
@@ -9712,16 +8823,13 @@
       <c r="H244" t="n">
         <v>0</v>
       </c>
-      <c r="I244" t="n">
-        <v>0</v>
-      </c>
+      <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
       <c r="K244" t="inlineStr"/>
-      <c r="L244" t="inlineStr"/>
-      <c r="M244" t="n">
-        <v>1</v>
-      </c>
-      <c r="N244" t="inlineStr"/>
+      <c r="L244" t="n">
+        <v>1</v>
+      </c>
+      <c r="M244" t="inlineStr"/>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
@@ -9746,18 +8854,15 @@
         <v>-12712470.06257547</v>
       </c>
       <c r="H245" t="n">
-        <v>0</v>
-      </c>
-      <c r="I245" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
       <c r="K245" t="inlineStr"/>
-      <c r="L245" t="inlineStr"/>
-      <c r="M245" t="n">
-        <v>1</v>
-      </c>
-      <c r="N245" t="inlineStr"/>
+      <c r="L245" t="n">
+        <v>1</v>
+      </c>
+      <c r="M245" t="inlineStr"/>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
@@ -9784,16 +8889,13 @@
       <c r="H246" t="n">
         <v>0</v>
       </c>
-      <c r="I246" t="n">
-        <v>0</v>
-      </c>
+      <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
       <c r="K246" t="inlineStr"/>
-      <c r="L246" t="inlineStr"/>
-      <c r="M246" t="n">
-        <v>1</v>
-      </c>
-      <c r="N246" t="inlineStr"/>
+      <c r="L246" t="n">
+        <v>1</v>
+      </c>
+      <c r="M246" t="inlineStr"/>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
@@ -9820,16 +8922,13 @@
       <c r="H247" t="n">
         <v>0</v>
       </c>
-      <c r="I247" t="n">
-        <v>0</v>
-      </c>
+      <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
       <c r="K247" t="inlineStr"/>
-      <c r="L247" t="inlineStr"/>
-      <c r="M247" t="n">
-        <v>1</v>
-      </c>
-      <c r="N247" t="inlineStr"/>
+      <c r="L247" t="n">
+        <v>1</v>
+      </c>
+      <c r="M247" t="inlineStr"/>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
@@ -9856,16 +8955,13 @@
       <c r="H248" t="n">
         <v>0</v>
       </c>
-      <c r="I248" t="n">
-        <v>0</v>
-      </c>
+      <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
       <c r="K248" t="inlineStr"/>
-      <c r="L248" t="inlineStr"/>
-      <c r="M248" t="n">
-        <v>1</v>
-      </c>
-      <c r="N248" t="inlineStr"/>
+      <c r="L248" t="n">
+        <v>1</v>
+      </c>
+      <c r="M248" t="inlineStr"/>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
@@ -9890,18 +8986,15 @@
         <v>-12860915.09407547</v>
       </c>
       <c r="H249" t="n">
-        <v>0</v>
-      </c>
-      <c r="I249" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
       <c r="K249" t="inlineStr"/>
-      <c r="L249" t="inlineStr"/>
-      <c r="M249" t="n">
-        <v>1</v>
-      </c>
-      <c r="N249" t="inlineStr"/>
+      <c r="L249" t="n">
+        <v>1</v>
+      </c>
+      <c r="M249" t="inlineStr"/>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
@@ -9928,16 +9021,13 @@
       <c r="H250" t="n">
         <v>0</v>
       </c>
-      <c r="I250" t="n">
-        <v>0</v>
-      </c>
+      <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
       <c r="K250" t="inlineStr"/>
-      <c r="L250" t="inlineStr"/>
-      <c r="M250" t="n">
-        <v>1</v>
-      </c>
-      <c r="N250" t="inlineStr"/>
+      <c r="L250" t="n">
+        <v>1</v>
+      </c>
+      <c r="M250" t="inlineStr"/>
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
@@ -9964,16 +9054,13 @@
       <c r="H251" t="n">
         <v>0</v>
       </c>
-      <c r="I251" t="n">
-        <v>0</v>
-      </c>
+      <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
       <c r="K251" t="inlineStr"/>
-      <c r="L251" t="inlineStr"/>
-      <c r="M251" t="n">
-        <v>1</v>
-      </c>
-      <c r="N251" t="inlineStr"/>
+      <c r="L251" t="n">
+        <v>1</v>
+      </c>
+      <c r="M251" t="inlineStr"/>
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
@@ -10000,16 +9087,13 @@
       <c r="H252" t="n">
         <v>0</v>
       </c>
-      <c r="I252" t="n">
-        <v>0</v>
-      </c>
+      <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
       <c r="K252" t="inlineStr"/>
-      <c r="L252" t="inlineStr"/>
-      <c r="M252" t="n">
-        <v>1</v>
-      </c>
-      <c r="N252" t="inlineStr"/>
+      <c r="L252" t="n">
+        <v>1</v>
+      </c>
+      <c r="M252" t="inlineStr"/>
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
@@ -10036,16 +9120,13 @@
       <c r="H253" t="n">
         <v>0</v>
       </c>
-      <c r="I253" t="n">
-        <v>0</v>
-      </c>
+      <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
       <c r="K253" t="inlineStr"/>
-      <c r="L253" t="inlineStr"/>
-      <c r="M253" t="n">
-        <v>1</v>
-      </c>
-      <c r="N253" t="inlineStr"/>
+      <c r="L253" t="n">
+        <v>1</v>
+      </c>
+      <c r="M253" t="inlineStr"/>
     </row>
     <row r="254">
       <c r="A254" s="1" t="n">
@@ -10072,16 +9153,13 @@
       <c r="H254" t="n">
         <v>0</v>
       </c>
-      <c r="I254" t="n">
-        <v>0</v>
-      </c>
+      <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
       <c r="K254" t="inlineStr"/>
-      <c r="L254" t="inlineStr"/>
-      <c r="M254" t="n">
-        <v>1</v>
-      </c>
-      <c r="N254" t="inlineStr"/>
+      <c r="L254" t="n">
+        <v>1</v>
+      </c>
+      <c r="M254" t="inlineStr"/>
     </row>
     <row r="255">
       <c r="A255" s="1" t="n">
@@ -10108,16 +9186,13 @@
       <c r="H255" t="n">
         <v>0</v>
       </c>
-      <c r="I255" t="n">
-        <v>0</v>
-      </c>
+      <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
       <c r="K255" t="inlineStr"/>
-      <c r="L255" t="inlineStr"/>
-      <c r="M255" t="n">
-        <v>1</v>
-      </c>
-      <c r="N255" t="inlineStr"/>
+      <c r="L255" t="n">
+        <v>1</v>
+      </c>
+      <c r="M255" t="inlineStr"/>
     </row>
     <row r="256">
       <c r="A256" s="1" t="n">
@@ -10142,26 +9217,17 @@
         <v>-14538562.35427547</v>
       </c>
       <c r="H256" t="n">
-        <v>1</v>
-      </c>
-      <c r="I256" t="n">
-        <v>0</v>
-      </c>
-      <c r="J256" t="n">
-        <v>4.49</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I256" t="inlineStr"/>
+      <c r="J256" t="inlineStr"/>
       <c r="K256" t="inlineStr"/>
-      <c r="L256" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M256" t="n">
-        <v>1</v>
-      </c>
-      <c r="N256" t="inlineStr"/>
+      <c r="L256" t="n">
+        <v>1</v>
+      </c>
+      <c r="M256" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-31 BackTest XVG.xlsx
+++ b/BackTest/2019-10-31 BackTest XVG.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -682,14 +682,10 @@
         <v>-1611988.8352</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
-      </c>
-      <c r="I9" t="n">
-        <v>4.38</v>
-      </c>
-      <c r="J9" t="n">
-        <v>4.38</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
         <v>1</v>
@@ -719,12 +715,12 @@
         <v>-1611988.8352</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="n">
-        <v>4.38</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>4.36</v>
+      </c>
+      <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr">
         <is>
           <t>매수 체결</t>
@@ -758,14 +754,12 @@
         <v>-1130294.846</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
         <v>4.36</v>
       </c>
-      <c r="J11" t="n">
-        <v>4.38</v>
-      </c>
+      <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -799,14 +793,10 @@
         <v>-819334.2448999998</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
-      </c>
-      <c r="I12" t="n">
-        <v>4.39</v>
-      </c>
-      <c r="J12" t="n">
-        <v>4.38</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -840,14 +830,10 @@
         <v>-803236.7846999998</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
-      </c>
-      <c r="I13" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="J13" t="n">
-        <v>4.38</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -884,9 +870,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
-      <c r="J14" t="n">
-        <v>4.38</v>
-      </c>
+      <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -923,9 +907,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
-      <c r="J15" t="n">
-        <v>4.38</v>
-      </c>
+      <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -962,9 +944,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
-      <c r="J16" t="n">
-        <v>4.38</v>
-      </c>
+      <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1001,9 +981,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
-      <c r="J17" t="n">
-        <v>4.38</v>
-      </c>
+      <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1040,9 +1018,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
-      <c r="J18" t="n">
-        <v>4.38</v>
-      </c>
+      <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1079,9 +1055,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
-      <c r="J19" t="n">
-        <v>4.38</v>
-      </c>
+      <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1118,9 +1092,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
-      <c r="J20" t="n">
-        <v>4.38</v>
-      </c>
+      <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1157,9 +1129,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
-      <c r="J21" t="n">
-        <v>4.38</v>
-      </c>
+      <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1196,9 +1166,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
-      <c r="J22" t="n">
-        <v>4.38</v>
-      </c>
+      <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1235,9 +1203,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
-      <c r="J23" t="n">
-        <v>4.38</v>
-      </c>
+      <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1274,9 +1240,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
-      <c r="J24" t="n">
-        <v>4.38</v>
-      </c>
+      <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1313,9 +1277,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
-      <c r="J25" t="n">
-        <v>4.38</v>
-      </c>
+      <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1352,9 +1314,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
-      <c r="J26" t="n">
-        <v>4.38</v>
-      </c>
+      <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1391,9 +1351,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
-      <c r="J27" t="n">
-        <v>4.38</v>
-      </c>
+      <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1430,9 +1388,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
-      <c r="J28" t="n">
-        <v>4.38</v>
-      </c>
+      <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1469,9 +1425,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
-      <c r="J29" t="n">
-        <v>4.38</v>
-      </c>
+      <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1508,9 +1462,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="n">
-        <v>4.38</v>
-      </c>
+      <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1547,9 +1499,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="n">
-        <v>4.38</v>
-      </c>
+      <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1586,9 +1536,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="n">
-        <v>4.38</v>
-      </c>
+      <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1625,9 +1573,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="n">
-        <v>4.38</v>
-      </c>
+      <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1664,9 +1610,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="n">
-        <v>4.38</v>
-      </c>
+      <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1703,9 +1647,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="n">
-        <v>4.38</v>
-      </c>
+      <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1742,9 +1684,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="n">
-        <v>4.38</v>
-      </c>
+      <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1781,9 +1721,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="n">
-        <v>4.38</v>
-      </c>
+      <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1820,9 +1758,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="n">
-        <v>4.38</v>
-      </c>
+      <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1859,9 +1795,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="n">
-        <v>4.38</v>
-      </c>
+      <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1898,9 +1832,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="n">
-        <v>4.38</v>
-      </c>
+      <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1937,9 +1869,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="n">
-        <v>4.38</v>
-      </c>
+      <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1976,9 +1906,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="n">
-        <v>4.38</v>
-      </c>
+      <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2015,9 +1943,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="n">
-        <v>4.38</v>
-      </c>
+      <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2054,9 +1980,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="n">
-        <v>4.38</v>
-      </c>
+      <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2093,9 +2017,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="n">
-        <v>4.38</v>
-      </c>
+      <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2132,9 +2054,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="n">
-        <v>4.38</v>
-      </c>
+      <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2171,9 +2091,7 @@
         <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="n">
-        <v>4.38</v>
-      </c>
+      <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2210,9 +2128,7 @@
         <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="n">
-        <v>4.38</v>
-      </c>
+      <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2246,20 +2162,16 @@
         <v>-187116.9205419807</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="n">
-        <v>4.38</v>
-      </c>
+      <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
+      <c r="L49" t="inlineStr"/>
       <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
@@ -2285,17 +2197,11 @@
         <v>-288031.3968419806</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="n">
-        <v>4.38</v>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2324,17 +2230,11 @@
         <v>83474.61195801938</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="n">
-        <v>4.38</v>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2363,17 +2263,11 @@
         <v>629519.9748580193</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="n">
-        <v>4.38</v>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2402,17 +2296,11 @@
         <v>1263568.342858019</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="n">
-        <v>4.38</v>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2441,17 +2329,11 @@
         <v>423672.7132580193</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="n">
-        <v>4.38</v>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2480,17 +2362,11 @@
         <v>-984240.6737419808</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="n">
-        <v>4.38</v>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2519,17 +2395,11 @@
         <v>-569252.4816419808</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="n">
-        <v>4.38</v>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2558,17 +2428,11 @@
         <v>-774732.4613419808</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="n">
-        <v>4.38</v>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2597,17 +2461,11 @@
         <v>-2042537.591741981</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="n">
-        <v>4.38</v>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2636,17 +2494,11 @@
         <v>-1984801.315441981</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="n">
-        <v>4.38</v>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2675,17 +2527,11 @@
         <v>-1101974.878941981</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="n">
-        <v>4.38</v>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2714,17 +2560,11 @@
         <v>-698019.7442419806</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="n">
-        <v>4.38</v>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2756,14 +2596,8 @@
         <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="n">
-        <v>4.38</v>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2795,14 +2629,8 @@
         <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="n">
-        <v>4.38</v>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2834,14 +2662,8 @@
         <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="n">
-        <v>4.38</v>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2873,14 +2695,8 @@
         <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="n">
-        <v>4.38</v>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2912,14 +2728,8 @@
         <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="n">
-        <v>4.38</v>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2951,14 +2761,8 @@
         <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="n">
-        <v>4.38</v>
-      </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2990,14 +2794,8 @@
         <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="n">
-        <v>4.38</v>
-      </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -3029,14 +2827,8 @@
         <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="n">
-        <v>4.38</v>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -3068,14 +2860,8 @@
         <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="n">
-        <v>4.38</v>
-      </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -3104,23 +2890,15 @@
         <v>-2147785.754441981</v>
       </c>
       <c r="H71" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="n">
-        <v>4.38</v>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="n">
-        <v>1.054360730593607</v>
-      </c>
-      <c r="M71" t="n">
-        <v>1.013888888888889</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3145,7 +2923,7 @@
         <v>-2095546.020641981</v>
       </c>
       <c r="H72" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -3178,7 +2956,7 @@
         <v>-1911076.384741981</v>
       </c>
       <c r="H73" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -3211,7 +2989,7 @@
         <v>-2062904.029741981</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -3244,7 +3022,7 @@
         <v>-2919340.693041981</v>
       </c>
       <c r="H75" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -3277,7 +3055,7 @@
         <v>-2669340.693041981</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -3310,7 +3088,7 @@
         <v>-2341296.475241981</v>
       </c>
       <c r="H77" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -3343,7 +3121,7 @@
         <v>-2165643.391241981</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -3376,7 +3154,7 @@
         <v>-2165643.391241981</v>
       </c>
       <c r="H79" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3409,7 +3187,7 @@
         <v>-1824511.472341981</v>
       </c>
       <c r="H80" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3442,7 +3220,7 @@
         <v>-1824511.472341981</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3475,7 +3253,7 @@
         <v>-1984511.472341981</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3508,7 +3286,7 @@
         <v>-3409146.144941981</v>
       </c>
       <c r="H83" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3541,7 +3319,7 @@
         <v>-3409146.144941981</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3574,7 +3352,7 @@
         <v>-3409146.144941981</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3640,7 +3418,7 @@
         <v>-3222099.023341981</v>
       </c>
       <c r="H87" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3673,7 +3451,7 @@
         <v>-2942467.724541981</v>
       </c>
       <c r="H88" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3706,7 +3484,7 @@
         <v>-2962157.035041981</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3739,7 +3517,7 @@
         <v>-2778544.298641981</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3772,7 +3550,7 @@
         <v>-2845759.647841981</v>
       </c>
       <c r="H91" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3805,7 +3583,7 @@
         <v>-2845759.647841981</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3838,7 +3616,7 @@
         <v>-2983440.908641981</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3871,7 +3649,7 @@
         <v>-2983440.908641981</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3904,7 +3682,7 @@
         <v>-3476583.154741981</v>
       </c>
       <c r="H95" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3937,7 +3715,7 @@
         <v>-3476483.154741981</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3970,7 +3748,7 @@
         <v>-3584241.775341981</v>
       </c>
       <c r="H97" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -4003,7 +3781,7 @@
         <v>-3763581.391341981</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -4036,7 +3814,7 @@
         <v>-4665919.559041981</v>
       </c>
       <c r="H99" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -4069,7 +3847,7 @@
         <v>-4750819.559041981</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -4102,7 +3880,7 @@
         <v>-4750819.559041981</v>
       </c>
       <c r="H101" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -4135,7 +3913,7 @@
         <v>-5091119.18594198</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -4168,7 +3946,7 @@
         <v>-4635974.210341981</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -4201,7 +3979,7 @@
         <v>-4635974.210341981</v>
       </c>
       <c r="H104" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -4234,7 +4012,7 @@
         <v>-5044921.406941981</v>
       </c>
       <c r="H105" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -4267,7 +4045,7 @@
         <v>-4784517.674041981</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -4300,7 +4078,7 @@
         <v>-4881512.848441981</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -4333,7 +4111,7 @@
         <v>-4071502.848441981</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -4366,7 +4144,7 @@
         <v>-3903291.662441981</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4399,7 +4177,7 @@
         <v>-3871786.034741981</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4432,7 +4210,7 @@
         <v>-3871786.034741981</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4531,7 +4309,7 @@
         <v>-4802226.975841981</v>
       </c>
       <c r="H114" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4564,7 +4342,7 @@
         <v>-4716483.789041981</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4597,7 +4375,7 @@
         <v>-4791373.159941982</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4630,7 +4408,7 @@
         <v>-4791373.159941982</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4663,7 +4441,7 @@
         <v>-5053120.825641981</v>
       </c>
       <c r="H118" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4696,7 +4474,7 @@
         <v>-4701427.569741981</v>
       </c>
       <c r="H119" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4729,7 +4507,7 @@
         <v>-5606593.242841981</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4795,7 +4573,7 @@
         <v>-5414277.764841981</v>
       </c>
       <c r="H122" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4828,7 +4606,7 @@
         <v>-5664475.173241981</v>
       </c>
       <c r="H123" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4927,7 +4705,7 @@
         <v>-6575883.086741982</v>
       </c>
       <c r="H126" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4960,7 +4738,7 @@
         <v>-7444026.776941982</v>
       </c>
       <c r="H127" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4993,7 +4771,7 @@
         <v>-7444026.776941982</v>
       </c>
       <c r="H128" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -5026,7 +4804,7 @@
         <v>-8334512.052041982</v>
       </c>
       <c r="H129" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -5059,7 +4837,7 @@
         <v>-8283559.971341982</v>
       </c>
       <c r="H130" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -5092,7 +4870,7 @@
         <v>-8283549.971341982</v>
       </c>
       <c r="H131" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -5125,7 +4903,7 @@
         <v>-8547170.542341983</v>
       </c>
       <c r="H132" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -5224,7 +5002,7 @@
         <v>-8548291.269341983</v>
       </c>
       <c r="H135" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -5290,7 +5068,7 @@
         <v>-9179058.435641984</v>
       </c>
       <c r="H137" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -5323,7 +5101,7 @@
         <v>-8786637.795741983</v>
       </c>
       <c r="H138" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -5587,7 +5365,7 @@
         <v>-11916624.31155074</v>
       </c>
       <c r="H146" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5785,7 +5563,7 @@
         <v>-12345436.77975074</v>
       </c>
       <c r="H152" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -5818,7 +5596,7 @@
         <v>-12861755.05945074</v>
       </c>
       <c r="H153" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -8392,11 +8170,17 @@
         <v>-12828280.58305074</v>
       </c>
       <c r="H231" t="n">
-        <v>0</v>
-      </c>
-      <c r="I231" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I231" t="n">
+        <v>4.5</v>
+      </c>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
+      <c r="K231" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -8429,7 +8213,11 @@
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
+      <c r="K232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -8458,11 +8246,17 @@
         <v>-12828280.58305074</v>
       </c>
       <c r="H233" t="n">
-        <v>0</v>
-      </c>
-      <c r="I233" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I233" t="n">
+        <v>4.5</v>
+      </c>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
+      <c r="K233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -8491,11 +8285,17 @@
         <v>-12828280.58305074</v>
       </c>
       <c r="H234" t="n">
-        <v>0</v>
-      </c>
-      <c r="I234" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I234" t="n">
+        <v>4.5</v>
+      </c>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
+      <c r="K234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -8524,11 +8324,17 @@
         <v>-12784130.47267547</v>
       </c>
       <c r="H235" t="n">
-        <v>0</v>
-      </c>
-      <c r="I235" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I235" t="n">
+        <v>4.5</v>
+      </c>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
+      <c r="K235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -8557,11 +8363,17 @@
         <v>-12874130.47267547</v>
       </c>
       <c r="H236" t="n">
-        <v>0</v>
-      </c>
-      <c r="I236" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I236" t="n">
+        <v>4.53</v>
+      </c>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
+      <c r="K236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -8594,7 +8406,11 @@
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
+      <c r="K237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -8627,7 +8443,11 @@
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
+      <c r="K238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -8660,7 +8480,11 @@
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
+      <c r="K239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -8693,7 +8517,11 @@
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
+      <c r="K240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -8722,11 +8550,17 @@
         <v>-12633478.17437547</v>
       </c>
       <c r="H241" t="n">
-        <v>0</v>
-      </c>
-      <c r="I241" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I241" t="n">
+        <v>4.57</v>
+      </c>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
+      <c r="K241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -8755,11 +8589,17 @@
         <v>-12633478.17437547</v>
       </c>
       <c r="H242" t="n">
-        <v>0</v>
-      </c>
-      <c r="I242" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I242" t="n">
+        <v>4.57</v>
+      </c>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
+      <c r="K242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -8788,11 +8628,17 @@
         <v>-12633478.17437547</v>
       </c>
       <c r="H243" t="n">
-        <v>0</v>
-      </c>
-      <c r="I243" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I243" t="n">
+        <v>4.57</v>
+      </c>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
+      <c r="K243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -8821,11 +8667,17 @@
         <v>-12714388.64787547</v>
       </c>
       <c r="H244" t="n">
-        <v>0</v>
-      </c>
-      <c r="I244" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I244" t="n">
+        <v>4.57</v>
+      </c>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
+      <c r="K244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -8854,11 +8706,17 @@
         <v>-12712470.06257547</v>
       </c>
       <c r="H245" t="n">
-        <v>3</v>
-      </c>
-      <c r="I245" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I245" t="n">
+        <v>4.56</v>
+      </c>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
+      <c r="K245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -8887,11 +8745,17 @@
         <v>-12852076.06257547</v>
       </c>
       <c r="H246" t="n">
-        <v>0</v>
-      </c>
-      <c r="I246" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I246" t="n">
+        <v>4.6</v>
+      </c>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
+      <c r="K246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -8920,11 +8784,17 @@
         <v>-12377578.71997547</v>
       </c>
       <c r="H247" t="n">
-        <v>0</v>
-      </c>
-      <c r="I247" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I247" t="n">
+        <v>4.57</v>
+      </c>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
+      <c r="K247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -8953,11 +8823,17 @@
         <v>-12860915.09407547</v>
       </c>
       <c r="H248" t="n">
-        <v>0</v>
-      </c>
-      <c r="I248" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I248" t="n">
+        <v>4.6</v>
+      </c>
       <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
+      <c r="K248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -8986,11 +8862,17 @@
         <v>-12860915.09407547</v>
       </c>
       <c r="H249" t="n">
-        <v>3</v>
-      </c>
-      <c r="I249" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I249" t="n">
+        <v>4.58</v>
+      </c>
       <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
+      <c r="K249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -9019,11 +8901,17 @@
         <v>-12948453.66447547</v>
       </c>
       <c r="H250" t="n">
-        <v>0</v>
-      </c>
-      <c r="I250" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I250" t="n">
+        <v>4.58</v>
+      </c>
       <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
+      <c r="K250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -9052,11 +8940,17 @@
         <v>-12960268.65387547</v>
       </c>
       <c r="H251" t="n">
-        <v>0</v>
-      </c>
-      <c r="I251" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I251" t="n">
+        <v>4.57</v>
+      </c>
       <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
+      <c r="K251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -9085,11 +8979,17 @@
         <v>-13148668.05267547</v>
       </c>
       <c r="H252" t="n">
-        <v>0</v>
-      </c>
-      <c r="I252" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I252" t="n">
+        <v>4.56</v>
+      </c>
       <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
+      <c r="K252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -9118,11 +9018,17 @@
         <v>-13148668.05267547</v>
       </c>
       <c r="H253" t="n">
-        <v>0</v>
-      </c>
-      <c r="I253" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I253" t="n">
+        <v>4.52</v>
+      </c>
       <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
+      <c r="K253" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -9151,11 +9057,17 @@
         <v>-13290692.93197547</v>
       </c>
       <c r="H254" t="n">
-        <v>0</v>
-      </c>
-      <c r="I254" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I254" t="n">
+        <v>4.52</v>
+      </c>
       <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
+      <c r="K254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -9184,11 +9096,17 @@
         <v>-13290692.93197547</v>
       </c>
       <c r="H255" t="n">
-        <v>0</v>
-      </c>
-      <c r="I255" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I255" t="n">
+        <v>4.49</v>
+      </c>
       <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
+      <c r="K255" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -9217,17 +9135,23 @@
         <v>-14538562.35427547</v>
       </c>
       <c r="H256" t="n">
-        <v>0</v>
-      </c>
-      <c r="I256" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I256" t="n">
+        <v>4.49</v>
+      </c>
       <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
+      <c r="K256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L256" t="n">
         <v>1</v>
       </c>
       <c r="M256" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-31 BackTest XVG.xlsx
+++ b/BackTest/2019-10-31 BackTest XVG.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -715,17 +715,11 @@
         <v>-1611988.8352</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>4.36</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -754,17 +748,11 @@
         <v>-1130294.846</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>4.36</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -797,11 +785,7 @@
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -834,11 +818,7 @@
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -871,11 +851,7 @@
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -908,11 +884,7 @@
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -945,11 +917,7 @@
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K16" t="inlineStr"/>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -982,11 +950,7 @@
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K17" t="inlineStr"/>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -1019,11 +983,7 @@
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K18" t="inlineStr"/>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1056,11 +1016,7 @@
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K19" t="inlineStr"/>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1093,11 +1049,7 @@
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K20" t="inlineStr"/>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1130,11 +1082,7 @@
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K21" t="inlineStr"/>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1167,11 +1115,7 @@
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K22" t="inlineStr"/>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1204,11 +1148,7 @@
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K23" t="inlineStr"/>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1241,11 +1181,7 @@
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K24" t="inlineStr"/>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1278,11 +1214,7 @@
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K25" t="inlineStr"/>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1315,11 +1247,7 @@
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K26" t="inlineStr"/>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1352,11 +1280,7 @@
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K27" t="inlineStr"/>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1389,11 +1313,7 @@
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K28" t="inlineStr"/>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1426,11 +1346,7 @@
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K29" t="inlineStr"/>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1463,11 +1379,7 @@
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K30" t="inlineStr"/>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1500,11 +1412,7 @@
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K31" t="inlineStr"/>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1537,11 +1445,7 @@
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K32" t="inlineStr"/>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1574,11 +1478,7 @@
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K33" t="inlineStr"/>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1611,11 +1511,7 @@
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K34" t="inlineStr"/>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1648,11 +1544,7 @@
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K35" t="inlineStr"/>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1685,11 +1577,7 @@
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K36" t="inlineStr"/>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1722,11 +1610,7 @@
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K37" t="inlineStr"/>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1759,11 +1643,7 @@
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K38" t="inlineStr"/>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1796,11 +1676,7 @@
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K39" t="inlineStr"/>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1833,11 +1709,7 @@
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K40" t="inlineStr"/>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1870,11 +1742,7 @@
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1907,11 +1775,7 @@
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1944,11 +1808,7 @@
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -1981,11 +1841,7 @@
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K44" t="inlineStr"/>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -2018,11 +1874,7 @@
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K45" t="inlineStr"/>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -2055,11 +1907,7 @@
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -2088,15 +1936,11 @@
         <v>833330.8002580192</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K47" t="inlineStr"/>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -2129,11 +1973,7 @@
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2162,16 +2002,14 @@
         <v>-187116.9205419807</v>
       </c>
       <c r="H49" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
       <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
@@ -2197,7 +2035,7 @@
         <v>-288031.3968419806</v>
       </c>
       <c r="H50" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2230,7 +2068,7 @@
         <v>83474.61195801938</v>
       </c>
       <c r="H51" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2263,7 +2101,7 @@
         <v>629519.9748580193</v>
       </c>
       <c r="H52" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2296,7 +2134,7 @@
         <v>1263568.342858019</v>
       </c>
       <c r="H53" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2329,7 +2167,7 @@
         <v>423672.7132580193</v>
       </c>
       <c r="H54" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2362,7 +2200,7 @@
         <v>-984240.6737419808</v>
       </c>
       <c r="H55" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2428,7 +2266,7 @@
         <v>-774732.4613419808</v>
       </c>
       <c r="H57" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2593,7 +2431,7 @@
         <v>-2357574.95614198</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2626,7 +2464,7 @@
         <v>-2094188.61924198</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2659,7 +2497,7 @@
         <v>-1189719.63004198</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2692,7 +2530,7 @@
         <v>-758579.2244419805</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2725,7 +2563,7 @@
         <v>-2012113.903241981</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2758,7 +2596,7 @@
         <v>-2012113.903241981</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2791,7 +2629,7 @@
         <v>-2012113.903241981</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2989,7 +2827,7 @@
         <v>-2062904.029741981</v>
       </c>
       <c r="H74" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -3055,7 +2893,7 @@
         <v>-2669340.693041981</v>
       </c>
       <c r="H76" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -3088,7 +2926,7 @@
         <v>-2341296.475241981</v>
       </c>
       <c r="H77" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -3121,7 +2959,7 @@
         <v>-2165643.391241981</v>
       </c>
       <c r="H78" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -3154,7 +2992,7 @@
         <v>-2165643.391241981</v>
       </c>
       <c r="H79" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3187,7 +3025,7 @@
         <v>-1824511.472341981</v>
       </c>
       <c r="H80" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3220,7 +3058,7 @@
         <v>-1824511.472341981</v>
       </c>
       <c r="H81" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3253,7 +3091,7 @@
         <v>-1984511.472341981</v>
       </c>
       <c r="H82" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3286,7 +3124,7 @@
         <v>-3409146.144941981</v>
       </c>
       <c r="H83" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3319,7 +3157,7 @@
         <v>-3409146.144941981</v>
       </c>
       <c r="H84" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3352,7 +3190,7 @@
         <v>-3409146.144941981</v>
       </c>
       <c r="H85" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3451,7 +3289,7 @@
         <v>-2942467.724541981</v>
       </c>
       <c r="H88" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3484,7 +3322,7 @@
         <v>-2962157.035041981</v>
       </c>
       <c r="H89" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3517,7 +3355,7 @@
         <v>-2778544.298641981</v>
       </c>
       <c r="H90" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3550,7 +3388,7 @@
         <v>-2845759.647841981</v>
       </c>
       <c r="H91" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3583,7 +3421,7 @@
         <v>-2845759.647841981</v>
       </c>
       <c r="H92" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3616,7 +3454,7 @@
         <v>-2983440.908641981</v>
       </c>
       <c r="H93" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3649,7 +3487,7 @@
         <v>-2983440.908641981</v>
       </c>
       <c r="H94" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3682,7 +3520,7 @@
         <v>-3476583.154741981</v>
       </c>
       <c r="H95" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3715,7 +3553,7 @@
         <v>-3476483.154741981</v>
       </c>
       <c r="H96" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3748,7 +3586,7 @@
         <v>-3584241.775341981</v>
       </c>
       <c r="H97" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3781,7 +3619,7 @@
         <v>-3763581.391341981</v>
       </c>
       <c r="H98" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3814,7 +3652,7 @@
         <v>-4665919.559041981</v>
       </c>
       <c r="H99" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3847,7 +3685,7 @@
         <v>-4750819.559041981</v>
       </c>
       <c r="H100" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3880,7 +3718,7 @@
         <v>-4750819.559041981</v>
       </c>
       <c r="H101" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3913,7 +3751,7 @@
         <v>-5091119.18594198</v>
       </c>
       <c r="H102" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3946,7 +3784,7 @@
         <v>-4635974.210341981</v>
       </c>
       <c r="H103" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -3979,7 +3817,7 @@
         <v>-4635974.210341981</v>
       </c>
       <c r="H104" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -4012,7 +3850,7 @@
         <v>-5044921.406941981</v>
       </c>
       <c r="H105" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -4045,7 +3883,7 @@
         <v>-4784517.674041981</v>
       </c>
       <c r="H106" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -4078,7 +3916,7 @@
         <v>-4881512.848441981</v>
       </c>
       <c r="H107" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -4111,7 +3949,7 @@
         <v>-4071502.848441981</v>
       </c>
       <c r="H108" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -4144,7 +3982,7 @@
         <v>-3903291.662441981</v>
       </c>
       <c r="H109" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4177,7 +4015,7 @@
         <v>-3871786.034741981</v>
       </c>
       <c r="H110" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4210,7 +4048,7 @@
         <v>-3871786.034741981</v>
       </c>
       <c r="H111" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4309,7 +4147,7 @@
         <v>-4802226.975841981</v>
       </c>
       <c r="H114" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4342,7 +4180,7 @@
         <v>-4716483.789041981</v>
       </c>
       <c r="H115" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4375,7 +4213,7 @@
         <v>-4791373.159941982</v>
       </c>
       <c r="H116" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4408,7 +4246,7 @@
         <v>-4791373.159941982</v>
       </c>
       <c r="H117" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4441,7 +4279,7 @@
         <v>-5053120.825641981</v>
       </c>
       <c r="H118" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4474,7 +4312,7 @@
         <v>-4701427.569741981</v>
       </c>
       <c r="H119" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4507,7 +4345,7 @@
         <v>-5606593.242841981</v>
       </c>
       <c r="H120" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4804,7 +4642,7 @@
         <v>-8334512.052041982</v>
       </c>
       <c r="H129" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -7015,11 +6853,17 @@
         <v>-12645293.92405074</v>
       </c>
       <c r="H196" t="n">
-        <v>0</v>
-      </c>
-      <c r="I196" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I196" t="n">
+        <v>4.47</v>
+      </c>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -7052,7 +6896,11 @@
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -7085,7 +6933,11 @@
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -7118,7 +6970,11 @@
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -7151,7 +7007,11 @@
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7184,7 +7044,11 @@
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7217,7 +7081,11 @@
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7250,7 +7118,11 @@
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -7283,7 +7155,11 @@
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -7316,7 +7192,11 @@
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
+      <c r="K205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -7349,7 +7229,11 @@
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -7382,7 +7266,11 @@
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
+      <c r="K207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -7415,7 +7303,11 @@
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -7448,7 +7340,11 @@
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -7481,7 +7377,11 @@
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -7514,7 +7414,11 @@
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -7547,7 +7451,11 @@
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -7580,7 +7488,11 @@
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -7613,7 +7525,11 @@
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
+      <c r="K214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -7646,7 +7562,11 @@
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
+      <c r="K215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -7679,7 +7599,11 @@
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
+      <c r="K216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -7712,7 +7636,11 @@
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
+      <c r="K217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -7745,7 +7673,11 @@
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
+      <c r="K218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -7778,7 +7710,11 @@
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
+      <c r="K219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -7811,7 +7747,11 @@
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
+      <c r="K220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -7844,7 +7784,11 @@
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
+      <c r="K221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -7877,7 +7821,11 @@
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
+      <c r="K222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -7910,7 +7858,11 @@
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
+      <c r="K223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -7943,7 +7895,11 @@
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
+      <c r="K224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -7976,7 +7932,11 @@
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
+      <c r="K225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -8009,7 +7969,11 @@
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
+      <c r="K226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -8042,7 +8006,11 @@
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
+      <c r="K227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -8075,7 +8043,11 @@
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
+      <c r="K228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -8108,7 +8080,11 @@
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
+      <c r="K229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -8141,7 +8117,11 @@
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
+      <c r="K230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -8170,15 +8150,13 @@
         <v>-12828280.58305074</v>
       </c>
       <c r="H231" t="n">
-        <v>1</v>
-      </c>
-      <c r="I231" t="n">
-        <v>4.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
       <c r="K231" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L231" t="n">
@@ -8246,11 +8224,9 @@
         <v>-12828280.58305074</v>
       </c>
       <c r="H233" t="n">
-        <v>1</v>
-      </c>
-      <c r="I233" t="n">
-        <v>4.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
       <c r="K233" t="inlineStr">
         <is>
@@ -8285,11 +8261,9 @@
         <v>-12828280.58305074</v>
       </c>
       <c r="H234" t="n">
-        <v>1</v>
-      </c>
-      <c r="I234" t="n">
-        <v>4.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
       <c r="K234" t="inlineStr">
         <is>
@@ -8324,11 +8298,9 @@
         <v>-12784130.47267547</v>
       </c>
       <c r="H235" t="n">
-        <v>1</v>
-      </c>
-      <c r="I235" t="n">
-        <v>4.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
       <c r="K235" t="inlineStr">
         <is>
@@ -8363,11 +8335,9 @@
         <v>-12874130.47267547</v>
       </c>
       <c r="H236" t="n">
-        <v>1</v>
-      </c>
-      <c r="I236" t="n">
-        <v>4.53</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
       <c r="K236" t="inlineStr">
         <is>
@@ -8550,11 +8520,9 @@
         <v>-12633478.17437547</v>
       </c>
       <c r="H241" t="n">
-        <v>1</v>
-      </c>
-      <c r="I241" t="n">
-        <v>4.57</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
       <c r="K241" t="inlineStr">
         <is>
@@ -8589,11 +8557,9 @@
         <v>-12633478.17437547</v>
       </c>
       <c r="H242" t="n">
-        <v>1</v>
-      </c>
-      <c r="I242" t="n">
-        <v>4.57</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
       <c r="K242" t="inlineStr">
         <is>
@@ -8628,11 +8594,9 @@
         <v>-12633478.17437547</v>
       </c>
       <c r="H243" t="n">
-        <v>1</v>
-      </c>
-      <c r="I243" t="n">
-        <v>4.57</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
       <c r="K243" t="inlineStr">
         <is>
@@ -8667,11 +8631,9 @@
         <v>-12714388.64787547</v>
       </c>
       <c r="H244" t="n">
-        <v>1</v>
-      </c>
-      <c r="I244" t="n">
-        <v>4.57</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
       <c r="K244" t="inlineStr">
         <is>
@@ -8706,11 +8668,9 @@
         <v>-12712470.06257547</v>
       </c>
       <c r="H245" t="n">
-        <v>1</v>
-      </c>
-      <c r="I245" t="n">
-        <v>4.56</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
       <c r="K245" t="inlineStr">
         <is>
@@ -8745,11 +8705,9 @@
         <v>-12852076.06257547</v>
       </c>
       <c r="H246" t="n">
-        <v>1</v>
-      </c>
-      <c r="I246" t="n">
-        <v>4.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
       <c r="K246" t="inlineStr">
         <is>
@@ -8784,11 +8742,9 @@
         <v>-12377578.71997547</v>
       </c>
       <c r="H247" t="n">
-        <v>1</v>
-      </c>
-      <c r="I247" t="n">
-        <v>4.57</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
       <c r="K247" t="inlineStr">
         <is>
@@ -8823,11 +8779,9 @@
         <v>-12860915.09407547</v>
       </c>
       <c r="H248" t="n">
-        <v>1</v>
-      </c>
-      <c r="I248" t="n">
-        <v>4.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
       <c r="K248" t="inlineStr">
         <is>
@@ -8862,11 +8816,9 @@
         <v>-12860915.09407547</v>
       </c>
       <c r="H249" t="n">
-        <v>1</v>
-      </c>
-      <c r="I249" t="n">
-        <v>4.58</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
       <c r="K249" t="inlineStr">
         <is>
@@ -8901,11 +8853,9 @@
         <v>-12948453.66447547</v>
       </c>
       <c r="H250" t="n">
-        <v>1</v>
-      </c>
-      <c r="I250" t="n">
-        <v>4.58</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
       <c r="K250" t="inlineStr">
         <is>
@@ -8940,11 +8890,9 @@
         <v>-12960268.65387547</v>
       </c>
       <c r="H251" t="n">
-        <v>1</v>
-      </c>
-      <c r="I251" t="n">
-        <v>4.57</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
       <c r="K251" t="inlineStr">
         <is>
@@ -8979,11 +8927,9 @@
         <v>-13148668.05267547</v>
       </c>
       <c r="H252" t="n">
-        <v>1</v>
-      </c>
-      <c r="I252" t="n">
-        <v>4.56</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
       <c r="K252" t="inlineStr">
         <is>
@@ -9018,11 +8964,9 @@
         <v>-13148668.05267547</v>
       </c>
       <c r="H253" t="n">
-        <v>1</v>
-      </c>
-      <c r="I253" t="n">
-        <v>4.52</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
       <c r="K253" t="inlineStr">
         <is>
@@ -9057,11 +9001,9 @@
         <v>-13290692.93197547</v>
       </c>
       <c r="H254" t="n">
-        <v>1</v>
-      </c>
-      <c r="I254" t="n">
-        <v>4.52</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
       <c r="K254" t="inlineStr">
         <is>
@@ -9096,11 +9038,9 @@
         <v>-13290692.93197547</v>
       </c>
       <c r="H255" t="n">
-        <v>1</v>
-      </c>
-      <c r="I255" t="n">
-        <v>4.49</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
       <c r="K255" t="inlineStr">
         <is>
@@ -9135,11 +9075,9 @@
         <v>-14538562.35427547</v>
       </c>
       <c r="H256" t="n">
-        <v>1</v>
-      </c>
-      <c r="I256" t="n">
-        <v>4.49</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
       <c r="K256" t="inlineStr">
         <is>
@@ -9152,6 +9090,6 @@
       <c r="M256" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-31 BackTest XVG.xlsx
+++ b/BackTest/2019-10-31 BackTest XVG.xlsx
@@ -1936,7 +1936,7 @@
         <v>833330.8002580192</v>
       </c>
       <c r="H47" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>-569252.4816419808</v>
       </c>
       <c r="H56" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>-2042537.591741981</v>
       </c>
       <c r="H58" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>-1984801.315441981</v>
       </c>
       <c r="H59" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>-1101974.878941981</v>
       </c>
       <c r="H60" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>-698019.7442419806</v>
       </c>
       <c r="H61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>-2357574.95614198</v>
       </c>
       <c r="H62" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>-2094188.61924198</v>
       </c>
       <c r="H63" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>-1189719.63004198</v>
       </c>
       <c r="H64" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>-758579.2244419805</v>
       </c>
       <c r="H65" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
         <v>-2012113.903241981</v>
       </c>
       <c r="H66" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>-2012113.903241981</v>
       </c>
       <c r="H67" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>-2012113.903241981</v>
       </c>
       <c r="H68" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -3322,7 +3322,7 @@
         <v>-2962157.035041981</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3355,7 +3355,7 @@
         <v>-2778544.298641981</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3388,7 +3388,7 @@
         <v>-2845759.647841981</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3421,7 +3421,7 @@
         <v>-2845759.647841981</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3454,7 +3454,7 @@
         <v>-2983440.908641981</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3487,7 +3487,7 @@
         <v>-2983440.908641981</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3520,7 +3520,7 @@
         <v>-3476583.154741981</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3553,7 +3553,7 @@
         <v>-3476483.154741981</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3586,7 +3586,7 @@
         <v>-3584241.775341981</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3619,7 +3619,7 @@
         <v>-3763581.391341981</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3652,7 +3652,7 @@
         <v>-4665919.559041981</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -4081,7 +4081,7 @@
         <v>-3871786.034741981</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4114,7 +4114,7 @@
         <v>-3891948.602441981</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4840,7 +4840,7 @@
         <v>-8548291.269341983</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -6853,1312 +6853,1188 @@
         <v>-12645293.92405074</v>
       </c>
       <c r="H196" t="n">
-        <v>1</v>
-      </c>
-      <c r="I196" t="n">
+        <v>0</v>
+      </c>
+      <c r="I196" t="inlineStr"/>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="inlineStr"/>
+      <c r="L196" t="n">
+        <v>1</v>
+      </c>
+      <c r="M196" t="inlineStr"/>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="n">
         <v>4.47</v>
       </c>
-      <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr">
+      <c r="C197" t="n">
+        <v>4.58</v>
+      </c>
+      <c r="D197" t="n">
+        <v>4.58</v>
+      </c>
+      <c r="E197" t="n">
+        <v>4.47</v>
+      </c>
+      <c r="F197" t="n">
+        <v>291688.1849</v>
+      </c>
+      <c r="G197" t="n">
+        <v>-12353605.73915074</v>
+      </c>
+      <c r="H197" t="n">
+        <v>0</v>
+      </c>
+      <c r="I197" t="inlineStr"/>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="inlineStr"/>
+      <c r="L197" t="n">
+        <v>1</v>
+      </c>
+      <c r="M197" t="inlineStr"/>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="n">
+        <v>4.46</v>
+      </c>
+      <c r="C198" t="n">
+        <v>4.46</v>
+      </c>
+      <c r="D198" t="n">
+        <v>4.46</v>
+      </c>
+      <c r="E198" t="n">
+        <v>4.46</v>
+      </c>
+      <c r="F198" t="n">
+        <v>10320.0668</v>
+      </c>
+      <c r="G198" t="n">
+        <v>-12363925.80595074</v>
+      </c>
+      <c r="H198" t="n">
+        <v>0</v>
+      </c>
+      <c r="I198" t="inlineStr"/>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="inlineStr"/>
+      <c r="L198" t="n">
+        <v>1</v>
+      </c>
+      <c r="M198" t="inlineStr"/>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="n">
+        <v>4.56</v>
+      </c>
+      <c r="C199" t="n">
+        <v>4.56</v>
+      </c>
+      <c r="D199" t="n">
+        <v>4.56</v>
+      </c>
+      <c r="E199" t="n">
+        <v>4.46</v>
+      </c>
+      <c r="F199" t="n">
+        <v>90020</v>
+      </c>
+      <c r="G199" t="n">
+        <v>-12273905.80595074</v>
+      </c>
+      <c r="H199" t="n">
+        <v>0</v>
+      </c>
+      <c r="I199" t="inlineStr"/>
+      <c r="J199" t="inlineStr"/>
+      <c r="K199" t="inlineStr"/>
+      <c r="L199" t="n">
+        <v>1</v>
+      </c>
+      <c r="M199" t="inlineStr"/>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="n">
+        <v>4.44</v>
+      </c>
+      <c r="C200" t="n">
+        <v>4.53</v>
+      </c>
+      <c r="D200" t="n">
+        <v>4.53</v>
+      </c>
+      <c r="E200" t="n">
+        <v>4.44</v>
+      </c>
+      <c r="F200" t="n">
+        <v>80010</v>
+      </c>
+      <c r="G200" t="n">
+        <v>-12353915.80595074</v>
+      </c>
+      <c r="H200" t="n">
+        <v>0</v>
+      </c>
+      <c r="I200" t="inlineStr"/>
+      <c r="J200" t="inlineStr"/>
+      <c r="K200" t="inlineStr"/>
+      <c r="L200" t="n">
+        <v>1</v>
+      </c>
+      <c r="M200" t="inlineStr"/>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="n">
+        <v>4.44</v>
+      </c>
+      <c r="C201" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="D201" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="E201" t="n">
+        <v>4.43</v>
+      </c>
+      <c r="F201" t="n">
+        <v>100020</v>
+      </c>
+      <c r="G201" t="n">
+        <v>-12253895.80595074</v>
+      </c>
+      <c r="H201" t="n">
+        <v>0</v>
+      </c>
+      <c r="I201" t="inlineStr"/>
+      <c r="J201" t="inlineStr"/>
+      <c r="K201" t="inlineStr"/>
+      <c r="L201" t="n">
+        <v>1</v>
+      </c>
+      <c r="M201" t="inlineStr"/>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="B202" t="n">
+        <v>4.44</v>
+      </c>
+      <c r="C202" t="n">
+        <v>4.52</v>
+      </c>
+      <c r="D202" t="n">
+        <v>4.53</v>
+      </c>
+      <c r="E202" t="n">
+        <v>4.44</v>
+      </c>
+      <c r="F202" t="n">
+        <v>86435.61259999999</v>
+      </c>
+      <c r="G202" t="n">
+        <v>-12340331.41855074</v>
+      </c>
+      <c r="H202" t="n">
+        <v>0</v>
+      </c>
+      <c r="I202" t="inlineStr"/>
+      <c r="J202" t="inlineStr"/>
+      <c r="K202" t="inlineStr"/>
+      <c r="L202" t="n">
+        <v>1</v>
+      </c>
+      <c r="M202" t="inlineStr"/>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="B203" t="n">
+        <v>4.43</v>
+      </c>
+      <c r="C203" t="n">
+        <v>4.53</v>
+      </c>
+      <c r="D203" t="n">
+        <v>4.53</v>
+      </c>
+      <c r="E203" t="n">
+        <v>4.43</v>
+      </c>
+      <c r="F203" t="n">
+        <v>100010</v>
+      </c>
+      <c r="G203" t="n">
+        <v>-12240321.41855074</v>
+      </c>
+      <c r="H203" t="n">
+        <v>0</v>
+      </c>
+      <c r="I203" t="inlineStr"/>
+      <c r="J203" t="inlineStr"/>
+      <c r="K203" t="inlineStr"/>
+      <c r="L203" t="n">
+        <v>1</v>
+      </c>
+      <c r="M203" t="inlineStr"/>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="n">
+        <v>202</v>
+      </c>
+      <c r="B204" t="n">
+        <v>4.43</v>
+      </c>
+      <c r="C204" t="n">
+        <v>4.51</v>
+      </c>
+      <c r="D204" t="n">
+        <v>4.53</v>
+      </c>
+      <c r="E204" t="n">
+        <v>4.43</v>
+      </c>
+      <c r="F204" t="n">
+        <v>268828.4271</v>
+      </c>
+      <c r="G204" t="n">
+        <v>-12509149.84565074</v>
+      </c>
+      <c r="H204" t="n">
+        <v>0</v>
+      </c>
+      <c r="I204" t="inlineStr"/>
+      <c r="J204" t="inlineStr"/>
+      <c r="K204" t="inlineStr"/>
+      <c r="L204" t="n">
+        <v>1</v>
+      </c>
+      <c r="M204" t="inlineStr"/>
+    </row>
+    <row r="205">
+      <c r="A205" s="1" t="n">
+        <v>203</v>
+      </c>
+      <c r="B205" t="n">
+        <v>4.43</v>
+      </c>
+      <c r="C205" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="D205" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="E205" t="n">
+        <v>4.43</v>
+      </c>
+      <c r="F205" t="n">
+        <v>125722</v>
+      </c>
+      <c r="G205" t="n">
+        <v>-12634871.84565074</v>
+      </c>
+      <c r="H205" t="n">
+        <v>0</v>
+      </c>
+      <c r="I205" t="inlineStr"/>
+      <c r="J205" t="inlineStr"/>
+      <c r="K205" t="inlineStr"/>
+      <c r="L205" t="n">
+        <v>1</v>
+      </c>
+      <c r="M205" t="inlineStr"/>
+    </row>
+    <row r="206">
+      <c r="A206" s="1" t="n">
+        <v>204</v>
+      </c>
+      <c r="B206" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="C206" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="D206" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="E206" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="F206" t="n">
+        <v>60870</v>
+      </c>
+      <c r="G206" t="n">
+        <v>-12634871.84565074</v>
+      </c>
+      <c r="H206" t="n">
+        <v>0</v>
+      </c>
+      <c r="I206" t="inlineStr"/>
+      <c r="J206" t="inlineStr"/>
+      <c r="K206" t="inlineStr"/>
+      <c r="L206" t="n">
+        <v>1</v>
+      </c>
+      <c r="M206" t="inlineStr"/>
+    </row>
+    <row r="207">
+      <c r="A207" s="1" t="n">
+        <v>205</v>
+      </c>
+      <c r="B207" t="n">
+        <v>4.53</v>
+      </c>
+      <c r="C207" t="n">
+        <v>4.53</v>
+      </c>
+      <c r="D207" t="n">
+        <v>4.53</v>
+      </c>
+      <c r="E207" t="n">
+        <v>4.53</v>
+      </c>
+      <c r="F207" t="n">
+        <v>10</v>
+      </c>
+      <c r="G207" t="n">
+        <v>-12634861.84565074</v>
+      </c>
+      <c r="H207" t="n">
+        <v>0</v>
+      </c>
+      <c r="I207" t="inlineStr"/>
+      <c r="J207" t="inlineStr"/>
+      <c r="K207" t="inlineStr"/>
+      <c r="L207" t="n">
+        <v>1</v>
+      </c>
+      <c r="M207" t="inlineStr"/>
+    </row>
+    <row r="208">
+      <c r="A208" s="1" t="n">
+        <v>206</v>
+      </c>
+      <c r="B208" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="C208" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="D208" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="E208" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="F208" t="n">
+        <v>14651</v>
+      </c>
+      <c r="G208" t="n">
+        <v>-12649512.84565074</v>
+      </c>
+      <c r="H208" t="n">
+        <v>0</v>
+      </c>
+      <c r="I208" t="inlineStr"/>
+      <c r="J208" t="inlineStr"/>
+      <c r="K208" t="inlineStr"/>
+      <c r="L208" t="n">
+        <v>1</v>
+      </c>
+      <c r="M208" t="inlineStr"/>
+    </row>
+    <row r="209">
+      <c r="A209" s="1" t="n">
+        <v>207</v>
+      </c>
+      <c r="B209" t="n">
+        <v>4.51</v>
+      </c>
+      <c r="C209" t="n">
+        <v>4.51</v>
+      </c>
+      <c r="D209" t="n">
+        <v>4.51</v>
+      </c>
+      <c r="E209" t="n">
+        <v>4.51</v>
+      </c>
+      <c r="F209" t="n">
+        <v>51857.2996</v>
+      </c>
+      <c r="G209" t="n">
+        <v>-12597655.54605074</v>
+      </c>
+      <c r="H209" t="n">
+        <v>0</v>
+      </c>
+      <c r="I209" t="inlineStr"/>
+      <c r="J209" t="inlineStr"/>
+      <c r="K209" t="inlineStr"/>
+      <c r="L209" t="n">
+        <v>1</v>
+      </c>
+      <c r="M209" t="inlineStr"/>
+    </row>
+    <row r="210">
+      <c r="A210" s="1" t="n">
+        <v>208</v>
+      </c>
+      <c r="B210" t="n">
+        <v>4.53</v>
+      </c>
+      <c r="C210" t="n">
+        <v>4.53</v>
+      </c>
+      <c r="D210" t="n">
+        <v>4.53</v>
+      </c>
+      <c r="E210" t="n">
+        <v>4.53</v>
+      </c>
+      <c r="F210" t="n">
+        <v>34893</v>
+      </c>
+      <c r="G210" t="n">
+        <v>-12562762.54605074</v>
+      </c>
+      <c r="H210" t="n">
+        <v>0</v>
+      </c>
+      <c r="I210" t="inlineStr"/>
+      <c r="J210" t="inlineStr"/>
+      <c r="K210" t="inlineStr"/>
+      <c r="L210" t="n">
+        <v>1</v>
+      </c>
+      <c r="M210" t="inlineStr"/>
+    </row>
+    <row r="211">
+      <c r="A211" s="1" t="n">
+        <v>209</v>
+      </c>
+      <c r="B211" t="n">
+        <v>4.56</v>
+      </c>
+      <c r="C211" t="n">
+        <v>4.56</v>
+      </c>
+      <c r="D211" t="n">
+        <v>4.56</v>
+      </c>
+      <c r="E211" t="n">
+        <v>4.56</v>
+      </c>
+      <c r="F211" t="n">
+        <v>52893.6403</v>
+      </c>
+      <c r="G211" t="n">
+        <v>-12509868.90575074</v>
+      </c>
+      <c r="H211" t="n">
+        <v>0</v>
+      </c>
+      <c r="I211" t="inlineStr"/>
+      <c r="J211" t="inlineStr"/>
+      <c r="K211" t="inlineStr"/>
+      <c r="L211" t="n">
+        <v>1</v>
+      </c>
+      <c r="M211" t="inlineStr"/>
+    </row>
+    <row r="212">
+      <c r="A212" s="1" t="n">
+        <v>210</v>
+      </c>
+      <c r="B212" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="C212" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="D212" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="E212" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="F212" t="n">
+        <v>80921.10129999999</v>
+      </c>
+      <c r="G212" t="n">
+        <v>-12590790.00705074</v>
+      </c>
+      <c r="H212" t="n">
+        <v>0</v>
+      </c>
+      <c r="I212" t="inlineStr"/>
+      <c r="J212" t="inlineStr"/>
+      <c r="K212" t="inlineStr"/>
+      <c r="L212" t="n">
+        <v>1</v>
+      </c>
+      <c r="M212" t="inlineStr"/>
+    </row>
+    <row r="213">
+      <c r="A213" s="1" t="n">
+        <v>211</v>
+      </c>
+      <c r="B213" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="C213" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="D213" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="E213" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="F213" t="n">
+        <v>9723.546200000001</v>
+      </c>
+      <c r="G213" t="n">
+        <v>-12600513.55325074</v>
+      </c>
+      <c r="H213" t="n">
+        <v>0</v>
+      </c>
+      <c r="I213" t="inlineStr"/>
+      <c r="J213" t="inlineStr"/>
+      <c r="K213" t="inlineStr"/>
+      <c r="L213" t="n">
+        <v>1</v>
+      </c>
+      <c r="M213" t="inlineStr"/>
+    </row>
+    <row r="214">
+      <c r="A214" s="1" t="n">
+        <v>212</v>
+      </c>
+      <c r="B214" t="n">
+        <v>4.51</v>
+      </c>
+      <c r="C214" t="n">
+        <v>4.51</v>
+      </c>
+      <c r="D214" t="n">
+        <v>4.51</v>
+      </c>
+      <c r="E214" t="n">
+        <v>4.51</v>
+      </c>
+      <c r="F214" t="n">
+        <v>15081.9999</v>
+      </c>
+      <c r="G214" t="n">
+        <v>-12585431.55335074</v>
+      </c>
+      <c r="H214" t="n">
+        <v>0</v>
+      </c>
+      <c r="I214" t="inlineStr"/>
+      <c r="J214" t="inlineStr"/>
+      <c r="K214" t="inlineStr"/>
+      <c r="L214" t="n">
+        <v>1</v>
+      </c>
+      <c r="M214" t="inlineStr"/>
+    </row>
+    <row r="215">
+      <c r="A215" s="1" t="n">
+        <v>213</v>
+      </c>
+      <c r="B215" t="n">
+        <v>4.51</v>
+      </c>
+      <c r="C215" t="n">
+        <v>4.51</v>
+      </c>
+      <c r="D215" t="n">
+        <v>4.51</v>
+      </c>
+      <c r="E215" t="n">
+        <v>4.51</v>
+      </c>
+      <c r="F215" t="n">
+        <v>24749.9999</v>
+      </c>
+      <c r="G215" t="n">
+        <v>-12585431.55335074</v>
+      </c>
+      <c r="H215" t="n">
+        <v>0</v>
+      </c>
+      <c r="I215" t="inlineStr"/>
+      <c r="J215" t="inlineStr"/>
+      <c r="K215" t="inlineStr"/>
+      <c r="L215" t="n">
+        <v>1</v>
+      </c>
+      <c r="M215" t="inlineStr"/>
+    </row>
+    <row r="216">
+      <c r="A216" s="1" t="n">
+        <v>214</v>
+      </c>
+      <c r="B216" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="C216" t="n">
+        <v>4.51</v>
+      </c>
+      <c r="D216" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="E216" t="n">
+        <v>4.51</v>
+      </c>
+      <c r="F216" t="n">
+        <v>9946.604499999999</v>
+      </c>
+      <c r="G216" t="n">
+        <v>-12585431.55335074</v>
+      </c>
+      <c r="H216" t="n">
+        <v>0</v>
+      </c>
+      <c r="I216" t="inlineStr"/>
+      <c r="J216" t="inlineStr"/>
+      <c r="K216" t="inlineStr"/>
+      <c r="L216" t="n">
+        <v>1</v>
+      </c>
+      <c r="M216" t="inlineStr"/>
+    </row>
+    <row r="217">
+      <c r="A217" s="1" t="n">
+        <v>215</v>
+      </c>
+      <c r="B217" t="n">
+        <v>4.53</v>
+      </c>
+      <c r="C217" t="n">
+        <v>4.53</v>
+      </c>
+      <c r="D217" t="n">
+        <v>4.53</v>
+      </c>
+      <c r="E217" t="n">
+        <v>4.53</v>
+      </c>
+      <c r="F217" t="n">
+        <v>10</v>
+      </c>
+      <c r="G217" t="n">
+        <v>-12585421.55335074</v>
+      </c>
+      <c r="H217" t="n">
+        <v>0</v>
+      </c>
+      <c r="I217" t="inlineStr"/>
+      <c r="J217" t="inlineStr"/>
+      <c r="K217" t="inlineStr"/>
+      <c r="L217" t="n">
+        <v>1</v>
+      </c>
+      <c r="M217" t="inlineStr"/>
+    </row>
+    <row r="218">
+      <c r="A218" s="1" t="n">
+        <v>216</v>
+      </c>
+      <c r="B218" t="n">
+        <v>4.51</v>
+      </c>
+      <c r="C218" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="D218" t="n">
+        <v>4.51</v>
+      </c>
+      <c r="E218" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="F218" t="n">
+        <v>91314.4507</v>
+      </c>
+      <c r="G218" t="n">
+        <v>-12676736.00405074</v>
+      </c>
+      <c r="H218" t="n">
+        <v>0</v>
+      </c>
+      <c r="I218" t="inlineStr"/>
+      <c r="J218" t="inlineStr"/>
+      <c r="K218" t="inlineStr"/>
+      <c r="L218" t="n">
+        <v>1</v>
+      </c>
+      <c r="M218" t="inlineStr"/>
+    </row>
+    <row r="219">
+      <c r="A219" s="1" t="n">
+        <v>217</v>
+      </c>
+      <c r="B219" t="n">
+        <v>4.53</v>
+      </c>
+      <c r="C219" t="n">
+        <v>4.53</v>
+      </c>
+      <c r="D219" t="n">
+        <v>4.53</v>
+      </c>
+      <c r="E219" t="n">
+        <v>4.53</v>
+      </c>
+      <c r="F219" t="n">
+        <v>22075.0551</v>
+      </c>
+      <c r="G219" t="n">
+        <v>-12654660.94895074</v>
+      </c>
+      <c r="H219" t="n">
+        <v>0</v>
+      </c>
+      <c r="I219" t="inlineStr"/>
+      <c r="J219" t="inlineStr"/>
+      <c r="K219" t="inlineStr"/>
+      <c r="L219" t="n">
+        <v>1</v>
+      </c>
+      <c r="M219" t="inlineStr"/>
+    </row>
+    <row r="220">
+      <c r="A220" s="1" t="n">
+        <v>218</v>
+      </c>
+      <c r="B220" t="n">
+        <v>4.53</v>
+      </c>
+      <c r="C220" t="n">
+        <v>4.53</v>
+      </c>
+      <c r="D220" t="n">
+        <v>4.53</v>
+      </c>
+      <c r="E220" t="n">
+        <v>4.53</v>
+      </c>
+      <c r="F220" t="n">
+        <v>56244.7866</v>
+      </c>
+      <c r="G220" t="n">
+        <v>-12654660.94895074</v>
+      </c>
+      <c r="H220" t="n">
+        <v>0</v>
+      </c>
+      <c r="I220" t="inlineStr"/>
+      <c r="J220" t="inlineStr"/>
+      <c r="K220" t="inlineStr"/>
+      <c r="L220" t="n">
+        <v>1</v>
+      </c>
+      <c r="M220" t="inlineStr"/>
+    </row>
+    <row r="221">
+      <c r="A221" s="1" t="n">
+        <v>219</v>
+      </c>
+      <c r="B221" t="n">
+        <v>4.51</v>
+      </c>
+      <c r="C221" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="D221" t="n">
+        <v>4.51</v>
+      </c>
+      <c r="E221" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="F221" t="n">
+        <v>289035.7276</v>
+      </c>
+      <c r="G221" t="n">
+        <v>-12943696.67655074</v>
+      </c>
+      <c r="H221" t="n">
+        <v>0</v>
+      </c>
+      <c r="I221" t="inlineStr"/>
+      <c r="J221" t="inlineStr"/>
+      <c r="K221" t="inlineStr"/>
+      <c r="L221" t="n">
+        <v>1</v>
+      </c>
+      <c r="M221" t="inlineStr"/>
+    </row>
+    <row r="222">
+      <c r="A222" s="1" t="n">
+        <v>220</v>
+      </c>
+      <c r="B222" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="C222" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="D222" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="E222" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="F222" t="n">
+        <v>82671.2687</v>
+      </c>
+      <c r="G222" t="n">
+        <v>-12943696.67655074</v>
+      </c>
+      <c r="H222" t="n">
+        <v>0</v>
+      </c>
+      <c r="I222" t="inlineStr"/>
+      <c r="J222" t="inlineStr"/>
+      <c r="K222" t="inlineStr"/>
+      <c r="L222" t="n">
+        <v>1</v>
+      </c>
+      <c r="M222" t="inlineStr"/>
+    </row>
+    <row r="223">
+      <c r="A223" s="1" t="n">
+        <v>221</v>
+      </c>
+      <c r="B223" t="n">
+        <v>4.48</v>
+      </c>
+      <c r="C223" t="n">
+        <v>4.47</v>
+      </c>
+      <c r="D223" t="n">
+        <v>4.48</v>
+      </c>
+      <c r="E223" t="n">
+        <v>4.47</v>
+      </c>
+      <c r="F223" t="n">
+        <v>62573.7897</v>
+      </c>
+      <c r="G223" t="n">
+        <v>-13006270.46625074</v>
+      </c>
+      <c r="H223" t="n">
+        <v>0</v>
+      </c>
+      <c r="I223" t="inlineStr"/>
+      <c r="J223" t="inlineStr"/>
+      <c r="K223" t="inlineStr"/>
+      <c r="L223" t="n">
+        <v>1</v>
+      </c>
+      <c r="M223" t="inlineStr"/>
+    </row>
+    <row r="224">
+      <c r="A224" s="1" t="n">
+        <v>222</v>
+      </c>
+      <c r="B224" t="n">
+        <v>4.53</v>
+      </c>
+      <c r="C224" t="n">
+        <v>4.53</v>
+      </c>
+      <c r="D224" t="n">
+        <v>4.53</v>
+      </c>
+      <c r="E224" t="n">
+        <v>4.53</v>
+      </c>
+      <c r="F224" t="n">
+        <v>2160.0005</v>
+      </c>
+      <c r="G224" t="n">
+        <v>-13004110.46575074</v>
+      </c>
+      <c r="H224" t="n">
+        <v>1</v>
+      </c>
+      <c r="I224" t="n">
+        <v>4.47</v>
+      </c>
+      <c r="J224" t="n">
+        <v>4.47</v>
+      </c>
+      <c r="K224" t="inlineStr"/>
+      <c r="L224" t="n">
+        <v>1</v>
+      </c>
+      <c r="M224" t="inlineStr"/>
+    </row>
+    <row r="225">
+      <c r="A225" s="1" t="n">
+        <v>223</v>
+      </c>
+      <c r="B225" t="n">
+        <v>4.53</v>
+      </c>
+      <c r="C225" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="D225" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="E225" t="n">
+        <v>4.53</v>
+      </c>
+      <c r="F225" t="n">
+        <v>222652.2492</v>
+      </c>
+      <c r="G225" t="n">
+        <v>-12781458.21655074</v>
+      </c>
+      <c r="H225" t="n">
+        <v>0</v>
+      </c>
+      <c r="I225" t="inlineStr"/>
+      <c r="J225" t="n">
+        <v>4.47</v>
+      </c>
+      <c r="K225" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L225" t="n">
+        <v>1</v>
+      </c>
+      <c r="M225" t="inlineStr"/>
+    </row>
+    <row r="226">
+      <c r="A226" s="1" t="n">
+        <v>224</v>
+      </c>
+      <c r="B226" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="C226" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="D226" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="E226" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="F226" t="n">
+        <v>41042.1978</v>
+      </c>
+      <c r="G226" t="n">
+        <v>-12822500.41435074</v>
+      </c>
+      <c r="H226" t="n">
+        <v>0</v>
+      </c>
+      <c r="I226" t="inlineStr"/>
+      <c r="J226" t="n">
+        <v>4.47</v>
+      </c>
+      <c r="K226" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L226" t="n">
+        <v>1</v>
+      </c>
+      <c r="M226" t="inlineStr"/>
+    </row>
+    <row r="227">
+      <c r="A227" s="1" t="n">
+        <v>225</v>
+      </c>
+      <c r="B227" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="C227" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="D227" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="E227" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="F227" t="n">
+        <v>18872.3076</v>
+      </c>
+      <c r="G227" t="n">
+        <v>-12822500.41435074</v>
+      </c>
+      <c r="H227" t="n">
+        <v>0</v>
+      </c>
+      <c r="I227" t="inlineStr"/>
+      <c r="J227" t="inlineStr"/>
+      <c r="K227" t="inlineStr"/>
+      <c r="L227" t="n">
+        <v>1</v>
+      </c>
+      <c r="M227" t="inlineStr"/>
+    </row>
+    <row r="228">
+      <c r="A228" s="1" t="n">
+        <v>226</v>
+      </c>
+      <c r="B228" t="n">
+        <v>4.53</v>
+      </c>
+      <c r="C228" t="n">
+        <v>4.53</v>
+      </c>
+      <c r="D228" t="n">
+        <v>4.53</v>
+      </c>
+      <c r="E228" t="n">
+        <v>4.53</v>
+      </c>
+      <c r="F228" t="n">
+        <v>863.8702</v>
+      </c>
+      <c r="G228" t="n">
+        <v>-12823364.28455074</v>
+      </c>
+      <c r="H228" t="n">
+        <v>0</v>
+      </c>
+      <c r="I228" t="inlineStr"/>
+      <c r="J228" t="inlineStr"/>
+      <c r="K228" t="inlineStr"/>
+      <c r="L228" t="n">
+        <v>1</v>
+      </c>
+      <c r="M228" t="inlineStr"/>
+    </row>
+    <row r="229">
+      <c r="A229" s="1" t="n">
+        <v>227</v>
+      </c>
+      <c r="B229" t="n">
+        <v>4.48</v>
+      </c>
+      <c r="C229" t="n">
+        <v>4.48</v>
+      </c>
+      <c r="D229" t="n">
+        <v>4.48</v>
+      </c>
+      <c r="E229" t="n">
+        <v>4.48</v>
+      </c>
+      <c r="F229" t="n">
+        <v>18825.1268</v>
+      </c>
+      <c r="G229" t="n">
+        <v>-12842189.41135074</v>
+      </c>
+      <c r="H229" t="n">
+        <v>0</v>
+      </c>
+      <c r="I229" t="inlineStr"/>
+      <c r="J229" t="inlineStr"/>
+      <c r="K229" t="inlineStr"/>
+      <c r="L229" t="n">
+        <v>1</v>
+      </c>
+      <c r="M229" t="inlineStr"/>
+    </row>
+    <row r="230">
+      <c r="A230" s="1" t="n">
+        <v>228</v>
+      </c>
+      <c r="B230" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="C230" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="D230" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="E230" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="F230" t="n">
+        <v>13908.8283</v>
+      </c>
+      <c r="G230" t="n">
+        <v>-12828280.58305074</v>
+      </c>
+      <c r="H230" t="n">
+        <v>0</v>
+      </c>
+      <c r="I230" t="inlineStr"/>
+      <c r="J230" t="inlineStr"/>
+      <c r="K230" t="inlineStr"/>
+      <c r="L230" t="n">
+        <v>1</v>
+      </c>
+      <c r="M230" t="inlineStr"/>
+    </row>
+    <row r="231">
+      <c r="A231" s="1" t="n">
+        <v>229</v>
+      </c>
+      <c r="B231" t="n">
+        <v>4.51</v>
+      </c>
+      <c r="C231" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="D231" t="n">
+        <v>4.51</v>
+      </c>
+      <c r="E231" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="F231" t="n">
+        <v>225917</v>
+      </c>
+      <c r="G231" t="n">
+        <v>-12828280.58305074</v>
+      </c>
+      <c r="H231" t="n">
+        <v>1</v>
+      </c>
+      <c r="I231" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="J231" t="inlineStr"/>
+      <c r="K231" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L196" t="n">
-        <v>1</v>
-      </c>
-      <c r="M196" t="inlineStr"/>
-    </row>
-    <row r="197">
-      <c r="A197" s="1" t="n">
-        <v>195</v>
-      </c>
-      <c r="B197" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="C197" t="n">
-        <v>4.58</v>
-      </c>
-      <c r="D197" t="n">
-        <v>4.58</v>
-      </c>
-      <c r="E197" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="F197" t="n">
-        <v>291688.1849</v>
-      </c>
-      <c r="G197" t="n">
-        <v>-12353605.73915074</v>
-      </c>
-      <c r="H197" t="n">
-        <v>0</v>
-      </c>
-      <c r="I197" t="inlineStr"/>
-      <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L197" t="n">
-        <v>1</v>
-      </c>
-      <c r="M197" t="inlineStr"/>
-    </row>
-    <row r="198">
-      <c r="A198" s="1" t="n">
-        <v>196</v>
-      </c>
-      <c r="B198" t="n">
-        <v>4.46</v>
-      </c>
-      <c r="C198" t="n">
-        <v>4.46</v>
-      </c>
-      <c r="D198" t="n">
-        <v>4.46</v>
-      </c>
-      <c r="E198" t="n">
-        <v>4.46</v>
-      </c>
-      <c r="F198" t="n">
-        <v>10320.0668</v>
-      </c>
-      <c r="G198" t="n">
-        <v>-12363925.80595074</v>
-      </c>
-      <c r="H198" t="n">
-        <v>0</v>
-      </c>
-      <c r="I198" t="inlineStr"/>
-      <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L198" t="n">
-        <v>1</v>
-      </c>
-      <c r="M198" t="inlineStr"/>
-    </row>
-    <row r="199">
-      <c r="A199" s="1" t="n">
-        <v>197</v>
-      </c>
-      <c r="B199" t="n">
-        <v>4.56</v>
-      </c>
-      <c r="C199" t="n">
-        <v>4.56</v>
-      </c>
-      <c r="D199" t="n">
-        <v>4.56</v>
-      </c>
-      <c r="E199" t="n">
-        <v>4.46</v>
-      </c>
-      <c r="F199" t="n">
-        <v>90020</v>
-      </c>
-      <c r="G199" t="n">
-        <v>-12273905.80595074</v>
-      </c>
-      <c r="H199" t="n">
-        <v>0</v>
-      </c>
-      <c r="I199" t="inlineStr"/>
-      <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L199" t="n">
-        <v>1</v>
-      </c>
-      <c r="M199" t="inlineStr"/>
-    </row>
-    <row r="200">
-      <c r="A200" s="1" t="n">
-        <v>198</v>
-      </c>
-      <c r="B200" t="n">
-        <v>4.44</v>
-      </c>
-      <c r="C200" t="n">
-        <v>4.53</v>
-      </c>
-      <c r="D200" t="n">
-        <v>4.53</v>
-      </c>
-      <c r="E200" t="n">
-        <v>4.44</v>
-      </c>
-      <c r="F200" t="n">
-        <v>80010</v>
-      </c>
-      <c r="G200" t="n">
-        <v>-12353915.80595074</v>
-      </c>
-      <c r="H200" t="n">
-        <v>0</v>
-      </c>
-      <c r="I200" t="inlineStr"/>
-      <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L200" t="n">
-        <v>1</v>
-      </c>
-      <c r="M200" t="inlineStr"/>
-    </row>
-    <row r="201">
-      <c r="A201" s="1" t="n">
-        <v>199</v>
-      </c>
-      <c r="B201" t="n">
-        <v>4.44</v>
-      </c>
-      <c r="C201" t="n">
-        <v>4.54</v>
-      </c>
-      <c r="D201" t="n">
-        <v>4.54</v>
-      </c>
-      <c r="E201" t="n">
-        <v>4.43</v>
-      </c>
-      <c r="F201" t="n">
-        <v>100020</v>
-      </c>
-      <c r="G201" t="n">
-        <v>-12253895.80595074</v>
-      </c>
-      <c r="H201" t="n">
-        <v>0</v>
-      </c>
-      <c r="I201" t="inlineStr"/>
-      <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L201" t="n">
-        <v>1</v>
-      </c>
-      <c r="M201" t="inlineStr"/>
-    </row>
-    <row r="202">
-      <c r="A202" s="1" t="n">
-        <v>200</v>
-      </c>
-      <c r="B202" t="n">
-        <v>4.44</v>
-      </c>
-      <c r="C202" t="n">
-        <v>4.52</v>
-      </c>
-      <c r="D202" t="n">
-        <v>4.53</v>
-      </c>
-      <c r="E202" t="n">
-        <v>4.44</v>
-      </c>
-      <c r="F202" t="n">
-        <v>86435.61259999999</v>
-      </c>
-      <c r="G202" t="n">
-        <v>-12340331.41855074</v>
-      </c>
-      <c r="H202" t="n">
-        <v>0</v>
-      </c>
-      <c r="I202" t="inlineStr"/>
-      <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L202" t="n">
-        <v>1</v>
-      </c>
-      <c r="M202" t="inlineStr"/>
-    </row>
-    <row r="203">
-      <c r="A203" s="1" t="n">
-        <v>201</v>
-      </c>
-      <c r="B203" t="n">
-        <v>4.43</v>
-      </c>
-      <c r="C203" t="n">
-        <v>4.53</v>
-      </c>
-      <c r="D203" t="n">
-        <v>4.53</v>
-      </c>
-      <c r="E203" t="n">
-        <v>4.43</v>
-      </c>
-      <c r="F203" t="n">
-        <v>100010</v>
-      </c>
-      <c r="G203" t="n">
-        <v>-12240321.41855074</v>
-      </c>
-      <c r="H203" t="n">
-        <v>0</v>
-      </c>
-      <c r="I203" t="inlineStr"/>
-      <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L203" t="n">
-        <v>1</v>
-      </c>
-      <c r="M203" t="inlineStr"/>
-    </row>
-    <row r="204">
-      <c r="A204" s="1" t="n">
-        <v>202</v>
-      </c>
-      <c r="B204" t="n">
-        <v>4.43</v>
-      </c>
-      <c r="C204" t="n">
-        <v>4.51</v>
-      </c>
-      <c r="D204" t="n">
-        <v>4.53</v>
-      </c>
-      <c r="E204" t="n">
-        <v>4.43</v>
-      </c>
-      <c r="F204" t="n">
-        <v>268828.4271</v>
-      </c>
-      <c r="G204" t="n">
-        <v>-12509149.84565074</v>
-      </c>
-      <c r="H204" t="n">
-        <v>0</v>
-      </c>
-      <c r="I204" t="inlineStr"/>
-      <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L204" t="n">
-        <v>1</v>
-      </c>
-      <c r="M204" t="inlineStr"/>
-    </row>
-    <row r="205">
-      <c r="A205" s="1" t="n">
-        <v>203</v>
-      </c>
-      <c r="B205" t="n">
-        <v>4.43</v>
-      </c>
-      <c r="C205" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="D205" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="E205" t="n">
-        <v>4.43</v>
-      </c>
-      <c r="F205" t="n">
-        <v>125722</v>
-      </c>
-      <c r="G205" t="n">
-        <v>-12634871.84565074</v>
-      </c>
-      <c r="H205" t="n">
-        <v>0</v>
-      </c>
-      <c r="I205" t="inlineStr"/>
-      <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L205" t="n">
-        <v>1</v>
-      </c>
-      <c r="M205" t="inlineStr"/>
-    </row>
-    <row r="206">
-      <c r="A206" s="1" t="n">
-        <v>204</v>
-      </c>
-      <c r="B206" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="C206" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="D206" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="E206" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="F206" t="n">
-        <v>60870</v>
-      </c>
-      <c r="G206" t="n">
-        <v>-12634871.84565074</v>
-      </c>
-      <c r="H206" t="n">
-        <v>0</v>
-      </c>
-      <c r="I206" t="inlineStr"/>
-      <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L206" t="n">
-        <v>1</v>
-      </c>
-      <c r="M206" t="inlineStr"/>
-    </row>
-    <row r="207">
-      <c r="A207" s="1" t="n">
-        <v>205</v>
-      </c>
-      <c r="B207" t="n">
-        <v>4.53</v>
-      </c>
-      <c r="C207" t="n">
-        <v>4.53</v>
-      </c>
-      <c r="D207" t="n">
-        <v>4.53</v>
-      </c>
-      <c r="E207" t="n">
-        <v>4.53</v>
-      </c>
-      <c r="F207" t="n">
-        <v>10</v>
-      </c>
-      <c r="G207" t="n">
-        <v>-12634861.84565074</v>
-      </c>
-      <c r="H207" t="n">
-        <v>0</v>
-      </c>
-      <c r="I207" t="inlineStr"/>
-      <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L207" t="n">
-        <v>1</v>
-      </c>
-      <c r="M207" t="inlineStr"/>
-    </row>
-    <row r="208">
-      <c r="A208" s="1" t="n">
-        <v>206</v>
-      </c>
-      <c r="B208" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="C208" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="D208" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="E208" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="F208" t="n">
-        <v>14651</v>
-      </c>
-      <c r="G208" t="n">
-        <v>-12649512.84565074</v>
-      </c>
-      <c r="H208" t="n">
-        <v>0</v>
-      </c>
-      <c r="I208" t="inlineStr"/>
-      <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L208" t="n">
-        <v>1</v>
-      </c>
-      <c r="M208" t="inlineStr"/>
-    </row>
-    <row r="209">
-      <c r="A209" s="1" t="n">
-        <v>207</v>
-      </c>
-      <c r="B209" t="n">
-        <v>4.51</v>
-      </c>
-      <c r="C209" t="n">
-        <v>4.51</v>
-      </c>
-      <c r="D209" t="n">
-        <v>4.51</v>
-      </c>
-      <c r="E209" t="n">
-        <v>4.51</v>
-      </c>
-      <c r="F209" t="n">
-        <v>51857.2996</v>
-      </c>
-      <c r="G209" t="n">
-        <v>-12597655.54605074</v>
-      </c>
-      <c r="H209" t="n">
-        <v>0</v>
-      </c>
-      <c r="I209" t="inlineStr"/>
-      <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L209" t="n">
-        <v>1</v>
-      </c>
-      <c r="M209" t="inlineStr"/>
-    </row>
-    <row r="210">
-      <c r="A210" s="1" t="n">
-        <v>208</v>
-      </c>
-      <c r="B210" t="n">
-        <v>4.53</v>
-      </c>
-      <c r="C210" t="n">
-        <v>4.53</v>
-      </c>
-      <c r="D210" t="n">
-        <v>4.53</v>
-      </c>
-      <c r="E210" t="n">
-        <v>4.53</v>
-      </c>
-      <c r="F210" t="n">
-        <v>34893</v>
-      </c>
-      <c r="G210" t="n">
-        <v>-12562762.54605074</v>
-      </c>
-      <c r="H210" t="n">
-        <v>0</v>
-      </c>
-      <c r="I210" t="inlineStr"/>
-      <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L210" t="n">
-        <v>1</v>
-      </c>
-      <c r="M210" t="inlineStr"/>
-    </row>
-    <row r="211">
-      <c r="A211" s="1" t="n">
-        <v>209</v>
-      </c>
-      <c r="B211" t="n">
-        <v>4.56</v>
-      </c>
-      <c r="C211" t="n">
-        <v>4.56</v>
-      </c>
-      <c r="D211" t="n">
-        <v>4.56</v>
-      </c>
-      <c r="E211" t="n">
-        <v>4.56</v>
-      </c>
-      <c r="F211" t="n">
-        <v>52893.6403</v>
-      </c>
-      <c r="G211" t="n">
-        <v>-12509868.90575074</v>
-      </c>
-      <c r="H211" t="n">
-        <v>0</v>
-      </c>
-      <c r="I211" t="inlineStr"/>
-      <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L211" t="n">
-        <v>1</v>
-      </c>
-      <c r="M211" t="inlineStr"/>
-    </row>
-    <row r="212">
-      <c r="A212" s="1" t="n">
-        <v>210</v>
-      </c>
-      <c r="B212" t="n">
-        <v>4.54</v>
-      </c>
-      <c r="C212" t="n">
-        <v>4.54</v>
-      </c>
-      <c r="D212" t="n">
-        <v>4.54</v>
-      </c>
-      <c r="E212" t="n">
-        <v>4.54</v>
-      </c>
-      <c r="F212" t="n">
-        <v>80921.10129999999</v>
-      </c>
-      <c r="G212" t="n">
-        <v>-12590790.00705074</v>
-      </c>
-      <c r="H212" t="n">
-        <v>0</v>
-      </c>
-      <c r="I212" t="inlineStr"/>
-      <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L212" t="n">
-        <v>1</v>
-      </c>
-      <c r="M212" t="inlineStr"/>
-    </row>
-    <row r="213">
-      <c r="A213" s="1" t="n">
-        <v>211</v>
-      </c>
-      <c r="B213" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="C213" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="D213" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="E213" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="F213" t="n">
-        <v>9723.546200000001</v>
-      </c>
-      <c r="G213" t="n">
-        <v>-12600513.55325074</v>
-      </c>
-      <c r="H213" t="n">
-        <v>0</v>
-      </c>
-      <c r="I213" t="inlineStr"/>
-      <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L213" t="n">
-        <v>1</v>
-      </c>
-      <c r="M213" t="inlineStr"/>
-    </row>
-    <row r="214">
-      <c r="A214" s="1" t="n">
-        <v>212</v>
-      </c>
-      <c r="B214" t="n">
-        <v>4.51</v>
-      </c>
-      <c r="C214" t="n">
-        <v>4.51</v>
-      </c>
-      <c r="D214" t="n">
-        <v>4.51</v>
-      </c>
-      <c r="E214" t="n">
-        <v>4.51</v>
-      </c>
-      <c r="F214" t="n">
-        <v>15081.9999</v>
-      </c>
-      <c r="G214" t="n">
-        <v>-12585431.55335074</v>
-      </c>
-      <c r="H214" t="n">
-        <v>0</v>
-      </c>
-      <c r="I214" t="inlineStr"/>
-      <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L214" t="n">
-        <v>1</v>
-      </c>
-      <c r="M214" t="inlineStr"/>
-    </row>
-    <row r="215">
-      <c r="A215" s="1" t="n">
-        <v>213</v>
-      </c>
-      <c r="B215" t="n">
-        <v>4.51</v>
-      </c>
-      <c r="C215" t="n">
-        <v>4.51</v>
-      </c>
-      <c r="D215" t="n">
-        <v>4.51</v>
-      </c>
-      <c r="E215" t="n">
-        <v>4.51</v>
-      </c>
-      <c r="F215" t="n">
-        <v>24749.9999</v>
-      </c>
-      <c r="G215" t="n">
-        <v>-12585431.55335074</v>
-      </c>
-      <c r="H215" t="n">
-        <v>0</v>
-      </c>
-      <c r="I215" t="inlineStr"/>
-      <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L215" t="n">
-        <v>1</v>
-      </c>
-      <c r="M215" t="inlineStr"/>
-    </row>
-    <row r="216">
-      <c r="A216" s="1" t="n">
-        <v>214</v>
-      </c>
-      <c r="B216" t="n">
-        <v>4.55</v>
-      </c>
-      <c r="C216" t="n">
-        <v>4.51</v>
-      </c>
-      <c r="D216" t="n">
-        <v>4.55</v>
-      </c>
-      <c r="E216" t="n">
-        <v>4.51</v>
-      </c>
-      <c r="F216" t="n">
-        <v>9946.604499999999</v>
-      </c>
-      <c r="G216" t="n">
-        <v>-12585431.55335074</v>
-      </c>
-      <c r="H216" t="n">
-        <v>0</v>
-      </c>
-      <c r="I216" t="inlineStr"/>
-      <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L216" t="n">
-        <v>1</v>
-      </c>
-      <c r="M216" t="inlineStr"/>
-    </row>
-    <row r="217">
-      <c r="A217" s="1" t="n">
-        <v>215</v>
-      </c>
-      <c r="B217" t="n">
-        <v>4.53</v>
-      </c>
-      <c r="C217" t="n">
-        <v>4.53</v>
-      </c>
-      <c r="D217" t="n">
-        <v>4.53</v>
-      </c>
-      <c r="E217" t="n">
-        <v>4.53</v>
-      </c>
-      <c r="F217" t="n">
-        <v>10</v>
-      </c>
-      <c r="G217" t="n">
-        <v>-12585421.55335074</v>
-      </c>
-      <c r="H217" t="n">
-        <v>0</v>
-      </c>
-      <c r="I217" t="inlineStr"/>
-      <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L217" t="n">
-        <v>1</v>
-      </c>
-      <c r="M217" t="inlineStr"/>
-    </row>
-    <row r="218">
-      <c r="A218" s="1" t="n">
-        <v>216</v>
-      </c>
-      <c r="B218" t="n">
-        <v>4.51</v>
-      </c>
-      <c r="C218" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="D218" t="n">
-        <v>4.51</v>
-      </c>
-      <c r="E218" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="F218" t="n">
-        <v>91314.4507</v>
-      </c>
-      <c r="G218" t="n">
-        <v>-12676736.00405074</v>
-      </c>
-      <c r="H218" t="n">
-        <v>0</v>
-      </c>
-      <c r="I218" t="inlineStr"/>
-      <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L218" t="n">
-        <v>1</v>
-      </c>
-      <c r="M218" t="inlineStr"/>
-    </row>
-    <row r="219">
-      <c r="A219" s="1" t="n">
-        <v>217</v>
-      </c>
-      <c r="B219" t="n">
-        <v>4.53</v>
-      </c>
-      <c r="C219" t="n">
-        <v>4.53</v>
-      </c>
-      <c r="D219" t="n">
-        <v>4.53</v>
-      </c>
-      <c r="E219" t="n">
-        <v>4.53</v>
-      </c>
-      <c r="F219" t="n">
-        <v>22075.0551</v>
-      </c>
-      <c r="G219" t="n">
-        <v>-12654660.94895074</v>
-      </c>
-      <c r="H219" t="n">
-        <v>0</v>
-      </c>
-      <c r="I219" t="inlineStr"/>
-      <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L219" t="n">
-        <v>1</v>
-      </c>
-      <c r="M219" t="inlineStr"/>
-    </row>
-    <row r="220">
-      <c r="A220" s="1" t="n">
-        <v>218</v>
-      </c>
-      <c r="B220" t="n">
-        <v>4.53</v>
-      </c>
-      <c r="C220" t="n">
-        <v>4.53</v>
-      </c>
-      <c r="D220" t="n">
-        <v>4.53</v>
-      </c>
-      <c r="E220" t="n">
-        <v>4.53</v>
-      </c>
-      <c r="F220" t="n">
-        <v>56244.7866</v>
-      </c>
-      <c r="G220" t="n">
-        <v>-12654660.94895074</v>
-      </c>
-      <c r="H220" t="n">
-        <v>0</v>
-      </c>
-      <c r="I220" t="inlineStr"/>
-      <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L220" t="n">
-        <v>1</v>
-      </c>
-      <c r="M220" t="inlineStr"/>
-    </row>
-    <row r="221">
-      <c r="A221" s="1" t="n">
-        <v>219</v>
-      </c>
-      <c r="B221" t="n">
-        <v>4.51</v>
-      </c>
-      <c r="C221" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="D221" t="n">
-        <v>4.51</v>
-      </c>
-      <c r="E221" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="F221" t="n">
-        <v>289035.7276</v>
-      </c>
-      <c r="G221" t="n">
-        <v>-12943696.67655074</v>
-      </c>
-      <c r="H221" t="n">
-        <v>0</v>
-      </c>
-      <c r="I221" t="inlineStr"/>
-      <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L221" t="n">
-        <v>1</v>
-      </c>
-      <c r="M221" t="inlineStr"/>
-    </row>
-    <row r="222">
-      <c r="A222" s="1" t="n">
-        <v>220</v>
-      </c>
-      <c r="B222" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="C222" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="D222" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="E222" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="F222" t="n">
-        <v>82671.2687</v>
-      </c>
-      <c r="G222" t="n">
-        <v>-12943696.67655074</v>
-      </c>
-      <c r="H222" t="n">
-        <v>0</v>
-      </c>
-      <c r="I222" t="inlineStr"/>
-      <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L222" t="n">
-        <v>1</v>
-      </c>
-      <c r="M222" t="inlineStr"/>
-    </row>
-    <row r="223">
-      <c r="A223" s="1" t="n">
-        <v>221</v>
-      </c>
-      <c r="B223" t="n">
-        <v>4.48</v>
-      </c>
-      <c r="C223" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="D223" t="n">
-        <v>4.48</v>
-      </c>
-      <c r="E223" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="F223" t="n">
-        <v>62573.7897</v>
-      </c>
-      <c r="G223" t="n">
-        <v>-13006270.46625074</v>
-      </c>
-      <c r="H223" t="n">
-        <v>0</v>
-      </c>
-      <c r="I223" t="inlineStr"/>
-      <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L223" t="n">
-        <v>1</v>
-      </c>
-      <c r="M223" t="inlineStr"/>
-    </row>
-    <row r="224">
-      <c r="A224" s="1" t="n">
-        <v>222</v>
-      </c>
-      <c r="B224" t="n">
-        <v>4.53</v>
-      </c>
-      <c r="C224" t="n">
-        <v>4.53</v>
-      </c>
-      <c r="D224" t="n">
-        <v>4.53</v>
-      </c>
-      <c r="E224" t="n">
-        <v>4.53</v>
-      </c>
-      <c r="F224" t="n">
-        <v>2160.0005</v>
-      </c>
-      <c r="G224" t="n">
-        <v>-13004110.46575074</v>
-      </c>
-      <c r="H224" t="n">
-        <v>0</v>
-      </c>
-      <c r="I224" t="inlineStr"/>
-      <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L224" t="n">
-        <v>1</v>
-      </c>
-      <c r="M224" t="inlineStr"/>
-    </row>
-    <row r="225">
-      <c r="A225" s="1" t="n">
-        <v>223</v>
-      </c>
-      <c r="B225" t="n">
-        <v>4.53</v>
-      </c>
-      <c r="C225" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="D225" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="E225" t="n">
-        <v>4.53</v>
-      </c>
-      <c r="F225" t="n">
-        <v>222652.2492</v>
-      </c>
-      <c r="G225" t="n">
-        <v>-12781458.21655074</v>
-      </c>
-      <c r="H225" t="n">
-        <v>0</v>
-      </c>
-      <c r="I225" t="inlineStr"/>
-      <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L225" t="n">
-        <v>1</v>
-      </c>
-      <c r="M225" t="inlineStr"/>
-    </row>
-    <row r="226">
-      <c r="A226" s="1" t="n">
-        <v>224</v>
-      </c>
-      <c r="B226" t="n">
-        <v>4.55</v>
-      </c>
-      <c r="C226" t="n">
-        <v>4.55</v>
-      </c>
-      <c r="D226" t="n">
-        <v>4.55</v>
-      </c>
-      <c r="E226" t="n">
-        <v>4.55</v>
-      </c>
-      <c r="F226" t="n">
-        <v>41042.1978</v>
-      </c>
-      <c r="G226" t="n">
-        <v>-12822500.41435074</v>
-      </c>
-      <c r="H226" t="n">
-        <v>0</v>
-      </c>
-      <c r="I226" t="inlineStr"/>
-      <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L226" t="n">
-        <v>1</v>
-      </c>
-      <c r="M226" t="inlineStr"/>
-    </row>
-    <row r="227">
-      <c r="A227" s="1" t="n">
-        <v>225</v>
-      </c>
-      <c r="B227" t="n">
-        <v>4.55</v>
-      </c>
-      <c r="C227" t="n">
-        <v>4.55</v>
-      </c>
-      <c r="D227" t="n">
-        <v>4.55</v>
-      </c>
-      <c r="E227" t="n">
-        <v>4.55</v>
-      </c>
-      <c r="F227" t="n">
-        <v>18872.3076</v>
-      </c>
-      <c r="G227" t="n">
-        <v>-12822500.41435074</v>
-      </c>
-      <c r="H227" t="n">
-        <v>0</v>
-      </c>
-      <c r="I227" t="inlineStr"/>
-      <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L227" t="n">
-        <v>1</v>
-      </c>
-      <c r="M227" t="inlineStr"/>
-    </row>
-    <row r="228">
-      <c r="A228" s="1" t="n">
-        <v>226</v>
-      </c>
-      <c r="B228" t="n">
-        <v>4.53</v>
-      </c>
-      <c r="C228" t="n">
-        <v>4.53</v>
-      </c>
-      <c r="D228" t="n">
-        <v>4.53</v>
-      </c>
-      <c r="E228" t="n">
-        <v>4.53</v>
-      </c>
-      <c r="F228" t="n">
-        <v>863.8702</v>
-      </c>
-      <c r="G228" t="n">
-        <v>-12823364.28455074</v>
-      </c>
-      <c r="H228" t="n">
-        <v>0</v>
-      </c>
-      <c r="I228" t="inlineStr"/>
-      <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L228" t="n">
-        <v>1</v>
-      </c>
-      <c r="M228" t="inlineStr"/>
-    </row>
-    <row r="229">
-      <c r="A229" s="1" t="n">
-        <v>227</v>
-      </c>
-      <c r="B229" t="n">
-        <v>4.48</v>
-      </c>
-      <c r="C229" t="n">
-        <v>4.48</v>
-      </c>
-      <c r="D229" t="n">
-        <v>4.48</v>
-      </c>
-      <c r="E229" t="n">
-        <v>4.48</v>
-      </c>
-      <c r="F229" t="n">
-        <v>18825.1268</v>
-      </c>
-      <c r="G229" t="n">
-        <v>-12842189.41135074</v>
-      </c>
-      <c r="H229" t="n">
-        <v>0</v>
-      </c>
-      <c r="I229" t="inlineStr"/>
-      <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L229" t="n">
-        <v>1</v>
-      </c>
-      <c r="M229" t="inlineStr"/>
-    </row>
-    <row r="230">
-      <c r="A230" s="1" t="n">
-        <v>228</v>
-      </c>
-      <c r="B230" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="C230" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="D230" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="E230" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="F230" t="n">
-        <v>13908.8283</v>
-      </c>
-      <c r="G230" t="n">
-        <v>-12828280.58305074</v>
-      </c>
-      <c r="H230" t="n">
-        <v>0</v>
-      </c>
-      <c r="I230" t="inlineStr"/>
-      <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L230" t="n">
-        <v>1</v>
-      </c>
-      <c r="M230" t="inlineStr"/>
-    </row>
-    <row r="231">
-      <c r="A231" s="1" t="n">
-        <v>229</v>
-      </c>
-      <c r="B231" t="n">
-        <v>4.51</v>
-      </c>
-      <c r="C231" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="D231" t="n">
-        <v>4.51</v>
-      </c>
-      <c r="E231" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="F231" t="n">
-        <v>225917</v>
-      </c>
-      <c r="G231" t="n">
-        <v>-12828280.58305074</v>
-      </c>
-      <c r="H231" t="n">
-        <v>0</v>
-      </c>
-      <c r="I231" t="inlineStr"/>
-      <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -8187,9 +8063,11 @@
         <v>-12828280.58305074</v>
       </c>
       <c r="H232" t="n">
-        <v>0</v>
-      </c>
-      <c r="I232" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I232" t="n">
+        <v>4.5</v>
+      </c>
       <c r="J232" t="inlineStr"/>
       <c r="K232" t="inlineStr">
         <is>
@@ -8224,9 +8102,11 @@
         <v>-12828280.58305074</v>
       </c>
       <c r="H233" t="n">
-        <v>0</v>
-      </c>
-      <c r="I233" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I233" t="n">
+        <v>4.5</v>
+      </c>
       <c r="J233" t="inlineStr"/>
       <c r="K233" t="inlineStr">
         <is>
@@ -8261,9 +8141,11 @@
         <v>-12828280.58305074</v>
       </c>
       <c r="H234" t="n">
-        <v>0</v>
-      </c>
-      <c r="I234" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I234" t="n">
+        <v>4.5</v>
+      </c>
       <c r="J234" t="inlineStr"/>
       <c r="K234" t="inlineStr">
         <is>
@@ -8335,9 +8217,11 @@
         <v>-12874130.47267547</v>
       </c>
       <c r="H236" t="n">
-        <v>0</v>
-      </c>
-      <c r="I236" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I236" t="n">
+        <v>4.53</v>
+      </c>
       <c r="J236" t="inlineStr"/>
       <c r="K236" t="inlineStr">
         <is>
@@ -8372,9 +8256,11 @@
         <v>-12865800.07627547</v>
       </c>
       <c r="H237" t="n">
-        <v>0</v>
-      </c>
-      <c r="I237" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I237" t="n">
+        <v>4.47</v>
+      </c>
       <c r="J237" t="inlineStr"/>
       <c r="K237" t="inlineStr">
         <is>
@@ -8520,9 +8406,11 @@
         <v>-12633478.17437547</v>
       </c>
       <c r="H241" t="n">
-        <v>0</v>
-      </c>
-      <c r="I241" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I241" t="n">
+        <v>4.57</v>
+      </c>
       <c r="J241" t="inlineStr"/>
       <c r="K241" t="inlineStr">
         <is>
@@ -8557,9 +8445,11 @@
         <v>-12633478.17437547</v>
       </c>
       <c r="H242" t="n">
-        <v>0</v>
-      </c>
-      <c r="I242" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I242" t="n">
+        <v>4.57</v>
+      </c>
       <c r="J242" t="inlineStr"/>
       <c r="K242" t="inlineStr">
         <is>
@@ -8594,9 +8484,11 @@
         <v>-12633478.17437547</v>
       </c>
       <c r="H243" t="n">
-        <v>0</v>
-      </c>
-      <c r="I243" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I243" t="n">
+        <v>4.57</v>
+      </c>
       <c r="J243" t="inlineStr"/>
       <c r="K243" t="inlineStr">
         <is>
@@ -8631,9 +8523,11 @@
         <v>-12714388.64787547</v>
       </c>
       <c r="H244" t="n">
-        <v>0</v>
-      </c>
-      <c r="I244" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I244" t="n">
+        <v>4.57</v>
+      </c>
       <c r="J244" t="inlineStr"/>
       <c r="K244" t="inlineStr">
         <is>
@@ -8668,9 +8562,11 @@
         <v>-12712470.06257547</v>
       </c>
       <c r="H245" t="n">
-        <v>0</v>
-      </c>
-      <c r="I245" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I245" t="n">
+        <v>4.56</v>
+      </c>
       <c r="J245" t="inlineStr"/>
       <c r="K245" t="inlineStr">
         <is>
@@ -8705,9 +8601,11 @@
         <v>-12852076.06257547</v>
       </c>
       <c r="H246" t="n">
-        <v>0</v>
-      </c>
-      <c r="I246" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I246" t="n">
+        <v>4.6</v>
+      </c>
       <c r="J246" t="inlineStr"/>
       <c r="K246" t="inlineStr">
         <is>
@@ -8742,9 +8640,11 @@
         <v>-12377578.71997547</v>
       </c>
       <c r="H247" t="n">
-        <v>0</v>
-      </c>
-      <c r="I247" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I247" t="n">
+        <v>4.57</v>
+      </c>
       <c r="J247" t="inlineStr"/>
       <c r="K247" t="inlineStr">
         <is>
@@ -8779,9 +8679,11 @@
         <v>-12860915.09407547</v>
       </c>
       <c r="H248" t="n">
-        <v>0</v>
-      </c>
-      <c r="I248" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I248" t="n">
+        <v>4.6</v>
+      </c>
       <c r="J248" t="inlineStr"/>
       <c r="K248" t="inlineStr">
         <is>
@@ -8816,9 +8718,11 @@
         <v>-12860915.09407547</v>
       </c>
       <c r="H249" t="n">
-        <v>0</v>
-      </c>
-      <c r="I249" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I249" t="n">
+        <v>4.58</v>
+      </c>
       <c r="J249" t="inlineStr"/>
       <c r="K249" t="inlineStr">
         <is>
@@ -8853,9 +8757,11 @@
         <v>-12948453.66447547</v>
       </c>
       <c r="H250" t="n">
-        <v>0</v>
-      </c>
-      <c r="I250" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I250" t="n">
+        <v>4.58</v>
+      </c>
       <c r="J250" t="inlineStr"/>
       <c r="K250" t="inlineStr">
         <is>
@@ -8927,9 +8833,11 @@
         <v>-13148668.05267547</v>
       </c>
       <c r="H252" t="n">
-        <v>0</v>
-      </c>
-      <c r="I252" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I252" t="n">
+        <v>4.56</v>
+      </c>
       <c r="J252" t="inlineStr"/>
       <c r="K252" t="inlineStr">
         <is>
@@ -8964,9 +8872,11 @@
         <v>-13148668.05267547</v>
       </c>
       <c r="H253" t="n">
-        <v>0</v>
-      </c>
-      <c r="I253" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I253" t="n">
+        <v>4.52</v>
+      </c>
       <c r="J253" t="inlineStr"/>
       <c r="K253" t="inlineStr">
         <is>
@@ -9001,9 +8911,11 @@
         <v>-13290692.93197547</v>
       </c>
       <c r="H254" t="n">
-        <v>0</v>
-      </c>
-      <c r="I254" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I254" t="n">
+        <v>4.52</v>
+      </c>
       <c r="J254" t="inlineStr"/>
       <c r="K254" t="inlineStr">
         <is>
@@ -9038,9 +8950,11 @@
         <v>-13290692.93197547</v>
       </c>
       <c r="H255" t="n">
-        <v>0</v>
-      </c>
-      <c r="I255" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I255" t="n">
+        <v>4.49</v>
+      </c>
       <c r="J255" t="inlineStr"/>
       <c r="K255" t="inlineStr">
         <is>
@@ -9075,9 +8989,11 @@
         <v>-14538562.35427547</v>
       </c>
       <c r="H256" t="n">
-        <v>0</v>
-      </c>
-      <c r="I256" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I256" t="n">
+        <v>4.49</v>
+      </c>
       <c r="J256" t="inlineStr"/>
       <c r="K256" t="inlineStr">
         <is>

--- a/BackTest/2019-10-31 BackTest XVG.xlsx
+++ b/BackTest/2019-10-31 BackTest XVG.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M256"/>
+  <dimension ref="A1:L256"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
           <t>OBV</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>trade_state</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>871000</v>
       </c>
       <c r="G2" t="n">
-        <v>-1624292.0692</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,18 +473,15 @@
         <v>26513.2762</v>
       </c>
       <c r="G3" t="n">
-        <v>-1624292.0692</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -514,18 +503,15 @@
         <v>62000</v>
       </c>
       <c r="G4" t="n">
-        <v>-1624292.0692</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -547,18 +533,19 @@
         <v>94168.1168</v>
       </c>
       <c r="G5" t="n">
-        <v>-1624292.0692</v>
+        <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="inlineStr"/>
+        <v>4.33</v>
+      </c>
+      <c r="I5" t="n">
+        <v>4.33</v>
+      </c>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -580,18 +567,21 @@
         <v>111000</v>
       </c>
       <c r="G6" t="n">
-        <v>-1735292.0692</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -613,18 +603,23 @@
         <v>544090.9089</v>
       </c>
       <c r="G7" t="n">
-        <v>-1735292.0692</v>
+        <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+        <v>4.32</v>
+      </c>
+      <c r="I7" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -646,18 +641,23 @@
         <v>172023.234</v>
       </c>
       <c r="G8" t="n">
-        <v>-1563268.8352</v>
+        <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+        <v>4.32</v>
+      </c>
+      <c r="I8" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -679,18 +679,23 @@
         <v>48720</v>
       </c>
       <c r="G9" t="n">
-        <v>-1611988.8352</v>
+        <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+        <v>4.38</v>
+      </c>
+      <c r="I9" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -712,18 +717,21 @@
         <v>57713</v>
       </c>
       <c r="G10" t="n">
-        <v>-1611988.8352</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -745,18 +753,21 @@
         <v>481693.9892</v>
       </c>
       <c r="G11" t="n">
-        <v>-1130294.846</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -778,18 +789,21 @@
         <v>310960.6011</v>
       </c>
       <c r="G12" t="n">
-        <v>-819334.2448999998</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -811,18 +825,21 @@
         <v>16097.4602</v>
       </c>
       <c r="G13" t="n">
-        <v>-803236.7846999998</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -844,18 +861,21 @@
         <v>10683.4708</v>
       </c>
       <c r="G14" t="n">
-        <v>-803236.7846999998</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -877,18 +897,21 @@
         <v>3677.2353</v>
       </c>
       <c r="G15" t="n">
-        <v>-803236.7846999998</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
+      <c r="I15" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -910,18 +933,21 @@
         <v>1725928.0153</v>
       </c>
       <c r="G16" t="n">
-        <v>-2529164.8</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
+      <c r="I16" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -943,18 +969,21 @@
         <v>138420.292</v>
       </c>
       <c r="G17" t="n">
-        <v>-2390744.508</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
+      <c r="I17" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -976,18 +1005,21 @@
         <v>333122.3652</v>
       </c>
       <c r="G18" t="n">
-        <v>-2057622.1428</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
+      <c r="I18" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1009,18 +1041,21 @@
         <v>5731.1024</v>
       </c>
       <c r="G19" t="n">
-        <v>-2057622.1428</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
+      <c r="I19" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1042,18 +1077,21 @@
         <v>215444.7546</v>
       </c>
       <c r="G20" t="n">
-        <v>-2273066.8974</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
+      <c r="I20" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1075,18 +1113,21 @@
         <v>929020.5853</v>
       </c>
       <c r="G21" t="n">
-        <v>-1344046.3121</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
+      <c r="I21" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1108,18 +1149,21 @@
         <v>191126.291</v>
       </c>
       <c r="G22" t="n">
-        <v>-1152920.0211</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
+      <c r="I22" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1141,18 +1185,21 @@
         <v>95931.87772925</v>
       </c>
       <c r="G23" t="n">
-        <v>-1248851.89882925</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
+      <c r="I23" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1174,18 +1221,21 @@
         <v>983678.10043668</v>
       </c>
       <c r="G24" t="n">
-        <v>-2232529.99926593</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
+      <c r="I24" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1207,18 +1257,21 @@
         <v>11</v>
       </c>
       <c r="G25" t="n">
-        <v>-2232518.99926593</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
+      <c r="I25" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1240,18 +1293,21 @@
         <v>148963.4649</v>
       </c>
       <c r="G26" t="n">
-        <v>-2083555.53436593</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
+      <c r="I26" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1273,18 +1329,21 @@
         <v>474005.7992</v>
       </c>
       <c r="G27" t="n">
-        <v>-2557561.33356593</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
+      <c r="I27" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1306,18 +1365,21 @@
         <v>575809.0198</v>
       </c>
       <c r="G28" t="n">
-        <v>-1981752.31376593</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
+      <c r="I28" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1339,18 +1401,21 @@
         <v>342074.3305</v>
       </c>
       <c r="G29" t="n">
-        <v>-2323826.64426593</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
+      <c r="I29" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1372,18 +1437,21 @@
         <v>593725.49332456</v>
       </c>
       <c r="G30" t="n">
-        <v>-1730101.15094137</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
+      <c r="I30" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1405,18 +1473,23 @@
         <v>1326190.00846563</v>
       </c>
       <c r="G31" t="n">
-        <v>-403911.1424757401</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
+      <c r="I31" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
+        <v>1.101235565819862</v>
+      </c>
       <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+        <v>1.00462962962963</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1438,18 +1511,15 @@
         <v>954273.47426937</v>
       </c>
       <c r="G32" t="n">
-        <v>-1358184.61674511</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1471,18 +1541,15 @@
         <v>1133775.55648535</v>
       </c>
       <c r="G33" t="n">
-        <v>-1358184.61674511</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1504,18 +1571,15 @@
         <v>466786.52457687</v>
       </c>
       <c r="G34" t="n">
-        <v>-1824971.14132198</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1537,18 +1601,15 @@
         <v>15116.2457</v>
       </c>
       <c r="G35" t="n">
-        <v>-1840087.38702198</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1570,18 +1631,15 @@
         <v>2331369.0903</v>
       </c>
       <c r="G36" t="n">
-        <v>491281.7032780196</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1603,18 +1661,15 @@
         <v>209045.91968</v>
       </c>
       <c r="G37" t="n">
-        <v>700327.6229580196</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1636,18 +1691,15 @@
         <v>1118051.4848</v>
       </c>
       <c r="G38" t="n">
-        <v>-417723.8618419804</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1669,18 +1721,15 @@
         <v>3058916.5944</v>
       </c>
       <c r="G39" t="n">
-        <v>2641192.732558019</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1702,18 +1751,15 @@
         <v>1832959.9473</v>
       </c>
       <c r="G40" t="n">
-        <v>808232.7852580193</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1735,18 +1781,15 @@
         <v>468778.8666</v>
       </c>
       <c r="G41" t="n">
-        <v>339453.9186580193</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1768,18 +1811,15 @@
         <v>6691.0675</v>
       </c>
       <c r="G42" t="n">
-        <v>339453.9186580193</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1801,18 +1841,15 @@
         <v>832141.6939</v>
       </c>
       <c r="G43" t="n">
-        <v>-492687.7752419806</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1834,18 +1871,15 @@
         <v>319193.2589</v>
       </c>
       <c r="G44" t="n">
-        <v>-173494.5163419806</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1867,18 +1901,15 @@
         <v>3830.387</v>
       </c>
       <c r="G45" t="n">
-        <v>-177324.9033419806</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1900,18 +1931,15 @@
         <v>1272468.1175</v>
       </c>
       <c r="G46" t="n">
-        <v>1095143.214158019</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1933,18 +1961,15 @@
         <v>261812.4139</v>
       </c>
       <c r="G47" t="n">
-        <v>833330.8002580192</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1966,18 +1991,15 @@
         <v>1389422.4122</v>
       </c>
       <c r="G48" t="n">
-        <v>-556091.6119419807</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1999,18 +2021,15 @@
         <v>368974.6914</v>
       </c>
       <c r="G49" t="n">
-        <v>-187116.9205419807</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2032,18 +2051,15 @@
         <v>100914.4763</v>
       </c>
       <c r="G50" t="n">
-        <v>-288031.3968419806</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2065,18 +2081,15 @@
         <v>371506.0088</v>
       </c>
       <c r="G51" t="n">
-        <v>83474.61195801938</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2098,18 +2111,15 @@
         <v>546045.3628999999</v>
       </c>
       <c r="G52" t="n">
-        <v>629519.9748580193</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2131,18 +2141,15 @@
         <v>634048.368</v>
       </c>
       <c r="G53" t="n">
-        <v>1263568.342858019</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2164,18 +2171,15 @@
         <v>839895.6296</v>
       </c>
       <c r="G54" t="n">
-        <v>423672.7132580193</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2197,18 +2201,15 @@
         <v>1407913.387</v>
       </c>
       <c r="G55" t="n">
-        <v>-984240.6737419808</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2230,18 +2231,15 @@
         <v>414988.1921</v>
       </c>
       <c r="G56" t="n">
-        <v>-569252.4816419808</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2263,18 +2261,15 @@
         <v>205479.9797</v>
       </c>
       <c r="G57" t="n">
-        <v>-774732.4613419808</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2296,18 +2291,15 @@
         <v>1267805.1304</v>
       </c>
       <c r="G58" t="n">
-        <v>-2042537.591741981</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2329,18 +2321,15 @@
         <v>57736.2763</v>
       </c>
       <c r="G59" t="n">
-        <v>-1984801.315441981</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2362,18 +2351,15 @@
         <v>882826.4365</v>
       </c>
       <c r="G60" t="n">
-        <v>-1101974.878941981</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2395,18 +2381,15 @@
         <v>403955.1347</v>
       </c>
       <c r="G61" t="n">
-        <v>-698019.7442419806</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2428,18 +2411,15 @@
         <v>1659555.2119</v>
       </c>
       <c r="G62" t="n">
-        <v>-2357574.95614198</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2461,18 +2441,15 @@
         <v>263386.3369</v>
       </c>
       <c r="G63" t="n">
-        <v>-2094188.61924198</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2494,18 +2471,15 @@
         <v>904468.9892</v>
       </c>
       <c r="G64" t="n">
-        <v>-1189719.63004198</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2527,18 +2501,15 @@
         <v>431140.4056</v>
       </c>
       <c r="G65" t="n">
-        <v>-758579.2244419805</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2560,18 +2531,15 @@
         <v>1253534.6788</v>
       </c>
       <c r="G66" t="n">
-        <v>-2012113.903241981</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2593,18 +2561,15 @@
         <v>249288.1173</v>
       </c>
       <c r="G67" t="n">
-        <v>-2012113.903241981</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2626,18 +2591,15 @@
         <v>186131.8191</v>
       </c>
       <c r="G68" t="n">
-        <v>-2012113.903241981</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2659,18 +2621,15 @@
         <v>120163.4103</v>
       </c>
       <c r="G69" t="n">
-        <v>-2132277.31354198</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2692,18 +2651,15 @@
         <v>79709.91590000001</v>
       </c>
       <c r="G70" t="n">
-        <v>-2052567.397641981</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2725,18 +2681,15 @@
         <v>95218.35679999999</v>
       </c>
       <c r="G71" t="n">
-        <v>-2147785.754441981</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2758,18 +2711,15 @@
         <v>52239.7338</v>
       </c>
       <c r="G72" t="n">
-        <v>-2095546.020641981</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2791,18 +2741,15 @@
         <v>184469.6359</v>
       </c>
       <c r="G73" t="n">
-        <v>-1911076.384741981</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2824,18 +2771,15 @@
         <v>151827.645</v>
       </c>
       <c r="G74" t="n">
-        <v>-2062904.029741981</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2857,18 +2801,15 @@
         <v>856436.6633</v>
       </c>
       <c r="G75" t="n">
-        <v>-2919340.693041981</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2890,18 +2831,15 @@
         <v>250000</v>
       </c>
       <c r="G76" t="n">
-        <v>-2669340.693041981</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2923,18 +2861,15 @@
         <v>328044.2178</v>
       </c>
       <c r="G77" t="n">
-        <v>-2341296.475241981</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2956,18 +2891,15 @@
         <v>175653.084</v>
       </c>
       <c r="G78" t="n">
-        <v>-2165643.391241981</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2989,18 +2921,15 @@
         <v>347634.5673</v>
       </c>
       <c r="G79" t="n">
-        <v>-2165643.391241981</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3022,18 +2951,15 @@
         <v>341131.9189</v>
       </c>
       <c r="G80" t="n">
-        <v>-1824511.472341981</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3055,18 +2981,15 @@
         <v>277635.7978</v>
       </c>
       <c r="G81" t="n">
-        <v>-1824511.472341981</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3088,18 +3011,15 @@
         <v>160000</v>
       </c>
       <c r="G82" t="n">
-        <v>-1984511.472341981</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3121,18 +3041,15 @@
         <v>1424634.6726</v>
       </c>
       <c r="G83" t="n">
-        <v>-3409146.144941981</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3154,18 +3071,15 @@
         <v>169523.4968</v>
       </c>
       <c r="G84" t="n">
-        <v>-3409146.144941981</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3187,18 +3101,15 @@
         <v>131395.0867</v>
       </c>
       <c r="G85" t="n">
-        <v>-3409146.144941981</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3220,18 +3131,15 @@
         <v>187047.1216</v>
       </c>
       <c r="G86" t="n">
-        <v>-3222099.023341981</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3253,18 +3161,15 @@
         <v>323444.1924</v>
       </c>
       <c r="G87" t="n">
-        <v>-3222099.023341981</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3286,18 +3191,15 @@
         <v>279631.2988</v>
       </c>
       <c r="G88" t="n">
-        <v>-2942467.724541981</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3319,18 +3221,15 @@
         <v>19689.3105</v>
       </c>
       <c r="G89" t="n">
-        <v>-2962157.035041981</v>
-      </c>
-      <c r="H89" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3352,18 +3251,15 @@
         <v>183612.7364</v>
       </c>
       <c r="G90" t="n">
-        <v>-2778544.298641981</v>
-      </c>
-      <c r="H90" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3385,18 +3281,15 @@
         <v>67215.3492</v>
       </c>
       <c r="G91" t="n">
-        <v>-2845759.647841981</v>
-      </c>
-      <c r="H91" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3418,18 +3311,15 @@
         <v>102599.5214</v>
       </c>
       <c r="G92" t="n">
-        <v>-2845759.647841981</v>
-      </c>
-      <c r="H92" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3451,18 +3341,15 @@
         <v>137681.2608</v>
       </c>
       <c r="G93" t="n">
-        <v>-2983440.908641981</v>
-      </c>
-      <c r="H93" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3484,18 +3371,15 @@
         <v>85149.2148</v>
       </c>
       <c r="G94" t="n">
-        <v>-2983440.908641981</v>
-      </c>
-      <c r="H94" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3517,18 +3401,15 @@
         <v>493142.2461</v>
       </c>
       <c r="G95" t="n">
-        <v>-3476583.154741981</v>
-      </c>
-      <c r="H95" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3550,18 +3431,15 @@
         <v>100</v>
       </c>
       <c r="G96" t="n">
-        <v>-3476483.154741981</v>
-      </c>
-      <c r="H96" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3583,18 +3461,15 @@
         <v>107758.6206</v>
       </c>
       <c r="G97" t="n">
-        <v>-3584241.775341981</v>
-      </c>
-      <c r="H97" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3616,18 +3491,15 @@
         <v>179339.616</v>
       </c>
       <c r="G98" t="n">
-        <v>-3763581.391341981</v>
-      </c>
-      <c r="H98" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3649,18 +3521,15 @@
         <v>902338.1677</v>
       </c>
       <c r="G99" t="n">
-        <v>-4665919.559041981</v>
-      </c>
-      <c r="H99" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3682,18 +3551,15 @@
         <v>84900</v>
       </c>
       <c r="G100" t="n">
-        <v>-4750819.559041981</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3715,18 +3581,15 @@
         <v>775487.0324</v>
       </c>
       <c r="G101" t="n">
-        <v>-4750819.559041981</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -3748,18 +3611,15 @@
         <v>340299.6269</v>
       </c>
       <c r="G102" t="n">
-        <v>-5091119.18594198</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -3781,18 +3641,15 @@
         <v>455144.9756</v>
       </c>
       <c r="G103" t="n">
-        <v>-4635974.210341981</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -3814,18 +3671,15 @@
         <v>11226.3834</v>
       </c>
       <c r="G104" t="n">
-        <v>-4635974.210341981</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -3847,18 +3701,15 @@
         <v>408947.1966</v>
       </c>
       <c r="G105" t="n">
-        <v>-5044921.406941981</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -3880,18 +3731,15 @@
         <v>260403.7329</v>
       </c>
       <c r="G106" t="n">
-        <v>-4784517.674041981</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -3913,18 +3761,15 @@
         <v>96995.1744</v>
       </c>
       <c r="G107" t="n">
-        <v>-4881512.848441981</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -3946,18 +3791,15 @@
         <v>810010</v>
       </c>
       <c r="G108" t="n">
-        <v>-4071502.848441981</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -3979,18 +3821,15 @@
         <v>168211.186</v>
       </c>
       <c r="G109" t="n">
-        <v>-3903291.662441981</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4012,18 +3851,15 @@
         <v>31505.6277</v>
       </c>
       <c r="G110" t="n">
-        <v>-3871786.034741981</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4045,18 +3881,15 @@
         <v>96458</v>
       </c>
       <c r="G111" t="n">
-        <v>-3871786.034741981</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4078,18 +3911,15 @@
         <v>9297.8441</v>
       </c>
       <c r="G112" t="n">
-        <v>-3871786.034741981</v>
-      </c>
-      <c r="H112" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4111,18 +3941,15 @@
         <v>20162.5677</v>
       </c>
       <c r="G113" t="n">
-        <v>-3891948.602441981</v>
-      </c>
-      <c r="H113" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4144,18 +3971,15 @@
         <v>910278.3734</v>
       </c>
       <c r="G114" t="n">
-        <v>-4802226.975841981</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4177,18 +4001,15 @@
         <v>85743.1868</v>
       </c>
       <c r="G115" t="n">
-        <v>-4716483.789041981</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4210,18 +4031,15 @@
         <v>74889.37089999999</v>
       </c>
       <c r="G116" t="n">
-        <v>-4791373.159941982</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4243,18 +4061,15 @@
         <v>387000</v>
       </c>
       <c r="G117" t="n">
-        <v>-4791373.159941982</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4276,18 +4091,15 @@
         <v>261747.6657</v>
       </c>
       <c r="G118" t="n">
-        <v>-5053120.825641981</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4309,18 +4121,15 @@
         <v>351693.2559</v>
       </c>
       <c r="G119" t="n">
-        <v>-4701427.569741981</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4342,18 +4151,15 @@
         <v>905165.6731</v>
       </c>
       <c r="G120" t="n">
-        <v>-5606593.242841981</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4375,18 +4181,15 @@
         <v>192315.478</v>
       </c>
       <c r="G121" t="n">
-        <v>-5414277.764841981</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4408,18 +4211,15 @@
         <v>257572.7195</v>
       </c>
       <c r="G122" t="n">
-        <v>-5414277.764841981</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4441,18 +4241,15 @@
         <v>250197.4084</v>
       </c>
       <c r="G123" t="n">
-        <v>-5664475.173241981</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4474,18 +4271,15 @@
         <v>110</v>
       </c>
       <c r="G124" t="n">
-        <v>-5664365.173241981</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4507,18 +4301,15 @@
         <v>1050651.5086</v>
       </c>
       <c r="G125" t="n">
-        <v>-6715016.681841982</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H125" t="inlineStr"/>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4540,18 +4331,15 @@
         <v>139133.5951</v>
       </c>
       <c r="G126" t="n">
-        <v>-6575883.086741982</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H126" t="inlineStr"/>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4573,18 +4361,15 @@
         <v>868143.6902</v>
       </c>
       <c r="G127" t="n">
-        <v>-7444026.776941982</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H127" t="inlineStr"/>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4606,18 +4391,15 @@
         <v>46979.0248</v>
       </c>
       <c r="G128" t="n">
-        <v>-7444026.776941982</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H128" t="inlineStr"/>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -4639,18 +4421,15 @@
         <v>890485.2751</v>
       </c>
       <c r="G129" t="n">
-        <v>-8334512.052041982</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H129" t="inlineStr"/>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -4672,18 +4451,15 @@
         <v>50952.0807</v>
       </c>
       <c r="G130" t="n">
-        <v>-8283559.971341982</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H130" t="inlineStr"/>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -4705,18 +4481,15 @@
         <v>10</v>
       </c>
       <c r="G131" t="n">
-        <v>-8283549.971341982</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H131" t="inlineStr"/>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -4738,18 +4511,15 @@
         <v>263620.571</v>
       </c>
       <c r="G132" t="n">
-        <v>-8547170.542341983</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H132" t="inlineStr"/>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -4771,18 +4541,15 @@
         <v>10</v>
       </c>
       <c r="G133" t="n">
-        <v>-8547160.542341983</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H133" t="inlineStr"/>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -4804,18 +4571,15 @@
         <v>99</v>
       </c>
       <c r="G134" t="n">
-        <v>-8547061.542341983</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H134" t="inlineStr"/>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -4837,18 +4601,15 @@
         <v>1229.727</v>
       </c>
       <c r="G135" t="n">
-        <v>-8548291.269341983</v>
-      </c>
-      <c r="H135" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H135" t="inlineStr"/>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -4870,18 +4631,15 @@
         <v>310373.1333</v>
       </c>
       <c r="G136" t="n">
-        <v>-8858664.402641984</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H136" t="inlineStr"/>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -4903,18 +4661,15 @@
         <v>320394.033</v>
       </c>
       <c r="G137" t="n">
-        <v>-9179058.435641984</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H137" t="inlineStr"/>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>1</v>
+      </c>
+      <c r="L137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -4936,18 +4691,15 @@
         <v>392420.6399</v>
       </c>
       <c r="G138" t="n">
-        <v>-8786637.795741983</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H138" t="inlineStr"/>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>1</v>
+      </c>
+      <c r="L138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -4969,18 +4721,15 @@
         <v>198118.6147</v>
       </c>
       <c r="G139" t="n">
-        <v>-8588519.181041982</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H139" t="inlineStr"/>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>1</v>
+      </c>
+      <c r="L139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5002,18 +4751,15 @@
         <v>513021.6013</v>
       </c>
       <c r="G140" t="n">
-        <v>-9101540.782341981</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H140" t="inlineStr"/>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>1</v>
+      </c>
+      <c r="L140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5035,18 +4781,15 @@
         <v>153502.9847</v>
       </c>
       <c r="G141" t="n">
-        <v>-8948037.797641981</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H141" t="inlineStr"/>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>1</v>
+      </c>
+      <c r="L141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5068,18 +4811,15 @@
         <v>171659.4766</v>
       </c>
       <c r="G142" t="n">
-        <v>-8776378.321041981</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H142" t="inlineStr"/>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>1</v>
+      </c>
+      <c r="L142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5101,18 +4841,15 @@
         <v>1530918.8352</v>
       </c>
       <c r="G143" t="n">
-        <v>-10307297.15624198</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H143" t="inlineStr"/>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>1</v>
+      </c>
+      <c r="L143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5134,18 +4871,15 @@
         <v>2073312.46600876</v>
       </c>
       <c r="G144" t="n">
-        <v>-12380609.62225074</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H144" t="inlineStr"/>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>1</v>
+      </c>
+      <c r="L144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5167,18 +4901,15 @@
         <v>566490.2601</v>
       </c>
       <c r="G145" t="n">
-        <v>-11814119.36215074</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H145" t="inlineStr"/>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>1</v>
+      </c>
+      <c r="L145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5200,18 +4931,15 @@
         <v>102504.9494</v>
       </c>
       <c r="G146" t="n">
-        <v>-11916624.31155074</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H146" t="inlineStr"/>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>1</v>
+      </c>
+      <c r="L146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5233,18 +4961,15 @@
         <v>78898.2552</v>
       </c>
       <c r="G147" t="n">
-        <v>-11837726.05635074</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H147" t="inlineStr"/>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="n">
-        <v>1</v>
-      </c>
-      <c r="M147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>1</v>
+      </c>
+      <c r="L147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5266,18 +4991,15 @@
         <v>698624.2373</v>
       </c>
       <c r="G148" t="n">
-        <v>-11837726.05635074</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H148" t="inlineStr"/>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="n">
-        <v>1</v>
-      </c>
-      <c r="M148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>1</v>
+      </c>
+      <c r="L148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5299,18 +5021,15 @@
         <v>311512.138</v>
       </c>
       <c r="G149" t="n">
-        <v>-12149238.19435074</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H149" t="inlineStr"/>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="n">
-        <v>1</v>
-      </c>
-      <c r="M149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>1</v>
+      </c>
+      <c r="L149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5332,18 +5051,15 @@
         <v>47643.6589</v>
       </c>
       <c r="G150" t="n">
-        <v>-12196881.85325074</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H150" t="inlineStr"/>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="n">
-        <v>1</v>
-      </c>
-      <c r="M150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>1</v>
+      </c>
+      <c r="L150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5365,18 +5081,15 @@
         <v>13</v>
       </c>
       <c r="G151" t="n">
-        <v>-12196868.85325074</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H151" t="inlineStr"/>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="n">
-        <v>1</v>
-      </c>
-      <c r="M151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>1</v>
+      </c>
+      <c r="L151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5398,18 +5111,15 @@
         <v>148567.9265</v>
       </c>
       <c r="G152" t="n">
-        <v>-12345436.77975074</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H152" t="inlineStr"/>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="n">
-        <v>1</v>
-      </c>
-      <c r="M152" t="inlineStr"/>
+      <c r="K152" t="n">
+        <v>1</v>
+      </c>
+      <c r="L152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -5431,18 +5141,15 @@
         <v>516318.2797</v>
       </c>
       <c r="G153" t="n">
-        <v>-12861755.05945074</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H153" t="inlineStr"/>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="n">
-        <v>1</v>
-      </c>
-      <c r="M153" t="inlineStr"/>
+      <c r="K153" t="n">
+        <v>1</v>
+      </c>
+      <c r="L153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -5464,18 +5171,15 @@
         <v>307283.8301</v>
       </c>
       <c r="G154" t="n">
-        <v>-13169038.88955074</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H154" t="inlineStr"/>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="n">
-        <v>1</v>
-      </c>
-      <c r="M154" t="inlineStr"/>
+      <c r="K154" t="n">
+        <v>1</v>
+      </c>
+      <c r="L154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -5497,18 +5201,15 @@
         <v>46927.8951</v>
       </c>
       <c r="G155" t="n">
-        <v>-13169038.88955074</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H155" t="inlineStr"/>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="n">
-        <v>1</v>
-      </c>
-      <c r="M155" t="inlineStr"/>
+      <c r="K155" t="n">
+        <v>1</v>
+      </c>
+      <c r="L155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -5530,18 +5231,15 @@
         <v>12</v>
       </c>
       <c r="G156" t="n">
-        <v>-13169026.88955074</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H156" t="inlineStr"/>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="n">
-        <v>1</v>
-      </c>
-      <c r="M156" t="inlineStr"/>
+      <c r="K156" t="n">
+        <v>1</v>
+      </c>
+      <c r="L156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -5563,18 +5261,15 @@
         <v>10</v>
       </c>
       <c r="G157" t="n">
-        <v>-13169036.88955074</v>
-      </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H157" t="inlineStr"/>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="n">
-        <v>1</v>
-      </c>
-      <c r="M157" t="inlineStr"/>
+      <c r="K157" t="n">
+        <v>1</v>
+      </c>
+      <c r="L157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -5596,18 +5291,15 @@
         <v>69265.1439</v>
       </c>
       <c r="G158" t="n">
-        <v>-13238302.03345074</v>
-      </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H158" t="inlineStr"/>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="n">
-        <v>1</v>
-      </c>
-      <c r="M158" t="inlineStr"/>
+      <c r="K158" t="n">
+        <v>1</v>
+      </c>
+      <c r="L158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -5629,18 +5321,15 @@
         <v>720000.8847000001</v>
       </c>
       <c r="G159" t="n">
-        <v>-13958302.91815074</v>
-      </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H159" t="inlineStr"/>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="n">
-        <v>1</v>
-      </c>
-      <c r="M159" t="inlineStr"/>
+      <c r="K159" t="n">
+        <v>1</v>
+      </c>
+      <c r="L159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -5662,18 +5351,15 @@
         <v>20</v>
       </c>
       <c r="G160" t="n">
-        <v>-13958282.91815074</v>
-      </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H160" t="inlineStr"/>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="n">
-        <v>1</v>
-      </c>
-      <c r="M160" t="inlineStr"/>
+      <c r="K160" t="n">
+        <v>1</v>
+      </c>
+      <c r="L160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -5695,18 +5381,15 @@
         <v>257748.5422</v>
       </c>
       <c r="G161" t="n">
-        <v>-14216031.46035074</v>
-      </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H161" t="inlineStr"/>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="n">
-        <v>1</v>
-      </c>
-      <c r="M161" t="inlineStr"/>
+      <c r="K161" t="n">
+        <v>1</v>
+      </c>
+      <c r="L161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -5728,18 +5411,15 @@
         <v>15102</v>
       </c>
       <c r="G162" t="n">
-        <v>-14200929.46035074</v>
-      </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H162" t="inlineStr"/>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="n">
-        <v>1</v>
-      </c>
-      <c r="M162" t="inlineStr"/>
+      <c r="K162" t="n">
+        <v>1</v>
+      </c>
+      <c r="L162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -5761,18 +5441,15 @@
         <v>242413.5138</v>
       </c>
       <c r="G163" t="n">
-        <v>-14443342.97415074</v>
-      </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H163" t="inlineStr"/>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="n">
-        <v>1</v>
-      </c>
-      <c r="M163" t="inlineStr"/>
+      <c r="K163" t="n">
+        <v>1</v>
+      </c>
+      <c r="L163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -5794,18 +5471,15 @@
         <v>273417.1912</v>
       </c>
       <c r="G164" t="n">
-        <v>-14716760.16535074</v>
-      </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H164" t="inlineStr"/>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="n">
-        <v>1</v>
-      </c>
-      <c r="M164" t="inlineStr"/>
+      <c r="K164" t="n">
+        <v>1</v>
+      </c>
+      <c r="L164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -5827,18 +5501,15 @@
         <v>31473.4845</v>
       </c>
       <c r="G165" t="n">
-        <v>-14685286.68085074</v>
-      </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H165" t="inlineStr"/>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="n">
-        <v>1</v>
-      </c>
-      <c r="M165" t="inlineStr"/>
+      <c r="K165" t="n">
+        <v>1</v>
+      </c>
+      <c r="L165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -5860,18 +5531,15 @@
         <v>5038.5738</v>
       </c>
       <c r="G166" t="n">
-        <v>-14680248.10705074</v>
-      </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H166" t="inlineStr"/>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
-      <c r="L166" t="n">
-        <v>1</v>
-      </c>
-      <c r="M166" t="inlineStr"/>
+      <c r="K166" t="n">
+        <v>1</v>
+      </c>
+      <c r="L166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -5893,18 +5561,15 @@
         <v>450089.1954</v>
       </c>
       <c r="G167" t="n">
-        <v>-15130337.30245074</v>
-      </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H167" t="inlineStr"/>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="n">
-        <v>1</v>
-      </c>
-      <c r="M167" t="inlineStr"/>
+      <c r="K167" t="n">
+        <v>1</v>
+      </c>
+      <c r="L167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -5926,18 +5591,15 @@
         <v>8502.590099999999</v>
       </c>
       <c r="G168" t="n">
-        <v>-15130337.30245074</v>
-      </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H168" t="inlineStr"/>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
-      <c r="L168" t="n">
-        <v>1</v>
-      </c>
-      <c r="M168" t="inlineStr"/>
+      <c r="K168" t="n">
+        <v>1</v>
+      </c>
+      <c r="L168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -5959,18 +5621,15 @@
         <v>596809.9054</v>
       </c>
       <c r="G169" t="n">
-        <v>-14533527.39705074</v>
-      </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H169" t="inlineStr"/>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
-      <c r="L169" t="n">
-        <v>1</v>
-      </c>
-      <c r="M169" t="inlineStr"/>
+      <c r="K169" t="n">
+        <v>1</v>
+      </c>
+      <c r="L169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -5992,18 +5651,15 @@
         <v>17558.6492</v>
       </c>
       <c r="G170" t="n">
-        <v>-14533527.39705074</v>
-      </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H170" t="inlineStr"/>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
-      <c r="L170" t="n">
-        <v>1</v>
-      </c>
-      <c r="M170" t="inlineStr"/>
+      <c r="K170" t="n">
+        <v>1</v>
+      </c>
+      <c r="L170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6025,18 +5681,15 @@
         <v>25342.7292</v>
       </c>
       <c r="G171" t="n">
-        <v>-14533527.39705074</v>
-      </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H171" t="inlineStr"/>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
-      <c r="L171" t="n">
-        <v>1</v>
-      </c>
-      <c r="M171" t="inlineStr"/>
+      <c r="K171" t="n">
+        <v>1</v>
+      </c>
+      <c r="L171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6058,18 +5711,15 @@
         <v>216000.4204</v>
       </c>
       <c r="G172" t="n">
-        <v>-14533527.39705074</v>
-      </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H172" t="inlineStr"/>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
-      <c r="L172" t="n">
-        <v>1</v>
-      </c>
-      <c r="M172" t="inlineStr"/>
+      <c r="K172" t="n">
+        <v>1</v>
+      </c>
+      <c r="L172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6091,18 +5741,15 @@
         <v>20300.6894</v>
       </c>
       <c r="G173" t="n">
-        <v>-14533527.39705074</v>
-      </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H173" t="inlineStr"/>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
-      <c r="L173" t="n">
-        <v>1</v>
-      </c>
-      <c r="M173" t="inlineStr"/>
+      <c r="K173" t="n">
+        <v>1</v>
+      </c>
+      <c r="L173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6124,18 +5771,15 @@
         <v>29855.7268</v>
       </c>
       <c r="G174" t="n">
-        <v>-14563383.12385074</v>
-      </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H174" t="inlineStr"/>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
-      <c r="L174" t="n">
-        <v>1</v>
-      </c>
-      <c r="M174" t="inlineStr"/>
+      <c r="K174" t="n">
+        <v>1</v>
+      </c>
+      <c r="L174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -6157,18 +5801,15 @@
         <v>1289193.1886</v>
       </c>
       <c r="G175" t="n">
-        <v>-13274189.93525074</v>
-      </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H175" t="inlineStr"/>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
-      <c r="L175" t="n">
-        <v>1</v>
-      </c>
-      <c r="M175" t="inlineStr"/>
+      <c r="K175" t="n">
+        <v>1</v>
+      </c>
+      <c r="L175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -6190,18 +5831,15 @@
         <v>70619.02340000001</v>
       </c>
       <c r="G176" t="n">
-        <v>-13274189.93525074</v>
-      </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H176" t="inlineStr"/>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
-      <c r="L176" t="n">
-        <v>1</v>
-      </c>
-      <c r="M176" t="inlineStr"/>
+      <c r="K176" t="n">
+        <v>1</v>
+      </c>
+      <c r="L176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -6223,18 +5861,15 @@
         <v>464094.8782</v>
       </c>
       <c r="G177" t="n">
-        <v>-13738284.81345074</v>
-      </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H177" t="inlineStr"/>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
-      <c r="L177" t="n">
-        <v>1</v>
-      </c>
-      <c r="M177" t="inlineStr"/>
+      <c r="K177" t="n">
+        <v>1</v>
+      </c>
+      <c r="L177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -6256,18 +5891,15 @@
         <v>58932.6431</v>
       </c>
       <c r="G178" t="n">
-        <v>-13679352.17035074</v>
-      </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H178" t="inlineStr"/>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
-      <c r="L178" t="n">
-        <v>1</v>
-      </c>
-      <c r="M178" t="inlineStr"/>
+      <c r="K178" t="n">
+        <v>1</v>
+      </c>
+      <c r="L178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -6289,18 +5921,15 @@
         <v>6108.3885</v>
       </c>
       <c r="G179" t="n">
-        <v>-13673243.78185074</v>
-      </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H179" t="inlineStr"/>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
-      <c r="L179" t="n">
-        <v>1</v>
-      </c>
-      <c r="M179" t="inlineStr"/>
+      <c r="K179" t="n">
+        <v>1</v>
+      </c>
+      <c r="L179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -6322,18 +5951,15 @@
         <v>257974.1378</v>
       </c>
       <c r="G180" t="n">
-        <v>-13931217.91965074</v>
-      </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H180" t="inlineStr"/>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
-      <c r="L180" t="n">
-        <v>1</v>
-      </c>
-      <c r="M180" t="inlineStr"/>
+      <c r="K180" t="n">
+        <v>1</v>
+      </c>
+      <c r="L180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -6355,18 +5981,15 @@
         <v>20</v>
       </c>
       <c r="G181" t="n">
-        <v>-13931197.91965074</v>
-      </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H181" t="inlineStr"/>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
-      <c r="L181" t="n">
-        <v>1</v>
-      </c>
-      <c r="M181" t="inlineStr"/>
+      <c r="K181" t="n">
+        <v>1</v>
+      </c>
+      <c r="L181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -6388,18 +6011,15 @@
         <v>481928.357</v>
       </c>
       <c r="G182" t="n">
-        <v>-13449269.56265074</v>
-      </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H182" t="inlineStr"/>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
-      <c r="L182" t="n">
-        <v>1</v>
-      </c>
-      <c r="M182" t="inlineStr"/>
+      <c r="K182" t="n">
+        <v>1</v>
+      </c>
+      <c r="L182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -6421,18 +6041,15 @@
         <v>15112</v>
       </c>
       <c r="G183" t="n">
-        <v>-13434157.56265074</v>
-      </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H183" t="inlineStr"/>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
-      <c r="L183" t="n">
-        <v>1</v>
-      </c>
-      <c r="M183" t="inlineStr"/>
+      <c r="K183" t="n">
+        <v>1</v>
+      </c>
+      <c r="L183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -6454,18 +6071,15 @@
         <v>492187.777</v>
       </c>
       <c r="G184" t="n">
-        <v>-12941969.78565074</v>
-      </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H184" t="inlineStr"/>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
-      <c r="L184" t="n">
-        <v>1</v>
-      </c>
-      <c r="M184" t="inlineStr"/>
+      <c r="K184" t="n">
+        <v>1</v>
+      </c>
+      <c r="L184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -6487,18 +6101,15 @@
         <v>492158.0842</v>
       </c>
       <c r="G185" t="n">
-        <v>-13434127.86985074</v>
-      </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H185" t="inlineStr"/>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
-      <c r="L185" t="n">
-        <v>1</v>
-      </c>
-      <c r="M185" t="inlineStr"/>
+      <c r="K185" t="n">
+        <v>1</v>
+      </c>
+      <c r="L185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -6520,18 +6131,15 @@
         <v>216872.8691</v>
       </c>
       <c r="G186" t="n">
-        <v>-13217255.00075074</v>
-      </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H186" t="inlineStr"/>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
-      <c r="L186" t="n">
-        <v>1</v>
-      </c>
-      <c r="M186" t="inlineStr"/>
+      <c r="K186" t="n">
+        <v>1</v>
+      </c>
+      <c r="L186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -6553,18 +6161,15 @@
         <v>268051.4885</v>
       </c>
       <c r="G187" t="n">
-        <v>-13485306.48925074</v>
-      </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H187" t="inlineStr"/>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
-      <c r="L187" t="n">
-        <v>1</v>
-      </c>
-      <c r="M187" t="inlineStr"/>
+      <c r="K187" t="n">
+        <v>1</v>
+      </c>
+      <c r="L187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -6586,18 +6191,15 @@
         <v>994676.0965</v>
       </c>
       <c r="G188" t="n">
-        <v>-12490630.39275074</v>
-      </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H188" t="inlineStr"/>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
-      <c r="L188" t="n">
-        <v>1</v>
-      </c>
-      <c r="M188" t="inlineStr"/>
+      <c r="K188" t="n">
+        <v>1</v>
+      </c>
+      <c r="L188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -6619,18 +6221,15 @@
         <v>1157557.5942</v>
       </c>
       <c r="G189" t="n">
-        <v>-12490630.39275074</v>
-      </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H189" t="inlineStr"/>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
-      <c r="L189" t="n">
-        <v>1</v>
-      </c>
-      <c r="M189" t="inlineStr"/>
+      <c r="K189" t="n">
+        <v>1</v>
+      </c>
+      <c r="L189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -6652,18 +6251,15 @@
         <v>6103.1176</v>
       </c>
       <c r="G190" t="n">
-        <v>-12490630.39275074</v>
-      </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H190" t="inlineStr"/>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
-      <c r="L190" t="n">
-        <v>1</v>
-      </c>
-      <c r="M190" t="inlineStr"/>
+      <c r="K190" t="n">
+        <v>1</v>
+      </c>
+      <c r="L190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -6685,18 +6281,15 @@
         <v>154673.5313</v>
       </c>
       <c r="G191" t="n">
-        <v>-12645303.92405074</v>
-      </c>
-      <c r="H191" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H191" t="inlineStr"/>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
-      <c r="L191" t="n">
-        <v>1</v>
-      </c>
-      <c r="M191" t="inlineStr"/>
+      <c r="K191" t="n">
+        <v>1</v>
+      </c>
+      <c r="L191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -6718,18 +6311,15 @@
         <v>10</v>
       </c>
       <c r="G192" t="n">
-        <v>-12645293.92405074</v>
-      </c>
-      <c r="H192" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H192" t="inlineStr"/>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
-      <c r="L192" t="n">
-        <v>1</v>
-      </c>
-      <c r="M192" t="inlineStr"/>
+      <c r="K192" t="n">
+        <v>1</v>
+      </c>
+      <c r="L192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -6751,18 +6341,15 @@
         <v>55380</v>
       </c>
       <c r="G193" t="n">
-        <v>-12645293.92405074</v>
-      </c>
-      <c r="H193" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H193" t="inlineStr"/>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
-      <c r="L193" t="n">
-        <v>1</v>
-      </c>
-      <c r="M193" t="inlineStr"/>
+      <c r="K193" t="n">
+        <v>1</v>
+      </c>
+      <c r="L193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -6784,18 +6371,15 @@
         <v>60546.8045</v>
       </c>
       <c r="G194" t="n">
-        <v>-12645293.92405074</v>
-      </c>
-      <c r="H194" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H194" t="inlineStr"/>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
-      <c r="L194" t="n">
-        <v>1</v>
-      </c>
-      <c r="M194" t="inlineStr"/>
+      <c r="K194" t="n">
+        <v>1</v>
+      </c>
+      <c r="L194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -6817,18 +6401,15 @@
         <v>315919.5261</v>
       </c>
       <c r="G195" t="n">
-        <v>-12645293.92405074</v>
-      </c>
-      <c r="H195" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H195" t="inlineStr"/>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
-      <c r="L195" t="n">
-        <v>1</v>
-      </c>
-      <c r="M195" t="inlineStr"/>
+      <c r="K195" t="n">
+        <v>1</v>
+      </c>
+      <c r="L195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -6850,18 +6431,15 @@
         <v>208512.3932</v>
       </c>
       <c r="G196" t="n">
-        <v>-12645293.92405074</v>
-      </c>
-      <c r="H196" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H196" t="inlineStr"/>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
-      <c r="L196" t="n">
-        <v>1</v>
-      </c>
-      <c r="M196" t="inlineStr"/>
+      <c r="K196" t="n">
+        <v>1</v>
+      </c>
+      <c r="L196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -6883,18 +6461,15 @@
         <v>291688.1849</v>
       </c>
       <c r="G197" t="n">
-        <v>-12353605.73915074</v>
-      </c>
-      <c r="H197" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H197" t="inlineStr"/>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
-      <c r="L197" t="n">
-        <v>1</v>
-      </c>
-      <c r="M197" t="inlineStr"/>
+      <c r="K197" t="n">
+        <v>1</v>
+      </c>
+      <c r="L197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -6916,18 +6491,15 @@
         <v>10320.0668</v>
       </c>
       <c r="G198" t="n">
-        <v>-12363925.80595074</v>
-      </c>
-      <c r="H198" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H198" t="inlineStr"/>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
-      <c r="L198" t="n">
-        <v>1</v>
-      </c>
-      <c r="M198" t="inlineStr"/>
+      <c r="K198" t="n">
+        <v>1</v>
+      </c>
+      <c r="L198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -6949,18 +6521,15 @@
         <v>90020</v>
       </c>
       <c r="G199" t="n">
-        <v>-12273905.80595074</v>
-      </c>
-      <c r="H199" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H199" t="inlineStr"/>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
-      <c r="L199" t="n">
-        <v>1</v>
-      </c>
-      <c r="M199" t="inlineStr"/>
+      <c r="K199" t="n">
+        <v>1</v>
+      </c>
+      <c r="L199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -6982,18 +6551,15 @@
         <v>80010</v>
       </c>
       <c r="G200" t="n">
-        <v>-12353915.80595074</v>
-      </c>
-      <c r="H200" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H200" t="inlineStr"/>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
-      <c r="L200" t="n">
-        <v>1</v>
-      </c>
-      <c r="M200" t="inlineStr"/>
+      <c r="K200" t="n">
+        <v>1</v>
+      </c>
+      <c r="L200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -7015,18 +6581,15 @@
         <v>100020</v>
       </c>
       <c r="G201" t="n">
-        <v>-12253895.80595074</v>
-      </c>
-      <c r="H201" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H201" t="inlineStr"/>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
-      <c r="L201" t="n">
-        <v>1</v>
-      </c>
-      <c r="M201" t="inlineStr"/>
+      <c r="K201" t="n">
+        <v>1</v>
+      </c>
+      <c r="L201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -7048,18 +6611,15 @@
         <v>86435.61259999999</v>
       </c>
       <c r="G202" t="n">
-        <v>-12340331.41855074</v>
-      </c>
-      <c r="H202" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H202" t="inlineStr"/>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
-      <c r="L202" t="n">
-        <v>1</v>
-      </c>
-      <c r="M202" t="inlineStr"/>
+      <c r="K202" t="n">
+        <v>1</v>
+      </c>
+      <c r="L202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -7081,18 +6641,15 @@
         <v>100010</v>
       </c>
       <c r="G203" t="n">
-        <v>-12240321.41855074</v>
-      </c>
-      <c r="H203" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H203" t="inlineStr"/>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
-      <c r="L203" t="n">
-        <v>1</v>
-      </c>
-      <c r="M203" t="inlineStr"/>
+      <c r="K203" t="n">
+        <v>1</v>
+      </c>
+      <c r="L203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -7114,18 +6671,15 @@
         <v>268828.4271</v>
       </c>
       <c r="G204" t="n">
-        <v>-12509149.84565074</v>
-      </c>
-      <c r="H204" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H204" t="inlineStr"/>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
-      <c r="L204" t="n">
-        <v>1</v>
-      </c>
-      <c r="M204" t="inlineStr"/>
+      <c r="K204" t="n">
+        <v>1</v>
+      </c>
+      <c r="L204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -7147,18 +6701,15 @@
         <v>125722</v>
       </c>
       <c r="G205" t="n">
-        <v>-12634871.84565074</v>
-      </c>
-      <c r="H205" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H205" t="inlineStr"/>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
-      <c r="L205" t="n">
-        <v>1</v>
-      </c>
-      <c r="M205" t="inlineStr"/>
+      <c r="K205" t="n">
+        <v>1</v>
+      </c>
+      <c r="L205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -7180,18 +6731,15 @@
         <v>60870</v>
       </c>
       <c r="G206" t="n">
-        <v>-12634871.84565074</v>
-      </c>
-      <c r="H206" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H206" t="inlineStr"/>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
-      <c r="L206" t="n">
-        <v>1</v>
-      </c>
-      <c r="M206" t="inlineStr"/>
+      <c r="K206" t="n">
+        <v>1</v>
+      </c>
+      <c r="L206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -7213,18 +6761,15 @@
         <v>10</v>
       </c>
       <c r="G207" t="n">
-        <v>-12634861.84565074</v>
-      </c>
-      <c r="H207" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H207" t="inlineStr"/>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
-      <c r="L207" t="n">
-        <v>1</v>
-      </c>
-      <c r="M207" t="inlineStr"/>
+      <c r="K207" t="n">
+        <v>1</v>
+      </c>
+      <c r="L207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -7246,18 +6791,15 @@
         <v>14651</v>
       </c>
       <c r="G208" t="n">
-        <v>-12649512.84565074</v>
-      </c>
-      <c r="H208" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H208" t="inlineStr"/>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
-      <c r="L208" t="n">
-        <v>1</v>
-      </c>
-      <c r="M208" t="inlineStr"/>
+      <c r="K208" t="n">
+        <v>1</v>
+      </c>
+      <c r="L208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -7279,18 +6821,15 @@
         <v>51857.2996</v>
       </c>
       <c r="G209" t="n">
-        <v>-12597655.54605074</v>
-      </c>
-      <c r="H209" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H209" t="inlineStr"/>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
-      <c r="L209" t="n">
-        <v>1</v>
-      </c>
-      <c r="M209" t="inlineStr"/>
+      <c r="K209" t="n">
+        <v>1</v>
+      </c>
+      <c r="L209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -7312,18 +6851,15 @@
         <v>34893</v>
       </c>
       <c r="G210" t="n">
-        <v>-12562762.54605074</v>
-      </c>
-      <c r="H210" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H210" t="inlineStr"/>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
-      <c r="L210" t="n">
-        <v>1</v>
-      </c>
-      <c r="M210" t="inlineStr"/>
+      <c r="K210" t="n">
+        <v>1</v>
+      </c>
+      <c r="L210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -7345,18 +6881,15 @@
         <v>52893.6403</v>
       </c>
       <c r="G211" t="n">
-        <v>-12509868.90575074</v>
-      </c>
-      <c r="H211" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H211" t="inlineStr"/>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
-      <c r="L211" t="n">
-        <v>1</v>
-      </c>
-      <c r="M211" t="inlineStr"/>
+      <c r="K211" t="n">
+        <v>1</v>
+      </c>
+      <c r="L211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -7378,18 +6911,15 @@
         <v>80921.10129999999</v>
       </c>
       <c r="G212" t="n">
-        <v>-12590790.00705074</v>
-      </c>
-      <c r="H212" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H212" t="inlineStr"/>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
-      <c r="L212" t="n">
-        <v>1</v>
-      </c>
-      <c r="M212" t="inlineStr"/>
+      <c r="K212" t="n">
+        <v>1</v>
+      </c>
+      <c r="L212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -7411,18 +6941,15 @@
         <v>9723.546200000001</v>
       </c>
       <c r="G213" t="n">
-        <v>-12600513.55325074</v>
-      </c>
-      <c r="H213" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H213" t="inlineStr"/>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
-      <c r="L213" t="n">
-        <v>1</v>
-      </c>
-      <c r="M213" t="inlineStr"/>
+      <c r="K213" t="n">
+        <v>1</v>
+      </c>
+      <c r="L213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -7444,18 +6971,15 @@
         <v>15081.9999</v>
       </c>
       <c r="G214" t="n">
-        <v>-12585431.55335074</v>
-      </c>
-      <c r="H214" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H214" t="inlineStr"/>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
-      <c r="L214" t="n">
-        <v>1</v>
-      </c>
-      <c r="M214" t="inlineStr"/>
+      <c r="K214" t="n">
+        <v>1</v>
+      </c>
+      <c r="L214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -7477,18 +7001,15 @@
         <v>24749.9999</v>
       </c>
       <c r="G215" t="n">
-        <v>-12585431.55335074</v>
-      </c>
-      <c r="H215" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H215" t="inlineStr"/>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
-      <c r="L215" t="n">
-        <v>1</v>
-      </c>
-      <c r="M215" t="inlineStr"/>
+      <c r="K215" t="n">
+        <v>1</v>
+      </c>
+      <c r="L215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -7510,18 +7031,15 @@
         <v>9946.604499999999</v>
       </c>
       <c r="G216" t="n">
-        <v>-12585431.55335074</v>
-      </c>
-      <c r="H216" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H216" t="inlineStr"/>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
-      <c r="L216" t="n">
-        <v>1</v>
-      </c>
-      <c r="M216" t="inlineStr"/>
+      <c r="K216" t="n">
+        <v>1</v>
+      </c>
+      <c r="L216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -7543,18 +7061,15 @@
         <v>10</v>
       </c>
       <c r="G217" t="n">
-        <v>-12585421.55335074</v>
-      </c>
-      <c r="H217" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H217" t="inlineStr"/>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
-      <c r="L217" t="n">
-        <v>1</v>
-      </c>
-      <c r="M217" t="inlineStr"/>
+      <c r="K217" t="n">
+        <v>1</v>
+      </c>
+      <c r="L217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -7576,18 +7091,15 @@
         <v>91314.4507</v>
       </c>
       <c r="G218" t="n">
-        <v>-12676736.00405074</v>
-      </c>
-      <c r="H218" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H218" t="inlineStr"/>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
-      <c r="L218" t="n">
-        <v>1</v>
-      </c>
-      <c r="M218" t="inlineStr"/>
+      <c r="K218" t="n">
+        <v>1</v>
+      </c>
+      <c r="L218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -7609,18 +7121,15 @@
         <v>22075.0551</v>
       </c>
       <c r="G219" t="n">
-        <v>-12654660.94895074</v>
-      </c>
-      <c r="H219" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H219" t="inlineStr"/>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
-      <c r="L219" t="n">
-        <v>1</v>
-      </c>
-      <c r="M219" t="inlineStr"/>
+      <c r="K219" t="n">
+        <v>1</v>
+      </c>
+      <c r="L219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -7642,18 +7151,15 @@
         <v>56244.7866</v>
       </c>
       <c r="G220" t="n">
-        <v>-12654660.94895074</v>
-      </c>
-      <c r="H220" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H220" t="inlineStr"/>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
-      <c r="L220" t="n">
-        <v>1</v>
-      </c>
-      <c r="M220" t="inlineStr"/>
+      <c r="K220" t="n">
+        <v>1</v>
+      </c>
+      <c r="L220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -7675,18 +7181,15 @@
         <v>289035.7276</v>
       </c>
       <c r="G221" t="n">
-        <v>-12943696.67655074</v>
-      </c>
-      <c r="H221" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H221" t="inlineStr"/>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
-      <c r="L221" t="n">
-        <v>1</v>
-      </c>
-      <c r="M221" t="inlineStr"/>
+      <c r="K221" t="n">
+        <v>1</v>
+      </c>
+      <c r="L221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -7708,18 +7211,15 @@
         <v>82671.2687</v>
       </c>
       <c r="G222" t="n">
-        <v>-12943696.67655074</v>
-      </c>
-      <c r="H222" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H222" t="inlineStr"/>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
-      <c r="L222" t="n">
-        <v>1</v>
-      </c>
-      <c r="M222" t="inlineStr"/>
+      <c r="K222" t="n">
+        <v>1</v>
+      </c>
+      <c r="L222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -7741,18 +7241,15 @@
         <v>62573.7897</v>
       </c>
       <c r="G223" t="n">
-        <v>-13006270.46625074</v>
-      </c>
-      <c r="H223" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H223" t="inlineStr"/>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
-      <c r="L223" t="n">
-        <v>1</v>
-      </c>
-      <c r="M223" t="inlineStr"/>
+      <c r="K223" t="n">
+        <v>1</v>
+      </c>
+      <c r="L223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -7774,22 +7271,15 @@
         <v>2160.0005</v>
       </c>
       <c r="G224" t="n">
-        <v>-13004110.46575074</v>
-      </c>
-      <c r="H224" t="n">
-        <v>1</v>
-      </c>
-      <c r="I224" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="J224" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="K224" t="inlineStr"/>
-      <c r="L224" t="n">
-        <v>1</v>
-      </c>
-      <c r="M224" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H224" t="inlineStr"/>
+      <c r="I224" t="inlineStr"/>
+      <c r="J224" t="inlineStr"/>
+      <c r="K224" t="n">
+        <v>1</v>
+      </c>
+      <c r="L224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -7811,24 +7301,15 @@
         <v>222652.2492</v>
       </c>
       <c r="G225" t="n">
-        <v>-12781458.21655074</v>
-      </c>
-      <c r="H225" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H225" t="inlineStr"/>
       <c r="I225" t="inlineStr"/>
-      <c r="J225" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="K225" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L225" t="n">
-        <v>1</v>
-      </c>
-      <c r="M225" t="inlineStr"/>
+      <c r="J225" t="inlineStr"/>
+      <c r="K225" t="n">
+        <v>1</v>
+      </c>
+      <c r="L225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -7850,24 +7331,15 @@
         <v>41042.1978</v>
       </c>
       <c r="G226" t="n">
-        <v>-12822500.41435074</v>
-      </c>
-      <c r="H226" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H226" t="inlineStr"/>
       <c r="I226" t="inlineStr"/>
-      <c r="J226" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="K226" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L226" t="n">
-        <v>1</v>
-      </c>
-      <c r="M226" t="inlineStr"/>
+      <c r="J226" t="inlineStr"/>
+      <c r="K226" t="n">
+        <v>1</v>
+      </c>
+      <c r="L226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -7889,18 +7361,15 @@
         <v>18872.3076</v>
       </c>
       <c r="G227" t="n">
-        <v>-12822500.41435074</v>
-      </c>
-      <c r="H227" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H227" t="inlineStr"/>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
-      <c r="L227" t="n">
-        <v>1</v>
-      </c>
-      <c r="M227" t="inlineStr"/>
+      <c r="K227" t="n">
+        <v>1</v>
+      </c>
+      <c r="L227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -7922,18 +7391,15 @@
         <v>863.8702</v>
       </c>
       <c r="G228" t="n">
-        <v>-12823364.28455074</v>
-      </c>
-      <c r="H228" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H228" t="inlineStr"/>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
-      <c r="L228" t="n">
-        <v>1</v>
-      </c>
-      <c r="M228" t="inlineStr"/>
+      <c r="K228" t="n">
+        <v>1</v>
+      </c>
+      <c r="L228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -7955,18 +7421,15 @@
         <v>18825.1268</v>
       </c>
       <c r="G229" t="n">
-        <v>-12842189.41135074</v>
-      </c>
-      <c r="H229" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H229" t="inlineStr"/>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
-      <c r="L229" t="n">
-        <v>1</v>
-      </c>
-      <c r="M229" t="inlineStr"/>
+      <c r="K229" t="n">
+        <v>1</v>
+      </c>
+      <c r="L229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -7988,18 +7451,15 @@
         <v>13908.8283</v>
       </c>
       <c r="G230" t="n">
-        <v>-12828280.58305074</v>
-      </c>
-      <c r="H230" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H230" t="inlineStr"/>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
-      <c r="L230" t="n">
-        <v>1</v>
-      </c>
-      <c r="M230" t="inlineStr"/>
+      <c r="K230" t="n">
+        <v>1</v>
+      </c>
+      <c r="L230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -8021,24 +7481,15 @@
         <v>225917</v>
       </c>
       <c r="G231" t="n">
-        <v>-12828280.58305074</v>
-      </c>
-      <c r="H231" t="n">
-        <v>1</v>
-      </c>
-      <c r="I231" t="n">
-        <v>4.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H231" t="inlineStr"/>
+      <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="L231" t="n">
-        <v>1</v>
-      </c>
-      <c r="M231" t="inlineStr"/>
+      <c r="K231" t="n">
+        <v>1</v>
+      </c>
+      <c r="L231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
@@ -8060,24 +7511,15 @@
         <v>100405.4955</v>
       </c>
       <c r="G232" t="n">
-        <v>-12828280.58305074</v>
-      </c>
-      <c r="H232" t="n">
-        <v>1</v>
-      </c>
-      <c r="I232" t="n">
-        <v>4.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H232" t="inlineStr"/>
+      <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L232" t="n">
-        <v>1</v>
-      </c>
-      <c r="M232" t="inlineStr"/>
+      <c r="K232" t="n">
+        <v>1</v>
+      </c>
+      <c r="L232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
@@ -8099,24 +7541,15 @@
         <v>145976.6619</v>
       </c>
       <c r="G233" t="n">
-        <v>-12828280.58305074</v>
-      </c>
-      <c r="H233" t="n">
-        <v>1</v>
-      </c>
-      <c r="I233" t="n">
-        <v>4.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H233" t="inlineStr"/>
+      <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L233" t="n">
-        <v>1</v>
-      </c>
-      <c r="M233" t="inlineStr"/>
+      <c r="K233" t="n">
+        <v>1</v>
+      </c>
+      <c r="L233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
@@ -8138,24 +7571,15 @@
         <v>21058.9593</v>
       </c>
       <c r="G234" t="n">
-        <v>-12828280.58305074</v>
-      </c>
-      <c r="H234" t="n">
-        <v>1</v>
-      </c>
-      <c r="I234" t="n">
-        <v>4.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H234" t="inlineStr"/>
+      <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L234" t="n">
-        <v>1</v>
-      </c>
-      <c r="M234" t="inlineStr"/>
+      <c r="K234" t="n">
+        <v>1</v>
+      </c>
+      <c r="L234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
@@ -8177,22 +7601,15 @@
         <v>44150.11037527</v>
       </c>
       <c r="G235" t="n">
-        <v>-12784130.47267547</v>
-      </c>
-      <c r="H235" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H235" t="inlineStr"/>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L235" t="n">
-        <v>1</v>
-      </c>
-      <c r="M235" t="inlineStr"/>
+      <c r="K235" t="n">
+        <v>1</v>
+      </c>
+      <c r="L235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
@@ -8214,24 +7631,15 @@
         <v>90000</v>
       </c>
       <c r="G236" t="n">
-        <v>-12874130.47267547</v>
-      </c>
-      <c r="H236" t="n">
-        <v>1</v>
-      </c>
-      <c r="I236" t="n">
-        <v>4.53</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H236" t="inlineStr"/>
+      <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L236" t="n">
-        <v>1</v>
-      </c>
-      <c r="M236" t="inlineStr"/>
+      <c r="K236" t="n">
+        <v>1</v>
+      </c>
+      <c r="L236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
@@ -8253,24 +7661,15 @@
         <v>8330.3964</v>
       </c>
       <c r="G237" t="n">
-        <v>-12865800.07627547</v>
-      </c>
-      <c r="H237" t="n">
-        <v>1</v>
-      </c>
-      <c r="I237" t="n">
-        <v>4.47</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H237" t="inlineStr"/>
+      <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L237" t="n">
-        <v>1</v>
-      </c>
-      <c r="M237" t="inlineStr"/>
+      <c r="K237" t="n">
+        <v>1</v>
+      </c>
+      <c r="L237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
@@ -8292,22 +7691,15 @@
         <v>139801.3152</v>
       </c>
       <c r="G238" t="n">
-        <v>-12865800.07627547</v>
-      </c>
-      <c r="H238" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H238" t="inlineStr"/>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L238" t="n">
-        <v>1</v>
-      </c>
-      <c r="M238" t="inlineStr"/>
+      <c r="K238" t="n">
+        <v>1</v>
+      </c>
+      <c r="L238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
@@ -8329,22 +7721,15 @@
         <v>2288.5143</v>
       </c>
       <c r="G239" t="n">
-        <v>-12863511.56197547</v>
-      </c>
-      <c r="H239" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H239" t="inlineStr"/>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L239" t="n">
-        <v>1</v>
-      </c>
-      <c r="M239" t="inlineStr"/>
+      <c r="K239" t="n">
+        <v>1</v>
+      </c>
+      <c r="L239" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
@@ -8366,22 +7751,15 @@
         <v>230033.3876</v>
       </c>
       <c r="G240" t="n">
-        <v>-12633478.17437547</v>
-      </c>
-      <c r="H240" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H240" t="inlineStr"/>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L240" t="n">
-        <v>1</v>
-      </c>
-      <c r="M240" t="inlineStr"/>
+      <c r="K240" t="n">
+        <v>1</v>
+      </c>
+      <c r="L240" t="inlineStr"/>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
@@ -8403,24 +7781,15 @@
         <v>20697.8118</v>
       </c>
       <c r="G241" t="n">
-        <v>-12633478.17437547</v>
-      </c>
-      <c r="H241" t="n">
-        <v>1</v>
-      </c>
-      <c r="I241" t="n">
-        <v>4.57</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H241" t="inlineStr"/>
+      <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L241" t="n">
-        <v>1</v>
-      </c>
-      <c r="M241" t="inlineStr"/>
+      <c r="K241" t="n">
+        <v>1</v>
+      </c>
+      <c r="L241" t="inlineStr"/>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
@@ -8442,24 +7811,15 @@
         <v>20675.286</v>
       </c>
       <c r="G242" t="n">
-        <v>-12633478.17437547</v>
-      </c>
-      <c r="H242" t="n">
-        <v>1</v>
-      </c>
-      <c r="I242" t="n">
-        <v>4.57</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H242" t="inlineStr"/>
+      <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L242" t="n">
-        <v>1</v>
-      </c>
-      <c r="M242" t="inlineStr"/>
+      <c r="K242" t="n">
+        <v>1</v>
+      </c>
+      <c r="L242" t="inlineStr"/>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
@@ -8481,24 +7841,15 @@
         <v>10447.4835</v>
       </c>
       <c r="G243" t="n">
-        <v>-12633478.17437547</v>
-      </c>
-      <c r="H243" t="n">
-        <v>1</v>
-      </c>
-      <c r="I243" t="n">
-        <v>4.57</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H243" t="inlineStr"/>
+      <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L243" t="n">
-        <v>1</v>
-      </c>
-      <c r="M243" t="inlineStr"/>
+      <c r="K243" t="n">
+        <v>1</v>
+      </c>
+      <c r="L243" t="inlineStr"/>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
@@ -8520,24 +7871,15 @@
         <v>80910.47349999999</v>
       </c>
       <c r="G244" t="n">
-        <v>-12714388.64787547</v>
-      </c>
-      <c r="H244" t="n">
-        <v>1</v>
-      </c>
-      <c r="I244" t="n">
-        <v>4.57</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H244" t="inlineStr"/>
+      <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L244" t="n">
-        <v>1</v>
-      </c>
-      <c r="M244" t="inlineStr"/>
+      <c r="K244" t="n">
+        <v>1</v>
+      </c>
+      <c r="L244" t="inlineStr"/>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
@@ -8559,24 +7901,15 @@
         <v>1918.5853</v>
       </c>
       <c r="G245" t="n">
-        <v>-12712470.06257547</v>
-      </c>
-      <c r="H245" t="n">
-        <v>1</v>
-      </c>
-      <c r="I245" t="n">
-        <v>4.56</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H245" t="inlineStr"/>
+      <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L245" t="n">
-        <v>1</v>
-      </c>
-      <c r="M245" t="inlineStr"/>
+      <c r="K245" t="n">
+        <v>1</v>
+      </c>
+      <c r="L245" t="inlineStr"/>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
@@ -8598,24 +7931,15 @@
         <v>139606</v>
       </c>
       <c r="G246" t="n">
-        <v>-12852076.06257547</v>
-      </c>
-      <c r="H246" t="n">
-        <v>1</v>
-      </c>
-      <c r="I246" t="n">
-        <v>4.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H246" t="inlineStr"/>
+      <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L246" t="n">
-        <v>1</v>
-      </c>
-      <c r="M246" t="inlineStr"/>
+      <c r="K246" t="n">
+        <v>1</v>
+      </c>
+      <c r="L246" t="inlineStr"/>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
@@ -8637,24 +7961,15 @@
         <v>474497.3426</v>
       </c>
       <c r="G247" t="n">
-        <v>-12377578.71997547</v>
-      </c>
-      <c r="H247" t="n">
-        <v>1</v>
-      </c>
-      <c r="I247" t="n">
-        <v>4.57</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H247" t="inlineStr"/>
+      <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L247" t="n">
-        <v>1</v>
-      </c>
-      <c r="M247" t="inlineStr"/>
+      <c r="K247" t="n">
+        <v>1</v>
+      </c>
+      <c r="L247" t="inlineStr"/>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
@@ -8676,24 +7991,15 @@
         <v>483336.3741</v>
       </c>
       <c r="G248" t="n">
-        <v>-12860915.09407547</v>
-      </c>
-      <c r="H248" t="n">
-        <v>1</v>
-      </c>
-      <c r="I248" t="n">
-        <v>4.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H248" t="inlineStr"/>
+      <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L248" t="n">
-        <v>1</v>
-      </c>
-      <c r="M248" t="inlineStr"/>
+      <c r="K248" t="n">
+        <v>1</v>
+      </c>
+      <c r="L248" t="inlineStr"/>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
@@ -8715,24 +8021,15 @@
         <v>5263</v>
       </c>
       <c r="G249" t="n">
-        <v>-12860915.09407547</v>
-      </c>
-      <c r="H249" t="n">
-        <v>1</v>
-      </c>
-      <c r="I249" t="n">
-        <v>4.58</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H249" t="inlineStr"/>
+      <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L249" t="n">
-        <v>1</v>
-      </c>
-      <c r="M249" t="inlineStr"/>
+      <c r="K249" t="n">
+        <v>1</v>
+      </c>
+      <c r="L249" t="inlineStr"/>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
@@ -8754,24 +8051,15 @@
         <v>87538.5704</v>
       </c>
       <c r="G250" t="n">
-        <v>-12948453.66447547</v>
-      </c>
-      <c r="H250" t="n">
-        <v>1</v>
-      </c>
-      <c r="I250" t="n">
-        <v>4.58</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H250" t="inlineStr"/>
+      <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L250" t="n">
-        <v>1</v>
-      </c>
-      <c r="M250" t="inlineStr"/>
+      <c r="K250" t="n">
+        <v>1</v>
+      </c>
+      <c r="L250" t="inlineStr"/>
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
@@ -8793,22 +8081,15 @@
         <v>11814.9894</v>
       </c>
       <c r="G251" t="n">
-        <v>-12960268.65387547</v>
-      </c>
-      <c r="H251" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H251" t="inlineStr"/>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L251" t="n">
-        <v>1</v>
-      </c>
-      <c r="M251" t="inlineStr"/>
+      <c r="K251" t="n">
+        <v>1</v>
+      </c>
+      <c r="L251" t="inlineStr"/>
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
@@ -8830,24 +8111,15 @@
         <v>188399.3988</v>
       </c>
       <c r="G252" t="n">
-        <v>-13148668.05267547</v>
-      </c>
-      <c r="H252" t="n">
-        <v>1</v>
-      </c>
-      <c r="I252" t="n">
-        <v>4.56</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H252" t="inlineStr"/>
+      <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L252" t="n">
-        <v>1</v>
-      </c>
-      <c r="M252" t="inlineStr"/>
+      <c r="K252" t="n">
+        <v>1</v>
+      </c>
+      <c r="L252" t="inlineStr"/>
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
@@ -8869,24 +8141,15 @@
         <v>38606</v>
       </c>
       <c r="G253" t="n">
-        <v>-13148668.05267547</v>
-      </c>
-      <c r="H253" t="n">
-        <v>1</v>
-      </c>
-      <c r="I253" t="n">
-        <v>4.52</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H253" t="inlineStr"/>
+      <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L253" t="n">
-        <v>1</v>
-      </c>
-      <c r="M253" t="inlineStr"/>
+      <c r="K253" t="n">
+        <v>1</v>
+      </c>
+      <c r="L253" t="inlineStr"/>
     </row>
     <row r="254">
       <c r="A254" s="1" t="n">
@@ -8908,24 +8171,15 @@
         <v>142024.8793</v>
       </c>
       <c r="G254" t="n">
-        <v>-13290692.93197547</v>
-      </c>
-      <c r="H254" t="n">
-        <v>1</v>
-      </c>
-      <c r="I254" t="n">
-        <v>4.52</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H254" t="inlineStr"/>
+      <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L254" t="n">
-        <v>1</v>
-      </c>
-      <c r="M254" t="inlineStr"/>
+      <c r="K254" t="n">
+        <v>1</v>
+      </c>
+      <c r="L254" t="inlineStr"/>
     </row>
     <row r="255">
       <c r="A255" s="1" t="n">
@@ -8947,24 +8201,15 @@
         <v>22455.34</v>
       </c>
       <c r="G255" t="n">
-        <v>-13290692.93197547</v>
-      </c>
-      <c r="H255" t="n">
-        <v>1</v>
-      </c>
-      <c r="I255" t="n">
-        <v>4.49</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H255" t="inlineStr"/>
+      <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L255" t="n">
-        <v>1</v>
-      </c>
-      <c r="M255" t="inlineStr"/>
+      <c r="K255" t="n">
+        <v>1</v>
+      </c>
+      <c r="L255" t="inlineStr"/>
     </row>
     <row r="256">
       <c r="A256" s="1" t="n">
@@ -8986,24 +8231,15 @@
         <v>1247869.4223</v>
       </c>
       <c r="G256" t="n">
-        <v>-14538562.35427547</v>
-      </c>
-      <c r="H256" t="n">
-        <v>1</v>
-      </c>
-      <c r="I256" t="n">
-        <v>4.49</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H256" t="inlineStr"/>
+      <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L256" t="n">
-        <v>1</v>
-      </c>
-      <c r="M256" t="inlineStr"/>
+      <c r="K256" t="n">
+        <v>1</v>
+      </c>
+      <c r="L256" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
